--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -40,126 +40,126 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
     <t>A0HA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
     <t>A0P4</t>
   </si>
   <si>
+    <t>A3JX</t>
+  </si>
+  <si>
     <t>A3LM</t>
   </si>
   <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>A29S</t>
-  </si>
-  <si>
-    <t>A3JX</t>
+    <t>D519</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>E270</t>
   </si>
   <si>
     <t>E302</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>D519</t>
-  </si>
-  <si>
-    <t>E270</t>
+    <t>D941</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>A3IL</t>
   </si>
   <si>
     <t>H716</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
+    <t>A3SK</t>
   </si>
   <si>
     <t>G397</t>
   </si>
   <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>A3SK</t>
-  </si>
-  <si>
-    <t>A3IL</t>
+    <t>I540</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>H125</t>
   </si>
   <si>
     <t>H101</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>H125</t>
-  </si>
-  <si>
-    <t>I540</t>
+    <t>I238</t>
   </si>
   <si>
     <t>A3DS</t>
   </si>
   <si>
-    <t>I238</t>
+    <t>A2UN</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>E436</t>
+  </si>
+  <si>
+    <t>B797</t>
   </si>
   <si>
     <t>D826</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
-    <t>E436</t>
-  </si>
-  <si>
-    <t>A2UN</t>
+    <t>E877</t>
   </si>
   <si>
     <t>A1ZX</t>
   </si>
   <si>
-    <t>E877</t>
-  </si>
-  <si>
-    <t>B797</t>
-  </si>
-  <si>
     <t>J185</t>
   </si>
   <si>
@@ -172,129 +172,129 @@
     <t>A1T8</t>
   </si>
   <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
+    <t>J024</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
     <t>A3L3</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>G076</t>
+    <t>E950</t>
   </si>
   <si>
     <t>H620</t>
   </si>
   <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>J024</t>
+    <t>B924</t>
   </si>
   <si>
     <t>E471</t>
   </si>
   <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>I762</t>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>J071</t>
+  </si>
+  <si>
+    <t>A3M3</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>A1FE</t>
+  </si>
+  <si>
+    <t>B341</t>
   </si>
   <si>
     <t>A3M1</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>J071</t>
+    <t>D071</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>A3S9</t>
+  </si>
+  <si>
+    <t>A3PB</t>
+  </si>
+  <si>
+    <t>I563</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>A2TY</t>
+  </si>
+  <si>
+    <t>A2KR</t>
+  </si>
+  <si>
+    <t>A3PT</t>
   </si>
   <si>
     <t>A3SA</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>I563</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>D071</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A3M3</t>
-  </si>
-  <si>
-    <t>A3PB</t>
-  </si>
-  <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>A2KR</t>
+    <t>G327</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
   </si>
   <si>
     <t>A29N</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>G327</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
@@ -307,21 +307,21 @@
     <t>Purg Sports Resort</t>
   </si>
   <si>
+    <t>E181</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
     <t>E655</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
     <t>A2LP</t>
   </si>
   <si>
-    <t>E181</t>
-  </si>
-  <si>
     <t>I216</t>
   </si>
   <si>
@@ -343,24 +343,24 @@
     <t>Waffle Cabin</t>
   </si>
   <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A3PX</t>
+  </si>
+  <si>
+    <t>A3FO</t>
+  </si>
+  <si>
     <t>G724</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A36T</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>A3FO</t>
-  </si>
-  <si>
     <t>J335</t>
   </si>
   <si>
@@ -370,102 +370,102 @@
     <t>Paradise</t>
   </si>
   <si>
+    <t>I517</t>
+  </si>
+  <si>
     <t>A1MU</t>
   </si>
   <si>
-    <t>I517</t>
-  </si>
-  <si>
     <t>J434</t>
   </si>
   <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A3ZI</t>
+  </si>
+  <si>
+    <t>A3VO</t>
+  </si>
+  <si>
+    <t>A2RM</t>
+  </si>
+  <si>
+    <t>A2SG</t>
+  </si>
+  <si>
+    <t>A2HN</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
     <t>A43Z</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A739</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>A3ZI</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>A2SG</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
     <t>D5209</t>
   </si>
   <si>
     <t>Village Market Deli</t>
   </si>
   <si>
+    <t>D283</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>A42C</t>
+  </si>
+  <si>
+    <t>A42D</t>
+  </si>
+  <si>
+    <t>A1N1</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
     <t>A3DX</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>A42C</t>
-  </si>
-  <si>
-    <t>A42D</t>
-  </si>
-  <si>
-    <t>F298</t>
+    <t>H341</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
   </si>
   <si>
     <t>J492</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
+    <t>I999</t>
   </si>
   <si>
     <t>A3DT</t>
   </si>
   <si>
-    <t>I999</t>
-  </si>
-  <si>
     <t>J489</t>
   </si>
   <si>
-    <t>H341</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -484,45 +484,45 @@
     <t>Security</t>
   </si>
   <si>
+    <t>A3HI</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
     <t>C516</t>
   </si>
   <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>A3HC</t>
   </si>
   <si>
-    <t>A3HI</t>
+    <t>E609</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>A37G</t>
+  </si>
+  <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A3PE</t>
   </si>
   <si>
     <t>A2UO</t>
   </si>
   <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>A3PE</t>
-  </si>
-  <si>
     <t>A1WB</t>
   </si>
   <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A37G</t>
-  </si>
-  <si>
     <t>A3N2</t>
   </si>
   <si>
@@ -532,18 +532,18 @@
     <t>Snow Removal</t>
   </si>
   <si>
+    <t>A03K</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
     <t>J483</t>
   </si>
   <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>A03K</t>
-  </si>
-  <si>
     <t>A1Z8</t>
   </si>
   <si>
@@ -556,13 +556,13 @@
     <t>G322</t>
   </si>
   <si>
+    <t>A3C3</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>A1BT</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>A3C3</t>
   </si>
   <si>
     <t>A39Q</t>
@@ -993,13 +993,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>45993.30665509259</v>
+        <v>45993.32325231482</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>45993.723125</v>
+        <v>45993.70679398148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1019,22 +1019,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.29910879629</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>45993.7230324074</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>19.57</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>45993.31125</v>
+        <v>45993.31658564815</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>45993.72252314815</v>
+        <v>45993.70996527778</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1068,16 +1068,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>45993.29893518519</v>
+        <v>45993.29910879629</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45993.70039351852</v>
+        <v>45993.7230324074</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>19.57</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>45993.31658564815</v>
+        <v>45993.30665509259</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>45993.70996527778</v>
+        <v>45993.723125</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1120,25 +1120,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.29166666666</v>
+        <v>45993.31125</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45993.29166666666</v>
+        <v>45993.72252314815</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1149,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>45993.32325231482</v>
+        <v>45993.29755787037</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45993.70679398148</v>
+        <v>45993.70832175926</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1175,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>45993.29755787037</v>
+        <v>45993.29893518519</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>45993.70832175926</v>
+        <v>45993.70039351852</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -1201,13 +1201,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>45993.27181712963</v>
+        <v>45993.27314814815</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>45993.70261574074</v>
+        <v>45993.70487268519</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="2">
-        <v>29.87</v>
+        <v>21.57</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
@@ -1227,13 +1227,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.27314814815</v>
+        <v>45993.26789351852</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>45993.70487268519</v>
+        <v>45993.70138888889</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1242,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="2">
-        <v>21.57</v>
+        <v>35.43</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
@@ -1253,13 +1253,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>45993.26789351852</v>
+        <v>45993.27181712963</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45993.70138888889</v>
+        <v>45993.70261574074</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>35.43</v>
+        <v>29.87</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -1279,13 +1279,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>45993.46209490741</v>
+        <v>45993.4521875</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>45993.97168981482</v>
+        <v>45994.0188425926</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1294,7 +1294,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="2">
-        <v>15</v>
+        <v>18.55</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
@@ -1305,18 +1305,22 @@
         <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.44041666666</v>
+        <v>45993.38255787037</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>45993.70826388889</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2">
-        <v>18.55</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
@@ -1327,13 +1331,13 @@
         <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>45993.4521875</v>
+        <v>45993.46209490741</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>45994.0188425926</v>
+        <v>45993.97168981482</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1342,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>28</v>
@@ -1379,22 +1383,18 @@
         <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>45993.38255787037</v>
+        <v>45993.44041666666</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
-        <v>45993.70826388889</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2">
-        <v>19</v>
+        <v>18.55</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>28</v>
@@ -1405,18 +1405,22 @@
         <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.3125</v>
+        <v>45993.31822916667</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2">
+        <v>45993.73927083334</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
-        <v>20</v>
+        <v>12.35</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>35</v>
@@ -1449,22 +1453,18 @@
         <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>45993.31822916667</v>
+        <v>45993.3125</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2">
-        <v>45993.73927083334</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2">
-        <v>12.35</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>35</v>
@@ -1475,13 +1475,13 @@
         <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>45993.3184375</v>
+        <v>45993.30012731482</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>45993.73899305556</v>
+        <v>45993.73251157408</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>35</v>
@@ -1501,13 +1501,13 @@
         <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>45993.30012731482</v>
+        <v>45993.3184375</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>45993.73251157408</v>
+        <v>45993.73899305556</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
         <v>34</v>
       </c>
       <c r="G22" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>35</v>
@@ -1527,13 +1527,13 @@
         <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>45993.28452546296</v>
+        <v>45993.47743055555</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>45993.72278935185</v>
+        <v>45993.95138888889</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -1542,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="G23" s="2">
-        <v>26</v>
+        <v>23.33</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>42</v>
@@ -1579,13 +1579,13 @@
         <v>44</v>
       </c>
       <c r="B25" s="2">
-        <v>45993.47743055555</v>
+        <v>45993.95633101852</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2">
-        <v>45993.95138888889</v>
+        <v>45994.46997685185</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -1594,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="G25" s="2">
-        <v>23.33</v>
+        <v>19.5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>42</v>
@@ -1605,13 +1605,13 @@
         <v>45</v>
       </c>
       <c r="B26" s="2">
-        <v>45993.97611111111</v>
+        <v>45993.28452546296</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>45994.45969907408</v>
+        <v>45993.72278935185</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1620,7 +1620,7 @@
         <v>41</v>
       </c>
       <c r="G26" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>42</v>
@@ -1653,13 +1653,13 @@
         <v>47</v>
       </c>
       <c r="B28" s="2">
-        <v>45993.95633101852</v>
+        <v>45993.97611111111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>45994.46997685185</v>
+        <v>45994.45969907408</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -1668,7 +1668,7 @@
         <v>41</v>
       </c>
       <c r="G28" s="2">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>42</v>
@@ -1731,13 +1731,13 @@
         <v>52</v>
       </c>
       <c r="B31" s="2">
-        <v>45993.31137731481</v>
+        <v>45993.32466435185</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45993.71450231481</v>
+        <v>45993.7155787037</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -1746,7 +1746,7 @@
         <v>53</v>
       </c>
       <c r="G31" s="2">
-        <v>19.03</v>
+        <v>23.84</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>54</v>
@@ -1757,13 +1757,13 @@
         <v>55</v>
       </c>
       <c r="B32" s="2">
-        <v>45993.32466435185</v>
+        <v>45993.44508101852</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2">
-        <v>45993.7155787037</v>
+        <v>45993.61892361111</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -1772,7 +1772,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="2">
-        <v>23.84</v>
+        <v>22</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>54</v>
@@ -1783,13 +1783,13 @@
         <v>56</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.31162037037</v>
+        <v>45993.31684027778</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>45993.71590277777</v>
+        <v>45993.71487268519</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -1798,7 +1798,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="2">
-        <v>22.34</v>
+        <v>25.09</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>54</v>
@@ -1809,13 +1809,13 @@
         <v>57</v>
       </c>
       <c r="B34" s="2">
-        <v>45993.31121527778</v>
+        <v>45993.31208333333</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>45993.7146875</v>
+        <v>45993.71381944444</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>53</v>
       </c>
       <c r="G34" s="2">
-        <v>19</v>
+        <v>19.77</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>54</v>
@@ -1835,13 +1835,13 @@
         <v>58</v>
       </c>
       <c r="B35" s="2">
-        <v>45993.31699074074</v>
+        <v>45993.31672453704</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>45993.71618055556</v>
+        <v>45993.71502314815</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -1850,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>24.09</v>
+        <v>19</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>54</v>
@@ -1861,13 +1861,13 @@
         <v>59</v>
       </c>
       <c r="B36" s="2">
-        <v>45993.31199074074</v>
+        <v>45993.31699074074</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2">
-        <v>45993.71875</v>
+        <v>45993.71618055556</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1876,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="2">
-        <v>24.59</v>
+        <v>24.09</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>54</v>
@@ -1884,16 +1884,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.31616898148</v>
+        <v>45993.71408564815</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2">
-        <v>45993.71172453704</v>
+        <v>45993.71423611111</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -1902,7 +1902,7 @@
         <v>53</v>
       </c>
       <c r="G37" s="2">
-        <v>16.63</v>
+        <v>19.77</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>54</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2">
-        <v>45993.31684027778</v>
+        <v>45993.31616898148</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2">
-        <v>45993.71487268519</v>
+        <v>45993.71172453704</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -1928,7 +1928,7 @@
         <v>53</v>
       </c>
       <c r="G38" s="2">
-        <v>25.09</v>
+        <v>16.63</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>54</v>
@@ -1936,16 +1936,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2">
-        <v>45993.31672453704</v>
+        <v>45993.31137731481</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>45993.71502314815</v>
+        <v>45993.71450231481</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -1954,7 +1954,7 @@
         <v>53</v>
       </c>
       <c r="G39" s="2">
-        <v>19</v>
+        <v>19.03</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>54</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
-        <v>45993.31284722222</v>
+        <v>45993.31121527778</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>45993.71363425926</v>
+        <v>45993.7146875</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -1980,7 +1980,7 @@
         <v>53</v>
       </c>
       <c r="G40" s="2">
-        <v>18.77</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>54</v>
@@ -1988,16 +1988,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2">
-        <v>45993.44508101852</v>
+        <v>45993.31162037037</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>45993.61892361111</v>
+        <v>45993.71590277777</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>53</v>
       </c>
       <c r="G41" s="2">
-        <v>22</v>
+        <v>22.34</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>54</v>
@@ -2014,16 +2014,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
-        <v>45993.71408564815</v>
+        <v>45993.31284722222</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
-        <v>45993.71423611111</v>
+        <v>45993.71363425926</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -2032,7 +2032,7 @@
         <v>53</v>
       </c>
       <c r="G42" s="2">
-        <v>19.77</v>
+        <v>18.77</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>54</v>
@@ -2043,13 +2043,13 @@
         <v>65</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.31208333333</v>
+        <v>45993.31199074074</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>45993.71381944444</v>
+        <v>45993.71875</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -2058,7 +2058,7 @@
         <v>53</v>
       </c>
       <c r="G43" s="2">
-        <v>19.77</v>
+        <v>24.59</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>54</v>
@@ -2069,13 +2069,13 @@
         <v>66</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.33475694444</v>
+        <v>45993.32962962963</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2">
-        <v>45993.53561342593</v>
+        <v>45993.59543981482</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>67</v>
@@ -2084,7 +2084,7 @@
         <v>68</v>
       </c>
       <c r="G44" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>69</v>
@@ -2121,22 +2121,22 @@
         <v>71</v>
       </c>
       <c r="B46" s="2">
-        <v>45993.52398148148</v>
+        <v>45993.33644675926</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2">
-        <v>45993.6846412037</v>
+        <v>45993.52070601852</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>69</v>
@@ -2144,25 +2144,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2">
-        <v>45993.33243055556</v>
+        <v>45993.54019675926</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2">
-        <v>45993.50996527778</v>
+        <v>45993.70605324074</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>69</v>
@@ -2173,13 +2173,13 @@
         <v>73</v>
       </c>
       <c r="B48" s="2">
-        <v>45993.55333333334</v>
+        <v>45993.55407407408</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="2">
-        <v>45993.7515162037</v>
+        <v>45993.68141203704</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -2188,7 +2188,7 @@
         <v>68</v>
       </c>
       <c r="G48" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>69</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2">
-        <v>45993.33226851852</v>
+        <v>45993.33417824074</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>45993.48760416666</v>
+        <v>45993.54109953704</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>67</v>
@@ -2214,7 +2214,7 @@
         <v>68</v>
       </c>
       <c r="G49" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>69</v>
@@ -2222,25 +2222,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2">
-        <v>45993.62835648148</v>
+        <v>45993.33659722222</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>45993.75800925926</v>
+        <v>45993.54575231481</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G50" s="2">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>69</v>
@@ -2251,13 +2251,13 @@
         <v>75</v>
       </c>
       <c r="B51" s="2">
-        <v>45993.32962962963</v>
+        <v>45993.33583333333</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>45993.59543981482</v>
+        <v>45993.59112268518</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>67</v>
@@ -2266,7 +2266,7 @@
         <v>68</v>
       </c>
       <c r="G51" s="2">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>69</v>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
-        <v>45993.51013888889</v>
+        <v>45993.62835648148</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="2">
-        <v>45993.70188657408</v>
+        <v>45993.75800925926</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -2292,7 +2292,7 @@
         <v>68</v>
       </c>
       <c r="G52" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>69</v>
@@ -2303,13 +2303,13 @@
         <v>76</v>
       </c>
       <c r="B53" s="2">
-        <v>45993.54564814815</v>
+        <v>45993.55733796296</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="2">
-        <v>45993.71084490741</v>
+        <v>45993.70209490741</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -2318,7 +2318,7 @@
         <v>68</v>
       </c>
       <c r="G53" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>69</v>
@@ -2329,13 +2329,13 @@
         <v>77</v>
       </c>
       <c r="B54" s="2">
-        <v>45993.375</v>
+        <v>45993.54564814815</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2">
-        <v>45993.70833333334</v>
+        <v>45993.71084490741</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>69</v>
@@ -2355,13 +2355,13 @@
         <v>78</v>
       </c>
       <c r="B55" s="2">
-        <v>45993.33652777778</v>
+        <v>45993.375</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>45993.61788194445</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -2370,7 +2370,7 @@
         <v>68</v>
       </c>
       <c r="G55" s="2">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>69</v>
@@ -2378,16 +2378,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
-        <v>45993.55733796296</v>
+        <v>45993.59668981482</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="2">
-        <v>45993.70209490741</v>
+        <v>45993.70082175926</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -2396,7 +2396,7 @@
         <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>69</v>
@@ -2407,16 +2407,16 @@
         <v>79</v>
       </c>
       <c r="B57" s="2">
-        <v>45993.58587962963</v>
+        <v>45993.33197916667</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>45993.75435185185</v>
+        <v>45993.57767361111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>68</v>
@@ -2433,22 +2433,22 @@
         <v>80</v>
       </c>
       <c r="B58" s="2">
-        <v>45993.33583333333</v>
+        <v>45993.33755787037</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>45993.59112268518</v>
+        <v>45993.68662037037</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G58" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>69</v>
@@ -2459,13 +2459,13 @@
         <v>81</v>
       </c>
       <c r="B59" s="2">
-        <v>45993.54019675926</v>
+        <v>45993.51013888889</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D59" s="2">
-        <v>45993.70605324074</v>
+        <v>45993.70188657408</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -2474,7 +2474,7 @@
         <v>68</v>
       </c>
       <c r="G59" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>69</v>
@@ -2482,25 +2482,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2">
-        <v>45993.33755787037</v>
+        <v>45993.33226851852</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>45993.68662037037</v>
+        <v>45993.48760416666</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G60" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>69</v>
@@ -2508,25 +2508,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2">
-        <v>45993.33197916667</v>
+        <v>45993.55333333334</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2">
-        <v>45993.57767361111</v>
+        <v>45993.7515162037</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>69</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2">
-        <v>45993.33659722222</v>
+        <v>45993.33243055556</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>45993.54575231481</v>
+        <v>45993.50996527778</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>67</v>
@@ -2552,7 +2552,7 @@
         <v>68</v>
       </c>
       <c r="G62" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>69</v>
@@ -2563,13 +2563,13 @@
         <v>83</v>
       </c>
       <c r="B63" s="2">
-        <v>45993.59668981482</v>
+        <v>45993.375</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45993.70082175926</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -2578,7 +2578,7 @@
         <v>68</v>
       </c>
       <c r="G63" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>69</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
         <v>45993.3166087963</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2">
-        <v>45993.375</v>
+        <v>45993.33652777778</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>45993.70833333334</v>
+        <v>45993.61788194445</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>68</v>
       </c>
       <c r="G65" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>69</v>
@@ -2638,16 +2638,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2">
-        <v>45993.33417824074</v>
+        <v>45993.33407407408</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>45993.54109953704</v>
+        <v>45993.54098379629</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>67</v>
@@ -2656,7 +2656,7 @@
         <v>68</v>
       </c>
       <c r="G66" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>69</v>
@@ -2667,13 +2667,13 @@
         <v>87</v>
       </c>
       <c r="B67" s="2">
-        <v>45993.55407407408</v>
+        <v>45993.58587962963</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>45993.68141203704</v>
+        <v>45993.75435185185</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2682,7 +2682,7 @@
         <v>68</v>
       </c>
       <c r="G67" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>69</v>
@@ -2693,22 +2693,22 @@
         <v>88</v>
       </c>
       <c r="B68" s="2">
-        <v>45993.33407407408</v>
+        <v>45993.52398148148</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D68" s="2">
-        <v>45993.54098379629</v>
+        <v>45993.6846412037</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G68" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>69</v>
@@ -2716,25 +2716,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>45993.33037037037</v>
+        <v>45993.33459490741</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>45993.50478009259</v>
+        <v>45993.49261574074</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G69" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>69</v>
@@ -2742,16 +2742,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2">
-        <v>45993.33459490741</v>
+        <v>45993.33475694444</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>45993.49261574074</v>
+        <v>45993.53561342593</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>67</v>
@@ -2768,19 +2768,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2">
-        <v>45993.33644675926</v>
+        <v>45993.33037037037</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45993.52070601852</v>
+        <v>45993.50478009259</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>68</v>
@@ -2797,22 +2797,22 @@
         <v>89</v>
       </c>
       <c r="B72" s="2">
-        <v>45993</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
-        <v>45993</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G72" s="2">
-        <v>17.5</v>
+        <v>17.51</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>91</v>
@@ -2823,22 +2823,22 @@
         <v>92</v>
       </c>
       <c r="B73" s="2">
-        <v>45993.33333333334</v>
+        <v>45993</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2">
-        <v>45993.33333333334</v>
+        <v>45993</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G73" s="2">
-        <v>17.51</v>
+        <v>17.5</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
         <v>45993.58836805556</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2">
         <v>45993.61039351852</v>
@@ -2901,13 +2901,13 @@
         <v>97</v>
       </c>
       <c r="B76" s="2">
-        <v>45993.34043981481</v>
+        <v>45993.32821759259</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>45993.68324074074</v>
+        <v>45993.34375</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -2916,7 +2916,7 @@
         <v>98</v>
       </c>
       <c r="G76" s="2">
-        <v>13.65</v>
+        <v>17.48</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>99</v>
@@ -2927,13 +2927,13 @@
         <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>45993.34569444445</v>
+        <v>45993.34043981481</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45993.69732638889</v>
+        <v>45993.68324074074</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -2942,7 +2942,7 @@
         <v>98</v>
       </c>
       <c r="G77" s="2">
-        <v>18</v>
+        <v>13.65</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>99</v>
@@ -2953,13 +2953,13 @@
         <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>45993.32821759259</v>
+        <v>45993.34569444445</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>45993.34375</v>
+        <v>45993.69732638889</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -2968,7 +2968,7 @@
         <v>98</v>
       </c>
       <c r="G78" s="2">
-        <v>17.48</v>
+        <v>18</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>99</v>
@@ -3057,13 +3057,13 @@
         <v>109</v>
       </c>
       <c r="B82" s="2">
-        <v>45993.3440625</v>
+        <v>45993.32221064815</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2">
-        <v>45993.61761574074</v>
+        <v>45993.67194444445</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -3072,7 +3072,7 @@
         <v>110</v>
       </c>
       <c r="G82" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>111</v>
@@ -3083,13 +3083,13 @@
         <v>112</v>
       </c>
       <c r="B83" s="2">
-        <v>45993.32221064815</v>
+        <v>45993.3390625</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45993.67194444445</v>
+        <v>45993.61498842593</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -3098,7 +3098,7 @@
         <v>110</v>
       </c>
       <c r="G83" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>111</v>
@@ -3109,13 +3109,13 @@
         <v>113</v>
       </c>
       <c r="B84" s="2">
-        <v>45993.3390625</v>
+        <v>45993.32019675926</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>45993.61498842593</v>
+        <v>45993.68831018519</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -3135,13 +3135,13 @@
         <v>114</v>
       </c>
       <c r="B85" s="2">
-        <v>45993.32019675926</v>
+        <v>45993.3440625</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>45993.68831018519</v>
+        <v>45993.61761574074</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -3187,13 +3187,13 @@
         <v>118</v>
       </c>
       <c r="B87" s="2">
-        <v>45993.47211805556</v>
+        <v>45993.42930555555</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>45993.69221064815</v>
+        <v>45993.82324074074</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         <v>116</v>
       </c>
       <c r="G87" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>117</v>
@@ -3213,13 +3213,13 @@
         <v>119</v>
       </c>
       <c r="B88" s="2">
-        <v>45993.42930555555</v>
+        <v>45993.47211805556</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>45993.82324074074</v>
+        <v>45993.69221064815</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -3228,7 +3228,7 @@
         <v>116</v>
       </c>
       <c r="G88" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>117</v>
@@ -3265,13 +3265,13 @@
         <v>121</v>
       </c>
       <c r="B90" s="2">
-        <v>45993.58287037037</v>
+        <v>45993.32638888889</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2">
-        <v>45993.91707175926</v>
+        <v>45993.58686342592</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -3280,7 +3280,7 @@
         <v>122</v>
       </c>
       <c r="G90" s="2">
-        <v>24</v>
+        <v>23.69</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>123</v>
@@ -3291,13 +3291,13 @@
         <v>124</v>
       </c>
       <c r="B91" s="2">
-        <v>45993.32638888889</v>
+        <v>45993.33579861111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>45993.58686342592</v>
+        <v>45993.64005787037</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -3306,7 +3306,7 @@
         <v>122</v>
       </c>
       <c r="G91" s="2">
-        <v>23.69</v>
+        <v>19</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>123</v>
@@ -3317,13 +3317,13 @@
         <v>125</v>
       </c>
       <c r="B92" s="2">
-        <v>45993.37516203704</v>
+        <v>45993.39545138889</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2">
-        <v>45993.6992824074</v>
+        <v>45993.68545138889</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -3332,7 +3332,7 @@
         <v>122</v>
       </c>
       <c r="G92" s="2">
-        <v>13.65</v>
+        <v>15.16</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>123</v>
@@ -3343,13 +3343,13 @@
         <v>126</v>
       </c>
       <c r="B93" s="2">
-        <v>45993.33579861111</v>
+        <v>45993.69541666667</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2">
-        <v>45993.64005787037</v>
+        <v>45993.9084375</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
@@ -3358,7 +3358,7 @@
         <v>122</v>
       </c>
       <c r="G93" s="2">
-        <v>19</v>
+        <v>13.65</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>123</v>
@@ -3369,13 +3369,13 @@
         <v>127</v>
       </c>
       <c r="B94" s="2">
-        <v>45993.37694444445</v>
+        <v>45993.62489583333</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>45993.72078703704</v>
+        <v>45993.90871527778</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -3395,13 +3395,13 @@
         <v>128</v>
       </c>
       <c r="B95" s="2">
-        <v>45993.62489583333</v>
+        <v>45993.37516203704</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2">
-        <v>45993.90871527778</v>
+        <v>45993.6992824074</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -3421,13 +3421,13 @@
         <v>129</v>
       </c>
       <c r="B96" s="2">
-        <v>45993.5765625</v>
+        <v>45993.37694444445</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45993.91775462963</v>
+        <v>45993.72078703704</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>122</v>
       </c>
       <c r="G96" s="2">
-        <v>22</v>
+        <v>13.65</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>123</v>
@@ -3447,22 +3447,22 @@
         <v>130</v>
       </c>
       <c r="B97" s="2">
-        <v>45993.39545138889</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2">
-        <v>45993.68545138889</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G97" s="2">
-        <v>15.16</v>
+        <v>13.65</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>123</v>
@@ -3473,13 +3473,13 @@
         <v>131</v>
       </c>
       <c r="B98" s="2">
-        <v>45993.69541666667</v>
+        <v>45993.5765625</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45993.9084375</v>
+        <v>45993.91775462963</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -3488,7 +3488,7 @@
         <v>122</v>
       </c>
       <c r="G98" s="2">
-        <v>13.65</v>
+        <v>22</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>123</v>
@@ -3499,22 +3499,22 @@
         <v>132</v>
       </c>
       <c r="B99" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.58287037037</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.91707175926</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G99" s="2">
-        <v>13.65</v>
+        <v>24</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>123</v>
@@ -3577,13 +3577,13 @@
         <v>135</v>
       </c>
       <c r="B102" s="2">
-        <v>45993.39311342593</v>
+        <v>45993.95416666667</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2">
-        <v>45993.46118055555</v>
+        <v>45994.29306712963</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>136</v>
       </c>
       <c r="G102" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>137</v>
@@ -3603,13 +3603,13 @@
         <v>138</v>
       </c>
       <c r="B103" s="2">
-        <v>45993.62984953704</v>
+        <v>45993.62380787037</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2">
-        <v>45993.95290509259</v>
+        <v>45993.95444444445</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
@@ -3618,7 +3618,7 @@
         <v>136</v>
       </c>
       <c r="G103" s="2">
-        <v>17.25</v>
+        <v>16.5</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>137</v>
@@ -3629,13 +3629,13 @@
         <v>139</v>
       </c>
       <c r="B104" s="2">
-        <v>45993.95416666667</v>
+        <v>45993.29008101852</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45994.29306712963</v>
+        <v>45993.58872685185</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -3644,7 +3644,7 @@
         <v>136</v>
       </c>
       <c r="G104" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>137</v>
@@ -3655,13 +3655,13 @@
         <v>140</v>
       </c>
       <c r="B105" s="2">
-        <v>45993.62380787037</v>
+        <v>45993.62984953704</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2">
-        <v>45993.95444444445</v>
+        <v>45993.95290509259</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -3670,7 +3670,7 @@
         <v>136</v>
       </c>
       <c r="G105" s="2">
-        <v>16.5</v>
+        <v>17.25</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>137</v>
@@ -3681,22 +3681,22 @@
         <v>141</v>
       </c>
       <c r="B106" s="2">
-        <v>45993.29008101852</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2">
-        <v>45993.58872685185</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G106" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>137</v>
@@ -3707,22 +3707,22 @@
         <v>142</v>
       </c>
       <c r="B107" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.39311342593</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.46118055555</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G107" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>137</v>
@@ -3730,19 +3730,19 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2">
         <v>45993.5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2">
         <v>45993.5</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>136</v>
@@ -3759,13 +3759,13 @@
         <v>143</v>
       </c>
       <c r="B109" s="2">
-        <v>45993.47619212963</v>
+        <v>45993.30981481481</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2">
-        <v>45993.66888888889</v>
+        <v>45993.67152777778</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
@@ -3774,7 +3774,7 @@
         <v>144</v>
       </c>
       <c r="G109" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>145</v>
@@ -3785,13 +3785,13 @@
         <v>146</v>
       </c>
       <c r="B110" s="2">
-        <v>45993.36116898148</v>
+        <v>45993.47619212963</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2">
-        <v>45993.64501157407</v>
+        <v>45993.66888888889</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>10</v>
@@ -3800,7 +3800,7 @@
         <v>144</v>
       </c>
       <c r="G110" s="2">
-        <v>20</v>
+        <v>16.61</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>145</v>
@@ -3837,13 +3837,13 @@
         <v>148</v>
       </c>
       <c r="B112" s="2">
-        <v>45993.40340277777</v>
+        <v>45993.36116898148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2">
-        <v>45993.67043981481</v>
+        <v>45993.64501157407</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>10</v>
@@ -3852,7 +3852,7 @@
         <v>144</v>
       </c>
       <c r="G112" s="2">
-        <v>16.61</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>145</v>
@@ -3863,13 +3863,13 @@
         <v>149</v>
       </c>
       <c r="B113" s="2">
-        <v>45993.30981481481</v>
+        <v>45993.40340277777</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2">
-        <v>45993.67152777778</v>
+        <v>45993.67043981481</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>10</v>
@@ -3878,7 +3878,7 @@
         <v>144</v>
       </c>
       <c r="G113" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>145</v>
@@ -3941,13 +3941,13 @@
         <v>156</v>
       </c>
       <c r="B116" s="2">
-        <v>45993.35118055555</v>
+        <v>45993.34314814815</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2">
-        <v>45993.76359953704</v>
+        <v>45993.66737268519</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>10</v>
@@ -3956,7 +3956,7 @@
         <v>157</v>
       </c>
       <c r="G116" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>158</v>
@@ -3967,13 +3967,13 @@
         <v>159</v>
       </c>
       <c r="B117" s="2">
-        <v>45993.33853009259</v>
+        <v>45993.35118055555</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2">
-        <v>45993.67113425926</v>
+        <v>45993.76359953704</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>10</v>
@@ -3982,7 +3982,7 @@
         <v>157</v>
       </c>
       <c r="G117" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>158</v>
@@ -3993,13 +3993,13 @@
         <v>160</v>
       </c>
       <c r="B118" s="2">
-        <v>45993.34314814815</v>
+        <v>45993.33853009259</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2">
-        <v>45993.66737268519</v>
+        <v>45993.67113425926</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>10</v>
@@ -4008,7 +4008,7 @@
         <v>157</v>
       </c>
       <c r="G118" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>158</v>
@@ -4019,22 +4019,22 @@
         <v>161</v>
       </c>
       <c r="B119" s="2">
-        <v>45993.33415509259</v>
+        <v>45993.33784722222</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2">
-        <v>45993.52702546296</v>
+        <v>45993.5262037037</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G119" s="2">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>163</v>
@@ -4042,16 +4042,16 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B120" s="2">
-        <v>45993.33784722222</v>
+        <v>45993.33440972222</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2">
-        <v>45993.5262037037</v>
+        <v>45993.49506944444</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>67</v>
@@ -4060,7 +4060,7 @@
         <v>162</v>
       </c>
       <c r="G120" s="2">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>163</v>
@@ -4071,13 +4071,13 @@
         <v>164</v>
       </c>
       <c r="B121" s="2">
-        <v>45993.54539351852</v>
+        <v>45993.33071759259</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2">
-        <v>45993.69030092593</v>
+        <v>45993.5552662037</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>10</v>
@@ -4085,9 +4085,7 @@
       <c r="F121" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G121" s="2">
-        <v>20.5</v>
-      </c>
+      <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
         <v>163</v>
       </c>
@@ -4097,22 +4095,22 @@
         <v>165</v>
       </c>
       <c r="B122" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.54071759259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D122" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.69123842593</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G122" s="2">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>163</v>
@@ -4120,25 +4118,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2">
-        <v>45993.33489583333</v>
+        <v>45993.32947916666</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2">
-        <v>45993.46734953704</v>
+        <v>45993.51585648148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G123" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>163</v>
@@ -4146,25 +4144,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2">
-        <v>45993.32947916666</v>
+        <v>45993.54539351852</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D124" s="2">
-        <v>45993.51585648148</v>
+        <v>45993.69030092593</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G124" s="2">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>163</v>
@@ -4172,25 +4170,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2">
-        <v>45993.33440972222</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2">
-        <v>45993.49506944444</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G125" s="2">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>163</v>
@@ -4198,16 +4196,16 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" s="2">
-        <v>45993.33071759259</v>
+        <v>45993.33415509259</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2">
-        <v>45993.5552662037</v>
+        <v>45993.52702546296</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>10</v>
@@ -4215,23 +4213,25 @@
       <c r="F126" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G126" s="2"/>
+      <c r="G126" s="2">
+        <v>18</v>
+      </c>
       <c r="H126" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B127" s="2">
-        <v>45993.54071759259</v>
+        <v>45993.33489583333</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2">
-        <v>45993.69123842593</v>
+        <v>45993.46734953704</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -4240,7 +4240,7 @@
         <v>162</v>
       </c>
       <c r="G127" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>163</v>
@@ -4277,13 +4277,13 @@
         <v>172</v>
       </c>
       <c r="B129" s="2">
-        <v>45993.27287037037</v>
+        <v>45993.33430555555</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2">
-        <v>45993.5634375</v>
+        <v>45993.53699074074</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>67</v>
@@ -4292,7 +4292,7 @@
         <v>173</v>
       </c>
       <c r="G129" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>174</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B130" s="2">
         <v>45993.55827546296</v>
@@ -4329,13 +4329,13 @@
         <v>175</v>
       </c>
       <c r="B131" s="2">
-        <v>45993.33430555555</v>
+        <v>45993.27287037037</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2">
-        <v>45993.53699074074</v>
+        <v>45993.5634375</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>67</v>
@@ -4344,7 +4344,7 @@
         <v>173</v>
       </c>
       <c r="G131" s="2">
-        <v>23</v>
+        <v>17.72</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>174</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B132" s="2">
         <v>45993.58417824074</v>
@@ -4433,13 +4433,13 @@
         <v>180</v>
       </c>
       <c r="B135" s="2">
-        <v>45993.36427083334</v>
+        <v>45993.53115740741</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2">
-        <v>45993.7037037037</v>
+        <v>45993.61241898148</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
@@ -4448,24 +4448,24 @@
         <v>181</v>
       </c>
       <c r="G135" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="B136" s="2">
-        <v>45993.55390046296</v>
+        <v>45993.36427083334</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2">
-        <v>45993.68125</v>
+        <v>45993.7037037037</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>10</v>
@@ -4474,24 +4474,24 @@
         <v>181</v>
       </c>
       <c r="G136" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B137" s="2">
-        <v>45993.2841550926</v>
+        <v>45993.55390046296</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D137" s="2">
-        <v>45993.48572916666</v>
+        <v>45993.68125</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
@@ -4500,24 +4500,24 @@
         <v>181</v>
       </c>
       <c r="G137" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B138" s="2">
-        <v>45993.53115740741</v>
+        <v>45993.2841550926</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2">
-        <v>45993.61241898148</v>
+        <v>45993.48572916666</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>10</v>
@@ -4529,7 +4529,7 @@
         <v>18</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4551,7 +4551,7 @@
         <v>16</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -40,6 +40,18 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
     <t>B197</t>
   </si>
   <si>
@@ -49,51 +61,39 @@
     <t>OD</t>
   </si>
   <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>G125</t>
   </si>
   <si>
     <t>A0HA</t>
   </si>
   <si>
-    <t>G125</t>
+    <t>A3JX</t>
+  </si>
+  <si>
+    <t>A3LM</t>
   </si>
   <si>
     <t>A29S</t>
   </si>
   <si>
-    <t>A3JX</t>
-  </si>
-  <si>
-    <t>A3LM</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>HR</t>
+    <t>E270</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
   </si>
   <si>
     <t>E302</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
     <t>D519</t>
   </si>
   <si>
-    <t>E270</t>
-  </si>
-  <si>
     <t>D941</t>
   </si>
   <si>
@@ -103,39 +103,39 @@
     <t>Snowmaking</t>
   </si>
   <si>
+    <t>A3SK</t>
+  </si>
+  <si>
     <t>A3IL</t>
   </si>
   <si>
+    <t>H716</t>
+  </si>
+  <si>
     <t>G397</t>
   </si>
   <si>
-    <t>H716</t>
-  </si>
-  <si>
-    <t>A3SK</t>
+    <t>A3DS</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>H101</t>
   </si>
   <si>
     <t>H125</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
     <t>I540</t>
   </si>
   <si>
-    <t>A3DS</t>
-  </si>
-  <si>
     <t>I238</t>
   </si>
   <si>
-    <t>H101</t>
-  </si>
-  <si>
     <t>D826</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
+    <t>A2UN</t>
+  </si>
+  <si>
+    <t>E877</t>
+  </si>
+  <si>
+    <t>B797</t>
+  </si>
+  <si>
     <t>A1ZX</t>
   </si>
   <si>
-    <t>A2UN</t>
-  </si>
-  <si>
-    <t>B797</t>
-  </si>
-  <si>
-    <t>E877</t>
-  </si>
-  <si>
     <t>E436</t>
   </si>
   <si>
@@ -172,61 +172,94 @@
     <t>A1T8</t>
   </si>
   <si>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A3L3</t>
+  </si>
+  <si>
     <t>E471</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
+    <t>G076</t>
   </si>
   <si>
     <t>I762</t>
   </si>
   <si>
-    <t>B924</t>
-  </si>
-  <si>
     <t>J024</t>
   </si>
   <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>H620</t>
+  </si>
+  <si>
     <t>E950</t>
   </si>
   <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>A3L3</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>J471</t>
+    <t>I563</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>IL</t>
   </si>
   <si>
     <t>A3S9</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>IL</t>
+    <t>A3M3</t>
+  </si>
+  <si>
+    <t>J071</t>
+  </si>
+  <si>
+    <t>A3PT</t>
+  </si>
+  <si>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>A3SA</t>
+  </si>
+  <si>
+    <t>A2KR</t>
+  </si>
+  <si>
+    <t>A2TY</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>A1FE</t>
   </si>
   <si>
     <t>C173</t>
@@ -235,66 +268,33 @@
     <t>D071</t>
   </si>
   <si>
-    <t>I552</t>
-  </si>
-  <si>
     <t>A3M1</t>
   </si>
   <si>
-    <t>A3SA</t>
+    <t>B341</t>
   </si>
   <si>
     <t>A2O6</t>
   </si>
   <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A2KR</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>A3M3</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>J071</t>
-  </si>
-  <si>
-    <t>I563</t>
+    <t>E547</t>
   </si>
   <si>
     <t>A3PB</t>
   </si>
   <si>
-    <t>E547</t>
+    <t>A29N</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
   </si>
   <si>
     <t>G327</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A29N</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
@@ -307,21 +307,21 @@
     <t>Purg Sports Resort</t>
   </si>
   <si>
+    <t>I216</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
     <t>A2LP</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
     <t>E181</t>
   </si>
   <si>
-    <t>I216</t>
-  </si>
-  <si>
     <t>E655</t>
   </si>
   <si>
@@ -343,129 +343,129 @@
     <t>Waffle Cabin</t>
   </si>
   <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A3PX</t>
+  </si>
+  <si>
     <t>A3FO</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
     <t>G724</t>
   </si>
   <si>
-    <t>A36T</t>
+    <t>A1MU</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>J434</t>
   </si>
   <si>
     <t>I517</t>
   </si>
   <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>A1MU</t>
-  </si>
-  <si>
     <t>J335</t>
   </si>
   <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A2SG</t>
+  </si>
+  <si>
+    <t>A2HN</t>
+  </si>
+  <si>
+    <t>A2RM</t>
+  </si>
+  <si>
+    <t>A3ZI</t>
+  </si>
+  <si>
+    <t>A3VO</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
     <t>D499</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>A2SG</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>A3ZI</t>
-  </si>
-  <si>
     <t>A43Z</t>
   </si>
   <si>
-    <t>A739</t>
-  </si>
-  <si>
     <t>D5209</t>
   </si>
   <si>
     <t>Village Market Deli</t>
   </si>
   <si>
+    <t>A42D</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>D283</t>
+  </si>
+  <si>
     <t>F298</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
     <t>A3DX</t>
   </si>
   <si>
-    <t>D283</t>
-  </si>
-  <si>
     <t>A42C</t>
   </si>
   <si>
     <t>A1N1</t>
   </si>
   <si>
-    <t>A42D</t>
+    <t>I999</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>J492</t>
   </si>
   <si>
     <t>A3DT</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>I999</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
     <t>H341</t>
   </si>
   <si>
-    <t>J492</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -484,39 +484,39 @@
     <t>Security</t>
   </si>
   <si>
+    <t>C516</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
     <t>A3HI</t>
   </si>
   <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>A3HC</t>
   </si>
   <si>
-    <t>C516</t>
+    <t>A2UO</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>A3PE</t>
+  </si>
+  <si>
+    <t>A1WB</t>
   </si>
   <si>
     <t>E609</t>
   </si>
   <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>A3PE</t>
-  </si>
-  <si>
-    <t>A2UO</t>
-  </si>
-  <si>
-    <t>A1WB</t>
-  </si>
-  <si>
     <t>A2JA</t>
   </si>
   <si>
@@ -532,18 +532,18 @@
     <t>Snow Removal</t>
   </si>
   <si>
+    <t>J483</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
     <t>A03K</t>
   </si>
   <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>J483</t>
-  </si>
-  <si>
     <t>A1Z8</t>
   </si>
   <si>
@@ -556,16 +556,16 @@
     <t>G322</t>
   </si>
   <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>A3C3</t>
   </si>
   <si>
-    <t>D8040</t>
+    <t>A1BT</t>
   </si>
   <si>
     <t>A39Q</t>
-  </si>
-  <si>
-    <t>A1BT</t>
   </si>
   <si>
     <t>A1ZP</t>
@@ -993,207 +993,207 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>45993.29910879629</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>45993.7230324074</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>19.57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.30665509259</v>
+        <v>45993.29910879629</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>45993.723125</v>
+        <v>45993.7230324074</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>19.57</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>45993.31658564815</v>
+        <v>45993.31125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>45993.70996527778</v>
+        <v>45993.72252314815</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="2">
         <v>15.5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>45993.32325231482</v>
+        <v>45993.31658564815</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>45993.70679398148</v>
+        <v>45993.70996527778</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>45993.29755787037</v>
+        <v>45993.30665509259</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>45993.70832175926</v>
+        <v>45993.723125</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.29893518519</v>
+        <v>45993.29755787037</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>45993.70039351852</v>
+        <v>45993.70832175926</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>45993.31125</v>
+        <v>45993.29893518519</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>45993.72252314815</v>
+        <v>45993.70039351852</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>45993.29166666666</v>
+        <v>45993.32325231482</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>45993.29166666666</v>
+        <v>45993.70679398148</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1201,22 +1201,22 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>45993.27181712963</v>
+        <v>45993.26789351852</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>45993.70261574074</v>
+        <v>45993.70138888889</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2">
-        <v>29.87</v>
+        <v>35.43</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>23</v>
@@ -1227,22 +1227,22 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.27314814815</v>
+        <v>45993.27181712963</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>45993.70487268519</v>
+        <v>45993.70261574074</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2">
-        <v>21.57</v>
+        <v>29.87</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
@@ -1253,22 +1253,22 @@
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>45993.26789351852</v>
+        <v>45993.27314814815</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>45993.70138888889</v>
+        <v>45993.70487268519</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>35.43</v>
+        <v>21.57</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>23</v>
@@ -1282,13 +1282,13 @@
         <v>45993.4521875</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>45994.0188425926</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -1305,22 +1305,22 @@
         <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.38255787037</v>
+        <v>45993.45630787037</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>45993.70826388889</v>
+        <v>45994.00210648148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="2">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
@@ -1331,18 +1331,22 @@
         <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>45993.44041666666</v>
+        <v>45993.38255787037</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45993.70826388889</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="2">
-        <v>18.55</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>28</v>
@@ -1356,13 +1360,13 @@
         <v>45993.46209490741</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>45993.97168981482</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -1379,22 +1383,18 @@
         <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>45993.45630787037</v>
+        <v>45993.44041666666</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45994.00210648148</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2">
-        <v>19.1</v>
+        <v>18.55</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>28</v>
@@ -1405,18 +1405,22 @@
         <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.67045138889</v>
+        <v>45993.3184375</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45993.73899305556</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>35</v>
@@ -1427,22 +1431,18 @@
         <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>45993.31822916667</v>
+        <v>45993.3125</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45993.73927083334</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="2">
-        <v>12.35</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>35</v>
@@ -1453,22 +1453,18 @@
         <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>45993.3184375</v>
+        <v>45993.67045138889</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45993.73899305556</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>35</v>
@@ -1479,22 +1475,22 @@
         <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>45993.30012731482</v>
+        <v>45993.31822916667</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2">
-        <v>45993.73251157408</v>
+        <v>45993.73927083334</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="2">
-        <v>16</v>
+        <v>12.35</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>35</v>
@@ -1505,18 +1501,22 @@
         <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>45993.3125</v>
+        <v>45993.30012731482</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45993.73251157408</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>35</v>
@@ -1530,13 +1530,13 @@
         <v>45993.28452546296</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>45993.72278935185</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>41</v>
@@ -1553,22 +1553,22 @@
         <v>43</v>
       </c>
       <c r="B24" s="2">
-        <v>45993.97611111111</v>
+        <v>45993.47743055555</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2">
-        <v>45994.45969907408</v>
+        <v>45993.95138888889</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="2">
-        <v>18</v>
+        <v>23.33</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>42</v>
@@ -1579,22 +1579,18 @@
         <v>44</v>
       </c>
       <c r="B25" s="2">
-        <v>45993.47743055555</v>
+        <v>45993.46145833333</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45993.95138888889</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="2">
-        <v>23.33</v>
+        <v>16.5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>42</v>
@@ -1608,13 +1604,13 @@
         <v>45993.95633101852</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>45994.46997685185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>41</v>
@@ -1631,18 +1627,22 @@
         <v>46</v>
       </c>
       <c r="B27" s="2">
-        <v>45993.46145833333</v>
+        <v>45993.97611111111</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45994.45969907408</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="2">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>42</v>
@@ -1656,13 +1656,13 @@
         <v>45993.72826388889</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2">
         <v>45994.21900462963</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>41</v>
@@ -1682,13 +1682,13 @@
         <v>45993.22570601852</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
         <v>45993.72601851852</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>49</v>
@@ -1708,13 +1708,13 @@
         <v>45993.22068287037</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
         <v>45993.70631944444</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
@@ -1731,22 +1731,22 @@
         <v>52</v>
       </c>
       <c r="B31" s="2">
-        <v>45993.31199074074</v>
+        <v>45993.31284722222</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2">
-        <v>45993.71875</v>
+        <v>45993.71363425926</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="2">
-        <v>24.59</v>
+        <v>18.77</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>54</v>
@@ -1757,22 +1757,22 @@
         <v>55</v>
       </c>
       <c r="B32" s="2">
-        <v>45993.71408564815</v>
+        <v>45993.31137731481</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>45993.71423611111</v>
+        <v>45993.71450231481</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G32" s="2">
-        <v>19.77</v>
+        <v>19.03</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>54</v>
@@ -1783,22 +1783,22 @@
         <v>56</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.31284722222</v>
+        <v>45993.31199074074</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>45993.71363425926</v>
+        <v>45993.71875</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="2">
-        <v>18.77</v>
+        <v>24.59</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>54</v>
@@ -1809,22 +1809,22 @@
         <v>57</v>
       </c>
       <c r="B34" s="2">
-        <v>45993.31699074074</v>
+        <v>45993.31616898148</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>45993.71618055556</v>
+        <v>45993.71172453704</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G34" s="2">
-        <v>24.09</v>
+        <v>16.63</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>54</v>
@@ -1835,22 +1835,22 @@
         <v>58</v>
       </c>
       <c r="B35" s="2">
-        <v>45993.31121527778</v>
+        <v>45993.44508101852</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
-        <v>45993.7146875</v>
+        <v>45993.61892361111</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>54</v>
@@ -1861,22 +1861,22 @@
         <v>59</v>
       </c>
       <c r="B36" s="2">
-        <v>45993.31162037037</v>
+        <v>45993.31672453704</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>45993.71590277777</v>
+        <v>45993.71502314815</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="2">
-        <v>22.34</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>54</v>
@@ -1887,22 +1887,22 @@
         <v>60</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.31137731481</v>
+        <v>45993.32466435185</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2">
-        <v>45993.71450231481</v>
+        <v>45993.7155787037</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="2">
-        <v>19.03</v>
+        <v>23.84</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>54</v>
@@ -1913,22 +1913,22 @@
         <v>61</v>
       </c>
       <c r="B38" s="2">
-        <v>45993.31672453704</v>
+        <v>45993.31208333333</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
-        <v>45993.71502314815</v>
+        <v>45993.71381944444</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="2">
-        <v>19</v>
+        <v>19.77</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>54</v>
@@ -1936,25 +1936,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2">
-        <v>45993.31684027778</v>
+        <v>45993.71408564815</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2">
-        <v>45993.71487268519</v>
+        <v>45993.71423611111</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="2">
-        <v>25.09</v>
+        <v>19.77</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>54</v>
@@ -1962,25 +1962,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
-        <v>45993.31208333333</v>
+        <v>45993.31699074074</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2">
-        <v>45993.71381944444</v>
+        <v>45993.71618055556</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G40" s="2">
-        <v>19.77</v>
+        <v>24.09</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>54</v>
@@ -1991,22 +1991,22 @@
         <v>63</v>
       </c>
       <c r="B41" s="2">
-        <v>45993.32466435185</v>
+        <v>45993.31684027778</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
-        <v>45993.7155787037</v>
+        <v>45993.71487268519</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G41" s="2">
-        <v>23.84</v>
+        <v>25.09</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>54</v>
@@ -2017,22 +2017,22 @@
         <v>64</v>
       </c>
       <c r="B42" s="2">
-        <v>45993.31616898148</v>
+        <v>45993.31162037037</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2">
-        <v>45993.71172453704</v>
+        <v>45993.71590277777</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G42" s="2">
-        <v>16.63</v>
+        <v>22.34</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>54</v>
@@ -2043,22 +2043,22 @@
         <v>65</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.44508101852</v>
+        <v>45993.31121527778</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2">
-        <v>45993.61892361111</v>
+        <v>45993.7146875</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G43" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>54</v>
@@ -2069,13 +2069,13 @@
         <v>66</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.33197916667</v>
+        <v>45993.33226851852</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>45993.57767361111</v>
+        <v>45993.48760416666</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>67</v>
@@ -2084,7 +2084,7 @@
         <v>68</v>
       </c>
       <c r="G44" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>69</v>
@@ -2092,25 +2092,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2">
-        <v>45993.59668981482</v>
+        <v>45993.55333333334</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2">
-        <v>45993.70082175926</v>
+        <v>45993.7515162037</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>69</v>
@@ -2118,25 +2118,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2">
-        <v>45993.375</v>
+        <v>45993.33197916667</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>45993.70833333334</v>
+        <v>45993.57767361111</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>69</v>
@@ -2147,22 +2147,22 @@
         <v>72</v>
       </c>
       <c r="B47" s="2">
-        <v>45993.54564814815</v>
+        <v>45993.59668981482</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2">
-        <v>45993.71084490741</v>
+        <v>45993.70082175926</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>69</v>
@@ -2173,13 +2173,13 @@
         <v>73</v>
       </c>
       <c r="B48" s="2">
-        <v>45993.32962962963</v>
+        <v>45993.33644675926</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2">
-        <v>45993.59543981482</v>
+        <v>45993.52070601852</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>67</v>
@@ -2196,25 +2196,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2">
-        <v>45993.55733796296</v>
+        <v>45993.54019675926</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2">
-        <v>45993.70209490741</v>
+        <v>45993.70605324074</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G49" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>69</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2">
-        <v>45993.33459490741</v>
+        <v>45993.33243055556</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2">
-        <v>45993.49261574074</v>
+        <v>45993.50996527778</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>67</v>
@@ -2248,25 +2248,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2">
-        <v>45993.52398148148</v>
+        <v>45993.33280092593</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2">
-        <v>45993.6846412037</v>
+        <v>45993.49769675926</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G51" s="2">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>69</v>
@@ -2274,25 +2274,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2">
-        <v>45993.33417824074</v>
+        <v>45993.33037037037</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2">
-        <v>45993.54109953704</v>
+        <v>45993.50478009259</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G52" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>69</v>
@@ -2303,22 +2303,22 @@
         <v>76</v>
       </c>
       <c r="B53" s="2">
-        <v>45993.55407407408</v>
+        <v>45993.62835648148</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53" s="2">
-        <v>45993.68141203704</v>
+        <v>45993.75800925926</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G53" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>69</v>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2">
-        <v>45993.33583333333</v>
+        <v>45993.32962962963</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2">
-        <v>45993.59112268518</v>
+        <v>45993.59543981482</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>67</v>
@@ -2344,7 +2344,7 @@
         <v>68</v>
       </c>
       <c r="G54" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>69</v>
@@ -2352,25 +2352,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2">
-        <v>45993.33407407408</v>
+        <v>45993.52398148148</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D55" s="2">
-        <v>45993.54098379629</v>
+        <v>45993.6846412037</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G55" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>69</v>
@@ -2378,25 +2378,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2">
-        <v>45993.58587962963</v>
+        <v>45993.51013888889</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2">
-        <v>45993.75435185185</v>
+        <v>45993.70188657408</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>69</v>
@@ -2404,25 +2404,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2">
-        <v>45993.33037037037</v>
+        <v>45993.33407407408</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2">
-        <v>45993.50478009259</v>
+        <v>45993.54098379629</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G57" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>69</v>
@@ -2430,25 +2430,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
-        <v>45993.54019675926</v>
+        <v>45993.33652777778</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2">
-        <v>45993.70605324074</v>
+        <v>45993.61788194445</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G58" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>69</v>
@@ -2459,22 +2459,22 @@
         <v>80</v>
       </c>
       <c r="B59" s="2">
-        <v>45993.33644675926</v>
+        <v>45993.3166087963</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>45993.52070601852</v>
+        <v>45993.70063657407</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>69</v>
@@ -2485,22 +2485,22 @@
         <v>81</v>
       </c>
       <c r="B60" s="2">
-        <v>45993.33652777778</v>
+        <v>45993.33659722222</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2">
-        <v>45993.61788194445</v>
+        <v>45993.54575231481</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G60" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>69</v>
@@ -2511,22 +2511,22 @@
         <v>82</v>
       </c>
       <c r="B61" s="2">
-        <v>45993.3166087963</v>
+        <v>45993.375</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>45993.70063657407</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="2">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>69</v>
@@ -2534,25 +2534,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
-        <v>45993.33659722222</v>
+        <v>45993.58587962963</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2">
-        <v>45993.54575231481</v>
+        <v>45993.75435185185</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G62" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>69</v>
@@ -2560,25 +2560,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2">
-        <v>45993.33475694444</v>
+        <v>45993.54564814815</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D63" s="2">
-        <v>45993.53561342593</v>
+        <v>45993.71084490741</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G63" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>69</v>
@@ -2589,13 +2589,13 @@
         <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>45993.33243055556</v>
+        <v>45993.33475694444</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>45993.50996527778</v>
+        <v>45993.53561342593</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>67</v>
@@ -2615,16 +2615,16 @@
         <v>84</v>
       </c>
       <c r="B65" s="2">
-        <v>45993.55333333334</v>
+        <v>45993.55733796296</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2">
-        <v>45993.7515162037</v>
+        <v>45993.70209490741</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>68</v>
@@ -2641,22 +2641,22 @@
         <v>85</v>
       </c>
       <c r="B66" s="2">
-        <v>45993.33280092593</v>
+        <v>45993.33583333333</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2">
-        <v>45993.49769675926</v>
+        <v>45993.59112268518</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G66" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>69</v>
@@ -2667,13 +2667,13 @@
         <v>86</v>
       </c>
       <c r="B67" s="2">
-        <v>45993.33226851852</v>
+        <v>45993.33417824074</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2">
-        <v>45993.48760416666</v>
+        <v>45993.54109953704</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>67</v>
@@ -2682,7 +2682,7 @@
         <v>68</v>
       </c>
       <c r="G67" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>69</v>
@@ -2690,25 +2690,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2">
-        <v>45993.51013888889</v>
+        <v>45993.33459490741</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>45993.70188657408</v>
+        <v>45993.49261574074</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G68" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>69</v>
@@ -2719,22 +2719,22 @@
         <v>87</v>
       </c>
       <c r="B69" s="2">
-        <v>45993.33755787037</v>
+        <v>45993.375</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2">
-        <v>45993.68662037037</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G69" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>69</v>
@@ -2745,22 +2745,22 @@
         <v>88</v>
       </c>
       <c r="B70" s="2">
-        <v>45993.375</v>
+        <v>45993.33755787037</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>45993.70833333334</v>
+        <v>45993.68662037037</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G70" s="2">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>69</v>
@@ -2768,25 +2768,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2">
-        <v>45993.62835648148</v>
+        <v>45993.55407407408</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D71" s="2">
-        <v>45993.75800925926</v>
+        <v>45993.68141203704</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G71" s="2">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>69</v>
@@ -2797,22 +2797,22 @@
         <v>89</v>
       </c>
       <c r="B72" s="2">
-        <v>45993.33333333334</v>
+        <v>45993</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>45993.33333333334</v>
+        <v>45993</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G72" s="2">
-        <v>17.51</v>
+        <v>17.5</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>91</v>
@@ -2823,22 +2823,22 @@
         <v>92</v>
       </c>
       <c r="B73" s="2">
-        <v>45993</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>45993</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G73" s="2">
-        <v>17.5</v>
+        <v>17.51</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>91</v>
@@ -2846,19 +2846,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2">
         <v>45993.58836805556</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D74" s="2">
         <v>45993.70449074074</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>93</v>
@@ -2872,19 +2872,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2">
         <v>45993.61039351852</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" s="2">
         <v>45993.68513888889</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>95</v>
@@ -2901,22 +2901,22 @@
         <v>97</v>
       </c>
       <c r="B76" s="2">
-        <v>45993.34569444445</v>
+        <v>45993.33630787037</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2">
-        <v>45993.69732638889</v>
+        <v>45993.66971064815</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G76" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>99</v>
@@ -2927,22 +2927,22 @@
         <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>45993.32821759259</v>
+        <v>45993.34569444445</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
-        <v>45993.34375</v>
+        <v>45993.69732638889</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G77" s="2">
-        <v>17.48</v>
+        <v>18</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>99</v>
@@ -2953,22 +2953,22 @@
         <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>45993.33630787037</v>
+        <v>45993.32821759259</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2">
-        <v>45993.66971064815</v>
+        <v>45993.34375</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G78" s="2">
-        <v>21</v>
+        <v>17.48</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>99</v>
@@ -2982,13 +2982,13 @@
         <v>45993.34043981481</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2">
         <v>45993.68324074074</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>98</v>
@@ -3008,13 +3008,13 @@
         <v>45993.83056712963</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D80" s="2">
         <v>45993.91854166667</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>104</v>
@@ -3034,13 +3034,13 @@
         <v>45993.32491898148</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2">
         <v>45993.32520833334</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>107</v>
@@ -3057,22 +3057,22 @@
         <v>109</v>
       </c>
       <c r="B82" s="2">
-        <v>45993.32019675926</v>
+        <v>45993.32221064815</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>45993.68831018519</v>
+        <v>45993.67194444445</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G82" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>111</v>
@@ -3086,13 +3086,13 @@
         <v>45993.3390625</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
         <v>45993.61498842593</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>110</v>
@@ -3109,16 +3109,16 @@
         <v>113</v>
       </c>
       <c r="B84" s="2">
-        <v>45993.3440625</v>
+        <v>45993.32019675926</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2">
-        <v>45993.61761574074</v>
+        <v>45993.68831018519</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>110</v>
@@ -3135,22 +3135,22 @@
         <v>114</v>
       </c>
       <c r="B85" s="2">
-        <v>45993.32221064815</v>
+        <v>45993.3440625</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2">
-        <v>45993.67194444445</v>
+        <v>45993.61761574074</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G85" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>111</v>
@@ -3161,22 +3161,22 @@
         <v>115</v>
       </c>
       <c r="B86" s="2">
-        <v>45993.42930555555</v>
+        <v>45993.47211805556</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>45993.82324074074</v>
+        <v>45993.69221064815</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G86" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>117</v>
@@ -3190,13 +3190,13 @@
         <v>45993.41944444444</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2">
         <v>45993.82296296296</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>116</v>
@@ -3213,22 +3213,22 @@
         <v>119</v>
       </c>
       <c r="B88" s="2">
-        <v>45993.47211805556</v>
+        <v>45993.42930555555</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2">
-        <v>45993.69221064815</v>
+        <v>45993.82324074074</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G88" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>117</v>
@@ -3242,13 +3242,13 @@
         <v>45993.34152777777</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2">
         <v>45993.58498842592</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>116</v>
@@ -3265,22 +3265,22 @@
         <v>121</v>
       </c>
       <c r="B90" s="2">
-        <v>45993.37694444445</v>
+        <v>45993.32638888889</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>45993.72078703704</v>
+        <v>45993.58686342592</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G90" s="2">
-        <v>13.65</v>
+        <v>23.69</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>123</v>
@@ -3291,16 +3291,16 @@
         <v>124</v>
       </c>
       <c r="B91" s="2">
-        <v>45993.37516203704</v>
+        <v>45993.62489583333</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>45993.6992824074</v>
+        <v>45993.90871527778</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>122</v>
@@ -3317,16 +3317,16 @@
         <v>125</v>
       </c>
       <c r="B92" s="2">
-        <v>45993.62489583333</v>
+        <v>45993.37516203704</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2">
-        <v>45993.90871527778</v>
+        <v>45993.6992824074</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>122</v>
@@ -3343,22 +3343,22 @@
         <v>126</v>
       </c>
       <c r="B93" s="2">
-        <v>45993.39545138889</v>
+        <v>45993.69541666667</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2">
-        <v>45993.68545138889</v>
+        <v>45993.9084375</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G93" s="2">
-        <v>15.16</v>
+        <v>13.65</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>123</v>
@@ -3369,22 +3369,22 @@
         <v>127</v>
       </c>
       <c r="B94" s="2">
-        <v>45993.5765625</v>
+        <v>45993.33579861111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>45993.91775462963</v>
+        <v>45993.64005787037</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G94" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>123</v>
@@ -3395,22 +3395,22 @@
         <v>128</v>
       </c>
       <c r="B95" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.39545138889</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.68545138889</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G95" s="2">
-        <v>13.65</v>
+        <v>15.16</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>123</v>
@@ -3421,16 +3421,16 @@
         <v>129</v>
       </c>
       <c r="B96" s="2">
-        <v>45993.69541666667</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45993.9084375</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>122</v>
@@ -3447,22 +3447,22 @@
         <v>130</v>
       </c>
       <c r="B97" s="2">
-        <v>45993.33579861111</v>
+        <v>45993.5765625</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2">
-        <v>45993.64005787037</v>
+        <v>45993.91775462963</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G97" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>123</v>
@@ -3470,19 +3470,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2">
-        <v>45993.58287037037</v>
+        <v>45993.57520833334</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2">
-        <v>45993.91707175926</v>
+        <v>45993.80771990741</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>122</v>
@@ -3496,25 +3496,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2">
-        <v>45993.57520833334</v>
+        <v>45993.37694444445</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2">
-        <v>45993.80771990741</v>
+        <v>45993.72078703704</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G99" s="2">
-        <v>24</v>
+        <v>13.65</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>123</v>
@@ -3525,22 +3525,22 @@
         <v>132</v>
       </c>
       <c r="B100" s="2">
-        <v>45993.32638888889</v>
+        <v>45993.58287037037</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>45993.58686342592</v>
+        <v>45993.91707175926</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>122</v>
       </c>
       <c r="G100" s="2">
-        <v>23.69</v>
+        <v>24</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>123</v>
@@ -3554,13 +3554,13 @@
         <v>45993.32542824074</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2">
         <v>45993.5269212963</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>133</v>
@@ -3577,22 +3577,22 @@
         <v>135</v>
       </c>
       <c r="B102" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.29008101852</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.58872685185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G102" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>137</v>
@@ -3603,22 +3603,22 @@
         <v>138</v>
       </c>
       <c r="B103" s="2">
-        <v>45993.39311342593</v>
+        <v>45993.95416666667</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2">
-        <v>45993.46118055555</v>
+        <v>45994.29306712963</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G103" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>137</v>
@@ -3629,22 +3629,22 @@
         <v>139</v>
       </c>
       <c r="B104" s="2">
-        <v>45993.95416666667</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45994.29306712963</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G104" s="2">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>137</v>
@@ -3652,19 +3652,19 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B105" s="2">
-        <v>45993.5</v>
+        <v>45993.39311342593</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>45993.5</v>
+        <v>45993.46118055555</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>136</v>
@@ -3681,22 +3681,22 @@
         <v>140</v>
       </c>
       <c r="B106" s="2">
-        <v>45993.62380787037</v>
+        <v>45993.5</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2">
-        <v>45993.95444444445</v>
+        <v>45993.5</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G106" s="2">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>137</v>
@@ -3707,22 +3707,22 @@
         <v>141</v>
       </c>
       <c r="B107" s="2">
-        <v>45993.62984953704</v>
+        <v>45993.62380787037</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>45993.95290509259</v>
+        <v>45993.95444444445</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G107" s="2">
-        <v>17.25</v>
+        <v>16.5</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>137</v>
@@ -3733,22 +3733,22 @@
         <v>142</v>
       </c>
       <c r="B108" s="2">
-        <v>45993.29008101852</v>
+        <v>45993.62984953704</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>45993.58872685185</v>
+        <v>45993.95290509259</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G108" s="2">
-        <v>16.5</v>
+        <v>17.25</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>137</v>
@@ -3759,22 +3759,22 @@
         <v>143</v>
       </c>
       <c r="B109" s="2">
-        <v>45993.36116898148</v>
+        <v>45993.33015046296</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>45993.64501157407</v>
+        <v>45993.49803240741</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G109" s="2">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>145</v>
@@ -3785,22 +3785,22 @@
         <v>146</v>
       </c>
       <c r="B110" s="2">
-        <v>45993.33015046296</v>
+        <v>45993.40340277777</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2">
-        <v>45993.49803240741</v>
+        <v>45993.67043981481</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G110" s="2">
-        <v>14.5</v>
+        <v>16.61</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>145</v>
@@ -3811,16 +3811,16 @@
         <v>147</v>
       </c>
       <c r="B111" s="2">
-        <v>45993.40340277777</v>
+        <v>45993.47619212963</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2">
-        <v>45993.67043981481</v>
+        <v>45993.66888888889</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>144</v>
@@ -3837,22 +3837,22 @@
         <v>148</v>
       </c>
       <c r="B112" s="2">
-        <v>45993.30981481481</v>
+        <v>45993.36116898148</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2">
-        <v>45993.67152777778</v>
+        <v>45993.64501157407</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G112" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>145</v>
@@ -3863,22 +3863,22 @@
         <v>149</v>
       </c>
       <c r="B113" s="2">
-        <v>45993.47619212963</v>
+        <v>45993.30981481481</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2">
-        <v>45993.66888888889</v>
+        <v>45993.67152777778</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G113" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>145</v>
@@ -3892,13 +3892,13 @@
         <v>45993.32358796296</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2">
         <v>45993.68211805556</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>151</v>
@@ -3918,13 +3918,13 @@
         <v>45993.69797453703</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2">
         <v>45994.08991898148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>154</v>
@@ -3941,22 +3941,22 @@
         <v>156</v>
       </c>
       <c r="B116" s="2">
-        <v>45993.34314814815</v>
+        <v>45993.35118055555</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2">
-        <v>45993.66737268519</v>
+        <v>45993.76359953704</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G116" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>158</v>
@@ -3967,22 +3967,22 @@
         <v>159</v>
       </c>
       <c r="B117" s="2">
-        <v>45993.33853009259</v>
+        <v>45993.34314814815</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2">
-        <v>45993.67113425926</v>
+        <v>45993.66737268519</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G117" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>158</v>
@@ -3993,22 +3993,22 @@
         <v>160</v>
       </c>
       <c r="B118" s="2">
-        <v>45993.35118055555</v>
+        <v>45993.33853009259</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>45993.76359953704</v>
+        <v>45993.67113425926</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G118" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>158</v>
@@ -4019,22 +4019,22 @@
         <v>161</v>
       </c>
       <c r="B119" s="2">
-        <v>45993.33784722222</v>
+        <v>45993.33415509259</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2">
-        <v>45993.5262037037</v>
+        <v>45993.52702546296</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G119" s="2">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>163</v>
@@ -4048,13 +4048,13 @@
         <v>45993.33333333334</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>162</v>
@@ -4071,22 +4071,22 @@
         <v>165</v>
       </c>
       <c r="B121" s="2">
-        <v>45993.33415509259</v>
+        <v>45993.33489583333</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2">
-        <v>45993.52702546296</v>
+        <v>45993.46734953704</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G121" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>163</v>
@@ -4097,22 +4097,22 @@
         <v>166</v>
       </c>
       <c r="B122" s="2">
-        <v>45993.33489583333</v>
+        <v>45993.33784722222</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2">
-        <v>45993.46734953704</v>
+        <v>45993.5262037037</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G122" s="2">
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>163</v>
@@ -4120,25 +4120,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2">
-        <v>45993.32947916666</v>
+        <v>45993.54539351852</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D123" s="2">
-        <v>45993.51585648148</v>
+        <v>45993.69030092593</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G123" s="2">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>163</v>
@@ -4149,16 +4149,16 @@
         <v>167</v>
       </c>
       <c r="B124" s="2">
-        <v>45993.54071759259</v>
+        <v>45993.32947916666</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2">
-        <v>45993.69123842593</v>
+        <v>45993.51585648148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>162</v>
@@ -4172,75 +4172,75 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B125" s="2">
-        <v>45993.33071759259</v>
+        <v>45993.33440972222</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2">
-        <v>45993.5552662037</v>
+        <v>45993.49506944444</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G125" s="2"/>
+      <c r="G125" s="2">
+        <v>16</v>
+      </c>
       <c r="H125" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B126" s="2">
-        <v>45993.33440972222</v>
+        <v>45993.33071759259</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2">
-        <v>45993.49506944444</v>
+        <v>45993.5552662037</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G126" s="2">
-        <v>16</v>
-      </c>
+      <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2">
-        <v>45993.54539351852</v>
+        <v>45993.54071759259</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D127" s="2">
-        <v>45993.69030092593</v>
+        <v>45993.69123842593</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G127" s="2">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>163</v>
@@ -4254,13 +4254,13 @@
         <v>45993.47342592593</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2">
         <v>45993.64969907407</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>170</v>
@@ -4277,13 +4277,13 @@
         <v>172</v>
       </c>
       <c r="B129" s="2">
-        <v>45993.33430555555</v>
+        <v>45993.27287037037</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2">
-        <v>45993.53699074074</v>
+        <v>45993.5634375</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>67</v>
@@ -4292,7 +4292,7 @@
         <v>173</v>
       </c>
       <c r="G129" s="2">
-        <v>23</v>
+        <v>17.72</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>174</v>
@@ -4303,22 +4303,22 @@
         <v>175</v>
       </c>
       <c r="B130" s="2">
-        <v>45993.27287037037</v>
+        <v>45993.55827546296</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D130" s="2">
-        <v>45993.5634375</v>
+        <v>45993.71579861111</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G130" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>174</v>
@@ -4329,22 +4329,22 @@
         <v>175</v>
       </c>
       <c r="B131" s="2">
-        <v>45993.58417824074</v>
+        <v>45993.33430555555</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2">
-        <v>45993.77274305555</v>
+        <v>45993.53699074074</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G131" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>174</v>
@@ -4355,22 +4355,22 @@
         <v>172</v>
       </c>
       <c r="B132" s="2">
-        <v>45993.55827546296</v>
+        <v>45993.58417824074</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D132" s="2">
-        <v>45993.71579861111</v>
+        <v>45993.77274305555</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G132" s="2">
-        <v>23</v>
+        <v>17.72</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>174</v>
@@ -4384,13 +4384,13 @@
         <v>45993.31112268518</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2">
         <v>45993.75378472222</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>177</v>
@@ -4410,13 +4410,13 @@
         <v>45993.66258101852</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2">
         <v>45993.67274305555</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>177</v>
@@ -4430,132 +4430,132 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45993.55390046296</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45993.68125</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="2">
-        <v>45993.53115740741</v>
-      </c>
-      <c r="C135" s="2" t="s">
+      <c r="G135" s="2">
+        <v>16</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D135" s="2">
-        <v>45993.61241898148</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G135" s="2">
-        <v>18</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B136" s="2">
-        <v>45993.33876157407</v>
+        <v>45993.2841550926</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45993.48572916666</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G136" s="2">
+        <v>18</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45993.69791666666</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G136" s="2">
-        <v>16</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B137" s="2">
-        <v>45993.36427083334</v>
+        <v>45993.53115740741</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45993.61241898148</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G137" s="2">
+        <v>18</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45993.7037037037</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G137" s="2">
-        <v>15</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="B138" s="2">
-        <v>45993.55390046296</v>
+        <v>45993.36427083334</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2">
-        <v>45993.68125</v>
+        <v>45993.7037037037</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G138" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45993.33876157407</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45993.69791666666</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B139" s="2">
-        <v>45993.2841550926</v>
-      </c>
-      <c r="C139" s="2" t="s">
+      <c r="G139" s="2">
+        <v>16</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45993.48572916666</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G139" s="2">
-        <v>18</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4566,13 +4566,13 @@
         <v>45993.33754629629</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2">
         <v>45993.67225694445</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>185</v>
@@ -4592,13 +4592,13 @@
         <v>45993.66103009259</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2">
         <v>45993.87820601852</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>188</v>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A0HA</t>
+    <t>A0BA</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,25 +61,97 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>A3JX</t>
-  </si>
-  <si>
-    <t>D826</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>A3RD</t>
-  </si>
-  <si>
-    <t>E270</t>
+    <t>F627</t>
+  </si>
+  <si>
+    <t>A0AF</t>
+  </si>
+  <si>
+    <t>A31F</t>
+  </si>
+  <si>
+    <t>A3MY</t>
+  </si>
+  <si>
+    <t>A4BY</t>
+  </si>
+  <si>
+    <t>A749</t>
+  </si>
+  <si>
+    <t>B884</t>
+  </si>
+  <si>
+    <t>C791</t>
+  </si>
+  <si>
+    <t>D954</t>
+  </si>
+  <si>
+    <t>H352</t>
+  </si>
+  <si>
+    <t>A0OV</t>
+  </si>
+  <si>
+    <t>A2C5</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>A3MC</t>
+  </si>
+  <si>
+    <t>A3OL</t>
+  </si>
+  <si>
+    <t>B925</t>
+  </si>
+  <si>
+    <t>C346</t>
+  </si>
+  <si>
+    <t>A3ML</t>
+  </si>
+  <si>
+    <t>A2CL</t>
+  </si>
+  <si>
+    <t>J405</t>
+  </si>
+  <si>
+    <t>A3MF</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>G891</t>
+  </si>
+  <si>
+    <t>A1UT</t>
+  </si>
+  <si>
+    <t>A1K3</t>
+  </si>
+  <si>
+    <t>A3MX</t>
+  </si>
+  <si>
+    <t>C282</t>
+  </si>
+  <si>
+    <t>D521</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>D528</t>
+  </si>
+  <si>
+    <t>A3I8</t>
   </si>
   <si>
     <t>D1020</t>
@@ -88,16 +160,13 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>D519</t>
-  </si>
-  <si>
-    <t>A3DJ</t>
-  </si>
-  <si>
-    <t>A3IL</t>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>A3J5</t>
+  </si>
+  <si>
+    <t>J561</t>
   </si>
   <si>
     <t>D1030</t>
@@ -106,19 +175,28 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>G397</t>
-  </si>
-  <si>
-    <t>H716</t>
-  </si>
-  <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>I238</t>
+    <t>E568</t>
+  </si>
+  <si>
+    <t>A42T</t>
+  </si>
+  <si>
+    <t>A0QK</t>
+  </si>
+  <si>
+    <t>A3IA</t>
+  </si>
+  <si>
+    <t>A3IC</t>
+  </si>
+  <si>
+    <t>A3IH</t>
+  </si>
+  <si>
+    <t>A3WC</t>
+  </si>
+  <si>
+    <t>E684</t>
   </si>
   <si>
     <t>D1060</t>
@@ -127,7 +205,16 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>I590</t>
+    <t>A10D</t>
+  </si>
+  <si>
+    <t>F497</t>
+  </si>
+  <si>
+    <t>I806</t>
+  </si>
+  <si>
+    <t>C349</t>
   </si>
   <si>
     <t>D1070</t>
@@ -136,19 +223,13 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>E877</t>
-  </si>
-  <si>
-    <t>E135</t>
-  </si>
-  <si>
-    <t>E436</t>
-  </si>
-  <si>
-    <t>C653</t>
-  </si>
-  <si>
-    <t>J185</t>
+    <t>A4CF</t>
+  </si>
+  <si>
+    <t>C215</t>
+  </si>
+  <si>
+    <t>A20A</t>
   </si>
   <si>
     <t>D1100</t>
@@ -157,10 +238,10 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>J024</t>
+    <t>B567</t>
+  </si>
+  <si>
+    <t>D576</t>
   </si>
   <si>
     <t>D1200</t>
@@ -169,409 +250,400 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>A889</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>B160</t>
-  </si>
-  <si>
-    <t>E471</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>A2O6</t>
+    <t>G710</t>
+  </si>
+  <si>
+    <t>D619</t>
+  </si>
+  <si>
+    <t>A3IF</t>
+  </si>
+  <si>
+    <t>A3I5</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>I588</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>A3HX</t>
+  </si>
+  <si>
+    <t>A719</t>
+  </si>
+  <si>
+    <t>D172</t>
+  </si>
+  <si>
+    <t>A3JT</t>
+  </si>
+  <si>
+    <t>G573</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>G190</t>
+  </si>
+  <si>
+    <t>A0ZW</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>F510</t>
+  </si>
+  <si>
+    <t>A0QI</t>
+  </si>
+  <si>
+    <t>A3X5</t>
+  </si>
+  <si>
+    <t>A3NX</t>
+  </si>
+  <si>
+    <t>E721</t>
+  </si>
+  <si>
+    <t>A2CR</t>
+  </si>
+  <si>
+    <t>A3RQ</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>G730</t>
+  </si>
+  <si>
+    <t>A399</t>
+  </si>
+  <si>
+    <t>A2ID</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A44H</t>
+  </si>
+  <si>
+    <t>A2JE</t>
+  </si>
+  <si>
+    <t>A46N</t>
+  </si>
+  <si>
+    <t>A2YQ</t>
+  </si>
+  <si>
+    <t>A3RK</t>
+  </si>
+  <si>
+    <t>H439</t>
+  </si>
+  <si>
+    <t>A2PL</t>
+  </si>
+  <si>
+    <t>D259</t>
+  </si>
+  <si>
+    <t>F370</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>C216</t>
+  </si>
+  <si>
+    <t>A3KM</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>Agassiz Retail</t>
+  </si>
+  <si>
+    <t>B622</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>A2LG</t>
+  </si>
+  <si>
+    <t>A3KA</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>F&amp;B Admin</t>
+  </si>
+  <si>
+    <t>H636</t>
+  </si>
+  <si>
+    <t>E794</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A41D</t>
+  </si>
+  <si>
+    <t>A2KU</t>
+  </si>
+  <si>
+    <t>I133</t>
+  </si>
+  <si>
+    <t>A3ZD</t>
+  </si>
+  <si>
+    <t>A3JQ</t>
+  </si>
+  <si>
+    <t>A0H4</t>
+  </si>
+  <si>
+    <t>A3YI</t>
+  </si>
+  <si>
+    <t>A3ZC</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>A3YL</t>
+  </si>
+  <si>
+    <t>A0VA</t>
+  </si>
+  <si>
+    <t>I271</t>
+  </si>
+  <si>
+    <t>A995</t>
+  </si>
+  <si>
+    <t>A0LX</t>
+  </si>
+  <si>
+    <t>A3TO</t>
+  </si>
+  <si>
+    <t>F766</t>
+  </si>
+  <si>
+    <t>A3TV</t>
+  </si>
+  <si>
+    <t>A45O</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>A3Z0</t>
+  </si>
+  <si>
+    <t>A2JX</t>
+  </si>
+  <si>
+    <t>A0G5</t>
+  </si>
+  <si>
+    <t>A41H</t>
+  </si>
+  <si>
+    <t>A3Z3</t>
+  </si>
+  <si>
+    <t>A1ZD</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>A515</t>
+  </si>
+  <si>
+    <t>A0G7</t>
+  </si>
+  <si>
+    <t>A3Z2</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>A04Q</t>
+  </si>
+  <si>
+    <t>E926</t>
+  </si>
+  <si>
+    <t>A3HG</t>
+  </si>
+  <si>
+    <t>A0J5</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>A3OR</t>
+  </si>
+  <si>
+    <t>A0BO</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>A2IA</t>
+  </si>
+  <si>
+    <t>A3SU</t>
+  </si>
+  <si>
+    <t>A2V1</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>C947</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>A2FQ</t>
+  </si>
+  <si>
+    <t>A3PS</t>
+  </si>
+  <si>
+    <t>A2GD</t>
+  </si>
+  <si>
+    <t>A39M</t>
+  </si>
+  <si>
+    <t>A3TG</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A3SA</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>A2KR</t>
-  </si>
-  <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>A511</t>
-  </si>
-  <si>
-    <t>A3WP</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>A3PB</t>
-  </si>
-  <si>
-    <t>A3TH</t>
-  </si>
-  <si>
-    <t>A3J7</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A3JE</t>
-  </si>
-  <si>
-    <t>A3LG</t>
-  </si>
-  <si>
-    <t>A3JG</t>
-  </si>
-  <si>
-    <t>A3KK</t>
-  </si>
-  <si>
-    <t>A3JR</t>
-  </si>
-  <si>
-    <t>A3K5</t>
-  </si>
-  <si>
-    <t>A3T2</t>
-  </si>
-  <si>
-    <t>A3NE</t>
-  </si>
-  <si>
-    <t>A3ND</t>
-  </si>
-  <si>
-    <t>A3T1</t>
-  </si>
-  <si>
-    <t>A3UW</t>
-  </si>
-  <si>
-    <t>A3NU</t>
-  </si>
-  <si>
-    <t>A3L0</t>
-  </si>
-  <si>
-    <t>A3K4</t>
-  </si>
-  <si>
-    <t>A3IU</t>
-  </si>
-  <si>
-    <t>A3K9</t>
-  </si>
-  <si>
-    <t>A3K2</t>
-  </si>
-  <si>
-    <t>A46U</t>
-  </si>
-  <si>
-    <t>A3NH</t>
-  </si>
-  <si>
-    <t>A3OV</t>
-  </si>
-  <si>
-    <t>A46W</t>
-  </si>
-  <si>
-    <t>A3OH</t>
-  </si>
-  <si>
-    <t>A3T0</t>
-  </si>
-  <si>
-    <t>G327</t>
-  </si>
-  <si>
-    <t>A44E</t>
-  </si>
-  <si>
-    <t>A45U</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>A2LP</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>A0G3</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
-    <t>A3V5</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>A3FO</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A3ZI</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>A36T</t>
-  </si>
-  <si>
-    <t>G724</t>
-  </si>
-  <si>
-    <t>A3Q8</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>J335</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>A0XV</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
-    <t>A3U9</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A42D</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>A42C</t>
-  </si>
-  <si>
-    <t>A3DX</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>A44W</t>
-  </si>
-  <si>
-    <t>H341</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>I999</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
-    <t>A3DT</t>
-  </si>
-  <si>
-    <t>C825</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>A37G</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>A3FH</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>C516</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>I953</t>
-  </si>
-  <si>
-    <t>A3HI</t>
-  </si>
-  <si>
-    <t>A3HC</t>
-  </si>
-  <si>
-    <t>A0KH</t>
+    <t>D754</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>A3O6</t>
+  </si>
+  <si>
+    <t>H577</t>
   </si>
   <si>
     <t>D6780</t>
@@ -580,22 +652,7 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>A2SD</t>
-  </si>
-  <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A1WB</t>
-  </si>
-  <si>
-    <t>A0HT</t>
-  </si>
-  <si>
-    <t>A3X1</t>
+    <t>A3TW</t>
   </si>
   <si>
     <t>D6790</t>
@@ -604,13 +661,25 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A2RJ</t>
-  </si>
-  <si>
-    <t>F131</t>
-  </si>
-  <si>
-    <t>D737</t>
+    <t>H094</t>
+  </si>
+  <si>
+    <t>A3TX</t>
+  </si>
+  <si>
+    <t>J280</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>A415</t>
+  </si>
+  <si>
+    <t>G598</t>
   </si>
   <si>
     <t>D8020</t>
@@ -619,34 +688,25 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A3C3</t>
+    <t>A393</t>
+  </si>
+  <si>
+    <t>A2ST</t>
+  </si>
+  <si>
+    <t>D575</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>A1BT</t>
-  </si>
-  <si>
-    <t>A39Q</t>
-  </si>
-  <si>
-    <t>A1ZP</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>D8800</t>
-  </si>
-  <si>
-    <t>Pass-through Accounts</t>
+    <t>E835</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>Capital Project 9</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,7 +1083,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1063,13 +1123,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46000.30037037037</v>
+        <v>46000.33521990741</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46000.69413194444</v>
+        <v>46000.68952546296</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1078,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1095,13 +1155,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46000.30905092593</v>
+        <v>46000.32520833334</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46000.68984953704</v>
+        <v>46000.69791666666</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1110,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1127,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46000.28980324074</v>
+        <v>46000.32980324074</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46000.68972222223</v>
+        <v>46000.68672453704</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1142,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1159,13 +1219,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46000.29940972223</v>
+        <v>46000.3402199074</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>46000.68859953704</v>
+        <v>46000.69721064815</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1174,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1191,13 +1251,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46000.28993055555</v>
+        <v>46000.32460648148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46000.70199074074</v>
+        <v>46000.69760416666</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1206,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1223,13 +1283,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46000.31746527777</v>
+        <v>46000.3239699074</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>46000.68666666667</v>
+        <v>46000.68197916666</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1238,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1255,13 +1315,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46000.32877314815</v>
+        <v>46000.33366898148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46000.67908564815</v>
+        <v>46000.68521990741</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1270,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1287,22 +1347,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46000.27559027778</v>
+        <v>46000.32591435185</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46000.69603009259</v>
+        <v>46000.68184027778</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>35.43</v>
+        <v>17.15</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1311,30 +1371,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>46000.2678125</v>
+        <v>46000.3334375</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>46000.70071759259</v>
+        <v>46000.7067824074</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>29.87</v>
+        <v>18.75</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1343,30 +1403,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>46000.27951388889</v>
+        <v>46000.32940972222</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46000.69575231482</v>
+        <v>46000.69569444445</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>21.57</v>
+        <v>17.4</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1375,30 +1435,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>46000.26792824074</v>
+        <v>46000.32619212963</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46000.68914351852</v>
+        <v>46000.70799768518</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>25</v>
+        <v>17.75</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,30 +1467,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>46000.77744212963</v>
+        <v>46000.3377662037</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46000.77760416667</v>
+        <v>46000.6875</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>19</v>
+        <v>17.4</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1439,26 +1499,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>46000.43810185185</v>
+        <v>46000.33258101852</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>46000.70491898148</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>18.55</v>
+        <v>17.85</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1467,26 +1531,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>46000.47067129629</v>
+        <v>46000.3233912037</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2">
+        <v>46000.70783564815</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1495,26 +1563,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>46000.44802083333</v>
+        <v>46000.32725694445</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2">
+        <v>46000.70298611111</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>18.55</v>
+        <v>18.35</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1523,26 +1595,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>46000.45960648148</v>
+        <v>46000.33219907407</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2">
+        <v>46000.6924074074</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>18.55</v>
+        <v>18.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1551,30 +1627,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>46000.30262731481</v>
+        <v>46000.32783564815</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>46000.70030092593</v>
+        <v>46000.72401620371</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>16</v>
+        <v>19.15</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1583,30 +1659,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>46000.01729166666</v>
+        <v>46000.32451388889</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46000.40256944444</v>
+        <v>46000.70796296297</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>21.8</v>
+        <v>17.65</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1615,26 +1691,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>46000.44729166666</v>
+        <v>46000.32737268518</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>46000.6921875</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1643,26 +1723,30 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>46000.5834837963</v>
+        <v>46000.32525462963</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2">
+        <v>46000.70506944445</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>25.75</v>
+        <v>17.85</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1671,26 +1755,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>46000.62003472223</v>
+        <v>46000.3327662037</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2">
+        <v>46000.70277777778</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>23</v>
+        <v>15.25</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1699,30 +1787,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>46000.70761574074</v>
+        <v>46000.32303240741</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>46001.02408564815</v>
+        <v>46000.70141203704</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>21</v>
+        <v>18.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1731,30 +1819,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>46000.35005787037</v>
+        <v>46000.27788194444</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>46000.73488425926</v>
+        <v>46000.70833333334</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>27</v>
+        <v>24.35</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1763,30 +1851,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>46000.22576388889</v>
+        <v>46000.33109953703</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>46000.70747685185</v>
+        <v>46000.69605324074</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>22.66</v>
+        <v>17.65</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1795,30 +1883,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>46000.31707175926</v>
+        <v>46000.32855324074</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>46000.70527777778</v>
+        <v>46000.69754629629</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
-        <v>24.09</v>
+        <v>17.4</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1827,30 +1915,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>46000.31594907407</v>
+        <v>46000.32768518518</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46000.70752314815</v>
+        <v>46000.68422453704</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
-        <v>16.63</v>
+        <v>18.25</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1859,30 +1947,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>46000.31847222222</v>
+        <v>46000.32668981481</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>46000.70880787037</v>
+        <v>46000.70511574074</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>22.34</v>
+        <v>18.35</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1891,30 +1979,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>46000.41033564815</v>
+        <v>46000.31555555556</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>46000.72579861111</v>
+        <v>46000.70429398148</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>22</v>
+        <v>17.75</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1923,30 +2011,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>46000.31466435185</v>
+        <v>46000.32576388889</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>46000.70363425926</v>
+        <v>46000.69364583334</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
-        <v>23.84</v>
+        <v>18.25</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1955,30 +2043,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>46000.31173611111</v>
+        <v>46000.33005787037</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46000.63340277778</v>
+        <v>46000.70447916666</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
-        <v>12.56</v>
+        <v>17.75</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1987,30 +2075,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
-        <v>46000.316875</v>
+        <v>46000.32741898148</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46000.705625</v>
+        <v>46000.70473379629</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
-        <v>25.84</v>
+        <v>15.85</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2019,30 +2107,26 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
-        <v>46000.31622685185</v>
+        <v>46000.29206018519</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2">
-        <v>46000.70502314815</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G33" s="2">
-        <v>25.09</v>
+        <v>22.4</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2051,30 +2135,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
-        <v>46000.3125</v>
+        <v>46000.28928240741</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>46000.70319444445</v>
+        <v>46000.71344907407</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G34" s="2">
-        <v>22.84</v>
+        <v>22.1</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2083,15 +2167,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
-        <v>46000.31724537037</v>
+        <v>46000.28216435185</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -2099,10 +2183,10 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G35" s="2">
-        <v>24.59</v>
+        <v>19.65</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2111,30 +2195,26 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
-        <v>46000.31372685185</v>
+        <v>46000.56827546296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2">
-        <v>46000.70793981481</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G36" s="2">
-        <v>20.06</v>
+        <v>15.5</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2143,30 +2223,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>46000.31188657408</v>
+        <v>46000.50658564815</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46000.70717592593</v>
+        <v>46000.75378472222</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2">
-        <v>19.77</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2175,30 +2255,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>46000.31159722222</v>
+        <v>46000.00023148148</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46000.70394675926</v>
+        <v>46000.30298611111</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G38" s="2">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2207,30 +2287,26 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>46000.31207175926</v>
+        <v>46000.56814814815</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2">
-        <v>46000.70775462963</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G39" s="2">
-        <v>18.77</v>
+        <v>19.15</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2239,30 +2315,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>46000.33447916667</v>
+        <v>46000.00462962963</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>46000.51233796297</v>
+        <v>46000.51707175926</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G40" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2271,30 +2347,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>46000.52611111111</v>
+        <v>46000.57359953703</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>46000.70296296296</v>
+        <v>46001.00820601852</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G41" s="2">
-        <v>15</v>
+        <v>20.2</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2303,30 +2379,30 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>46000.32982638889</v>
+        <v>46000.65783564815</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>46000.71070601852</v>
+        <v>46001.00096064815</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2335,30 +2411,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2">
-        <v>46000.33478009259</v>
+        <v>46000</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46000.4871412037</v>
+        <v>46000.30015046296</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G43" s="2">
-        <v>15</v>
+        <v>20.2</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2367,30 +2443,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2">
-        <v>46000.52182870371</v>
+        <v>46000.32622685185</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>46000.70295138889</v>
+        <v>46000.71829861111</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G44" s="2">
-        <v>17.5</v>
+        <v>21.5</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2399,30 +2475,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2">
-        <v>46000.3350462963</v>
+        <v>46000.44271990741</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>46000.50225694444</v>
+        <v>46000.73780092593</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G45" s="2">
-        <v>17.5</v>
+        <v>18.25</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2431,30 +2507,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2">
-        <v>46000.32966435186</v>
+        <v>46000.70833333334</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>46000.50131944445</v>
+        <v>46001.10193287037</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G46" s="2">
-        <v>18</v>
+        <v>21.15</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2463,30 +2539,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
-        <v>46000.32212962963</v>
+        <v>46000.07469907407</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46000.75295138889</v>
+        <v>46000.40311342593</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G47" s="2">
-        <v>17.5</v>
+        <v>21.15</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2495,30 +2571,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
-        <v>46000.54298611111</v>
+        <v>46000.67296296296</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>46000.68770833333</v>
+        <v>46001.07283564815</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G48" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2527,30 +2603,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
-        <v>46000.33564814815</v>
+        <v>46000.68628472222</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>46000.51954861111</v>
+        <v>46000.98633101852</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2">
-        <v>18</v>
+        <v>27.81</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2559,30 +2635,30 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2">
-        <v>46000.3315162037</v>
+        <v>46000.36657407408</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>46000.60003472222</v>
+        <v>46000.706875</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2591,30 +2667,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2">
-        <v>46000.334375</v>
+        <v>46000.07199074074</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>46000.51219907407</v>
+        <v>46000.39879629629</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2623,30 +2699,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2">
-        <v>46000.330625</v>
+        <v>46000.52681712963</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>46000.52410879629</v>
+        <v>46000.69747685185</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G52" s="2">
-        <v>17.5</v>
+        <v>35</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2655,30 +2731,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="2">
+        <v>46000.28496527778</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>46000.50753472222</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="2">
-        <v>46000.53981481482</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="2">
-        <v>46000.74424768519</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G53" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2687,30 +2763,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.29100694445</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46000.33373842593</v>
+        <v>46000.73173611111</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G54" s="2">
-        <v>21.44</v>
+        <v>31.83</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2719,26 +2795,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2">
-        <v>46000.6824537037</v>
+        <v>46000.32049768518</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2">
+        <v>46000.73920138889</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2">
-        <v>21.44</v>
+        <v>19</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2747,30 +2827,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2">
-        <v>46000.32923611111</v>
+        <v>46000.31396990741</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46000.50753472222</v>
+        <v>46000.72358796297</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2779,30 +2859,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2">
-        <v>46000.33491898148</v>
+        <v>46000.31736111111</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46000.59766203703</v>
+        <v>46000.72333333334</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G57" s="2">
-        <v>15</v>
+        <v>21.2</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2811,30 +2891,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2">
-        <v>46000.70010416667</v>
+        <v>46000.32560185185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>46000.70015046297</v>
+        <v>46000.72278935185</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G58" s="2">
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2843,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2851,22 +2931,22 @@
         <v>81</v>
       </c>
       <c r="B59" s="2">
-        <v>46000.33167824074</v>
+        <v>46000.32229166666</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46000.5625</v>
+        <v>46000.7374537037</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G59" s="2">
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2875,30 +2955,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2">
-        <v>46000.58263888889</v>
+        <v>46000.31685185185</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>46000.58269675926</v>
+        <v>46000.7112037037</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G60" s="2">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2907,62 +2987,62 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="H61" s="2">
+        <v>8</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B61" s="2">
-        <v>46000.54884259259</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="2">
-        <v>46000.71160879629</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2">
-        <v>46000.58351851852</v>
+        <v>46000.31085648148</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>46000.70890046296</v>
+        <v>46000.71807870371</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G62" s="2">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2971,39 +3051,39 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2">
-        <v>46000</v>
+        <v>46000.32686342593</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>46000</v>
+        <v>46000.72354166667</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G63" s="2">
-        <v>15.5</v>
+        <v>19.65</v>
       </c>
       <c r="H63" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3011,31 +3091,31 @@
         <v>87</v>
       </c>
       <c r="B64" s="2">
-        <v>46000</v>
+        <v>46000.31210648148</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>46000</v>
+        <v>46000.71984953704</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G64" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H64" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3043,31 +3123,31 @@
         <v>88</v>
       </c>
       <c r="B65" s="2">
-        <v>46000</v>
+        <v>46000.31958333333</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>46000</v>
+        <v>46000.74101851852</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" s="2">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="H65" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3075,31 +3155,31 @@
         <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>46000</v>
+        <v>46000.31563657407</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>46000</v>
+        <v>46000.73104166667</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" s="2">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="H66" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3107,31 +3187,31 @@
         <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>46000</v>
+        <v>46000.31625</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46000</v>
+        <v>46000.73369212963</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G67" s="2">
-        <v>16</v>
+        <v>19.35</v>
       </c>
       <c r="H67" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3139,31 +3219,31 @@
         <v>91</v>
       </c>
       <c r="B68" s="2">
-        <v>46000</v>
+        <v>46000.35416666666</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46000</v>
+        <v>46000.7296412037</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G68" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H68" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3171,662 +3251,658 @@
         <v>92</v>
       </c>
       <c r="B69" s="2">
-        <v>46000</v>
+        <v>46000.3406712963</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G69" s="2">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="H69" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2">
+        <v>46000.32513888889</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>46000.74204861111</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G70" s="2">
-        <v>16</v>
+        <v>21.25</v>
       </c>
       <c r="H70" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2">
+        <v>46000.36471064815</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>46000.58429398148</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B71" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="2">
-        <v>16</v>
-      </c>
-      <c r="H71" s="2">
-        <v>6</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2">
-        <v>46000</v>
+        <v>46000.31590277778</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>46000</v>
+        <v>46000.54457175926</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G72" s="2">
-        <v>15.5</v>
+        <v>19.35</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2">
-        <v>46000</v>
+        <v>46000.55725694444</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>46000</v>
+        <v>46001.31270833333</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G73" s="2">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="H73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2">
-        <v>46000</v>
+        <v>46000.3253587963</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>46000</v>
+        <v>46000.63940972222</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G74" s="2">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="H74" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2">
-        <v>46000</v>
+        <v>46000.32291666666</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>46000</v>
+        <v>46000.709375</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G75" s="2">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="H75" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2">
-        <v>46000</v>
+        <v>46000.31336805555</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>46000</v>
+        <v>46000.5124537037</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G76" s="2">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="H76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2">
-        <v>46000</v>
+        <v>46000.32251157407</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>46000</v>
+        <v>46000.48414351852</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G77" s="2">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="H77" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2">
-        <v>46000</v>
+        <v>46000.32792824074</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>46000</v>
+        <v>46000.66667824074</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G78" s="2">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="H78" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2">
-        <v>46000</v>
+        <v>46000.32225694445</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46000</v>
+        <v>46000.68715277778</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G79" s="2">
-        <v>16</v>
+        <v>25.35</v>
       </c>
       <c r="H79" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2">
-        <v>46000</v>
+        <v>46000.32189814815</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>46000</v>
+        <v>46000.59704861111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G80" s="2">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="H80" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="2">
+        <v>46000.32328703703</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2">
+        <v>46000.64572916667</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G81" s="2">
-        <v>18.5</v>
+        <v>21.25</v>
       </c>
       <c r="H81" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2">
-        <v>46000</v>
+        <v>46000.62554398148</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>46000</v>
+        <v>46000.71356481482</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G82" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H82" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2">
-        <v>46000</v>
+        <v>46000.32305555556</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46000</v>
+        <v>46000.53479166667</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G83" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H83" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2">
-        <v>46000</v>
+        <v>46000.32231481482</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2">
-        <v>46000</v>
+        <v>46000.71825231481</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G84" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H84" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2">
-        <v>46000</v>
+        <v>46000.58739583333</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46000</v>
+        <v>46000.71400462963</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G85" s="2">
-        <v>17.5</v>
+        <v>18.35</v>
       </c>
       <c r="H85" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="2">
+        <v>46000.31917824074</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2">
+        <v>46000.51108796296</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B86" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G86" s="2">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="H86" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2">
+        <v>46000.32271990741</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2">
+        <v>46000.5661574074</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B87" s="2">
-        <v>46000.33541666667</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="2">
-        <v>46000.71034722222</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" s="2">
-        <v>17.51</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2">
-        <v>46000</v>
+        <v>46000.3247337963</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>46000</v>
+        <v>46000.58534722222</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G88" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H88" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2">
-        <v>46000.36495370371</v>
+        <v>46000.58148148148</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46000.51509259259</v>
+        <v>46000.71388888889</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G89" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3835,30 +3911,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2">
-        <v>46000.58033564815</v>
+        <v>46000.32449074074</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46000.61418981481</v>
+        <v>46000.49671296297</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G90" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3867,26 +3943,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2">
-        <v>46000.63271990741</v>
+        <v>46000.58179398148</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D91" s="2">
+        <v>46000.71349537037</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G91" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3895,30 +3975,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2">
-        <v>46000.50704861111</v>
+        <v>46000.32190972222</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>46000.68179398148</v>
+        <v>46000.57165509259</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G92" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3927,30 +4007,30 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2">
-        <v>46000.33931712963</v>
+        <v>46000.31751157407</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>46000.72144675926</v>
+        <v>46000.46108796296</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G93" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -3959,30 +4039,26 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2">
-        <v>46000.33663194445</v>
+        <v>46000.54300925926</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="2">
-        <v>46000.54636574074</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G94" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -3991,30 +4067,30 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
-        <v>46000.33495370371</v>
+        <v>46000.62195601852</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46000.65459490741</v>
+        <v>46000.72686342592</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G95" s="2">
-        <v>15</v>
+        <v>18.6</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4023,30 +4099,30 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2">
-        <v>46000.34760416667</v>
+        <v>46000.5966087963</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46000.6883912037</v>
+        <v>46000.71357638889</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G96" s="2">
-        <v>13.65</v>
+        <v>18.35</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4055,30 +4131,30 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2">
-        <v>46000.32840277778</v>
+        <v>46000.30523148148</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>46000.670625</v>
+        <v>46000.5980787037</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G97" s="2">
-        <v>17.48</v>
+        <v>18.6</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4087,26 +4163,30 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2">
-        <v>46000.68771990741</v>
+        <v>46000.53166666667</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D98" s="2">
+        <v>46000.71353009259</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G98" s="2">
-        <v>24</v>
+        <v>18.75</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -4115,30 +4195,30 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2">
-        <v>46000.34158564815</v>
+        <v>46000.32672453704</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>46000.654375</v>
+        <v>46000.67112268518</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G99" s="2">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -4147,30 +4227,30 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2">
-        <v>46000.33568287037</v>
+        <v>46000.32619212963</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46000.6483912037</v>
+        <v>46000.6709837963</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G100" s="2">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4179,30 +4259,30 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2">
-        <v>46000.34019675926</v>
+        <v>46000.31440972222</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46000.64725694444</v>
+        <v>46000.69802083333</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G101" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4211,30 +4291,30 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2">
-        <v>46000.34175925926</v>
+        <v>46000.72716435185</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46000.65200231481</v>
+        <v>46000.75550925926</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G102" s="2">
-        <v>19</v>
+        <v>18.25</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4243,30 +4323,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2">
-        <v>46000.33337962963</v>
+        <v>46000.32364583333</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46000.64763888889</v>
+        <v>46000.56265046296</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G103" s="2">
-        <v>20</v>
+        <v>18.25</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4275,30 +4355,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2">
-        <v>46000.65533564815</v>
+        <v>46000.32681712963</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46000.89627314815</v>
+        <v>46000.60782407408</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G104" s="2">
-        <v>15.16</v>
+        <v>17.85</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4307,30 +4387,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2">
-        <v>46000.34869212963</v>
+        <v>46000.58916666666</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46000.65785879629</v>
+        <v>46000.69668981482</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G105" s="2">
-        <v>21</v>
+        <v>18.25</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4339,30 +4419,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2">
-        <v>46000.66072916667</v>
+        <v>46000.36980324074</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>46000.91399305555</v>
+        <v>46000.71373842593</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G106" s="2">
-        <v>22</v>
+        <v>17.85</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4371,30 +4451,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2">
-        <v>46000.61517361111</v>
+        <v>46000.31996527778</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46000.91542824074</v>
+        <v>46000.72027777778</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G107" s="2">
-        <v>13.65</v>
+        <v>19.15</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4403,30 +4483,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
-        <v>46000.33800925926</v>
+        <v>46000.34787037037</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46000.60863425926</v>
+        <v>46000.73890046297</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G108" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4435,30 +4515,30 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2">
-        <v>46000.36994212963</v>
+        <v>46000.36135416666</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>46000.68260416666</v>
+        <v>46000.74123842592</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G109" s="2">
-        <v>13.65</v>
+        <v>14.8</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4467,30 +4547,30 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2">
-        <v>46000.58457175926</v>
+        <v>46000.37266203704</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46000.94756944444</v>
+        <v>46000.58862268519</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G110" s="2">
-        <v>22</v>
+        <v>18.35</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4499,30 +4579,30 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B111" s="2">
-        <v>46000.33423611111</v>
+        <v>46000.35265046296</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>46000.6475462963</v>
+        <v>46000.70138888889</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G111" s="2">
-        <v>21</v>
+        <v>17.85</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4531,62 +4611,62 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.37862268519</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.73171296297</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G112" s="2">
-        <v>13.65</v>
+        <v>13</v>
       </c>
       <c r="H112" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2">
-        <v>46000.37418981481</v>
+        <v>46000.35976851852</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46000.68122685186</v>
+        <v>46000.60596064815</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G113" s="2">
-        <v>15.16</v>
+        <v>18.35</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4595,30 +4675,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2">
-        <v>46000.37003472223</v>
+        <v>46000.23065972222</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46000.70493055556</v>
+        <v>46000.30341435185</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G114" s="2">
-        <v>13.65</v>
+        <v>21.8</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4627,30 +4707,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2">
-        <v>46000.45584490741</v>
+        <v>46000.37775462963</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46000.9478125</v>
+        <v>46000.6875</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G115" s="2">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4659,30 +4739,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2">
-        <v>46000.29755787037</v>
+        <v>46000.36516203704</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>46000.62763888889</v>
+        <v>46000.73673611111</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G116" s="2">
-        <v>15.16</v>
+        <v>18.35</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4691,30 +4771,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2">
-        <v>46000.28483796296</v>
+        <v>46000.45675925926</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>46000.62173611111</v>
+        <v>46000.68832175926</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G117" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4723,30 +4803,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2">
-        <v>46000.29131944444</v>
+        <v>46000.31224537037</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46000.62283564815</v>
+        <v>46000.56237268518</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G118" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4755,26 +4835,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2">
-        <v>46000.95151620371</v>
+        <v>46000.40862268519</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="D119" s="2">
+        <v>46000.73408564815</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G119" s="2">
-        <v>18.5</v>
+        <v>21.8</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4783,30 +4867,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2">
-        <v>46000.62003472223</v>
+        <v>46000.27870370371</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>46000.96015046296</v>
+        <v>46000.37806712963</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G120" s="2">
-        <v>16.5</v>
+        <v>21.8</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4815,30 +4899,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B121" s="2">
-        <v>46000.28972222222</v>
+        <v>46000.29052083333</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>46000.62313657408</v>
+        <v>46000.65122685185</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G121" s="2">
-        <v>20</v>
+        <v>19.65</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4847,30 +4931,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B122" s="2">
-        <v>46000.6290162037</v>
+        <v>46000.34645833333</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>46000.96476851852</v>
+        <v>46000.4384375</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G122" s="2">
-        <v>17.25</v>
+        <v>15.9</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -4879,30 +4963,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2">
-        <v>46000.33078703703</v>
+        <v>46000.29266203703</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46000.66700231482</v>
+        <v>46000.68835648148</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G123" s="2">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4911,30 +4995,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2">
-        <v>46000.31236111111</v>
+        <v>46000.53728009259</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>46000.60998842592</v>
+        <v>46000.65755787037</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G124" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -4943,30 +5027,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2">
-        <v>46000.31997685185</v>
+        <v>46000.82421296297</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>46000.47267361111</v>
+        <v>46000.83171296296</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G125" s="2">
-        <v>14.5</v>
+        <v>21.25</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -4975,30 +5059,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2">
-        <v>46000.37163194444</v>
+        <v>46000.39640046296</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>46000.83528935185</v>
+        <v>46000.41612268519</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G126" s="2">
-        <v>16.61</v>
+        <v>21.25</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5007,62 +5091,62 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B127" s="2">
-        <v>46000.37175925926</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D127" s="2">
-        <v>46000.86230324074</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G127" s="2">
-        <v>16.61</v>
+        <v>18.35</v>
       </c>
       <c r="H127" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B128" s="2">
-        <v>46000.3471412037</v>
+        <v>46000.29005787037</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46000.64081018518</v>
+        <v>46000.56570601852</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G128" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5071,30 +5155,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2">
-        <v>46000.32354166666</v>
+        <v>46000.353125</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46000.68736111111</v>
+        <v>46000.70137731481</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G129" s="2">
-        <v>20.68</v>
+        <v>18.35</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5103,29 +5187,31 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B130" s="2">
-        <v>46000.53688657407</v>
+        <v>46000.26037037037</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>46000.68256944444</v>
+        <v>46000.64583333334</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G130" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="G130" s="2">
+        <v>19.65</v>
+      </c>
       <c r="H130" s="2">
         <v>0</v>
       </c>
@@ -5133,26 +5219,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2">
-        <v>46000.77504629629</v>
+        <v>46000.30505787037</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="D131" s="2">
+        <v>46000.68695601852</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="G131" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5161,30 +5251,30 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2">
-        <v>46000.34276620371</v>
+        <v>46000.304375</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>46000.75157407407</v>
+        <v>46000.60202546296</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G132" s="2">
-        <v>22</v>
+        <v>17.85</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5193,30 +5283,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2">
-        <v>46000.34643518519</v>
+        <v>46000.28983796296</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>46000.68004629629</v>
+        <v>46000.56569444444</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G133" s="2">
-        <v>15.25</v>
+        <v>17.4</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5225,30 +5315,30 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2">
-        <v>46000.33953703703</v>
+        <v>46000.45666666667</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>46000.67703703704</v>
+        <v>46000.45670138889</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G134" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5257,30 +5347,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B135" s="2">
-        <v>46000.33936342593</v>
+        <v>46000.52841435185</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>46000.6403587963</v>
+        <v>46000.73236111111</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G135" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5289,30 +5379,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2">
-        <v>46000.32400462963</v>
+        <v>46000.45703703703</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46000.5509375</v>
+        <v>46000.68966435185</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="G136" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5321,30 +5411,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2">
-        <v>46000.33659722222</v>
+        <v>46000.59241898148</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>46000.53346064815</v>
+        <v>46000.88997685185</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G137" s="2">
-        <v>20.5</v>
+        <v>15.9</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5353,29 +5443,27 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2">
-        <v>46000.32506944444</v>
+        <v>46000.58152777778</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="2">
-        <v>46000.51444444444</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G138" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G138" s="2">
+        <v>17.4</v>
+      </c>
       <c r="H138" s="2">
         <v>0</v>
       </c>
@@ -5383,62 +5471,62 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B139" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.51775462963</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.59835648148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G139" s="2">
-        <v>16</v>
+        <v>21.25</v>
       </c>
       <c r="H139" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B140" s="2">
-        <v>46000.33138888889</v>
+        <v>46000.33217592593</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>46000.46383101852</v>
+        <v>46000.696875</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G140" s="2">
-        <v>17</v>
+        <v>17.65</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5447,30 +5535,30 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B141" s="2">
-        <v>46000.66372685185</v>
+        <v>46000.36890046296</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>46000.705</v>
+        <v>46000.68771990741</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G141" s="2">
-        <v>20.5</v>
+        <v>17.4</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5479,30 +5567,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B142" s="2">
-        <v>46000.50358796296</v>
+        <v>46000.37225694444</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>46000.68578703704</v>
+        <v>46000.68898148148</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G142" s="2">
-        <v>17</v>
+        <v>18.35</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5511,30 +5599,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2">
-        <v>46000.33326388889</v>
+        <v>46000.42708333334</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46000.48880787037</v>
+        <v>46000.74373842592</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G143" s="2">
-        <v>15</v>
+        <v>25.1</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5543,30 +5631,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2">
-        <v>46000.31189814815</v>
+        <v>46000.27354166667</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46000.4383912037</v>
+        <v>46000.50106481482</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G144" s="2">
-        <v>16</v>
+        <v>19.15</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5575,30 +5663,26 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B145" s="2">
-        <v>46000.58400462963</v>
+        <v>46000.93476851852</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D145" s="2">
-        <v>46000.71398148148</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G145" s="2">
-        <v>22</v>
+        <v>17.65</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5607,30 +5691,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B146" s="2">
-        <v>46000.33461805555</v>
+        <v>46000.62702546296</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46000.56241898148</v>
+        <v>46000.90956018519</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G146" s="2">
-        <v>22</v>
+        <v>17.85</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5639,30 +5723,26 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B147" s="2">
-        <v>46000.54481481481</v>
+        <v>46000.70796296297</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D147" s="2">
-        <v>46000.68936342592</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G147" s="2">
-        <v>16.5</v>
+        <v>19.15</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5671,30 +5751,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B148" s="2">
-        <v>46000.33422453704</v>
+        <v>46000.38116898148</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>46000.52349537037</v>
+        <v>46000.67804398148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G148" s="2">
-        <v>16.5</v>
+        <v>21.25</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5703,30 +5783,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B149" s="2">
-        <v>46000.51819444444</v>
+        <v>46000.45858796296</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>46000.77197916667</v>
+        <v>46000.63873842593</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G149" s="2">
-        <v>25</v>
+        <v>20.2</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5735,30 +5815,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B150" s="2">
-        <v>46000.27120370371</v>
+        <v>46000.33916666666</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>46000.49789351852</v>
+        <v>46000.59709490741</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G150" s="2">
-        <v>25</v>
+        <v>18.25</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5767,30 +5847,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B151" s="2">
-        <v>46000.34969907408</v>
+        <v>46000.34302083333</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>46000.70599537037</v>
+        <v>46000.48618055556</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G151" s="2">
-        <v>23.27</v>
+        <v>17.85</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -5799,30 +5879,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2">
-        <v>46000.29474537037</v>
+        <v>46000.32450231481</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>46000.50532407407</v>
+        <v>46000.34296296296</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G152" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -5831,30 +5911,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2">
-        <v>46000.37201388889</v>
+        <v>46000.31519675926</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>46000.68895833333</v>
+        <v>46000.33971064815</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G153" s="2">
-        <v>15</v>
+        <v>19.25</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -5863,30 +5943,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="B154" s="2">
-        <v>46000.52603009259</v>
+        <v>46000.33987268519</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>46000.70284722222</v>
+        <v>46000.62665509259</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G154" s="2">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -5895,30 +5975,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B155" s="2">
-        <v>46000.53010416667</v>
+        <v>46000.30532407408</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>46000.59837962963</v>
+        <v>46000.78121527778</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G155" s="2">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -5927,30 +6007,30 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B156" s="2">
-        <v>46000.35416666666</v>
+        <v>46000.39540509259</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>46000.7187962963</v>
+        <v>46000.52712962963</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G156" s="2">
-        <v>16</v>
+        <v>23.5</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -5959,30 +6039,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2">
-        <v>46000.38454861111</v>
+        <v>46000.55729166666</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>46000.72291666667</v>
+        <v>46000.72989583333</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G157" s="2">
-        <v>15.5</v>
+        <v>23.5</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -5991,39 +6071,711 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="2">
+        <v>46000.70096064815</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2">
+        <v>46000.94469907408</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G158" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="2">
+        <v>46000.39221064815</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2">
+        <v>46000.52268518518</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" s="2">
+        <v>46000.54362268518</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="2">
+        <v>46000.70510416666</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G160" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="2">
+        <v>46000.70929398148</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2">
+        <v>46000.85260416667</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G161" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="2">
+        <v>46000.37467592592</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2">
+        <v>46000.51446759259</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G162" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" s="2">
+        <v>46000.33609953704</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2">
+        <v>46000.48244212963</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G163" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B164" s="2">
+        <v>46000.50232638889</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164" s="2">
+        <v>46000.63224537037</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G164" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B165" s="2">
+        <v>46000.31290509259</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="2">
+        <v>46000.62377314815</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G165" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="2">
+        <v>46000.3359837963</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2">
+        <v>46000.67895833333</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G166" s="2">
+        <v>22</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B158" s="2">
-        <v>46000.64137731482</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="2">
-        <v>46000.87390046296</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="B167" s="2">
+        <v>46000.31998842592</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>46000.68458333334</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G167" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
-        <v>0</v>
-      </c>
-      <c r="I158" s="2">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="s">
+      <c r="B168" s="2">
+        <v>46000.77734953703</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2">
+        <v>46000.94045138889</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>210</v>
+      </c>
+      <c r="G168" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B169" s="2">
+        <v>46000.32836805555</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2">
+        <v>46000.69310185185</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G169" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B170" s="2">
+        <v>46000.30541666667</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2">
+        <v>46000.43638888889</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G170" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B171" s="2">
+        <v>46000.32820601852</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2">
+        <v>46000.50688657408</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G171" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B172" s="2">
+        <v>46000.43623842593</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2">
+        <v>46000.4716087963</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G172" s="2">
+        <v>19.15</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G173" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="H173" s="2">
+        <v>8</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B174" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D174" s="2">
+        <v>46000.33333333334</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>8</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B175" s="2">
+        <v>46000.33185185185</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2">
+        <v>46000.49310185185</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G175" s="2">
+        <v>26</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="2">
+        <v>46000.59313657408</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="2">
+        <v>46000.74672453704</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G176" s="2">
+        <v>26</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="2">
+        <v>46000.31055555555</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2">
+        <v>46000.71940972222</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G177" s="2">
+        <v>22</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46000.33394675926</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2">
+        <v>46000.55208333334</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G178" s="2">
+        <v>25</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B179" s="2">
+        <v>46000.31828703704</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2">
+        <v>46000.72792824074</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G179" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="211">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A0BA</t>
+    <t>D826</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,97 +61,25 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>F627</t>
-  </si>
-  <si>
-    <t>A0AF</t>
-  </si>
-  <si>
-    <t>A31F</t>
-  </si>
-  <si>
-    <t>A3MY</t>
-  </si>
-  <si>
-    <t>A4BY</t>
-  </si>
-  <si>
-    <t>A749</t>
-  </si>
-  <si>
-    <t>B884</t>
-  </si>
-  <si>
-    <t>C791</t>
-  </si>
-  <si>
-    <t>D954</t>
-  </si>
-  <si>
-    <t>H352</t>
-  </si>
-  <si>
-    <t>A0OV</t>
-  </si>
-  <si>
-    <t>A2C5</t>
-  </si>
-  <si>
-    <t>F058</t>
-  </si>
-  <si>
-    <t>A3MC</t>
-  </si>
-  <si>
-    <t>A3OL</t>
-  </si>
-  <si>
-    <t>B925</t>
-  </si>
-  <si>
-    <t>C346</t>
-  </si>
-  <si>
-    <t>A3ML</t>
-  </si>
-  <si>
-    <t>A2CL</t>
-  </si>
-  <si>
-    <t>J405</t>
-  </si>
-  <si>
-    <t>A3MF</t>
-  </si>
-  <si>
-    <t>H632</t>
-  </si>
-  <si>
-    <t>G891</t>
-  </si>
-  <si>
-    <t>A1UT</t>
-  </si>
-  <si>
-    <t>A1K3</t>
-  </si>
-  <si>
-    <t>A3MX</t>
-  </si>
-  <si>
-    <t>C282</t>
-  </si>
-  <si>
-    <t>D521</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>D528</t>
-  </si>
-  <si>
-    <t>A3I8</t>
+    <t>A3JX</t>
+  </si>
+  <si>
+    <t>A3RD</t>
+  </si>
+  <si>
+    <t>A0HA</t>
+  </si>
+  <si>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>D519</t>
   </si>
   <si>
     <t>D1020</t>
@@ -160,13 +88,16 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>B221</t>
-  </si>
-  <si>
-    <t>A3J5</t>
-  </si>
-  <si>
-    <t>J561</t>
+    <t>E270</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>A3DJ</t>
+  </si>
+  <si>
+    <t>J169</t>
   </si>
   <si>
     <t>D1030</t>
@@ -175,28 +106,19 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>E568</t>
-  </si>
-  <si>
-    <t>A42T</t>
-  </si>
-  <si>
-    <t>A0QK</t>
-  </si>
-  <si>
-    <t>A3IA</t>
-  </si>
-  <si>
-    <t>A3IC</t>
-  </si>
-  <si>
-    <t>A3IH</t>
-  </si>
-  <si>
-    <t>A3WC</t>
-  </si>
-  <si>
-    <t>E684</t>
+    <t>G397</t>
+  </si>
+  <si>
+    <t>D941</t>
+  </si>
+  <si>
+    <t>A3IL</t>
+  </si>
+  <si>
+    <t>H716</t>
+  </si>
+  <si>
+    <t>I238</t>
   </si>
   <si>
     <t>D1060</t>
@@ -205,16 +127,7 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>A10D</t>
-  </si>
-  <si>
-    <t>F497</t>
-  </si>
-  <si>
-    <t>I806</t>
-  </si>
-  <si>
-    <t>C349</t>
+    <t>E135</t>
   </si>
   <si>
     <t>D1070</t>
@@ -223,13 +136,19 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>A4CF</t>
-  </si>
-  <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>A20A</t>
+    <t>C653</t>
+  </si>
+  <si>
+    <t>E436</t>
+  </si>
+  <si>
+    <t>E877</t>
+  </si>
+  <si>
+    <t>I590</t>
+  </si>
+  <si>
+    <t>J185</t>
   </si>
   <si>
     <t>D1100</t>
@@ -238,10 +157,10 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>B567</t>
-  </si>
-  <si>
-    <t>D576</t>
+    <t>A1T8</t>
+  </si>
+  <si>
+    <t>A889</t>
   </si>
   <si>
     <t>D1200</t>
@@ -250,97 +169,199 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>G710</t>
-  </si>
-  <si>
-    <t>D619</t>
-  </si>
-  <si>
-    <t>A3IF</t>
-  </si>
-  <si>
-    <t>A3I5</t>
-  </si>
-  <si>
-    <t>F013</t>
-  </si>
-  <si>
-    <t>I588</t>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>H620</t>
+  </si>
+  <si>
+    <t>E950</t>
+  </si>
+  <si>
+    <t>J024</t>
+  </si>
+  <si>
+    <t>E471</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>B160</t>
+  </si>
+  <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>D494</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A511</t>
+  </si>
+  <si>
+    <t>A3WP</t>
+  </si>
+  <si>
+    <t>A1FE</t>
+  </si>
+  <si>
+    <t>A3SA</t>
+  </si>
+  <si>
+    <t>A2TY</t>
+  </si>
+  <si>
+    <t>A3S9</t>
+  </si>
+  <si>
+    <t>A3TH</t>
+  </si>
+  <si>
+    <t>A3PB</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>B341</t>
+  </si>
+  <si>
+    <t>A3PT</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>A2KR</t>
+  </si>
+  <si>
+    <t>A3JG</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>A3HX</t>
-  </si>
-  <si>
-    <t>A719</t>
-  </si>
-  <si>
-    <t>D172</t>
-  </si>
-  <si>
-    <t>A3JT</t>
-  </si>
-  <si>
-    <t>G573</t>
-  </si>
-  <si>
-    <t>A235</t>
-  </si>
-  <si>
-    <t>G190</t>
-  </si>
-  <si>
-    <t>A0ZW</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>F510</t>
-  </si>
-  <si>
-    <t>A0QI</t>
-  </si>
-  <si>
-    <t>A3X5</t>
-  </si>
-  <si>
-    <t>A3NX</t>
-  </si>
-  <si>
-    <t>E721</t>
-  </si>
-  <si>
-    <t>A2CR</t>
-  </si>
-  <si>
-    <t>A3RQ</t>
-  </si>
-  <si>
-    <t>A2FB</t>
-  </si>
-  <si>
-    <t>E190</t>
-  </si>
-  <si>
     <t>D2000</t>
   </si>
   <si>
     <t>Ski School</t>
   </si>
   <si>
-    <t>G730</t>
-  </si>
-  <si>
-    <t>A399</t>
-  </si>
-  <si>
-    <t>A2ID</t>
+    <t>A3K5</t>
+  </si>
+  <si>
+    <t>A3K2</t>
+  </si>
+  <si>
+    <t>A44E</t>
+  </si>
+  <si>
+    <t>A46W</t>
+  </si>
+  <si>
+    <t>G327</t>
+  </si>
+  <si>
+    <t>A3J7</t>
+  </si>
+  <si>
+    <t>A3JR</t>
+  </si>
+  <si>
+    <t>A3NE</t>
+  </si>
+  <si>
+    <t>A3T1</t>
+  </si>
+  <si>
+    <t>A3T0</t>
+  </si>
+  <si>
+    <t>A3KK</t>
+  </si>
+  <si>
+    <t>A3UW</t>
+  </si>
+  <si>
+    <t>A3NU</t>
+  </si>
+  <si>
+    <t>A3L0</t>
+  </si>
+  <si>
+    <t>A3K4</t>
+  </si>
+  <si>
+    <t>A3LG</t>
+  </si>
+  <si>
+    <t>A3JE</t>
+  </si>
+  <si>
+    <t>A46U</t>
+  </si>
+  <si>
+    <t>A3OV</t>
+  </si>
+  <si>
+    <t>A3OH</t>
+  </si>
+  <si>
+    <t>A3NH</t>
+  </si>
+  <si>
+    <t>A3K9</t>
+  </si>
+  <si>
+    <t>A3T2</t>
+  </si>
+  <si>
+    <t>A3ND</t>
+  </si>
+  <si>
+    <t>A3IU</t>
+  </si>
+  <si>
+    <t>A45U</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>A2AA</t>
   </si>
   <si>
     <t>D3000</t>
@@ -349,217 +370,142 @@
     <t>Rentals</t>
   </si>
   <si>
-    <t>A44H</t>
-  </si>
-  <si>
-    <t>A2JE</t>
-  </si>
-  <si>
-    <t>A46N</t>
-  </si>
-  <si>
-    <t>A2YQ</t>
-  </si>
-  <si>
-    <t>A3RK</t>
-  </si>
-  <si>
-    <t>H439</t>
-  </si>
-  <si>
-    <t>A2PL</t>
-  </si>
-  <si>
-    <t>D259</t>
-  </si>
-  <si>
-    <t>F370</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>C216</t>
-  </si>
-  <si>
-    <t>A3KM</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>Agassiz Retail</t>
-  </si>
-  <si>
-    <t>B622</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t>A2LG</t>
-  </si>
-  <si>
-    <t>A3KA</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t>G605</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>F&amp;B Admin</t>
-  </si>
-  <si>
-    <t>H636</t>
-  </si>
-  <si>
-    <t>E794</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>A41D</t>
-  </si>
-  <si>
-    <t>A2KU</t>
-  </si>
-  <si>
-    <t>I133</t>
-  </si>
-  <si>
-    <t>A3ZD</t>
-  </si>
-  <si>
-    <t>A3JQ</t>
-  </si>
-  <si>
-    <t>A0H4</t>
-  </si>
-  <si>
-    <t>A3YI</t>
-  </si>
-  <si>
-    <t>A3ZC</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t>A3YL</t>
-  </si>
-  <si>
-    <t>A0VA</t>
-  </si>
-  <si>
-    <t>I271</t>
-  </si>
-  <si>
-    <t>A995</t>
-  </si>
-  <si>
-    <t>A0LX</t>
-  </si>
-  <si>
-    <t>A3TO</t>
-  </si>
-  <si>
-    <t>F766</t>
-  </si>
-  <si>
-    <t>A3TV</t>
-  </si>
-  <si>
-    <t>A45O</t>
-  </si>
-  <si>
-    <t>C926</t>
-  </si>
-  <si>
-    <t>A3Z0</t>
-  </si>
-  <si>
-    <t>A2JX</t>
-  </si>
-  <si>
-    <t>A0G5</t>
-  </si>
-  <si>
-    <t>A41H</t>
-  </si>
-  <si>
-    <t>A3Z3</t>
-  </si>
-  <si>
-    <t>A1ZD</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>C213</t>
-  </si>
-  <si>
-    <t>I017</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t>A515</t>
-  </si>
-  <si>
-    <t>A0G7</t>
-  </si>
-  <si>
-    <t>A3Z2</t>
-  </si>
-  <si>
-    <t>C348</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>Base Camp Hotel</t>
-  </si>
-  <si>
-    <t>A04Q</t>
-  </si>
-  <si>
-    <t>E926</t>
-  </si>
-  <si>
-    <t>A3HG</t>
-  </si>
-  <si>
-    <t>A0J5</t>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>E655</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>A0G3</t>
+  </si>
+  <si>
+    <t>E181</t>
+  </si>
+  <si>
+    <t>A2LP</t>
+  </si>
+  <si>
+    <t>A3V5</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>A3ZI</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A3FO</t>
+  </si>
+  <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>A3PX</t>
+  </si>
+  <si>
+    <t>G724</t>
+  </si>
+  <si>
+    <t>J335</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>A3Q8</t>
+  </si>
+  <si>
+    <t>A3VO</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
+    <t>A2HN</t>
+  </si>
+  <si>
+    <t>I518</t>
+  </si>
+  <si>
+    <t>A2RM</t>
+  </si>
+  <si>
+    <t>A0XV</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>A3U9</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>A42C</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>D283</t>
+  </si>
+  <si>
+    <t>A42D</t>
+  </si>
+  <si>
+    <t>A3DX</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>A1N1</t>
+  </si>
+  <si>
+    <t>A44W</t>
+  </si>
+  <si>
+    <t>H341</t>
   </si>
   <si>
     <t>D6215</t>
@@ -568,28 +514,37 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>A194</t>
-  </si>
-  <si>
-    <t>A3OR</t>
-  </si>
-  <si>
-    <t>A0BO</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>A2IA</t>
-  </si>
-  <si>
-    <t>A3SU</t>
-  </si>
-  <si>
-    <t>A2V1</t>
+    <t>I999</t>
+  </si>
+  <si>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>A3DT</t>
+  </si>
+  <si>
+    <t>J492</t>
+  </si>
+  <si>
+    <t>C825</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>Resort Services G&amp;A</t>
+  </si>
+  <si>
+    <t>A37G</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
+  </si>
+  <si>
+    <t>A3FH</t>
   </si>
   <si>
     <t>D6730</t>
@@ -598,52 +553,25 @@
     <t>Security</t>
   </si>
   <si>
-    <t>C947</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>Janitorial</t>
-  </si>
-  <si>
-    <t>A2FQ</t>
-  </si>
-  <si>
-    <t>A3PS</t>
-  </si>
-  <si>
-    <t>A2GD</t>
-  </si>
-  <si>
-    <t>A39M</t>
-  </si>
-  <si>
-    <t>A3TG</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>D754</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>A0IJ</t>
-  </si>
-  <si>
-    <t>A3O6</t>
-  </si>
-  <si>
-    <t>H577</t>
+    <t>C516</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>A3HC</t>
+  </si>
+  <si>
+    <t>I953</t>
+  </si>
+  <si>
+    <t>A3HI</t>
+  </si>
+  <si>
+    <t>A0HT</t>
   </si>
   <si>
     <t>D6780</t>
@@ -652,7 +580,22 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A3TW</t>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A2SD</t>
+  </si>
+  <si>
+    <t>E609</t>
+  </si>
+  <si>
+    <t>A0KH</t>
+  </si>
+  <si>
+    <t>A1WB</t>
+  </si>
+  <si>
+    <t>F131</t>
   </si>
   <si>
     <t>D6790</t>
@@ -661,25 +604,13 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>H094</t>
-  </si>
-  <si>
-    <t>A3TX</t>
-  </si>
-  <si>
-    <t>J280</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>A415</t>
-  </si>
-  <si>
-    <t>G598</t>
+    <t>A2RJ</t>
+  </si>
+  <si>
+    <t>A3X1</t>
+  </si>
+  <si>
+    <t>D737</t>
   </si>
   <si>
     <t>D8020</t>
@@ -688,25 +619,34 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A393</t>
-  </si>
-  <si>
-    <t>A2ST</t>
-  </si>
-  <si>
-    <t>D575</t>
+    <t>A3C3</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>E835</t>
-  </si>
-  <si>
-    <t>D9008</t>
-  </si>
-  <si>
-    <t>Capital Project 9</t>
+    <t>A1BT</t>
+  </si>
+  <si>
+    <t>A39Q</t>
+  </si>
+  <si>
+    <t>A1ZP</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>A0AQ</t>
+  </si>
+  <si>
+    <t>D8800</t>
+  </si>
+  <si>
+    <t>Pass-through Accounts</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1023,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1123,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46000.33521990741</v>
+        <v>46000.28993055555</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46000.68952546296</v>
+        <v>46000.70199074074</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1138,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>17.4</v>
+        <v>16.5</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1155,13 +1095,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46000.32520833334</v>
+        <v>46000.29940972223</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46000.69791666666</v>
+        <v>46000.68859953704</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1170,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>17.4</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1187,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46000.32980324074</v>
+        <v>46000.32877314815</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46000.68672453704</v>
+        <v>46000.67908564815</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1202,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>17.4</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1219,13 +1159,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46000.3402199074</v>
+        <v>46000.30037037037</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>46000.69721064815</v>
+        <v>46000.69413194444</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1234,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1251,13 +1191,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46000.32460648148</v>
+        <v>46000.28980324074</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46000.69760416666</v>
+        <v>46000.68972222223</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1266,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>18.35</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1283,13 +1223,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46000.3239699074</v>
+        <v>46000.30905092593</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>46000.68197916666</v>
+        <v>46000.68984953704</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1298,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1315,13 +1255,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46000.33366898148</v>
+        <v>46000.31746527777</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46000.68521990741</v>
+        <v>46000.68666666667</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1330,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1347,22 +1287,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46000.32591435185</v>
+        <v>46000.27951388889</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46000.68184027778</v>
+        <v>46000.69575231482</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2">
-        <v>17.15</v>
+        <v>21.57</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1371,30 +1311,30 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46000.27559027778</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>46000.69603009259</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
-        <v>46000.3334375</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>46000.7067824074</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" s="2">
-        <v>18.75</v>
+        <v>35.43</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1403,62 +1343,62 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>46000.2678125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>46000.70071759259</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>29.87</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2">
-        <v>46000.32940972222</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46000.69569444445</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17.4</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>46000.32619212963</v>
+        <v>46000.26792824074</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46000.70799768518</v>
+        <v>46000.68914351852</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2">
-        <v>17.75</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1467,30 +1407,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>46000.3377662037</v>
+        <v>46000.44802083333</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46000.6875</v>
+        <v>46001.04076388889</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2">
-        <v>17.4</v>
+        <v>18.55</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1499,30 +1439,26 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>46000.33258101852</v>
+        <v>46000.43810185185</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
-        <v>46000.70491898148</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2">
-        <v>17.85</v>
+        <v>18.55</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1531,30 +1467,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>46000.3233912037</v>
+        <v>46000.45960648148</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>46000.70783564815</v>
+        <v>46001.04042824074</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2">
-        <v>18.25</v>
+        <v>18.55</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1563,30 +1499,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46000.77744212963</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46000.77760416667</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2">
-        <v>46000.32725694445</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>46000.70298611111</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G16" s="2">
-        <v>18.35</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1595,62 +1531,62 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46000.47067129629</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>46000.96585648148</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="2">
-        <v>46000.33219907407</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2">
-        <v>46000.6924074074</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2">
-        <v>18.35</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>46000.32783564815</v>
+        <v>46000.30262731481</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>46000.72401620371</v>
+        <v>46000.70030092593</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G18" s="2">
-        <v>19.15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1659,30 +1595,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>46000.32451388889</v>
+        <v>46000.5834837963</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46000.70796296297</v>
+        <v>46001.04059027778</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2">
-        <v>17.65</v>
+        <v>25.75</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1691,30 +1627,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
-        <v>46000.32737268518</v>
+        <v>46000.70761574074</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>46000.6921875</v>
+        <v>46001.02408564815</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2">
-        <v>18.35</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1723,30 +1659,30 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
-        <v>46000.32525462963</v>
+        <v>46000.62003472223</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>46000.70506944445</v>
+        <v>46001.02137731481</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2">
-        <v>17.85</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1755,30 +1691,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
-        <v>46000.3327662037</v>
+        <v>46000.44729166666</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>46000.70277777778</v>
+        <v>46000.9655787037</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2">
-        <v>15.25</v>
+        <v>16.5</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1787,30 +1723,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2">
-        <v>46000.32303240741</v>
+        <v>46000.01729166666</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>46000.70141203704</v>
+        <v>46000.40256944444</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2">
-        <v>18.35</v>
+        <v>21.8</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1819,30 +1755,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
-        <v>46000.27788194444</v>
+        <v>46000.35005787037</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>46000.70833333334</v>
+        <v>46000.73488425926</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2">
-        <v>24.35</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1851,30 +1787,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2">
-        <v>46000.33109953703</v>
+        <v>46000.22576388889</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>46000.69605324074</v>
+        <v>46000.70747685185</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2">
-        <v>17.65</v>
+        <v>22.66</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1883,30 +1819,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
-        <v>46000.32855324074</v>
+        <v>46000.31173611111</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>46000.69754629629</v>
+        <v>46000.63340277778</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2">
-        <v>17.4</v>
+        <v>12.56</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1915,30 +1851,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
-        <v>46000.32768518518</v>
+        <v>46000.316875</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46000.68422453704</v>
+        <v>46000.705625</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2">
-        <v>18.25</v>
+        <v>25.84</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1947,30 +1883,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
-        <v>46000.32668981481</v>
+        <v>46000.31207175926</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>46000.70511574074</v>
+        <v>46000.70775462963</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2">
-        <v>18.35</v>
+        <v>18.77</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1979,30 +1915,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
-        <v>46000.31555555556</v>
+        <v>46000.31188657408</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>46000.70429398148</v>
+        <v>46000.70717592593</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2">
-        <v>17.75</v>
+        <v>19.77</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2011,30 +1947,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
-        <v>46000.32576388889</v>
+        <v>46000.41033564815</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>46000.69364583334</v>
+        <v>46000.72579861111</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2">
-        <v>18.25</v>
+        <v>22</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2043,30 +1979,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
-        <v>46000.33005787037</v>
+        <v>46000.31847222222</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46000.70447916666</v>
+        <v>46000.70880787037</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2">
-        <v>17.75</v>
+        <v>22.34</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2075,30 +2011,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2">
-        <v>46000.32741898148</v>
+        <v>46000.31159722222</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46000.70473379629</v>
+        <v>46000.70394675926</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G32" s="2">
-        <v>15.85</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2107,26 +2043,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
-        <v>46000.29206018519</v>
+        <v>46000.31707175926</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2">
+        <v>46000.70527777778</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G33" s="2">
-        <v>22.4</v>
+        <v>24.09</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2135,30 +2075,26 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2">
-        <v>46000.28928240741</v>
+        <v>46000.31724537037</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2">
-        <v>46000.71344907407</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G34" s="2">
-        <v>22.1</v>
+        <v>24.59</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2167,26 +2103,30 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2">
+        <v>46000.31594907407</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2">
+        <v>46000.70752314815</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2">
-        <v>46000.28216435185</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G35" s="2">
-        <v>19.65</v>
+        <v>16.63</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2195,58 +2135,62 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46000.31622685185</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46000.70502314815</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="2">
+        <v>25.09</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" s="2">
-        <v>46000.56827546296</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2">
-        <v>46000.50658564815</v>
+        <v>46000.3125</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46000.75378472222</v>
+        <v>46000.70319444445</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>22.84</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2255,30 +2199,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2">
-        <v>46000.00023148148</v>
+        <v>46000.31466435185</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46000.30298611111</v>
+        <v>46000.70363425926</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G38" s="2">
-        <v>20.2</v>
+        <v>23.84</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2287,26 +2231,30 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2">
-        <v>46000.56814814815</v>
+        <v>46000.31372685185</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2">
+        <v>46000.70793981481</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G39" s="2">
-        <v>19.15</v>
+        <v>20.06</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2315,30 +2263,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2">
-        <v>46000.00462962963</v>
+        <v>46000.33447916667</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>46000.51707175926</v>
+        <v>46000.51233796297</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G40" s="2">
-        <v>19.65</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2347,30 +2295,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2">
-        <v>46000.57359953703</v>
+        <v>46000.52611111111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2">
-        <v>46001.00820601852</v>
+        <v>46000.70296296296</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G41" s="2">
-        <v>20.2</v>
+        <v>15</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2379,30 +2327,30 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2">
-        <v>46000.65783564815</v>
+        <v>46000.6824537037</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>46001.00096064815</v>
+        <v>46001.34302083333</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G42" s="2">
-        <v>20.2</v>
+        <v>21.44</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2411,30 +2359,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2">
-        <v>46000</v>
+        <v>46000.32923611111</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46000.30015046296</v>
+        <v>46000.50753472222</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G43" s="2">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2443,30 +2391,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2">
-        <v>46000.32622685185</v>
+        <v>46000.33491898148</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>46000.71829861111</v>
+        <v>46000.59766203703</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G44" s="2">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2475,30 +2423,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2">
-        <v>46000.44271990741</v>
+        <v>46000.54298611111</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2">
-        <v>46000.73780092593</v>
+        <v>46000.68770833333</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2507,30 +2455,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2">
-        <v>46000.70833333334</v>
+        <v>46000.3315162037</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>46001.10193287037</v>
+        <v>46000.60003472222</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2">
-        <v>21.15</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2539,30 +2487,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2">
-        <v>46000.07469907407</v>
+        <v>46000.330625</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46000.40311342593</v>
+        <v>46000.52410879629</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G47" s="2">
-        <v>21.15</v>
+        <v>17.5</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2571,30 +2519,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2">
-        <v>46000.67296296296</v>
+        <v>46000.58351851852</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>46001.07283564815</v>
+        <v>46000.70890046296</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2603,126 +2551,126 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46000.54884259259</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2">
+        <v>46000.71160879629</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="2">
-        <v>46000.68628472222</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2">
-        <v>46000.98633101852</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G49" s="2">
-        <v>27.81</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2">
-        <v>46000.36657407408</v>
+        <v>46000.33167824074</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>46000.706875</v>
+        <v>46000.5625</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G50" s="2">
-        <v>27</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2">
-        <v>46000.07199074074</v>
+        <v>46000.70010416667</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2">
-        <v>46000.39879629629</v>
+        <v>46000.70015046297</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G51" s="2">
-        <v>19</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2">
-        <v>46000.52681712963</v>
+        <v>46000.58263888889</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2">
-        <v>46000.69747685185</v>
+        <v>46000.58269675926</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G52" s="2">
-        <v>35</v>
+        <v>17.5</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2731,30 +2679,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2">
-        <v>46000.28496527778</v>
+        <v>46000.32982638889</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46000.50753472222</v>
+        <v>46000.71070601852</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2763,30 +2711,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2">
-        <v>46000.29100694445</v>
+        <v>46000.33478009259</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46000.73173611111</v>
+        <v>46000.4871412037</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2">
-        <v>31.83</v>
+        <v>15</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2795,30 +2743,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
-        <v>46000.32049768518</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>46000.73920138889</v>
+        <v>46000.33373842593</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G55" s="2">
-        <v>19</v>
+        <v>21.44</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2827,30 +2775,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
-        <v>46000.31396990741</v>
+        <v>46000.3350462963</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46000.72358796297</v>
+        <v>46000.50225694444</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2859,30 +2807,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2">
-        <v>46000.31736111111</v>
+        <v>46000.33564814815</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46000.72333333334</v>
+        <v>46000.51954861111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G57" s="2">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2891,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2899,22 +2847,22 @@
         <v>80</v>
       </c>
       <c r="B58" s="2">
-        <v>46000.32560185185</v>
+        <v>46000.53981481482</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2">
-        <v>46000.72278935185</v>
+        <v>46000.74424768519</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G58" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2923,30 +2871,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2">
-        <v>46000.32229166666</v>
+        <v>46000.32966435186</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46000.7374537037</v>
+        <v>46000.50131944445</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G59" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2955,30 +2903,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2">
-        <v>46000.31685185185</v>
+        <v>46000.32212962963</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>46000.7112037037</v>
+        <v>46000.75295138889</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G60" s="2">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2987,62 +2935,62 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.334375</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.51219907407</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G61" s="2">
-        <v>19.8</v>
+        <v>16</v>
       </c>
       <c r="H61" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>46000.31085648148</v>
+        <v>46000.52182870371</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2">
-        <v>46000.71807870371</v>
+        <v>46000.70295138889</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G62" s="2">
-        <v>18.75</v>
+        <v>17.5</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3051,39 +2999,39 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" s="2">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B63" s="2">
-        <v>46000.32686342593</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="2">
-        <v>46000.72354166667</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="2">
-        <v>19.65</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3091,31 +3039,31 @@
         <v>87</v>
       </c>
       <c r="B64" s="2">
-        <v>46000.31210648148</v>
+        <v>46000</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2">
-        <v>46000.71984953704</v>
+        <v>46000</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G64" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3123,31 +3071,31 @@
         <v>88</v>
       </c>
       <c r="B65" s="2">
-        <v>46000.31958333333</v>
+        <v>46000</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D65" s="2">
-        <v>46000.74101851852</v>
+        <v>46000</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" s="2">
-        <v>19.25</v>
+        <v>17</v>
       </c>
       <c r="H65" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3155,31 +3103,31 @@
         <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>46000.31563657407</v>
+        <v>46000</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D66" s="2">
-        <v>46000.73104166667</v>
+        <v>46000</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G66" s="2">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3187,31 +3135,31 @@
         <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>46000.31625</v>
+        <v>46000</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D67" s="2">
-        <v>46000.73369212963</v>
+        <v>46000</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G67" s="2">
-        <v>19.35</v>
+        <v>16</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3219,22 +3167,22 @@
         <v>91</v>
       </c>
       <c r="B68" s="2">
-        <v>46000.35416666666</v>
+        <v>46000.33541666667</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46000.7296412037</v>
+        <v>46000.71034722222</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G68" s="2">
-        <v>23</v>
+        <v>17.51</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3243,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3251,658 +3199,662 @@
         <v>92</v>
       </c>
       <c r="B69" s="2">
-        <v>46000.3406712963</v>
+        <v>46000</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D69" s="2">
+        <v>46000</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G69" s="2">
-        <v>18.75</v>
+        <v>15.5</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2">
-        <v>46000.32513888889</v>
+        <v>46000</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D70" s="2">
-        <v>46000.74204861111</v>
+        <v>46000</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G70" s="2">
-        <v>21.25</v>
+        <v>16</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2">
-        <v>46000.36471064815</v>
+        <v>46000</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2">
-        <v>46000.58429398148</v>
+        <v>46000</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G71" s="2">
-        <v>18.25</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2">
-        <v>46000.31590277778</v>
+        <v>46000</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2">
-        <v>46000.54457175926</v>
+        <v>46000</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G72" s="2">
-        <v>19.35</v>
+        <v>16</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2">
-        <v>46000.55725694444</v>
+        <v>46000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D73" s="2">
-        <v>46001.31270833333</v>
+        <v>46000</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G73" s="2">
-        <v>19.25</v>
+        <v>16</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2">
-        <v>46000.3253587963</v>
+        <v>46000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2">
-        <v>46000.63940972222</v>
+        <v>46000</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G74" s="2">
-        <v>17.4</v>
+        <v>16</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2">
-        <v>46000.32291666666</v>
+        <v>46000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2">
-        <v>46000.709375</v>
+        <v>46000</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G75" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2">
-        <v>46000.31336805555</v>
+        <v>46000</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D76" s="2">
-        <v>46000.5124537037</v>
+        <v>46000</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G76" s="2">
-        <v>19.25</v>
+        <v>16</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>46000.32251157407</v>
+        <v>46000</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
-        <v>46000.48414351852</v>
+        <v>46000</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G77" s="2">
-        <v>19.25</v>
+        <v>16</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>46000.32792824074</v>
+        <v>46000</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2">
-        <v>46000.66667824074</v>
+        <v>46000</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G78" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2">
-        <v>46000.32225694445</v>
+        <v>46000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D79" s="2">
-        <v>46000.68715277778</v>
+        <v>46000</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G79" s="2">
-        <v>25.35</v>
+        <v>16</v>
       </c>
       <c r="H79" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2">
-        <v>46000.32189814815</v>
+        <v>46000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2">
-        <v>46000.59704861111</v>
+        <v>46000</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G80" s="2">
-        <v>18.25</v>
+        <v>16</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2">
-        <v>46000.32328703703</v>
+        <v>46000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D81" s="2">
-        <v>46000.64572916667</v>
+        <v>46000</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G81" s="2">
-        <v>21.25</v>
+        <v>18.5</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2">
-        <v>46000.62554398148</v>
+        <v>46000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D82" s="2">
-        <v>46000.71356481482</v>
+        <v>46000</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G82" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2">
-        <v>46000.32305555556</v>
+        <v>46000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D83" s="2">
-        <v>46000.53479166667</v>
+        <v>46000</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G83" s="2">
-        <v>18.35</v>
+        <v>17.5</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
-        <v>46000.32231481482</v>
+        <v>46000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D84" s="2">
-        <v>46000.71825231481</v>
+        <v>46000</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G84" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2">
-        <v>46000.58739583333</v>
+        <v>46000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D85" s="2">
-        <v>46000.71400462963</v>
+        <v>46000</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G85" s="2">
-        <v>18.35</v>
+        <v>16</v>
       </c>
       <c r="H85" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2">
-        <v>46000.31917824074</v>
+        <v>46000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
-        <v>46000.51108796296</v>
+        <v>46000</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G86" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2">
-        <v>46000.32271990741</v>
+        <v>46000</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
-        <v>46000.5661574074</v>
+        <v>46000</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G87" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H87" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2">
-        <v>46000.3247337963</v>
+        <v>46000</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2">
-        <v>46000.58534722222</v>
+        <v>46000</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G88" s="2">
-        <v>18.35</v>
+        <v>16</v>
       </c>
       <c r="H88" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
-        <v>46000.58148148148</v>
+        <v>46000.36495370371</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46000.71388888889</v>
+        <v>46000.51509259259</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G89" s="2">
-        <v>18.25</v>
+        <v>16</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3911,30 +3863,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2">
+        <v>46000.58033564815</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="2">
+        <v>46000.61418981481</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="2">
-        <v>46000.32449074074</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="2">
-        <v>46000.49671296297</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G90" s="2">
-        <v>18.25</v>
+        <v>15</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3943,30 +3895,26 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B91" s="2">
-        <v>46000.58179398148</v>
+        <v>46000.63271990741</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="2">
-        <v>46000.71349537037</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G91" s="2">
-        <v>18.35</v>
+        <v>15</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3975,30 +3923,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B92" s="2">
-        <v>46000.32190972222</v>
+        <v>46000.50704861111</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D92" s="2">
-        <v>46000.57165509259</v>
+        <v>46000.68179398148</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G92" s="2">
-        <v>17.85</v>
+        <v>15</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -4007,30 +3955,30 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2">
-        <v>46000.31751157407</v>
+        <v>46000.34760416667</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>46000.46108796296</v>
+        <v>46000.6883912037</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G93" s="2">
-        <v>17.85</v>
+        <v>13.65</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -4039,26 +3987,30 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2">
-        <v>46000.54300925926</v>
+        <v>46000.33495370371</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="D94" s="2">
+        <v>46000.65459490741</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G94" s="2">
-        <v>17.85</v>
+        <v>15</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -4067,30 +4019,30 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2">
-        <v>46000.62195601852</v>
+        <v>46000.33663194445</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46000.72686342592</v>
+        <v>46000.54636574074</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G95" s="2">
-        <v>18.6</v>
+        <v>15</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4099,30 +4051,30 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2">
-        <v>46000.5966087963</v>
+        <v>46000.32840277778</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46000.71357638889</v>
+        <v>46000.670625</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G96" s="2">
-        <v>18.35</v>
+        <v>17.48</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4131,30 +4083,30 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2">
-        <v>46000.30523148148</v>
+        <v>46000.33931712963</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>46000.5980787037</v>
+        <v>46000.72144675926</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G97" s="2">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4163,30 +4115,26 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2">
-        <v>46000.53166666667</v>
+        <v>46000.68771990741</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="2">
-        <v>46000.71353009259</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G98" s="2">
-        <v>18.75</v>
+        <v>24</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -4195,30 +4143,30 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2">
-        <v>46000.32672453704</v>
+        <v>46000.62916666667</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D99" s="2">
-        <v>46000.67112268518</v>
+        <v>46000.6875</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2">
-        <v>18.75</v>
+        <v>24</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -4227,30 +4175,30 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2">
-        <v>46000.32619212963</v>
+        <v>46000.33568287037</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46000.6709837963</v>
+        <v>46000.6483912037</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G100" s="2">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4259,30 +4207,30 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2">
-        <v>46000.31440972222</v>
+        <v>46000.34158564815</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46000.69802083333</v>
+        <v>46000.654375</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G101" s="2">
-        <v>17.85</v>
+        <v>20</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4291,30 +4239,30 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2">
-        <v>46000.72716435185</v>
+        <v>46000.34175925926</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46000.75550925926</v>
+        <v>46000.65200231481</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G102" s="2">
-        <v>18.25</v>
+        <v>19</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4323,30 +4271,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2">
-        <v>46000.32364583333</v>
+        <v>46000.34019675926</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46000.56265046296</v>
+        <v>46000.64725694444</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G103" s="2">
-        <v>18.25</v>
+        <v>20</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4355,30 +4303,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2">
-        <v>46000.32681712963</v>
+        <v>46000.33337962963</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46000.60782407408</v>
+        <v>46000.64763888889</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G104" s="2">
-        <v>17.85</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4387,30 +4335,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2">
-        <v>46000.58916666666</v>
+        <v>46000.34869212963</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46000.69668981482</v>
+        <v>46000.65785879629</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G105" s="2">
-        <v>18.25</v>
+        <v>21</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4419,30 +4367,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2">
-        <v>46000.36980324074</v>
+        <v>46000.65533564815</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>46000.71373842593</v>
+        <v>46000.89627314815</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G106" s="2">
-        <v>17.85</v>
+        <v>15.16</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4451,30 +4399,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2">
-        <v>46000.31996527778</v>
+        <v>46000.37418981481</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46000.72027777778</v>
+        <v>46000.68122685186</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G107" s="2">
-        <v>19.15</v>
+        <v>15.16</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4483,30 +4431,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2">
-        <v>46000.34787037037</v>
+        <v>46000.37003472223</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46000.73890046297</v>
+        <v>46000.70493055556</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4515,62 +4463,62 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2">
-        <v>46000.36135416666</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D109" s="2">
-        <v>46000.74123842592</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G109" s="2">
-        <v>14.8</v>
+        <v>13.65</v>
       </c>
       <c r="H109" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2">
-        <v>46000.37266203704</v>
+        <v>46000.58457175926</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46000.58862268519</v>
+        <v>46000.94756944444</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G110" s="2">
-        <v>18.35</v>
+        <v>22</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4579,30 +4527,30 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="2">
+        <v>46000.36994212963</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="2">
+        <v>46000.68260416666</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B111" s="2">
-        <v>46000.35265046296</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="2">
-        <v>46000.70138888889</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G111" s="2">
-        <v>17.85</v>
+        <v>13.65</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4611,62 +4559,62 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="2">
+        <v>46000.45584490741</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2">
+        <v>46000.9478125</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B112" s="2">
-        <v>46000.37862268519</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="2">
-        <v>46000.73171296297</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G112" s="2">
-        <v>13</v>
-      </c>
-      <c r="H112" s="2">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2">
-        <v>46000.35976851852</v>
+        <v>46000.61517361111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46000.60596064815</v>
+        <v>46000.91542824074</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G113" s="2">
-        <v>18.35</v>
+        <v>13.65</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4675,30 +4623,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2">
-        <v>46000.23065972222</v>
+        <v>46000.33423611111</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46000.30341435185</v>
+        <v>46000.6475462963</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G114" s="2">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4707,30 +4655,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2">
-        <v>46000.37775462963</v>
+        <v>46000.66072916667</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46000.6875</v>
+        <v>46000.91399305555</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G115" s="2">
-        <v>17.4</v>
+        <v>22</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4739,30 +4687,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2">
-        <v>46000.36516203704</v>
+        <v>46000.33800925926</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>46000.73673611111</v>
+        <v>46000.60863425926</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G116" s="2">
-        <v>18.35</v>
+        <v>24</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4771,30 +4719,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2">
-        <v>46000.45675925926</v>
+        <v>46000.29755787037</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>46000.68832175926</v>
+        <v>46000.62763888889</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G117" s="2">
-        <v>18.35</v>
+        <v>15.16</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4803,30 +4751,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2">
-        <v>46000.31224537037</v>
+        <v>46000.62003472223</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46000.56237268518</v>
+        <v>46000.96015046296</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G118" s="2">
-        <v>18.35</v>
+        <v>16.5</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4835,30 +4783,26 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2">
-        <v>46000.40862268519</v>
+        <v>46000.95151620371</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="2">
-        <v>46000.73408564815</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G119" s="2">
-        <v>21.8</v>
+        <v>18.5</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4867,30 +4811,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2">
-        <v>46000.27870370371</v>
+        <v>46000.29131944444</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>46000.37806712963</v>
+        <v>46000.62283564815</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G120" s="2">
-        <v>21.8</v>
+        <v>16.5</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4899,30 +4843,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B121" s="2">
-        <v>46000.29052083333</v>
+        <v>46000.28972222222</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>46000.65122685185</v>
+        <v>46000.62313657408</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G121" s="2">
-        <v>19.65</v>
+        <v>20</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4931,30 +4875,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2">
-        <v>46000.34645833333</v>
+        <v>46000.28483796296</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>46000.4384375</v>
+        <v>46000.62173611111</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G122" s="2">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -4963,30 +4907,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B123" s="2">
-        <v>46000.29266203703</v>
+        <v>46000.6290162037</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46000.68835648148</v>
+        <v>46000.96476851852</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G123" s="2">
-        <v>17.4</v>
+        <v>17.25</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4995,30 +4939,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="2">
+        <v>46000.33078703703</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="2">
+        <v>46000.66700231482</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B124" s="2">
-        <v>46000.53728009259</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="2">
-        <v>46000.65755787037</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="G124" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -5027,30 +4971,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2">
-        <v>46000.82421296297</v>
+        <v>46000.31236111111</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>46000.83171296296</v>
+        <v>46000.60998842592</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G125" s="2">
-        <v>21.25</v>
+        <v>16</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -5059,30 +5003,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2">
-        <v>46000.39640046296</v>
+        <v>46000.31997685185</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>46000.41612268519</v>
+        <v>46000.47267361111</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G126" s="2">
-        <v>21.25</v>
+        <v>14.5</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5091,62 +5035,62 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.37163194444</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>46000.33333333334</v>
+        <v>46000.83528935185</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G127" s="2">
-        <v>18.35</v>
+        <v>16.61</v>
       </c>
       <c r="H127" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B128" s="2">
-        <v>46000.29005787037</v>
+        <v>46000.3471412037</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46000.56570601852</v>
+        <v>46000.64081018518</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G128" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5155,30 +5099,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B129" s="2">
-        <v>46000.353125</v>
+        <v>46000.37175925926</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46000.70137731481</v>
+        <v>46000.86230324074</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G129" s="2">
-        <v>18.35</v>
+        <v>16.61</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5187,30 +5131,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B130" s="2">
-        <v>46000.26037037037</v>
+        <v>46000.32354166666</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>46000.64583333334</v>
+        <v>46000.68736111111</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="G130" s="2">
-        <v>19.65</v>
+        <v>20.68</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5219,31 +5163,29 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B131" s="2">
-        <v>46000.30505787037</v>
+        <v>46000.53688657407</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D131" s="2">
-        <v>46000.68695601852</v>
+        <v>46000.68256944444</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" s="2">
-        <v>18.35</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G131" s="2"/>
       <c r="H131" s="2">
         <v>0</v>
       </c>
@@ -5251,30 +5193,26 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B132" s="2">
-        <v>46000.304375</v>
+        <v>46000.77504629629</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="2">
-        <v>46000.60202546296</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="2" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="G132" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5283,30 +5221,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B133" s="2">
-        <v>46000.28983796296</v>
+        <v>46000.34276620371</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>46000.56569444444</v>
+        <v>46000.75157407407</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G133" s="2">
-        <v>17.4</v>
+        <v>22</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5315,30 +5253,30 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B134" s="2">
-        <v>46000.45666666667</v>
+        <v>46000.33936342593</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>46000.45670138889</v>
+        <v>46000.6403587963</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G134" s="2">
-        <v>18.35</v>
+        <v>18</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5347,30 +5285,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B135" s="2">
-        <v>46000.52841435185</v>
+        <v>46000.34643518519</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>46000.73236111111</v>
+        <v>46000.68004629629</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G135" s="2">
-        <v>18.35</v>
+        <v>15.25</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5379,30 +5317,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B136" s="2">
-        <v>46000.45703703703</v>
+        <v>46000.33953703703</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46000.68966435185</v>
+        <v>46000.67703703704</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G136" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5411,30 +5349,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B137" s="2">
-        <v>46000.59241898148</v>
+        <v>46000.31189814815</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>46000.88997685185</v>
+        <v>46000.4383912037</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G137" s="2">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5443,26 +5381,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B138" s="2">
-        <v>46000.58152777778</v>
+        <v>46000.50358796296</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D138" s="2">
+        <v>46000.68578703704</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G138" s="2">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5471,30 +5413,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B139" s="2">
-        <v>46000.51775462963</v>
+        <v>46000.33138888889</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>46000.59835648148</v>
+        <v>46000.46383101852</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G139" s="2">
-        <v>21.25</v>
+        <v>17</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5503,62 +5445,62 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B140" s="2">
-        <v>46000.33217592593</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D140" s="2">
-        <v>46000.696875</v>
+        <v>46000.33333333334</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G140" s="2">
-        <v>17.65</v>
+        <v>16</v>
       </c>
       <c r="H140" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B141" s="2">
-        <v>46000.36890046296</v>
+        <v>46000.33659722222</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>46000.68771990741</v>
+        <v>46000.53346064815</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G141" s="2">
-        <v>17.4</v>
+        <v>20.5</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5567,30 +5509,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B142" s="2">
-        <v>46000.37225694444</v>
+        <v>46000.66372685185</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D142" s="2">
-        <v>46000.68898148148</v>
+        <v>46000.705</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G142" s="2">
-        <v>18.35</v>
+        <v>20.5</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5599,31 +5541,29 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B143" s="2">
-        <v>46000.42708333334</v>
+        <v>46000.32506944444</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46000.74373842592</v>
+        <v>46000.51444444444</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G143" s="2">
-        <v>25.1</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G143" s="2"/>
       <c r="H143" s="2">
         <v>0</v>
       </c>
@@ -5631,30 +5571,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B144" s="2">
-        <v>46000.27354166667</v>
+        <v>46000.32400462963</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46000.50106481482</v>
+        <v>46000.5509375</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G144" s="2">
-        <v>19.15</v>
+        <v>15</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5663,26 +5603,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B145" s="2">
-        <v>46000.93476851852</v>
+        <v>46000.33326388889</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="D145" s="2">
+        <v>46000.48880787037</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G145" s="2">
-        <v>17.65</v>
+        <v>15</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5691,30 +5635,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B146" s="2">
-        <v>46000.62702546296</v>
+        <v>46000.27120370371</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46000.90956018519</v>
+        <v>46000.49789351852</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G146" s="2">
-        <v>17.85</v>
+        <v>25</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5723,26 +5667,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B147" s="2">
-        <v>46000.70796296297</v>
+        <v>46000.51819444444</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D147" s="2">
+        <v>46000.77197916667</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G147" s="2">
-        <v>19.15</v>
+        <v>25</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5751,30 +5699,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B148" s="2">
-        <v>46000.38116898148</v>
+        <v>46000.33422453704</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>46000.67804398148</v>
+        <v>46000.52349537037</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G148" s="2">
-        <v>21.25</v>
+        <v>16.5</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5783,30 +5731,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B149" s="2">
-        <v>46000.45858796296</v>
+        <v>46000.54481481481</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D149" s="2">
-        <v>46000.63873842593</v>
+        <v>46000.68936342592</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G149" s="2">
-        <v>20.2</v>
+        <v>16.5</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5815,30 +5763,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B150" s="2">
-        <v>46000.33916666666</v>
+        <v>46000.58400462963</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D150" s="2">
-        <v>46000.59709490741</v>
+        <v>46000.71398148148</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G150" s="2">
-        <v>18.25</v>
+        <v>22</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5847,30 +5795,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B151" s="2">
-        <v>46000.34302083333</v>
+        <v>46000.33461805555</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>46000.48618055556</v>
+        <v>46000.56241898148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G151" s="2">
-        <v>17.85</v>
+        <v>22</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -5879,30 +5827,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B152" s="2">
-        <v>46000.32450231481</v>
+        <v>46000.34969907408</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>46000.34296296296</v>
+        <v>46000.70599537037</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="G152" s="2">
-        <v>17.85</v>
+        <v>23.27</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -5911,30 +5859,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B153" s="2">
-        <v>46000.31519675926</v>
+        <v>46000.53010416667</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>46000.33971064815</v>
+        <v>46000.59837962963</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G153" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -5943,30 +5891,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="B154" s="2">
-        <v>46000.33987268519</v>
+        <v>46000.52603009259</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D154" s="2">
-        <v>46000.62665509259</v>
+        <v>46000.70284722222</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G154" s="2">
-        <v>19.25</v>
+        <v>16</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -5975,30 +5923,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B155" s="2">
-        <v>46000.30532407408</v>
+        <v>46000.37201388889</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>46000.78121527778</v>
+        <v>46000.68895833333</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G155" s="2">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -6007,30 +5955,30 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B156" s="2">
-        <v>46000.39540509259</v>
+        <v>46000.29474537037</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>46000.52712962963</v>
+        <v>46000.50532407407</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G156" s="2">
-        <v>23.5</v>
+        <v>18</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6039,30 +5987,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B157" s="2">
-        <v>46000.55729166666</v>
+        <v>46000.35416666666</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>46000.72989583333</v>
+        <v>46000.7187962963</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G157" s="2">
-        <v>23.5</v>
+        <v>16</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -6071,30 +6019,30 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B158" s="2">
-        <v>46000.70096064815</v>
+        <v>46000.38454861111</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="2">
-        <v>46000.94469907408</v>
+        <v>46000.72291666667</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G158" s="2">
-        <v>20.15</v>
+        <v>15.5</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -6103,30 +6051,30 @@
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B159" s="2">
-        <v>46000.39221064815</v>
+        <v>46000.64137731482</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>46000.52268518518</v>
+        <v>46000.87390046296</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="G159" s="2">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -6135,647 +6083,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B160" s="2">
-        <v>46000.54362268518</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="2">
-        <v>46000.70510416666</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G160" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="H160" s="2">
-        <v>0</v>
-      </c>
-      <c r="I160" s="2">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B161" s="2">
-        <v>46000.70929398148</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="2">
-        <v>46000.85260416667</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G161" s="2">
-        <v>19.65</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0</v>
-      </c>
-      <c r="I161" s="2">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B162" s="2">
-        <v>46000.37467592592</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="2">
-        <v>46000.51446759259</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G162" s="2">
-        <v>20.15</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0</v>
-      </c>
-      <c r="I162" s="2">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B163" s="2">
-        <v>46000.33609953704</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="2">
-        <v>46000.48244212963</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G163" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-      <c r="I163" s="2">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B164" s="2">
-        <v>46000.50232638889</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D164" s="2">
-        <v>46000.63224537037</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G164" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0</v>
-      </c>
-      <c r="I164" s="2">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B165" s="2">
-        <v>46000.31290509259</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="2">
-        <v>46000.62377314815</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G165" s="2">
-        <v>21.25</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0</v>
-      </c>
-      <c r="I165" s="2">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B166" s="2">
-        <v>46000.3359837963</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="2">
-        <v>46000.67895833333</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G166" s="2">
-        <v>22</v>
-      </c>
-      <c r="H166" s="2">
-        <v>0</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B167" s="2">
-        <v>46000.31998842592</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="2">
-        <v>46000.68458333334</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G167" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="H167" s="2">
-        <v>0</v>
-      </c>
-      <c r="I167" s="2">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B168" s="2">
-        <v>46000.77734953703</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="2">
-        <v>46000.94045138889</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G168" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B169" s="2">
-        <v>46000.32836805555</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="2">
-        <v>46000.69310185185</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G169" s="2">
-        <v>30.78</v>
-      </c>
-      <c r="H169" s="2">
-        <v>0</v>
-      </c>
-      <c r="I169" s="2">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B170" s="2">
-        <v>46000.30541666667</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="2">
-        <v>46000.43638888889</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G170" s="2">
-        <v>31.9</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0</v>
-      </c>
-      <c r="I170" s="2">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B171" s="2">
-        <v>46000.32820601852</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="2">
-        <v>46000.50688657408</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G171" s="2">
-        <v>30.78</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0</v>
-      </c>
-      <c r="I171" s="2">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B172" s="2">
-        <v>46000.43623842593</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="2">
-        <v>46000.4716087963</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G172" s="2">
-        <v>19.15</v>
-      </c>
-      <c r="H172" s="2">
-        <v>0</v>
-      </c>
-      <c r="I172" s="2">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B173" s="2">
-        <v>46000.33333333334</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D173" s="2">
-        <v>46000.33333333334</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G173" s="2">
-        <v>17.65</v>
-      </c>
-      <c r="H173" s="2">
-        <v>8</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B174" s="2">
-        <v>46000.33333333334</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D174" s="2">
-        <v>46000.33333333334</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G174" s="2">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2">
-        <v>8</v>
-      </c>
-      <c r="I174" s="2">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B175" s="2">
-        <v>46000.33185185185</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="2">
-        <v>46000.49310185185</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G175" s="2">
-        <v>26</v>
-      </c>
-      <c r="H175" s="2">
-        <v>0</v>
-      </c>
-      <c r="I175" s="2">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B176" s="2">
-        <v>46000.59313657408</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="2">
-        <v>46000.74672453704</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G176" s="2">
-        <v>26</v>
-      </c>
-      <c r="H176" s="2">
-        <v>0</v>
-      </c>
-      <c r="I176" s="2">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B177" s="2">
-        <v>46000.31055555555</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="2">
-        <v>46000.71940972222</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G177" s="2">
-        <v>22</v>
-      </c>
-      <c r="H177" s="2">
-        <v>0</v>
-      </c>
-      <c r="I177" s="2">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B178" s="2">
-        <v>46000.33394675926</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="2">
-        <v>46000.55208333334</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G178" s="2">
-        <v>25</v>
-      </c>
-      <c r="H178" s="2">
-        <v>0</v>
-      </c>
-      <c r="I178" s="2">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B179" s="2">
-        <v>46000.31828703704</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="2">
-        <v>46000.72792824074</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G179" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H179" s="2">
-        <v>0</v>
-      </c>
-      <c r="I179" s="2">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="193">
   <si>
     <t>eecode</t>
   </si>
@@ -46,40 +46,43 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>A0HA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>A2G0</t>
+  </si>
+  <si>
+    <t>A2BF</t>
+  </si>
+  <si>
+    <t>A3S3</t>
+  </si>
+  <si>
     <t>D826</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>A3JX</t>
-  </si>
-  <si>
-    <t>A3RD</t>
-  </si>
-  <si>
-    <t>A0HA</t>
-  </si>
-  <si>
     <t>A2JJ</t>
   </si>
   <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>D519</t>
+    <t>A2TV</t>
+  </si>
+  <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>E302</t>
   </si>
   <si>
     <t>D1020</t>
@@ -91,34 +94,37 @@
     <t>E270</t>
   </si>
   <si>
-    <t>E302</t>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A2AO</t>
   </si>
   <si>
     <t>A3DJ</t>
   </si>
   <si>
+    <t>H716</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
     <t>J169</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>G397</t>
+    <t>F499</t>
   </si>
   <si>
     <t>D941</t>
   </si>
   <si>
-    <t>A3IL</t>
-  </si>
-  <si>
-    <t>H716</t>
-  </si>
-  <si>
-    <t>I238</t>
+    <t>I540</t>
   </si>
   <si>
     <t>D1060</t>
@@ -136,16 +142,16 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>C653</t>
-  </si>
-  <si>
     <t>E436</t>
   </si>
   <si>
+    <t>A2UN</t>
+  </si>
+  <si>
     <t>E877</t>
   </si>
   <si>
-    <t>I590</t>
+    <t>B797</t>
   </si>
   <si>
     <t>J185</t>
@@ -157,10 +163,16 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
+    <t>G218</t>
+  </si>
+  <si>
     <t>A1T8</t>
   </si>
   <si>
-    <t>A889</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>I321</t>
   </si>
   <si>
     <t>D1200</t>
@@ -169,49 +181,43 @@
     <t>Ski Patrol</t>
   </si>
   <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>A0JE</t>
+  </si>
+  <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>F946</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>H620</t>
+  </si>
+  <si>
+    <t>E950</t>
+  </si>
+  <si>
+    <t>E682</t>
+  </si>
+  <si>
+    <t>D494</t>
+  </si>
+  <si>
+    <t>A673</t>
+  </si>
+  <si>
     <t>B878</t>
   </si>
   <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>E471</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>B160</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>A3OT</t>
   </si>
   <si>
     <t>D1500</t>
@@ -220,150 +226,75 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>IL</t>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>A3AD</t>
+  </si>
+  <si>
+    <t>A3NZ</t>
+  </si>
+  <si>
+    <t>A3O1</t>
   </si>
   <si>
     <t>A511</t>
   </si>
   <si>
+    <t>A3S9</t>
+  </si>
+  <si>
     <t>A3WP</t>
   </si>
   <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>A3SA</t>
+    <t>D441</t>
+  </si>
+  <si>
+    <t>A3ZX</t>
+  </si>
+  <si>
+    <t>A1PN</t>
+  </si>
+  <si>
+    <t>A3Q5</t>
+  </si>
+  <si>
+    <t>A3NV</t>
+  </si>
+  <si>
+    <t>A3HJ</t>
   </si>
   <si>
     <t>A2TY</t>
   </si>
   <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>A3TH</t>
-  </si>
-  <si>
-    <t>A3PB</t>
-  </si>
-  <si>
-    <t>A3NW</t>
+    <t>E547</t>
   </si>
   <si>
     <t>B341</t>
   </si>
   <si>
-    <t>A3PT</t>
+    <t>A3M3</t>
+  </si>
+  <si>
+    <t>G327</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>A3T1</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>D126</t>
   </si>
   <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A2KR</t>
-  </si>
-  <si>
-    <t>A3JG</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A3K5</t>
-  </si>
-  <si>
-    <t>A3K2</t>
-  </si>
-  <si>
-    <t>A44E</t>
-  </si>
-  <si>
-    <t>A46W</t>
-  </si>
-  <si>
-    <t>G327</t>
-  </si>
-  <si>
-    <t>A3J7</t>
-  </si>
-  <si>
-    <t>A3JR</t>
-  </si>
-  <si>
-    <t>A3NE</t>
-  </si>
-  <si>
-    <t>A3T1</t>
-  </si>
-  <si>
-    <t>A3T0</t>
-  </si>
-  <si>
-    <t>A3KK</t>
-  </si>
-  <si>
-    <t>A3UW</t>
-  </si>
-  <si>
-    <t>A3NU</t>
-  </si>
-  <si>
-    <t>A3L0</t>
-  </si>
-  <si>
-    <t>A3K4</t>
-  </si>
-  <si>
-    <t>A3LG</t>
-  </si>
-  <si>
-    <t>A3JE</t>
-  </si>
-  <si>
-    <t>A46U</t>
-  </si>
-  <si>
-    <t>A3OV</t>
-  </si>
-  <si>
-    <t>A3OH</t>
-  </si>
-  <si>
-    <t>A3NH</t>
-  </si>
-  <si>
-    <t>A3K9</t>
-  </si>
-  <si>
-    <t>A3T2</t>
-  </si>
-  <si>
-    <t>A3ND</t>
-  </si>
-  <si>
-    <t>A3IU</t>
-  </si>
-  <si>
-    <t>A45U</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
@@ -376,24 +307,24 @@
     <t>Purg Sports Resort</t>
   </si>
   <si>
+    <t>I308</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>A0G3</t>
+  </si>
+  <si>
+    <t>A34N</t>
+  </si>
+  <si>
     <t>E655</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>A0G3</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
-    <t>A2LP</t>
-  </si>
-  <si>
     <t>A3V5</t>
   </si>
   <si>
@@ -403,73 +334,100 @@
     <t>Dante's</t>
   </si>
   <si>
+    <t>A3PX</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>I518</t>
+  </si>
+  <si>
+    <t>G724</t>
+  </si>
+  <si>
+    <t>I517</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>J335</t>
+  </si>
+  <si>
     <t>A3ZI</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
+    <t>A3Q8</t>
+  </si>
+  <si>
+    <t>J434</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A2RM</t>
+  </si>
+  <si>
+    <t>A3LI</t>
+  </si>
+  <si>
+    <t>B611</t>
   </si>
   <si>
     <t>A3FO</t>
   </si>
   <si>
-    <t>A36T</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>G724</t>
-  </si>
-  <si>
-    <t>J335</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A3Q8</t>
+    <t>E296</t>
+  </si>
+  <si>
+    <t>A15N</t>
   </si>
   <si>
     <t>A3VO</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>D274</t>
+    <t>A43Z</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>A22M</t>
+  </si>
+  <si>
+    <t>A2BK</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>A2I2</t>
+  </si>
+  <si>
+    <t>A3GE</t>
   </si>
   <si>
     <t>A3UA</t>
   </si>
   <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>A0XV</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>A3U9</t>
+    <t>C835</t>
   </si>
   <si>
     <t>D5209</t>
@@ -478,7 +436,16 @@
     <t>Village Market Deli</t>
   </si>
   <si>
-    <t>A42C</t>
+    <t>A0AQ</t>
+  </si>
+  <si>
+    <t>D6000</t>
+  </si>
+  <si>
+    <t>Lodging G&amp;A</t>
+  </si>
+  <si>
+    <t>A1N1</t>
   </si>
   <si>
     <t>D6212</t>
@@ -487,24 +454,21 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>A44W</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>A42D</t>
+  </si>
+  <si>
+    <t>A3DX</t>
+  </si>
+  <si>
     <t>D283</t>
   </si>
   <si>
-    <t>A42D</t>
-  </si>
-  <si>
-    <t>A3DX</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>A44W</t>
-  </si>
-  <si>
     <t>H341</t>
   </si>
   <si>
@@ -514,18 +478,18 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>I999</t>
+    <t>J492</t>
+  </si>
+  <si>
+    <t>A3DT</t>
+  </si>
+  <si>
+    <t>C280</t>
   </si>
   <si>
     <t>J489</t>
   </si>
   <si>
-    <t>A3DT</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -535,7 +499,7 @@
     <t>Resort Services G&amp;A</t>
   </si>
   <si>
-    <t>A37G</t>
+    <t>A2UO</t>
   </si>
   <si>
     <t>D6720</t>
@@ -544,34 +508,25 @@
     <t>Guest Services</t>
   </si>
   <si>
-    <t>A3FH</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>Security</t>
+    <t>I953</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
   </si>
   <si>
     <t>C516</t>
   </si>
   <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
+    <t>F396</t>
   </si>
   <si>
     <t>A3HC</t>
   </si>
   <si>
-    <t>I953</t>
-  </si>
-  <si>
-    <t>A3HI</t>
-  </si>
-  <si>
-    <t>A0HT</t>
+    <t>E609</t>
   </si>
   <si>
     <t>D6780</t>
@@ -583,31 +538,31 @@
     <t>A2JA</t>
   </si>
   <si>
-    <t>A2SD</t>
-  </si>
-  <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>A0KH</t>
-  </si>
-  <si>
-    <t>A1WB</t>
+    <t>A3X1</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>Transportation</t>
   </si>
   <si>
     <t>F131</t>
   </si>
   <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>A2RJ</t>
-  </si>
-  <si>
-    <t>A3X1</t>
+    <t>C158</t>
+  </si>
+  <si>
+    <t>A1Z8</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>F033</t>
   </si>
   <si>
     <t>D737</t>
@@ -619,7 +574,7 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A3C3</t>
+    <t>A39Q</t>
   </si>
   <si>
     <t>D8040</t>
@@ -628,7 +583,7 @@
     <t>A1BT</t>
   </si>
   <si>
-    <t>A39Q</t>
+    <t>A3PW</t>
   </si>
   <si>
     <t>A1ZP</t>
@@ -638,15 +593,6 @@
   </si>
   <si>
     <t>IT Services</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>D8800</t>
-  </si>
-  <si>
-    <t>Pass-through Accounts</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,7 +969,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1063,13 +1009,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46000.28993055555</v>
+        <v>46001.29909722223</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46000.70199074074</v>
+        <v>46001.68162037037</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1078,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1095,13 +1041,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46000.29940972223</v>
+        <v>46001.29777777778</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46000.68859953704</v>
+        <v>46001.68855324074</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1110,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1127,13 +1073,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46000.32877314815</v>
+        <v>46001.31769675926</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46000.67908564815</v>
+        <v>46001.68920138889</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1142,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1159,13 +1105,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46000.30037037037</v>
+        <v>46001.31885416667</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>46000.69413194444</v>
+        <v>46001.68255787037</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1174,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1191,13 +1137,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46000.28980324074</v>
+        <v>46001.27108796296</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46000.68972222223</v>
+        <v>46001.41210648148</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1206,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1223,22 +1169,18 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46000.30905092593</v>
+        <v>46001.28806712963</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
-        <v>46000.68984953704</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1255,13 +1197,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46000.31746527777</v>
+        <v>46001.31356481482</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46000.68666666667</v>
+        <v>46001.68109953704</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1270,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1287,22 +1229,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46000.27951388889</v>
+        <v>46001.31746527777</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46000.69575231482</v>
+        <v>46001.68042824074</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>21.57</v>
+        <v>14.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1311,39 +1253,39 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>46001.27583333333</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>46001.68542824074</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29.87</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="2">
-        <v>46000.27559027778</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>46000.69603009259</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2">
-        <v>35.43</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1351,22 +1293,22 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>46000.2678125</v>
+        <v>46001.2700462963</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46000.70071759259</v>
+        <v>46001.69231481481</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
-        <v>29.87</v>
+        <v>35.43</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1375,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1383,22 +1325,22 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>46000.26792824074</v>
+        <v>46001.54075231482</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>46000.68914351852</v>
+        <v>46001.68493055556</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,30 +1349,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>46000.44802083333</v>
+        <v>46001.26924768519</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46001.04076388889</v>
+        <v>46001.68513888889</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
-        <v>18.55</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1439,26 +1381,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>46000.43810185185</v>
+        <v>46001.2705324074</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2">
+        <v>46001.68233796296</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2">
-        <v>18.55</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1467,30 +1413,26 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>46001.45616898148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <v>46000.45960648148</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>46001.04042824074</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G15" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1499,62 +1441,54 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46001.43363425926</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18.55</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="2">
-        <v>46000.77744212963</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>46000.77760416667</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>46000.47067129629</v>
+        <v>46001.43684027778</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2">
-        <v>46000.96585648148</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1563,30 +1497,26 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>46000.30262731481</v>
+        <v>46001.44850694444</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2">
-        <v>46000.70030092593</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2">
-        <v>16</v>
+        <v>18.55</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1595,62 +1525,58 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46001.31153935185</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>46001.73075231481</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2">
-        <v>46000.5834837963</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2">
-        <v>46001.04059027778</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G19" s="2">
-        <v>25.75</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46001.6455324074</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2">
-        <v>46000.70761574074</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2">
-        <v>46001.02408564815</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" s="2">
-        <v>21</v>
+        <v>25.75</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1659,27 +1585,23 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
-        <v>46000.62003472223</v>
+        <v>46001.61335648148</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
-        <v>46001.02137731481</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2">
         <v>23</v>
@@ -1691,30 +1613,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
-        <v>46000.44729166666</v>
+        <v>46001.59873842593</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>46000.9655787037</v>
+        <v>46001.99511574074</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2">
-        <v>16.5</v>
+        <v>23.33</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1723,30 +1645,26 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
-        <v>46000.01729166666</v>
+        <v>46001.4665625</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
-        <v>46000.40256944444</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2">
-        <v>21.8</v>
+        <v>16.5</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1755,30 +1673,26 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>46000.35005787037</v>
+        <v>46001.99393518519</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2">
-        <v>46000.73488425926</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1787,30 +1701,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>46001.23664351852</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>46001.54804398148</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2">
-        <v>46000.22576388889</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2">
-        <v>46000.70747685185</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G25" s="2">
-        <v>22.66</v>
+        <v>27</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1819,62 +1733,62 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46001.52146990741</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>46001.7225</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="2">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="2">
-        <v>46000.31173611111</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2">
-        <v>46000.63340277778</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="2">
-        <v>12.56</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
-        <v>46000.316875</v>
+        <v>46001.23673611111</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46000.705625</v>
+        <v>46001.71268518519</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" s="2">
-        <v>25.84</v>
+        <v>22.66</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1883,30 +1797,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2">
-        <v>46000.31207175926</v>
+        <v>46001.30086805556</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>46000.70775462963</v>
+        <v>46001.49807870371</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2">
-        <v>18.77</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1915,30 +1829,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2">
+        <v>46001.31146990741</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46001.70165509259</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2">
-        <v>46000.31188657408</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2">
-        <v>46000.70717592593</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G29" s="2">
-        <v>19.77</v>
+        <v>17.77</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1947,62 +1861,58 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>46001.31460648148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2">
+        <v>16.63</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" s="2">
-        <v>46000.41033564815</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2">
-        <v>46000.72579861111</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="2">
-        <v>22</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2">
-        <v>46000.31847222222</v>
+        <v>46001.31134259259</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46000.70880787037</v>
+        <v>46001.70417824074</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G31" s="2">
-        <v>22.34</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2011,30 +1921,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2">
-        <v>46000.31159722222</v>
+        <v>46001.31493055556</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46000.70394675926</v>
+        <v>46001.70613425926</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G32" s="2">
-        <v>19</v>
+        <v>23.84</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2043,30 +1953,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2">
-        <v>46000.31707175926</v>
+        <v>46001.31158564815</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>46000.70527777778</v>
+        <v>46001.70324074074</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G33" s="2">
-        <v>24.09</v>
+        <v>19.77</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2075,26 +1985,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
-        <v>46000.31724537037</v>
+        <v>46001.31173611111</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2">
+        <v>46001.70365740741</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G34" s="2">
-        <v>24.59</v>
+        <v>19.27</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2103,30 +2017,30 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2">
-        <v>46000.31594907407</v>
+        <v>46001.53362268519</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>46000.70752314815</v>
+        <v>46001.61899305556</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>16.63</v>
+        <v>22</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2135,30 +2049,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2">
-        <v>46000.31622685185</v>
+        <v>46001.31568287037</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>46000.70502314815</v>
+        <v>46001.70344907408</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G36" s="2">
-        <v>25.09</v>
+        <v>22.34</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2167,30 +2081,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2">
-        <v>46000.3125</v>
+        <v>46001.31349537037</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46000.70319444445</v>
+        <v>46001.70438657407</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2">
-        <v>22.84</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2199,30 +2113,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2">
-        <v>46000.31466435185</v>
+        <v>46001.31295138889</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46000.70363425926</v>
+        <v>46001.69924768519</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G38" s="2">
-        <v>23.84</v>
+        <v>23.34</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2231,27 +2145,27 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2">
-        <v>46000.31372685185</v>
+        <v>46001.31222222222</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>46000.70793981481</v>
+        <v>46001.70394675926</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2">
         <v>20.06</v>
@@ -2263,30 +2177,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2">
-        <v>46000.33447916667</v>
+        <v>46001.3205787037</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>46000.51233796297</v>
+        <v>46001.70206018518</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G40" s="2">
-        <v>15</v>
+        <v>25.84</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2295,30 +2209,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2">
-        <v>46000.52611111111</v>
+        <v>46001.31119212963</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>46000.70296296296</v>
+        <v>46001.70293981482</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G41" s="2">
-        <v>15</v>
+        <v>25.84</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2327,39 +2241,39 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46001.33515046296</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46001.57614583334</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="2">
+        <v>18</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" s="2">
-        <v>46000.6824537037</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2">
-        <v>46001.34302083333</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="2">
-        <v>21.44</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2367,19 +2281,19 @@
         <v>70</v>
       </c>
       <c r="B43" s="2">
-        <v>46000.32923611111</v>
+        <v>46001.32979166666</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46000.50753472222</v>
+        <v>46001.7546875</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G43" s="2">
         <v>17.5</v>
@@ -2391,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2399,22 +2313,22 @@
         <v>71</v>
       </c>
       <c r="B44" s="2">
-        <v>46000.33491898148</v>
+        <v>46001.33045138889</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>46000.59766203703</v>
+        <v>46001.69653935185</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G44" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2423,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2431,22 +2345,22 @@
         <v>72</v>
       </c>
       <c r="B45" s="2">
-        <v>46000.54298611111</v>
+        <v>46001.32837962963</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>46001.50164351852</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="2">
-        <v>46000.68770833333</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G45" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2455,30 +2369,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2">
-        <v>46000.3315162037</v>
+        <v>46001.52504629629</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
-        <v>46000.60003472222</v>
+        <v>46001.68074074074</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2487,30 +2401,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2">
-        <v>46000.330625</v>
+        <v>46001.33660879629</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46000.52410879629</v>
+        <v>46001.67594907407</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2519,27 +2433,27 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2">
-        <v>46000.58351851852</v>
+        <v>46001.5969675926</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
-        <v>46000.70890046296</v>
+        <v>46001.70730324074</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48" s="2">
         <v>18</v>
@@ -2551,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2559,22 +2473,22 @@
         <v>74</v>
       </c>
       <c r="B49" s="2">
-        <v>46000.54884259259</v>
+        <v>46001.34380787037</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2">
+        <v>46001.66337962963</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="2">
-        <v>46000.71160879629</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G49" s="2">
-        <v>17.5</v>
+        <v>21.44</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2583,27 +2497,27 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2">
-        <v>46000.33167824074</v>
+        <v>46001.54508101852</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
-        <v>46000.5625</v>
+        <v>46001.6871875</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50" s="2">
         <v>17.5</v>
@@ -2615,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2623,19 +2537,19 @@
         <v>76</v>
       </c>
       <c r="B51" s="2">
-        <v>46000.70010416667</v>
+        <v>46001.53003472222</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2">
+        <v>46001.68046296296</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D51" s="2">
-        <v>46000.70015046297</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G51" s="2">
         <v>17.5</v>
@@ -2647,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2655,19 +2569,19 @@
         <v>76</v>
       </c>
       <c r="B52" s="2">
-        <v>46000.58263888889</v>
+        <v>46001.32855324074</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2">
+        <v>46001.50515046297</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D52" s="2">
-        <v>46000.58269675926</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G52" s="2">
         <v>17.5</v>
@@ -2679,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2687,22 +2601,22 @@
         <v>77</v>
       </c>
       <c r="B53" s="2">
-        <v>46000.32982638889</v>
+        <v>46001.54309027778</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46000.71070601852</v>
+        <v>46001.7070949074</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G53" s="2">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2711,30 +2625,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2">
-        <v>46000.33478009259</v>
+        <v>46001.31336805555</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46000.4871412037</v>
+        <v>46001.50635416667</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G54" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2743,62 +2657,62 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2">
+        <v>46001.54054398148</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2">
+        <v>46001.66915509259</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="2">
+        <v>18</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B55" s="2">
-        <v>46000.33333333334</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2">
-        <v>46000.33373842593</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="2">
-        <v>21.44</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2">
-        <v>46000.3350462963</v>
+        <v>46001.33774305556</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46000.50225694444</v>
+        <v>46001.5209375</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2807,30 +2721,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2">
-        <v>46000.33564814815</v>
+        <v>46001.33332175926</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46000.51954861111</v>
+        <v>46001.51229166667</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G57" s="2">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2839,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2847,19 +2761,19 @@
         <v>80</v>
       </c>
       <c r="B58" s="2">
-        <v>46000.53981481482</v>
+        <v>46001.63188657408</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2">
+        <v>46001.69991898148</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D58" s="2">
-        <v>46000.74424768519</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G58" s="2">
         <v>18</v>
@@ -2871,30 +2785,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2">
-        <v>46000.32966435186</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46000.50131944445</v>
+        <v>46001.52413194445</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G59" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2903,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2911,22 +2825,22 @@
         <v>81</v>
       </c>
       <c r="B60" s="2">
-        <v>46000.32212962963</v>
+        <v>46001.5818287037</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
-        <v>46000.75295138889</v>
+        <v>46001.75170138889</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2935,30 +2849,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2">
-        <v>46000.334375</v>
+        <v>46001.33273148148</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>46000.51219907407</v>
+        <v>46001.57033564815</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G61" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -2967,30 +2881,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2">
-        <v>46000.52182870371</v>
+        <v>46001.31929398148</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2">
+        <v>46001.67112268518</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="2">
-        <v>46000.70295138889</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G62" s="2">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2999,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3007,182 +2921,182 @@
         <v>83</v>
       </c>
       <c r="B63" s="2">
-        <v>46000</v>
+        <v>46001.32891203704</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>46000</v>
+        <v>46001.57018518518</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G63" s="2">
         <v>16</v>
       </c>
       <c r="H63" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>46000</v>
+        <v>46001.32106481482</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>46000</v>
+        <v>46001.7034375</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G64" s="2">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="H64" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2">
-        <v>46000</v>
+        <v>46001.33928240741</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>46000</v>
+        <v>46001.54738425926</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G65" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H65" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B66" s="2">
-        <v>46000</v>
+        <v>46001.32320601852</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>46000</v>
+        <v>46001.50805555555</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G66" s="2">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="H66" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2">
-        <v>46000</v>
+        <v>46001.33555555555</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46000</v>
+        <v>46001.4774537037</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G67" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H67" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2">
-        <v>46000.33541666667</v>
+        <v>46001.33539351852</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46000.71034722222</v>
+        <v>46001.5021875</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G68" s="2">
-        <v>17.51</v>
+        <v>17.5</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3191,661 +3105,657 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2">
-        <v>46000</v>
+        <v>46001.52386574074</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>46000</v>
+        <v>46001.68747685185</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G69" s="2">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="H69" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2">
-        <v>46000</v>
+        <v>46001.33466435185</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>46000</v>
+        <v>46001.66290509259</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G70" s="2">
-        <v>16</v>
+        <v>17.51</v>
       </c>
       <c r="H70" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D71" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G71" s="2">
         <v>16</v>
       </c>
       <c r="H71" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D72" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G72" s="2">
         <v>16</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2">
-        <v>46000</v>
+        <v>46001.58436342593</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
-        <v>46000</v>
+        <v>46001.70822916667</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G73" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2">
-        <v>46000</v>
+        <v>46001.49932870371</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>46000</v>
+        <v>46001.66891203704</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G74" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2">
+        <v>46001.33583333333</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2">
+        <v>46001.68542824074</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G75" s="2">
-        <v>16</v>
+        <v>13.65</v>
       </c>
       <c r="H75" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="2">
+        <v>46001.33386574074</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>46001.66494212963</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="2">
+        <v>15</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B76" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="2">
-        <v>16</v>
-      </c>
-      <c r="H76" s="2">
-        <v>6</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2">
-        <v>46000</v>
+        <v>46001.3402199074</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>46000</v>
+        <v>46001.67591435185</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G77" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2">
-        <v>46000</v>
+        <v>46001.33542824074</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>46000</v>
+        <v>46001.68612268518</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G78" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2">
-        <v>46000</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46000</v>
+        <v>46001.6709837963</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G79" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H79" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2">
-        <v>46000</v>
+        <v>46001.585</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>46000</v>
+        <v>46001.62320601852</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G80" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H80" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2">
-        <v>46000</v>
+        <v>46001.34190972222</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>46000</v>
+        <v>46001.64829861111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G81" s="2">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="H81" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2">
-        <v>46000</v>
+        <v>46001.5725</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>46000</v>
+        <v>46001.84804398148</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G82" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2">
-        <v>46000</v>
+        <v>46001.33180555556</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46000</v>
+        <v>46001.65357638889</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G83" s="2">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="H83" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" s="2">
+        <v>46001.34256944444</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2">
+        <v>46001.56086805555</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B84" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G84" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H84" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2">
-        <v>46000</v>
+        <v>46001.41105324074</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46000</v>
+        <v>46001.41109953704</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G85" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H85" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2">
-        <v>46000</v>
+        <v>46001.41189814815</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>46000</v>
+        <v>46001.58680555555</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G86" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H86" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2">
-        <v>46000</v>
+        <v>46001.35635416667</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="2">
-        <v>46000</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G87" s="2">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="H87" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2">
-        <v>46000</v>
+        <v>46001.34214120371</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>46000</v>
+        <v>46001.62385416667</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G88" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H88" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2">
-        <v>46000.36495370371</v>
+        <v>46001.50853009259</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46000.51509259259</v>
+        <v>46001.84150462963</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
@@ -3854,7 +3764,7 @@
         <v>113</v>
       </c>
       <c r="G89" s="2">
-        <v>16</v>
+        <v>15.16</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3868,25 +3778,25 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2">
-        <v>46000.58033564815</v>
+        <v>46001.41307870371</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46000.61418981481</v>
+        <v>46001.50994212963</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G90" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3895,26 +3805,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2">
-        <v>46000.63271990741</v>
+        <v>46001.59111111111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D91" s="2">
+        <v>46001.65394675926</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G91" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3923,30 +3837,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2">
-        <v>46000.50704861111</v>
+        <v>46001.49001157407</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>46000.68179398148</v>
+        <v>46001.82925925926</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3955,39 +3869,39 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="2">
+        <v>46001.41244212963</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="2">
+        <v>46001.80370370371</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="2">
+        <v>17</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B93" s="2">
-        <v>46000.34760416667</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="2">
-        <v>46000.6883912037</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3995,22 +3909,22 @@
         <v>123</v>
       </c>
       <c r="B94" s="2">
-        <v>46000.33495370371</v>
+        <v>46001.5528125</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>46000.65459490741</v>
+        <v>46001.6612037037</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G94" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -4019,30 +3933,30 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2">
-        <v>46000.33663194445</v>
+        <v>46001.54986111111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46000.54636574074</v>
+        <v>46001.84927083334</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G95" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4051,30 +3965,30 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2">
-        <v>46000.32840277778</v>
+        <v>46001.37362268518</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46000.670625</v>
+        <v>46001.60891203704</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G96" s="2">
-        <v>17.48</v>
+        <v>13.65</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4083,30 +3997,26 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2">
-        <v>46000.33931712963</v>
+        <v>46001.4206712963</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="2">
-        <v>46000.72144675926</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G97" s="2">
-        <v>18</v>
+        <v>15.16</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4115,26 +4025,30 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2">
-        <v>46000.68771990741</v>
+        <v>46001.39704861111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D98" s="2">
+        <v>46001.58965277778</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G98" s="2">
-        <v>24</v>
+        <v>15.16</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -4143,27 +4057,27 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2">
-        <v>46000.62916666667</v>
+        <v>46001.58030092593</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>46000.6875</v>
+        <v>46001.84782407407</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G99" s="2">
         <v>24</v>
@@ -4175,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4183,22 +4097,22 @@
         <v>129</v>
       </c>
       <c r="B100" s="2">
-        <v>46000.33568287037</v>
+        <v>46001.37222222222</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46000.6483912037</v>
+        <v>46001.60923611111</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G100" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4207,30 +4121,30 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2">
-        <v>46000.34158564815</v>
+        <v>46001.64331018519</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46000.654375</v>
+        <v>46001.6818287037</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G101" s="2">
-        <v>20</v>
+        <v>13.65</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4239,30 +4153,30 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2">
-        <v>46000.34175925926</v>
+        <v>46001.45513888889</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46000.65200231481</v>
+        <v>46001.67152777778</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G102" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4271,30 +4185,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2">
-        <v>46000.34019675926</v>
+        <v>46001.49202546296</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46000.64725694444</v>
+        <v>46001.82862268519</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G103" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4303,30 +4217,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2">
-        <v>46000.33337962963</v>
+        <v>46001.36618055555</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46000.64763888889</v>
+        <v>46001.70833333334</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G104" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4335,30 +4249,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2">
-        <v>46000.34869212963</v>
+        <v>46001.41446759259</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46000.65785879629</v>
+        <v>46001.51465277778</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G105" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4367,30 +4281,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2">
-        <v>46000.65533564815</v>
+        <v>46001.67901620371</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>46000.89627314815</v>
+        <v>46001.6790625</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G106" s="2">
-        <v>15.16</v>
+        <v>20</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4399,30 +4313,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2">
-        <v>46000.37418981481</v>
+        <v>46001.37537037037</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46000.68122685186</v>
+        <v>46001.5093287037</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G107" s="2">
-        <v>15.16</v>
+        <v>13.65</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4431,30 +4345,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
-        <v>46000.37003472223</v>
+        <v>46001.58396990741</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46000.70493055556</v>
+        <v>46001.84956018518</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G108" s="2">
-        <v>13.65</v>
+        <v>22</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4463,53 +4377,53 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2">
-        <v>46000.33333333334</v>
+        <v>46001.32582175926</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>46000.33333333334</v>
+        <v>46001.69332175926</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G109" s="2">
-        <v>13.65</v>
+        <v>15.5</v>
       </c>
       <c r="H109" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I109" s="2">
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B110" s="2">
-        <v>46000.58457175926</v>
+        <v>46001.5909375</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46000.94756944444</v>
+        <v>46001.74961805555</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
@@ -4518,7 +4432,7 @@
         <v>141</v>
       </c>
       <c r="G110" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4532,25 +4446,25 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2">
-        <v>46000.36994212963</v>
+        <v>46001.58862268519</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>46000.68260416666</v>
+        <v>46001.95447916666</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G111" s="2">
-        <v>13.65</v>
+        <v>17.25</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4559,30 +4473,30 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B112" s="2">
-        <v>46000.45584490741</v>
+        <v>46001.7628125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>46000.9478125</v>
+        <v>46001.87245370371</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4591,30 +4505,30 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2">
-        <v>46000.61517361111</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46000.91542824074</v>
+        <v>46001.66511574074</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G113" s="2">
-        <v>13.65</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4623,30 +4537,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2">
-        <v>46000.33423611111</v>
+        <v>46001.28118055555</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46000.6475462963</v>
+        <v>46001.59472222222</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G114" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4655,30 +4569,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2">
-        <v>46000.66072916667</v>
+        <v>46001.2929050926</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46000.91399305555</v>
+        <v>46001.58752314815</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G115" s="2">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4687,30 +4601,26 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2">
-        <v>46000.33800925926</v>
+        <v>46001.28748842593</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="2">
-        <v>46000.60863425926</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G116" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4719,30 +4629,26 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2">
-        <v>46000.29755787037</v>
+        <v>46001.9492824074</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="2">
-        <v>46000.62763888889</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G117" s="2">
-        <v>15.16</v>
+        <v>18.5</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4751,30 +4657,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2">
-        <v>46000.62003472223</v>
+        <v>46001.3130787037</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46000.96015046296</v>
+        <v>46001.63357638889</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G118" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4783,26 +4689,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B119" s="2">
-        <v>46000.95151620371</v>
+        <v>46001.4337962963</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="D119" s="2">
+        <v>46001.87491898148</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G119" s="2">
-        <v>18.5</v>
+        <v>16.61</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4811,30 +4721,26 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B120" s="2">
-        <v>46000.29131944444</v>
+        <v>46001.36702546296</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="2">
-        <v>46000.62283564815</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G120" s="2">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4843,30 +4749,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2">
-        <v>46000.28972222222</v>
+        <v>46001.66940972222</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>46000.62313657408</v>
+        <v>46001.85038194444</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G121" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4875,30 +4781,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B122" s="2">
-        <v>46000.28483796296</v>
+        <v>46001.4080787037</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>46000.62173611111</v>
+        <v>46001.87355324074</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G122" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -4907,30 +4813,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2">
-        <v>46000.6290162037</v>
+        <v>46001.40821759259</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46000.96476851852</v>
+        <v>46001.40849537037</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G123" s="2">
-        <v>17.25</v>
+        <v>16.61</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4939,30 +4845,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2">
-        <v>46000.33078703703</v>
+        <v>46001.32775462963</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>46000.66700231482</v>
+        <v>46001.55229166667</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G124" s="2">
-        <v>20</v>
+        <v>20.68</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -4971,71 +4877,71 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="2">
+        <v>46001.54359953704</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2">
+        <v>46001.67324074074</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G125" s="2">
+        <v>18</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B125" s="2">
-        <v>46000.31236111111</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="2">
-        <v>46000.60998842592</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G125" s="2">
-        <v>16</v>
-      </c>
-      <c r="H125" s="2">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="2">
+        <v>46001.32993055556</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="2">
+        <v>46001.6907175926</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" s="2">
+        <v>15.25</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B126" s="2">
-        <v>46000.31997685185</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="2">
-        <v>46000.47267361111</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G126" s="2">
-        <v>14.5</v>
-      </c>
-      <c r="H126" s="2">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5043,22 +4949,22 @@
         <v>167</v>
       </c>
       <c r="B127" s="2">
-        <v>46000.37163194444</v>
+        <v>46001.36144675926</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>46000.83528935185</v>
+        <v>46001.74068287037</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G127" s="2">
-        <v>16.61</v>
+        <v>22</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -5067,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5075,22 +4981,22 @@
         <v>168</v>
       </c>
       <c r="B128" s="2">
-        <v>46000.3471412037</v>
+        <v>46001.33597222222</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46000.64081018518</v>
+        <v>46001.76518518518</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G128" s="2">
-        <v>20</v>
+        <v>23.49</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5099,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5107,22 +5013,22 @@
         <v>169</v>
       </c>
       <c r="B129" s="2">
-        <v>46000.37175925926</v>
+        <v>46001.33821759259</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46000.86230324074</v>
+        <v>46001.66983796296</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G129" s="2">
-        <v>16.61</v>
+        <v>18</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5131,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5139,13 +5045,13 @@
         <v>170</v>
       </c>
       <c r="B130" s="2">
-        <v>46000.32354166666</v>
+        <v>46001.5518287037</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>46000.68736111111</v>
+        <v>46001.71289351852</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
@@ -5154,7 +5060,7 @@
         <v>171</v>
       </c>
       <c r="G130" s="2">
-        <v>20.68</v>
+        <v>20.5</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5168,24 +5074,26 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B131" s="2">
-        <v>46000.53688657407</v>
+        <v>46001.34177083334</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>46000.68256944444</v>
+        <v>46001.52983796296</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G131" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="G131" s="2">
+        <v>20.5</v>
+      </c>
       <c r="H131" s="2">
         <v>0</v>
       </c>
@@ -5193,26 +5101,30 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B132" s="2">
-        <v>46000.77504629629</v>
+        <v>46001.49266203704</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D132" s="2">
+        <v>46001.6875</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G132" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5221,30 +5133,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B133" s="2">
-        <v>46000.34276620371</v>
+        <v>46001.33172453703</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>46000.75157407407</v>
+        <v>46001.46733796296</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G133" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5253,27 +5165,27 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2">
-        <v>46000.33936342593</v>
+        <v>46001.33928240741</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>46000.6403587963</v>
+        <v>46001.51049768519</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G134" s="2">
         <v>18</v>
@@ -5285,30 +5197,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B135" s="2">
-        <v>46000.34643518519</v>
+        <v>46001.52048611111</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>46000.68004629629</v>
+        <v>46001.69502314815</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G135" s="2">
-        <v>15.25</v>
+        <v>22</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5317,30 +5229,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B136" s="2">
-        <v>46000.33953703703</v>
+        <v>46001.33486111111</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46000.67703703704</v>
+        <v>46001.49908564815</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G136" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5349,30 +5261,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B137" s="2">
-        <v>46000.31189814815</v>
+        <v>46001.52475694445</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
-        <v>46000.4383912037</v>
+        <v>46001.75238425926</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G137" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5381,30 +5293,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B138" s="2">
-        <v>46000.50358796296</v>
+        <v>46001.2705787037</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>46000.68578703704</v>
+        <v>46001.50414351852</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G138" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5413,27 +5325,27 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B139" s="2">
-        <v>46000.33138888889</v>
+        <v>46001.5812037037</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
-        <v>46000.46383101852</v>
+        <v>46001.68918981482</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G139" s="2">
         <v>17</v>
@@ -5445,94 +5357,94 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B140" s="2">
-        <v>46000.33333333334</v>
+        <v>46001.33597222222</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>46000.33333333334</v>
+        <v>46001.55184027777</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G140" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H140" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B141" s="2">
-        <v>46000.33659722222</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D141" s="2">
-        <v>46000.53346064815</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G141" s="2">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="H141" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2">
-        <v>46000.66372685185</v>
+        <v>46001.67355324074</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>46000.705</v>
+        <v>46001.79752314815</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G142" s="2">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5541,29 +5453,31 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B143" s="2">
-        <v>46000.32506944444</v>
+        <v>46001.18569444444</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46000.51444444444</v>
+        <v>46001.30324074074</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G143" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G143" s="2">
+        <v>15</v>
+      </c>
       <c r="H143" s="2">
         <v>0</v>
       </c>
@@ -5571,30 +5485,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B144" s="2">
-        <v>46000.32400462963</v>
+        <v>46001.33927083333</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46000.5509375</v>
+        <v>46001.49938657408</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G144" s="2">
-        <v>15</v>
+        <v>23.27</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5603,30 +5517,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B145" s="2">
-        <v>46000.33326388889</v>
+        <v>46001.52134259259</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>46000.48880787037</v>
+        <v>46001.61414351852</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G145" s="2">
-        <v>15</v>
+        <v>23.27</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5635,30 +5549,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B146" s="2">
-        <v>46000.27120370371</v>
+        <v>46001.65401620371</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46000.49789351852</v>
+        <v>46001.73694444444</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G146" s="2">
-        <v>25</v>
+        <v>23.27</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5667,30 +5581,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B147" s="2">
-        <v>46000.51819444444</v>
+        <v>46001.3564699074</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>46000.77197916667</v>
+        <v>46001.66711805556</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G147" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5699,30 +5613,26 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B148" s="2">
-        <v>46000.33422453704</v>
+        <v>46001.37094907407</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2">
-        <v>46000.52349537037</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G148" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5731,30 +5641,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B149" s="2">
-        <v>46000.54481481481</v>
+        <v>46001.37012731482</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>46000.68936342592</v>
+        <v>46001.69171296297</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G149" s="2">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5763,30 +5673,26 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B150" s="2">
-        <v>46000.58400462963</v>
+        <v>46001.37496527778</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D150" s="2">
-        <v>46000.71398148148</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G150" s="2">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5795,295 +5701,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B151" s="2">
-        <v>46000.33461805555</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="2">
-        <v>46000.56241898148</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G151" s="2">
-        <v>22</v>
-      </c>
-      <c r="H151" s="2">
-        <v>0</v>
-      </c>
-      <c r="I151" s="2">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B152" s="2">
-        <v>46000.34969907408</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="2">
-        <v>46000.70599537037</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G152" s="2">
-        <v>23.27</v>
-      </c>
-      <c r="H152" s="2">
-        <v>0</v>
-      </c>
-      <c r="I152" s="2">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B153" s="2">
-        <v>46000.53010416667</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="2">
-        <v>46000.59837962963</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G153" s="2">
-        <v>18</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0</v>
-      </c>
-      <c r="I153" s="2">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B154" s="2">
-        <v>46000.52603009259</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D154" s="2">
-        <v>46000.70284722222</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G154" s="2">
-        <v>16</v>
-      </c>
-      <c r="H154" s="2">
-        <v>0</v>
-      </c>
-      <c r="I154" s="2">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155" s="2">
-        <v>46000.37201388889</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="2">
-        <v>46000.68895833333</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G155" s="2">
-        <v>15</v>
-      </c>
-      <c r="H155" s="2">
-        <v>0</v>
-      </c>
-      <c r="I155" s="2">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B156" s="2">
-        <v>46000.29474537037</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="2">
-        <v>46000.50532407407</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G156" s="2">
-        <v>18</v>
-      </c>
-      <c r="H156" s="2">
-        <v>0</v>
-      </c>
-      <c r="I156" s="2">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B157" s="2">
-        <v>46000.35416666666</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="2">
-        <v>46000.7187962963</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G157" s="2">
-        <v>16</v>
-      </c>
-      <c r="H157" s="2">
-        <v>0</v>
-      </c>
-      <c r="I157" s="2">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B158" s="2">
-        <v>46000.38454861111</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="2">
-        <v>46000.72291666667</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G158" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H158" s="2">
-        <v>0</v>
-      </c>
-      <c r="I158" s="2">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B159" s="2">
-        <v>46000.64137731482</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="2">
-        <v>46000.87390046296</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G159" s="2">
-        <v>0</v>
-      </c>
-      <c r="H159" s="2">
-        <v>0</v>
-      </c>
-      <c r="I159" s="2">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="243">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A0HA</t>
+    <t>A749</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,28 +61,103 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>A2G0</t>
-  </si>
-  <si>
-    <t>A2BF</t>
-  </si>
-  <si>
-    <t>A3S3</t>
-  </si>
-  <si>
-    <t>D826</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>A2TV</t>
-  </si>
-  <si>
-    <t>A29S</t>
-  </si>
-  <si>
-    <t>E302</t>
+    <t>A3MO</t>
+  </si>
+  <si>
+    <t>A3ML</t>
+  </si>
+  <si>
+    <t>A2DQ</t>
+  </si>
+  <si>
+    <t>A2C6</t>
+  </si>
+  <si>
+    <t>H352</t>
+  </si>
+  <si>
+    <t>G961</t>
+  </si>
+  <si>
+    <t>E483</t>
+  </si>
+  <si>
+    <t>D954</t>
+  </si>
+  <si>
+    <t>C791</t>
+  </si>
+  <si>
+    <t>A2BY</t>
+  </si>
+  <si>
+    <t>A3P9</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>A0AF</t>
+  </si>
+  <si>
+    <t>F627</t>
+  </si>
+  <si>
+    <t>A2CC</t>
+  </si>
+  <si>
+    <t>A3MY</t>
+  </si>
+  <si>
+    <t>A3OF</t>
+  </si>
+  <si>
+    <t>A1K3</t>
+  </si>
+  <si>
+    <t>A3MC</t>
+  </si>
+  <si>
+    <t>A3NQ</t>
+  </si>
+  <si>
+    <t>B925</t>
+  </si>
+  <si>
+    <t>C346</t>
+  </si>
+  <si>
+    <t>D273</t>
+  </si>
+  <si>
+    <t>A2BR</t>
+  </si>
+  <si>
+    <t>A2C5</t>
+  </si>
+  <si>
+    <t>A3O9</t>
+  </si>
+  <si>
+    <t>D816</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>A3OA</t>
+  </si>
+  <si>
+    <t>A3MK</t>
+  </si>
+  <si>
+    <t>A4BY</t>
+  </si>
+  <si>
+    <t>E657</t>
   </si>
   <si>
     <t>D1020</t>
@@ -91,22 +166,16 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>E270</t>
-  </si>
-  <si>
-    <t>A22D</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A2AO</t>
-  </si>
-  <si>
-    <t>A3DJ</t>
-  </si>
-  <si>
-    <t>H716</t>
+    <t>A3I8</t>
+  </si>
+  <si>
+    <t>A3J5</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>A3IP</t>
   </si>
   <si>
     <t>D1030</t>
@@ -115,16 +184,37 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>F499</t>
-  </si>
-  <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>I540</t>
+    <t>E530</t>
+  </si>
+  <si>
+    <t>J561</t>
+  </si>
+  <si>
+    <t>A3WC</t>
+  </si>
+  <si>
+    <t>A0QH</t>
+  </si>
+  <si>
+    <t>A3IG</t>
+  </si>
+  <si>
+    <t>A3LE</t>
+  </si>
+  <si>
+    <t>E568</t>
+  </si>
+  <si>
+    <t>A3IA</t>
+  </si>
+  <si>
+    <t>A42T</t>
+  </si>
+  <si>
+    <t>A0QK</t>
+  </si>
+  <si>
+    <t>I806</t>
   </si>
   <si>
     <t>D1060</t>
@@ -133,7 +223,13 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>E135</t>
+    <t>F703</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>I305</t>
   </si>
   <si>
     <t>D1070</t>
@@ -142,19 +238,16 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>E436</t>
-  </si>
-  <si>
-    <t>A2UN</t>
-  </si>
-  <si>
-    <t>E877</t>
-  </si>
-  <si>
-    <t>B797</t>
-  </si>
-  <si>
-    <t>J185</t>
+    <t>G963</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>C215</t>
+  </si>
+  <si>
+    <t>B567</t>
   </si>
   <si>
     <t>D1100</t>
@@ -163,16 +256,7 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>G218</t>
-  </si>
-  <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>I321</t>
+    <t>A3IF</t>
   </si>
   <si>
     <t>D1200</t>
@@ -181,43 +265,58 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>A0JE</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>E682</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>A673</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>A3OT</t>
+    <t>D619</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>A3HZ</t>
+  </si>
+  <si>
+    <t>C644</t>
+  </si>
+  <si>
+    <t>A719</t>
+  </si>
+  <si>
+    <t>G573</t>
+  </si>
+  <si>
+    <t>A3QL</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>G190</t>
+  </si>
+  <si>
+    <t>G710</t>
+  </si>
+  <si>
+    <t>I588</t>
+  </si>
+  <si>
+    <t>H115</t>
+  </si>
+  <si>
+    <t>A3I5</t>
+  </si>
+  <si>
+    <t>E893</t>
+  </si>
+  <si>
+    <t>A3HX</t>
+  </si>
+  <si>
+    <t>D576</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>C991</t>
   </si>
   <si>
     <t>D1500</t>
@@ -226,58 +325,40 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A3AD</t>
-  </si>
-  <si>
-    <t>A3NZ</t>
-  </si>
-  <si>
-    <t>A3O1</t>
-  </si>
-  <si>
-    <t>A511</t>
-  </si>
-  <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>A3WP</t>
-  </si>
-  <si>
-    <t>D441</t>
-  </si>
-  <si>
-    <t>A3ZX</t>
-  </si>
-  <si>
-    <t>A1PN</t>
-  </si>
-  <si>
-    <t>A3Q5</t>
-  </si>
-  <si>
-    <t>A3NV</t>
-  </si>
-  <si>
-    <t>A3HJ</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A3M3</t>
-  </si>
-  <si>
-    <t>G327</t>
+    <t>A3NX</t>
+  </si>
+  <si>
+    <t>A3TD</t>
+  </si>
+  <si>
+    <t>A3X5</t>
+  </si>
+  <si>
+    <t>A3TE</t>
+  </si>
+  <si>
+    <t>A3OG</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>A2CR</t>
+  </si>
+  <si>
+    <t>F510</t>
+  </si>
+  <si>
+    <t>A3RQ</t>
+  </si>
+  <si>
+    <t>A0TR</t>
+  </si>
+  <si>
+    <t>A0QI</t>
+  </si>
+  <si>
+    <t>A1HQ</t>
   </si>
   <si>
     <t>D2000</t>
@@ -286,190 +367,238 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>A3T1</t>
+    <t>A399</t>
+  </si>
+  <si>
+    <t>A3OD</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>A2BQ</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>H439</t>
+  </si>
+  <si>
+    <t>A3RL</t>
+  </si>
+  <si>
+    <t>A3LL</t>
+  </si>
+  <si>
+    <t>A3IY</t>
+  </si>
+  <si>
+    <t>A3LK</t>
+  </si>
+  <si>
+    <t>A3RK</t>
+  </si>
+  <si>
+    <t>A46N</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
+    <t>F370</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>A3KA</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>B622</t>
+  </si>
+  <si>
+    <t>A3NB</t>
+  </si>
+  <si>
+    <t>A3XF</t>
+  </si>
+  <si>
+    <t>A3YZ</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A3JQ</t>
+  </si>
+  <si>
+    <t>A3UF</t>
+  </si>
+  <si>
+    <t>E794</t>
+  </si>
+  <si>
+    <t>A3TU</t>
+  </si>
+  <si>
+    <t>A2ID</t>
+  </si>
+  <si>
+    <t>A0TT</t>
+  </si>
+  <si>
+    <t>E478</t>
+  </si>
+  <si>
+    <t>A3KG</t>
+  </si>
+  <si>
+    <t>A3YI</t>
+  </si>
+  <si>
+    <t>A4DU</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>A0H4</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>I308</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>A0G3</t>
-  </si>
-  <si>
-    <t>A34N</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>A3V5</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A36T</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
-    <t>G724</t>
-  </si>
-  <si>
-    <t>I517</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>J335</t>
-  </si>
-  <si>
-    <t>A3ZI</t>
-  </si>
-  <si>
-    <t>A3Q8</t>
-  </si>
-  <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>A3LI</t>
-  </si>
-  <si>
-    <t>B611</t>
-  </si>
-  <si>
-    <t>A3FO</t>
-  </si>
-  <si>
-    <t>E296</t>
-  </si>
-  <si>
-    <t>A15N</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>A43Z</t>
-  </si>
-  <si>
-    <t>B034</t>
-  </si>
-  <si>
-    <t>A22M</t>
-  </si>
-  <si>
-    <t>A2BK</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>A2I2</t>
-  </si>
-  <si>
-    <t>A3GE</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>C835</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>D6000</t>
-  </si>
-  <si>
-    <t>Lodging G&amp;A</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A44W</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>A42D</t>
-  </si>
-  <si>
-    <t>A3DX</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>H341</t>
+    <t>A0VA</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>A0GZ</t>
+  </si>
+  <si>
+    <t>A0LX</t>
+  </si>
+  <si>
+    <t>A3Z9</t>
+  </si>
+  <si>
+    <t>A995</t>
+  </si>
+  <si>
+    <t>A3GV</t>
+  </si>
+  <si>
+    <t>A3YX</t>
+  </si>
+  <si>
+    <t>A3ZF</t>
+  </si>
+  <si>
+    <t>A41H</t>
+  </si>
+  <si>
+    <t>A0G6</t>
+  </si>
+  <si>
+    <t>F766</t>
+  </si>
+  <si>
+    <t>A4DP</t>
+  </si>
+  <si>
+    <t>A3Z0</t>
+  </si>
+  <si>
+    <t>A3TO</t>
+  </si>
+  <si>
+    <t>A3UE</t>
+  </si>
+  <si>
+    <t>A04U</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>A3JL</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>A45O</t>
+  </si>
+  <si>
+    <t>A1MH</t>
+  </si>
+  <si>
+    <t>A0G7</t>
+  </si>
+  <si>
+    <t>A3YY</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>E926</t>
+  </si>
+  <si>
+    <t>A2HX</t>
+  </si>
+  <si>
+    <t>A3OQ</t>
   </si>
   <si>
     <t>D6215</t>
@@ -478,55 +607,85 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>J492</t>
-  </si>
-  <si>
-    <t>A3DT</t>
-  </si>
-  <si>
-    <t>C280</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
-    <t>C825</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>A2UO</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>I953</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>C516</t>
-  </si>
-  <si>
-    <t>F396</t>
-  </si>
-  <si>
-    <t>A3HC</t>
-  </si>
-  <si>
-    <t>E609</t>
+    <t>A2GD</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>A3SU</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>A3SV</t>
+  </si>
+  <si>
+    <t>A4AF</t>
+  </si>
+  <si>
+    <t>G024</t>
+  </si>
+  <si>
+    <t>A0BO</t>
+  </si>
+  <si>
+    <t>A2V1</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>C947</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>A3PS</t>
+  </si>
+  <si>
+    <t>B322</t>
+  </si>
+  <si>
+    <t>A3TG</t>
+  </si>
+  <si>
+    <t>A2FQ</t>
+  </si>
+  <si>
+    <t>A39M</t>
+  </si>
+  <si>
+    <t>A0J5</t>
+  </si>
+  <si>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>A3O6</t>
+  </si>
+  <si>
+    <t>D754</t>
+  </si>
+  <si>
+    <t>H577</t>
   </si>
   <si>
     <t>D6780</t>
@@ -535,10 +694,10 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A3X1</t>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>A3TW</t>
   </si>
   <si>
     <t>D6790</t>
@@ -547,13 +706,10 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>F131</t>
-  </si>
-  <si>
-    <t>C158</t>
-  </si>
-  <si>
-    <t>A1Z8</t>
+    <t>A2PQ</t>
+  </si>
+  <si>
+    <t>J280</t>
   </si>
   <si>
     <t>D7010</t>
@@ -562,10 +718,10 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>F033</t>
-  </si>
-  <si>
-    <t>D737</t>
+    <t>A415</t>
+  </si>
+  <si>
+    <t>A3DQ</t>
   </si>
   <si>
     <t>D8020</t>
@@ -574,25 +730,19 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A39Q</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>A1BT</t>
-  </si>
-  <si>
-    <t>A3PW</t>
-  </si>
-  <si>
-    <t>A1ZP</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>IT Services</t>
+    <t>A2ST</t>
+  </si>
+  <si>
+    <t>A393</t>
+  </si>
+  <si>
+    <t>G598</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>Capital Project 9</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,7 +1119,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1009,13 +1159,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46001.29909722223</v>
+        <v>46001.32400462963</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46001.68162037037</v>
+        <v>46001.71225694445</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1024,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1041,13 +1191,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46001.29777777778</v>
+        <v>46001.33015046296</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46001.68855324074</v>
+        <v>46001.69377314814</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1056,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1073,13 +1223,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46001.31769675926</v>
+        <v>46001.32304398148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46001.68920138889</v>
+        <v>46001.69430555555</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1088,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1105,13 +1255,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46001.31885416667</v>
+        <v>46001.33373842593</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>46001.68255787037</v>
+        <v>46001.68875</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1120,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1137,13 +1287,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46001.27108796296</v>
+        <v>46001.32302083333</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46001.41210648148</v>
+        <v>46001.69940972222</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1152,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>16.5</v>
+        <v>17.85</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1169,18 +1319,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46001.28806712963</v>
+        <v>46001.3238425926</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2">
+        <v>46001.69340277778</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>16</v>
+        <v>17.75</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1197,13 +1351,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46001.31356481482</v>
+        <v>46001.32299768519</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46001.68109953704</v>
+        <v>46001.64321759259</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1212,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1229,13 +1383,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46001.31746527777</v>
+        <v>46001.32478009259</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46001.68042824074</v>
+        <v>46001.69542824074</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1244,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1261,22 +1415,22 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>46001.27583333333</v>
+        <v>46001.32331018519</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>46001.68542824074</v>
+        <v>46001.69696759259</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>29.87</v>
+        <v>17.4</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1285,30 +1439,30 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>46001.2700462963</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46001.69231481481</v>
+        <v>46001.68158564815</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>35.43</v>
+        <v>18.75</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1317,30 +1471,30 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>46001.54075231482</v>
+        <v>46001.32527777777</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46001.68493055556</v>
+        <v>46001.69017361111</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>18.5</v>
+        <v>17.85</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1349,30 +1503,30 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>46001.26924768519</v>
+        <v>46001.32851851852</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46001.68513888889</v>
+        <v>46001.69481481481</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1381,30 +1535,30 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>46001.2705324074</v>
+        <v>46001.33115740741</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>46001.68233796296</v>
+        <v>46001.72043981482</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>25</v>
+        <v>24.35</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1413,26 +1567,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>46001.45616898148</v>
+        <v>46001.33496527778</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2">
+        <v>46001.7134375</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1441,26 +1599,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>46001.43363425926</v>
+        <v>46001.33366898148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2">
+        <v>46001.68990740741</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>18.55</v>
+        <v>17.4</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1469,26 +1631,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>46001.43684027778</v>
+        <v>46001.32423611111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2">
+        <v>46001.69791666666</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>16.5</v>
+        <v>17.4</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1497,26 +1663,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>46001.44850694444</v>
+        <v>46001.32795138889</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2">
+        <v>46001.68997685185</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>18.55</v>
+        <v>17.85</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1525,30 +1695,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>46001.31153935185</v>
+        <v>46001.32362268519</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46001.73075231481</v>
+        <v>46001.68961805556</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>12.35</v>
+        <v>18.35</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1557,26 +1727,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>46001.6455324074</v>
+        <v>46001.32759259259</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2">
+        <v>46001.68832175926</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>25.75</v>
+        <v>18.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1585,26 +1759,30 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>46001.61335648148</v>
+        <v>46001.32790509259</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2">
+        <v>46001.69436342592</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>23</v>
+        <v>18.25</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1613,30 +1791,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>46001.59873842593</v>
+        <v>46001.32936342592</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>46001.99511574074</v>
+        <v>46001.70645833333</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>23.33</v>
+        <v>18.35</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1645,26 +1823,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>46001.4665625</v>
+        <v>46001.32746527778</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2">
+        <v>46001.6525</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1673,26 +1855,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>46001.99393518519</v>
+        <v>46001.32699074074</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>46001.72111111111</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>19.5</v>
+        <v>19.15</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1701,30 +1887,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>46001.23664351852</v>
+        <v>46001.32299768519</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>46001.54804398148</v>
+        <v>46001.69561342592</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>27</v>
+        <v>17.65</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1733,30 +1919,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>46001.52146990741</v>
+        <v>46001.32320601852</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>46001.7225</v>
+        <v>46001.69518518518</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
-        <v>25</v>
+        <v>18.25</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1765,30 +1951,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>46001.23673611111</v>
+        <v>46001.33349537037</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46001.71268518519</v>
+        <v>46001.68826388889</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
-        <v>22.66</v>
+        <v>17.85</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1797,30 +1983,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>46001.30086805556</v>
+        <v>46001.32424768519</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>46001.49807870371</v>
+        <v>46001.63290509259</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>25</v>
+        <v>17.85</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1829,30 +2015,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>46001.31146990741</v>
+        <v>46001.32350694444</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>46001.70165509259</v>
+        <v>46001.68611111111</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>17.77</v>
+        <v>18.35</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1861,26 +2047,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>46001.31460648148</v>
+        <v>46001.33431712963</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>46001.71439814815</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
-        <v>16.63</v>
+        <v>17.65</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1889,30 +2079,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>46001.31134259259</v>
+        <v>46001.3242824074</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46001.70417824074</v>
+        <v>46001.70914351852</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1921,30 +2111,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
-        <v>46001.31493055556</v>
+        <v>46001.33333333334</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46001.70613425926</v>
+        <v>46001.71396990741</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
-        <v>23.84</v>
+        <v>18.35</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1953,30 +2143,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
-        <v>46001.31158564815</v>
+        <v>46001.32987268519</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>46001.70324074074</v>
+        <v>46001.64533564815</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>19.77</v>
+        <v>18.35</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1985,30 +2175,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>46001.31173611111</v>
+        <v>46001.32996527778</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>46001.70365740741</v>
+        <v>46001.3391550926</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
-        <v>19.27</v>
+        <v>18.35</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2017,30 +2207,26 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2">
-        <v>46001.53362268519</v>
+        <v>46001.28834490741</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2">
-        <v>46001.61899305556</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G35" s="2">
-        <v>22</v>
+        <v>45.68</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2049,30 +2235,26 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
-        <v>46001.31568287037</v>
+        <v>46001.40961805556</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2">
-        <v>46001.70344907408</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G36" s="2">
-        <v>22.34</v>
+        <v>22.4</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2081,30 +2263,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
-        <v>46001.31349537037</v>
+        <v>46001.28648148148</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46001.70438657407</v>
+        <v>46001.72265046297</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G37" s="2">
-        <v>19</v>
+        <v>19.65</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2113,30 +2295,26 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
-        <v>46001.31295138889</v>
+        <v>46001.28900462963</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="2">
-        <v>46001.69924768519</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G38" s="2">
-        <v>23.34</v>
+        <v>22.1</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2145,30 +2323,26 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2">
-        <v>46001.31222222222</v>
+        <v>46001.07018518518</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2">
-        <v>46001.70394675926</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2">
-        <v>20.06</v>
+        <v>21.8</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2177,30 +2351,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>46001.3205787037</v>
+        <v>46001.07280092593</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>46001.70206018518</v>
+        <v>46001.50991898148</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" s="2">
-        <v>25.84</v>
+        <v>12.35</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2209,30 +2383,26 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>46001.31119212963</v>
+        <v>46001.54237268519</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="2">
-        <v>46001.70293981482</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2">
-        <v>25.84</v>
+        <v>15.5</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2241,30 +2411,26 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>46001.33515046296</v>
+        <v>46001.9946875</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="2">
-        <v>46001.57614583334</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G42" s="2">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2273,30 +2439,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
-        <v>46001.32979166666</v>
+        <v>46001.11087962963</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46001.7546875</v>
+        <v>46001.51388888889</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2">
-        <v>17.5</v>
+        <v>20.2</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2305,30 +2471,26 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
-        <v>46001.33045138889</v>
+        <v>46001.98319444444</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2">
-        <v>46001.69653935185</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2">
-        <v>16</v>
+        <v>21.8</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2337,30 +2499,26 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
-        <v>46001.32837962963</v>
+        <v>46001.49355324074</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2">
-        <v>46001.50164351852</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G45" s="2">
-        <v>17.5</v>
+        <v>19.15</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2369,30 +2527,26 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
-        <v>46001.52504629629</v>
+        <v>46001.99858796296</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="2">
-        <v>46001.68074074074</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2">
-        <v>17.5</v>
+        <v>19.65</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2401,30 +2555,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
-        <v>46001.33660879629</v>
+        <v>46001.07810185185</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46001.67594907407</v>
+        <v>46001.50997685185</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2">
-        <v>18</v>
+        <v>19.65</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2433,30 +2587,26 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
-        <v>46001.5969675926</v>
+        <v>46001.99776620371</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2">
-        <v>46001.70730324074</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2">
-        <v>18</v>
+        <v>19.65</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2465,30 +2615,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
-        <v>46001.34380787037</v>
+        <v>46001.29527777778</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>46001.66337962963</v>
+        <v>46001.71700231481</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G49" s="2">
-        <v>21.44</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2497,30 +2647,30 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
-        <v>46001.54508101852</v>
+        <v>46001.09469907408</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>46001.6871875</v>
+        <v>46001.50431712963</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G50" s="2">
-        <v>17.5</v>
+        <v>19.65</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2529,30 +2679,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2">
-        <v>46001.53003472222</v>
+        <v>46001.08097222223</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>46001.68046296296</v>
+        <v>46001.50918981482</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G51" s="2">
-        <v>17.5</v>
+        <v>20.2</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2561,30 +2711,26 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
-        <v>46001.32855324074</v>
+        <v>46001.5434837963</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2">
-        <v>46001.50515046297</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G52" s="2">
-        <v>17.5</v>
+        <v>19.15</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2593,126 +2739,126 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
-        <v>46001.54309027778</v>
+        <v>46001.66061342593</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46001.7070949074</v>
+        <v>46002.03943287037</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="2">
+        <v>21</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G53" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2">
-        <v>46001.31336805555</v>
+        <v>46001.29912037037</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46001.50635416667</v>
+        <v>46001.69715277778</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="2">
+        <v>22</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G54" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B55" s="2">
-        <v>46001.54054398148</v>
+        <v>46001.31328703704</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>46001.66915509259</v>
+        <v>46001.71008101852</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G55" s="2">
-        <v>18</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B56" s="2">
-        <v>46001.33774305556</v>
+        <v>46001.08825231482</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46001.5209375</v>
+        <v>46001.39015046296</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G56" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2721,30 +2867,26 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2">
-        <v>46001.33332175926</v>
+        <v>46001.68386574074</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="2">
-        <v>46001.51229166667</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G57" s="2">
-        <v>15.5</v>
+        <v>20.25</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2753,30 +2895,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2">
-        <v>46001.63188657408</v>
+        <v>46001.68050925926</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>46001.69991898148</v>
+        <v>46002.00373842593</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G58" s="2">
-        <v>18</v>
+        <v>27.81</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2785,30 +2927,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2">
-        <v>46001.33333333334</v>
+        <v>46001.0724537037</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46001.52413194445</v>
+        <v>46001.41065972222</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G59" s="2">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2817,30 +2959,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2">
-        <v>46001.5818287037</v>
+        <v>46001.53229166667</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>46001.75170138889</v>
+        <v>46001.72809027778</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G60" s="2">
-        <v>18</v>
+        <v>31.83</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2849,30 +2991,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2">
-        <v>46001.33273148148</v>
+        <v>46001.28824074074</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>46001.57033564815</v>
+        <v>46001.51180555556</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G61" s="2">
-        <v>18</v>
+        <v>31.83</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -2881,39 +3023,39 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2">
+        <v>46001.33427083334</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2">
+        <v>46001.72994212963</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B62" s="2">
-        <v>46001.31929398148</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="2">
-        <v>46001.67112268518</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" s="2">
-        <v>24</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2921,22 +3063,22 @@
         <v>83</v>
       </c>
       <c r="B63" s="2">
-        <v>46001.32891203704</v>
+        <v>46001.32084490741</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>46001.57018518518</v>
+        <v>46001.43364583333</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G63" s="2">
-        <v>16</v>
+        <v>21.2</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2945,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2953,22 +3095,22 @@
         <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>46001.32106481482</v>
+        <v>46001.31515046296</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>46001.7034375</v>
+        <v>46001.73274305555</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G64" s="2">
-        <v>22.5</v>
+        <v>19.25</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2977,30 +3119,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="2">
+        <v>46001.32096064815</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2">
+        <v>46001.71875</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="2">
-        <v>46001.33928240741</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2">
-        <v>46001.54738425926</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G65" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3009,30 +3151,30 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2">
-        <v>46001.32320601852</v>
+        <v>46001.32005787037</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>46001.50805555555</v>
+        <v>46001.73019675926</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G66" s="2">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3041,30 +3183,30 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2">
-        <v>46001.33555555555</v>
+        <v>46001.32340277778</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46001.4774537037</v>
+        <v>46001.43363425926</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G67" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3073,30 +3215,30 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2">
-        <v>46001.33539351852</v>
+        <v>46001.31649305556</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46001.5021875</v>
+        <v>46001.75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3105,30 +3247,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2">
-        <v>46001.52386574074</v>
+        <v>46001.32291666666</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>46001.68747685185</v>
+        <v>46001.71875</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G69" s="2">
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3137,30 +3279,30 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2">
-        <v>46001.33466435185</v>
+        <v>46001.32327546296</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>46001.66290509259</v>
+        <v>46001.73472222222</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G70" s="2">
-        <v>17.51</v>
+        <v>19.35</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3169,94 +3311,90 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2">
-        <v>46001</v>
+        <v>46001.35416666666</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="2">
-        <v>46001</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G71" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H71" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2">
-        <v>46001</v>
+        <v>46001.32033564815</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>46001</v>
+        <v>46001.73163194444</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G72" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2">
-        <v>46001.58436342593</v>
+        <v>46001.32333333333</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>46001.70822916667</v>
+        <v>46001.73474537037</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G73" s="2">
-        <v>18</v>
+        <v>19.8</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3265,30 +3403,30 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2">
-        <v>46001.49932870371</v>
+        <v>46001.32018518518</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>46001.66891203704</v>
+        <v>46001.7378125</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G74" s="2">
-        <v>15</v>
+        <v>21.5</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3297,30 +3435,30 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2">
-        <v>46001.33583333333</v>
+        <v>46001.32199074074</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>46001.68542824074</v>
+        <v>46001.71886574074</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G75" s="2">
-        <v>13.65</v>
+        <v>19.25</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3329,30 +3467,30 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>46001.33386574074</v>
+        <v>46001.32765046296</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>46001.66494212963</v>
+        <v>46001.71259259259</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G76" s="2">
-        <v>15</v>
+        <v>20.45</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3361,30 +3499,30 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2">
-        <v>46001.3402199074</v>
+        <v>46001.32813657408</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>46001.67591435185</v>
+        <v>46001.71259259259</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G77" s="2">
-        <v>15</v>
+        <v>20.45</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3393,30 +3531,30 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2">
-        <v>46001.33542824074</v>
+        <v>46001.30957175926</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>46001.68612268518</v>
+        <v>46001.71721064814</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G78" s="2">
-        <v>17</v>
+        <v>18.75</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3425,30 +3563,30 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2">
-        <v>46001.33333333334</v>
+        <v>46001.32230324074</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46001.6709837963</v>
+        <v>46001.73829861111</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G79" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3457,30 +3595,30 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2">
-        <v>46001.585</v>
+        <v>46001.32190972222</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>46001.62320601852</v>
+        <v>46001.71037037037</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G80" s="2">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3489,30 +3627,30 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2">
-        <v>46001.34190972222</v>
+        <v>46001.33530092592</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>46001.64829861111</v>
+        <v>46001.69861111111</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G81" s="2">
-        <v>19</v>
+        <v>19.15</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3521,30 +3659,30 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2">
-        <v>46001.5725</v>
+        <v>46001.31273148148</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>46001.84804398148</v>
+        <v>46001.53315972222</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3553,30 +3691,30 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2">
-        <v>46001.33180555556</v>
+        <v>46001.3125</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46001.65357638889</v>
+        <v>46001.31270833333</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G83" s="2">
-        <v>20</v>
+        <v>19.25</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3585,30 +3723,30 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2">
-        <v>46001.34256944444</v>
+        <v>46001.32079861111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="2">
-        <v>46001.56086805555</v>
+        <v>46001.50040509259</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G84" s="2">
-        <v>20</v>
+        <v>19.35</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3617,30 +3755,30 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2">
-        <v>46001.41105324074</v>
+        <v>46001.31472222223</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46001.41109953704</v>
+        <v>46001.67290509259</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G85" s="2">
-        <v>17</v>
+        <v>19.35</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3649,30 +3787,30 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2">
-        <v>46001.41189814815</v>
+        <v>46001.32496527778</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>46001.58680555555</v>
+        <v>46001.68467592593</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G86" s="2">
-        <v>17</v>
+        <v>19.35</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3681,26 +3819,30 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2">
-        <v>46001.35635416667</v>
+        <v>46001.32895833333</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2">
+        <v>46001.67679398148</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G87" s="2">
-        <v>21</v>
+        <v>19.25</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3709,30 +3851,30 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2">
-        <v>46001.34214120371</v>
+        <v>46001.32386574074</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>46001.62385416667</v>
+        <v>46001.67334490741</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G88" s="2">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3741,30 +3883,30 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2">
-        <v>46001.50853009259</v>
+        <v>46001.42961805555</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46001.84150462963</v>
+        <v>46001.69828703703</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G89" s="2">
-        <v>15.16</v>
+        <v>18.75</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3773,30 +3915,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2">
-        <v>46001.41307870371</v>
+        <v>46001.32386574074</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46001.50994212963</v>
+        <v>46001.69564814815</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G90" s="2">
-        <v>18</v>
+        <v>21.25</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3805,30 +3947,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2">
-        <v>46001.59111111111</v>
+        <v>46001.32502314815</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>46001.65394675926</v>
+        <v>46001.52777777778</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G91" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3837,30 +3979,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2">
-        <v>46001.49001157407</v>
+        <v>46001.3240625</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>46001.82925925926</v>
+        <v>46001.53646990741</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G92" s="2">
-        <v>13.65</v>
+        <v>18.25</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -3869,30 +4011,30 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2">
-        <v>46001.41244212963</v>
+        <v>46001.32331018519</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>46001.80370370371</v>
+        <v>46001.60635416667</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G93" s="2">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -3901,30 +4043,30 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2">
-        <v>46001.5528125</v>
+        <v>46001.31590277778</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>46001.6612037037</v>
+        <v>46001.68960648148</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G94" s="2">
-        <v>18</v>
+        <v>21.25</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -3933,30 +4075,30 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2">
-        <v>46001.54986111111</v>
+        <v>46001.32292824074</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46001.84927083334</v>
+        <v>46001.62798611111</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G95" s="2">
-        <v>20</v>
+        <v>21.25</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -3965,30 +4107,30 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2">
-        <v>46001.37362268518</v>
+        <v>46001.32865740741</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46001.60891203704</v>
+        <v>46001.70721064815</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G96" s="2">
-        <v>13.65</v>
+        <v>18.35</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -3997,26 +4139,30 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2">
-        <v>46001.4206712963</v>
+        <v>46001.3252199074</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="D97" s="2">
+        <v>46001.68994212963</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G97" s="2">
-        <v>15.16</v>
+        <v>25.35</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4025,30 +4171,30 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2">
-        <v>46001.39704861111</v>
+        <v>46001.32028935185</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>46001.58965277778</v>
+        <v>46001.68956018519</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G98" s="2">
-        <v>15.16</v>
+        <v>19.15</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -4057,30 +4203,30 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2">
-        <v>46001.58030092593</v>
+        <v>46001.32159722222</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>46001.84782407407</v>
+        <v>46001.556875</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G99" s="2">
-        <v>24</v>
+        <v>17.85</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -4089,30 +4235,30 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2">
-        <v>46001.37222222222</v>
+        <v>46001.61885416666</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46001.60923611111</v>
+        <v>46001.70733796297</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G100" s="2">
-        <v>21</v>
+        <v>18.25</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4121,30 +4267,30 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2">
-        <v>46001.64331018519</v>
+        <v>46001.32547453704</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46001.6818287037</v>
+        <v>46001.59594907407</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G101" s="2">
-        <v>13.65</v>
+        <v>18.25</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4153,30 +4299,30 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2">
-        <v>46001.45513888889</v>
+        <v>46001.32020833333</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46001.67152777778</v>
+        <v>46001.54609953704</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G102" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4185,30 +4331,30 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2">
-        <v>46001.49202546296</v>
+        <v>46001.54394675926</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46001.82862268519</v>
+        <v>46001.71278935186</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G103" s="2">
-        <v>22</v>
+        <v>18.35</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4217,30 +4363,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2">
-        <v>46001.36618055555</v>
+        <v>46001.30917824074</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46001.70833333334</v>
+        <v>46001.52957175926</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G104" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4249,30 +4395,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2">
-        <v>46001.41446759259</v>
+        <v>46001.57</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46001.51465277778</v>
+        <v>46001.71340277778</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G105" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4281,30 +4427,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2">
-        <v>46001.67901620371</v>
+        <v>46001.32320601852</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>46001.6790625</v>
+        <v>46001.50335648148</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G106" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4313,30 +4459,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B107" s="2">
-        <v>46001.37537037037</v>
+        <v>46001.52149305555</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46001.5093287037</v>
+        <v>46001.71262731482</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G107" s="2">
-        <v>13.65</v>
+        <v>18.35</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4345,30 +4491,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B108" s="2">
-        <v>46001.58396990741</v>
+        <v>46001.54965277778</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46001.84956018518</v>
+        <v>46001.71407407407</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G108" s="2">
-        <v>22</v>
+        <v>18.35</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4377,30 +4523,30 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B109" s="2">
-        <v>46001.32582175926</v>
+        <v>46001.32633101852</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>46001.69332175926</v>
+        <v>46001.53040509259</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G109" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4409,30 +4555,30 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2">
-        <v>46001.5909375</v>
+        <v>46001.49990740741</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46001.74961805555</v>
+        <v>46001.7145949074</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="G110" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4441,30 +4587,30 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2">
-        <v>46001.58862268519</v>
+        <v>46001.3205787037</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>46001.95447916666</v>
+        <v>46001.4875</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G111" s="2">
-        <v>17.25</v>
+        <v>18.35</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4473,30 +4619,30 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2">
-        <v>46001.7628125</v>
+        <v>46001.54574074074</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>46001.87245370371</v>
+        <v>46001.7144212963</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G112" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4505,30 +4651,30 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2">
-        <v>46001.33333333334</v>
+        <v>46001.32572916667</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46001.66511574074</v>
+        <v>46001.53240740741</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G113" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4537,30 +4683,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2">
-        <v>46001.28118055555</v>
+        <v>46001.32149305556</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46001.59472222222</v>
+        <v>46001.71461805556</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G114" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4569,30 +4715,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2">
-        <v>46001.2929050926</v>
+        <v>46001.32569444444</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46001.58752314815</v>
+        <v>46001.68614583334</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G115" s="2">
-        <v>16.5</v>
+        <v>18.75</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4601,26 +4747,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2">
-        <v>46001.28748842593</v>
+        <v>46001.33403935185</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="D116" s="2">
+        <v>46001.61105324074</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G116" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4629,26 +4779,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2">
-        <v>46001.9492824074</v>
+        <v>46001.31347222222</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="D117" s="2">
+        <v>46001.56174768518</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G117" s="2">
-        <v>18.5</v>
+        <v>18.25</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4657,30 +4811,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2">
-        <v>46001.3130787037</v>
+        <v>46001.59935185185</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46001.63357638889</v>
+        <v>46001.6984375</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G118" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4689,30 +4843,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2">
-        <v>46001.4337962963</v>
+        <v>46001.32664351852</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>46001.87491898148</v>
+        <v>46001.70082175926</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G119" s="2">
-        <v>16.61</v>
+        <v>17.85</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4721,26 +4875,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2">
-        <v>46001.36702546296</v>
+        <v>46001.37356481481</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="D120" s="2">
+        <v>46001.73831018519</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G120" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4749,30 +4907,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2">
-        <v>46001.66940972222</v>
+        <v>46001.45814814815</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>46001.85038194444</v>
+        <v>46001.68731481482</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G121" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4781,30 +4939,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B122" s="2">
-        <v>46001.4080787037</v>
+        <v>46001.33200231481</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>46001.87355324074</v>
+        <v>46001.69762731482</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G122" s="2">
-        <v>16.61</v>
+        <v>21.8</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -4813,30 +4971,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B123" s="2">
-        <v>46001.40821759259</v>
+        <v>46001.36717592592</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46001.40849537037</v>
+        <v>46001.63638888889</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G123" s="2">
-        <v>16.61</v>
+        <v>18.35</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4845,30 +5003,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2">
-        <v>46001.32775462963</v>
+        <v>46001.34938657407</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>46001.55229166667</v>
+        <v>46001.72201388889</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G124" s="2">
-        <v>20.68</v>
+        <v>14.8</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -4877,30 +5035,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2">
-        <v>46001.54359953704</v>
+        <v>46001.35201388889</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>46001.67324074074</v>
+        <v>46001.67844907408</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G125" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -4909,30 +5067,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2">
-        <v>46001.32993055556</v>
+        <v>46001.37070601852</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>46001.6907175926</v>
+        <v>46001.67987268518</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G126" s="2">
-        <v>15.25</v>
+        <v>17.85</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -4941,30 +5099,30 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2">
-        <v>46001.36144675926</v>
+        <v>46001.30690972223</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>46001.74068287037</v>
+        <v>46001.62452546296</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G127" s="2">
-        <v>22</v>
+        <v>17.4</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -4973,30 +5131,30 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2">
-        <v>46001.33597222222</v>
+        <v>46001.32145833333</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46001.76518518518</v>
+        <v>46001.69383101852</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G128" s="2">
-        <v>23.49</v>
+        <v>15.9</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5005,30 +5163,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2">
-        <v>46001.33821759259</v>
+        <v>46001.45591435185</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46001.66983796296</v>
+        <v>46001.68618055555</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G129" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5037,30 +5195,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2">
-        <v>46001.5518287037</v>
+        <v>46001.37804398148</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>46001.71289351852</v>
+        <v>46001.73570601852</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G130" s="2">
-        <v>20.5</v>
+        <v>18.35</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5069,30 +5227,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B131" s="2">
-        <v>46001.34177083334</v>
+        <v>46001.54209490741</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D131" s="2">
-        <v>46001.52983796296</v>
+        <v>46001.67925925926</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G131" s="2">
-        <v>20.5</v>
+        <v>23.35</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5101,30 +5259,30 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2">
-        <v>46001.49266203704</v>
+        <v>46001.36820601852</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>46001.6875</v>
+        <v>46001.68833333333</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G132" s="2">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5133,62 +5291,58 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2">
-        <v>46001.33172453703</v>
+        <v>46001</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="D133" s="2">
-        <v>46001.46733796296</v>
+        <v>46001</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G133" s="2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
       </c>
       <c r="I133" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2">
-        <v>46001.33928240741</v>
+        <v>46001.29222222222</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="2">
-        <v>46001.51049768519</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G134" s="2">
-        <v>18</v>
+        <v>21.8</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5197,30 +5351,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2">
-        <v>46001.52048611111</v>
+        <v>46001.29359953704</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>46001.69502314815</v>
+        <v>46001.58333333334</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G135" s="2">
-        <v>22</v>
+        <v>19.65</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5229,30 +5383,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2">
-        <v>46001.33486111111</v>
+        <v>46001.31746527777</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46001.49908564815</v>
+        <v>46001.59023148148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G136" s="2">
-        <v>22</v>
+        <v>17.4</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5261,30 +5415,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2">
-        <v>46001.52475694445</v>
+        <v>46001.42856481481</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>46001.75238425926</v>
+        <v>46001.70512731482</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G137" s="2">
-        <v>25</v>
+        <v>17.4</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5293,30 +5447,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B138" s="2">
-        <v>46001.2705787037</v>
+        <v>46001.4496412037</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>46001.50414351852</v>
+        <v>46001.6278125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G138" s="2">
-        <v>25</v>
+        <v>18.35</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5325,30 +5479,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B139" s="2">
-        <v>46001.5812037037</v>
+        <v>46001.35695601852</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>46001.68918981482</v>
+        <v>46001.72305555556</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G139" s="2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5357,30 +5511,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2">
-        <v>46001.33597222222</v>
+        <v>46001.29211805556</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>46001.55184027777</v>
+        <v>46001.68866898148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G140" s="2">
-        <v>17</v>
+        <v>17.85</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5389,62 +5543,62 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B141" s="2">
-        <v>46001.33333333334</v>
+        <v>46001.45583333333</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>46001.33333333334</v>
+        <v>46001.69752314815</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G141" s="2">
-        <v>19.5</v>
+        <v>18.35</v>
       </c>
       <c r="H141" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B142" s="2">
-        <v>46001.67355324074</v>
+        <v>46001.4562962963</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>46001.79752314815</v>
+        <v>46001.69092592593</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G142" s="2">
-        <v>19.5</v>
+        <v>18.35</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5453,30 +5607,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2">
-        <v>46001.18569444444</v>
+        <v>46001.46184027778</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46001.30324074074</v>
+        <v>46001.70586805556</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G143" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5485,30 +5639,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2">
-        <v>46001.33927083333</v>
+        <v>46001.51815972223</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46001.49938657408</v>
+        <v>46001.68850694445</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G144" s="2">
-        <v>23.27</v>
+        <v>17.4</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5517,30 +5671,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2">
-        <v>46001.52134259259</v>
+        <v>46001.51976851852</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>46001.61414351852</v>
+        <v>46001.54971064815</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G145" s="2">
-        <v>23.27</v>
+        <v>21.25</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5549,30 +5703,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B146" s="2">
-        <v>46001.65401620371</v>
+        <v>46001.58273148148</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46001.73694444444</v>
+        <v>46001.59425925926</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G146" s="2">
-        <v>23.27</v>
+        <v>21.25</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5581,30 +5735,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2">
-        <v>46001.3564699074</v>
+        <v>46001.34375</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>46001.66711805556</v>
+        <v>46001.68636574074</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G147" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5613,26 +5767,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B148" s="2">
-        <v>46001.37094907407</v>
+        <v>46001.30541666667</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="D148" s="2">
+        <v>46001.57766203704</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G148" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5641,30 +5799,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B149" s="2">
-        <v>46001.37012731482</v>
+        <v>46001.32724537037</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>46001.69171296297</v>
+        <v>46001.63554398148</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G149" s="2">
-        <v>17.5</v>
+        <v>18.35</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5673,35 +5831,1595 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150" s="2">
+        <v>46001.30644675926</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="2">
+        <v>46001.49412037037</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G150" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="2">
+        <v>46001.57997685186</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="2">
+        <v>46001.90008101852</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G151" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" s="2">
+        <v>46001</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G152" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2">
+        <v>7</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="2">
+        <v>46001.57731481481</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G153" s="2">
+        <v>17.4</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="2">
+        <v>46001.35532407407</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="2">
+        <v>46001.69274305556</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G154" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B155" s="2">
+        <v>46001.33226851852</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="2">
+        <v>46001.48770833333</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G155" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156" s="2">
+        <v>46001.42256944445</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2">
+        <v>46001.54209490741</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G156" s="2">
+        <v>23.35</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B157" s="2">
+        <v>46001.38199074074</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="2">
+        <v>46001.62539351852</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G157" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="2">
+        <v>46001.51813657407</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2">
+        <v>46001.68402777778</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="2">
+        <v>17.4</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B159" s="2">
+        <v>46001.36848379629</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2">
+        <v>46001.68621527778</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G159" s="2">
+        <v>17.4</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="2">
+        <v>46001.37725694444</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="2">
+        <v>46001.68484953704</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G160" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="2">
+        <v>46001.42596064815</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2">
+        <v>46001.73700231482</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G161" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B150" s="2">
-        <v>46001.37496527778</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2" t="s">
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G150" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H150" s="2">
-        <v>0</v>
-      </c>
-      <c r="I150" s="2">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="s">
+      <c r="B162" s="2">
+        <v>46001.62594907408</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2">
+        <v>46001.90094907407</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G162" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="2" t="s">
         <v>192</v>
+      </c>
+      <c r="B163" s="2">
+        <v>46001.94184027778</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G163" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" s="2">
+        <v>46001.27186342593</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2">
+        <v>46001.51003472223</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G164" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" s="2">
+        <v>46001.40931712963</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="2">
+        <v>46001.69083333333</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G165" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B166" s="2">
+        <v>46001.7063425926</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2">
+        <v>46001.97546296296</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G166" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B167" s="2">
+        <v>46001.38193287037</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>46001.71403935185</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G167" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="2">
+        <v>46001.31336805555</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2">
+        <v>46001.54739583333</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G168" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" s="2">
+        <v>46001.32005787037</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2">
+        <v>46001.52978009259</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G169" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="2">
+        <v>46001.40364583334</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2">
+        <v>46001.55847222222</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G170" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B171" s="2">
+        <v>46001.34030092593</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2">
+        <v>46001.64623842593</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G171" s="2">
+        <v>19.15</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B172" s="2">
+        <v>46001.34064814815</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2">
+        <v>46001.64447916667</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G172" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B173" s="2">
+        <v>46001.30684027778</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2">
+        <v>46001.75511574074</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G173" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" s="2">
+        <v>46001.40287037037</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="2">
+        <v>46001.43291666666</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G174" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B175" s="2">
+        <v>46001.39341435185</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2">
+        <v>46001.50719907408</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G175" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B176" s="2">
+        <v>46001.5280324074</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="2">
+        <v>46001.68869212963</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G176" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B177" s="2">
+        <v>46001.7069675926</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2">
+        <v>46001.97555555555</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G177" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46001.424375</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2">
+        <v>46001.67976851852</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G178" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" s="2">
+        <v>46001.70675925926</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2">
+        <v>46001.9756712963</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G179" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B180" s="2">
+        <v>46001.33248842593</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2">
+        <v>46001.57540509259</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G180" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" s="2">
+        <v>46001.71844907408</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G181" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B182" s="2">
+        <v>46001.39958333333</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2">
+        <v>46001.39959490741</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G182" s="2">
+        <v>22</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183" s="2">
+        <v>46001.56395833333</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2">
+        <v>46001.69307870371</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G183" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B184" s="2">
+        <v>46001.31855324074</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2">
+        <v>46001.53326388889</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G184" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B185" s="2">
+        <v>46001.31186342592</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2">
+        <v>46001.65003472222</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G185" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B186" s="2">
+        <v>46001.39960648148</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2">
+        <v>46001.68844907408</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G186" s="2">
+        <v>22</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B187" s="2">
+        <v>46001.74012731481</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2">
+        <v>46001.79002314815</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G187" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B188" s="2">
+        <v>46001.56135416667</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2">
+        <v>46001.64921296296</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G188" s="2">
+        <v>29.64</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" s="2">
+        <v>46001.33157407407</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="2">
+        <v>46001.5834837963</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G189" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="2">
+        <v>46001.34844907407</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2">
+        <v>46001.72846064815</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G190" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B191" s="2">
+        <v>46001.32945601852</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2">
+        <v>46001.7219212963</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G191" s="2">
+        <v>19.15</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B192" s="2">
+        <v>46001.33333333334</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D192" s="2">
+        <v>46001.33333333334</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="H192" s="2">
+        <v>8</v>
+      </c>
+      <c r="I192" s="2">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B193" s="2">
+        <v>46001.30987268518</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="2">
+        <v>46001.71127314815</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G193" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B194" s="2">
+        <v>46001.39559027777</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2">
+        <v>46001.50722222222</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G194" s="2">
+        <v>22</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B195" s="2">
+        <v>46001.61902777778</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2">
+        <v>46001.74126157408</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G195" s="2">
+        <v>26</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B196" s="2">
+        <v>46001.3172337963</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="2">
+        <v>46001.50833333333</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G196" s="2">
+        <v>26</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B197" s="2">
+        <v>46001.33333333334</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D197" s="2">
+        <v>46001.33333333334</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2">
+        <v>8</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B198" s="2">
+        <v>46001.43425925926</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2">
+        <v>46001.71616898148</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G198" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B199" s="2">
+        <v>46001.43422453704</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="2">
+        <v>46001.72340277778</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G199" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="233">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A2G0</t>
+    <t>A2C5</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,37 +61,100 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>D826</t>
-  </si>
-  <si>
-    <t>A3LM</t>
-  </si>
-  <si>
-    <t>J399</t>
-  </si>
-  <si>
-    <t>I820</t>
-  </si>
-  <si>
-    <t>A2G3</t>
-  </si>
-  <si>
-    <t>A0HA</t>
-  </si>
-  <si>
-    <t>A3T7</t>
-  </si>
-  <si>
-    <t>A1ZJ</t>
-  </si>
-  <si>
-    <t>E075</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>E302</t>
+    <t>A0OV</t>
+  </si>
+  <si>
+    <t>C346</t>
+  </si>
+  <si>
+    <t>D816</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>G891</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>J525</t>
+  </si>
+  <si>
+    <t>A1K3</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>A3MF</t>
+  </si>
+  <si>
+    <t>D521</t>
+  </si>
+  <si>
+    <t>D528</t>
+  </si>
+  <si>
+    <t>A2C6</t>
+  </si>
+  <si>
+    <t>A2CL</t>
+  </si>
+  <si>
+    <t>A3ML</t>
+  </si>
+  <si>
+    <t>F627</t>
+  </si>
+  <si>
+    <t>A3MS</t>
+  </si>
+  <si>
+    <t>A3MX</t>
+  </si>
+  <si>
+    <t>A3RJ</t>
+  </si>
+  <si>
+    <t>A3R8</t>
+  </si>
+  <si>
+    <t>A3OF</t>
+  </si>
+  <si>
+    <t>B925</t>
+  </si>
+  <si>
+    <t>A3OA</t>
+  </si>
+  <si>
+    <t>H352</t>
+  </si>
+  <si>
+    <t>E483</t>
+  </si>
+  <si>
+    <t>A3NQ</t>
+  </si>
+  <si>
+    <t>D954</t>
+  </si>
+  <si>
+    <t>C791</t>
+  </si>
+  <si>
+    <t>A2C3</t>
+  </si>
+  <si>
+    <t>A3MK</t>
+  </si>
+  <si>
+    <t>A4BY</t>
+  </si>
+  <si>
+    <t>A3I8</t>
   </si>
   <si>
     <t>D1020</t>
@@ -100,16 +163,13 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>E270</t>
-  </si>
-  <si>
-    <t>A3DJ</t>
-  </si>
-  <si>
-    <t>A2AO</t>
-  </si>
-  <si>
-    <t>F499</t>
+    <t>A3J5</t>
+  </si>
+  <si>
+    <t>E657</t>
+  </si>
+  <si>
+    <t>E568</t>
   </si>
   <si>
     <t>D1030</t>
@@ -118,16 +178,28 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>A2HF</t>
-  </si>
-  <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>H125</t>
+    <t>A0QK</t>
+  </si>
+  <si>
+    <t>A2DN</t>
+  </si>
+  <si>
+    <t>A3IA</t>
+  </si>
+  <si>
+    <t>A3IP</t>
+  </si>
+  <si>
+    <t>J561</t>
+  </si>
+  <si>
+    <t>A0QH</t>
+  </si>
+  <si>
+    <t>A3LE</t>
+  </si>
+  <si>
+    <t>I806</t>
   </si>
   <si>
     <t>D1060</t>
@@ -136,10 +208,13 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>I540</t>
-  </si>
-  <si>
-    <t>A2UN</t>
+    <t>F703</t>
+  </si>
+  <si>
+    <t>F514</t>
+  </si>
+  <si>
+    <t>G963</t>
   </si>
   <si>
     <t>D1070</t>
@@ -148,349 +223,367 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>A23C</t>
-  </si>
-  <si>
-    <t>A1ZX</t>
-  </si>
-  <si>
-    <t>E135</t>
-  </si>
-  <si>
-    <t>B797</t>
-  </si>
-  <si>
-    <t>E436</t>
-  </si>
-  <si>
-    <t>B254</t>
-  </si>
-  <si>
-    <t>G218</t>
+    <t>G148</t>
+  </si>
+  <si>
+    <t>C215</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>I305</t>
+  </si>
+  <si>
+    <t>B567</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
+  </si>
+  <si>
+    <t>A20A</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A3HZ</t>
+  </si>
+  <si>
+    <t>H115</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>G573</t>
+  </si>
+  <si>
+    <t>D619</t>
+  </si>
+  <si>
+    <t>A3I5</t>
+  </si>
+  <si>
+    <t>G710</t>
+  </si>
+  <si>
+    <t>G190</t>
+  </si>
+  <si>
+    <t>A3JT</t>
+  </si>
+  <si>
+    <t>E835</t>
+  </si>
+  <si>
+    <t>A3IF</t>
+  </si>
+  <si>
+    <t>G381</t>
+  </si>
+  <si>
+    <t>A3OG</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>A3TE</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>A842</t>
+  </si>
+  <si>
+    <t>A3TD</t>
+  </si>
+  <si>
+    <t>A3TB</t>
+  </si>
+  <si>
+    <t>A3T9</t>
+  </si>
+  <si>
+    <t>C991</t>
+  </si>
+  <si>
+    <t>F510</t>
+  </si>
+  <si>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>A1HQ</t>
+  </si>
+  <si>
+    <t>A1PM</t>
+  </si>
+  <si>
+    <t>A3LL</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A3RL</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
+    <t>A2BQ</t>
+  </si>
+  <si>
+    <t>A44H</t>
   </si>
   <si>
     <t>IL</t>
   </si>
   <si>
-    <t>I524</t>
-  </si>
-  <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>A3DR</t>
-  </si>
-  <si>
-    <t>E720</t>
-  </si>
-  <si>
-    <t>E682</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>C132</t>
-  </si>
-  <si>
-    <t>J442</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>I321</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>A673</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>A0JE</t>
-  </si>
-  <si>
-    <t>H532</t>
-  </si>
-  <si>
-    <t>A3NV</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>A3RH</t>
-  </si>
-  <si>
-    <t>A3HJ</t>
-  </si>
-  <si>
-    <t>J190</t>
-  </si>
-  <si>
-    <t>A3SA</t>
-  </si>
-  <si>
-    <t>A3Q5</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>A27F</t>
-  </si>
-  <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>I565</t>
-  </si>
-  <si>
-    <t>D110</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A3AD</t>
-  </si>
-  <si>
-    <t>D441</t>
-  </si>
-  <si>
-    <t>A22D</t>
-  </si>
-  <si>
-    <t>A3M3</t>
-  </si>
-  <si>
-    <t>A34H</t>
-  </si>
-  <si>
-    <t>G931</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A3T1</t>
+    <t>A3II</t>
+  </si>
+  <si>
+    <t>H439</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
+    <t>A3O7</t>
+  </si>
+  <si>
+    <t>A44G</t>
+  </si>
+  <si>
+    <t>F370</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>E825</t>
+  </si>
+  <si>
+    <t>A3KP</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>A0FY</t>
+  </si>
+  <si>
+    <t>A2LG</t>
+  </si>
+  <si>
+    <t>A3NB</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>E478</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A45O</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>G327</t>
-  </si>
-  <si>
-    <t>A2SF</t>
-  </si>
-  <si>
-    <t>A27Q</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>A547</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
-    <t>D161</t>
-  </si>
-  <si>
-    <t>A3ZN</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>Waffle Cabin</t>
-  </si>
-  <si>
-    <t>A22M</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>J335</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>I704</t>
-  </si>
-  <si>
-    <t>A3MA</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A2I2</t>
-  </si>
-  <si>
-    <t>A3GE</t>
-  </si>
-  <si>
-    <t>A2BK</t>
-  </si>
-  <si>
-    <t>A0XV</t>
-  </si>
-  <si>
-    <t>A2RM</t>
-  </si>
-  <si>
-    <t>A3V5</t>
-  </si>
-  <si>
-    <t>A15N</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
-    <t>E296</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>B034</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>A43Z</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>B154</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>F313</t>
-  </si>
-  <si>
-    <t>A42D</t>
-  </si>
-  <si>
-    <t>J489</t>
+    <t>E794</t>
+  </si>
+  <si>
+    <t>A3JQ</t>
+  </si>
+  <si>
+    <t>A3ZD</t>
+  </si>
+  <si>
+    <t>A2ID</t>
+  </si>
+  <si>
+    <t>A2KU</t>
+  </si>
+  <si>
+    <t>A3YV</t>
+  </si>
+  <si>
+    <t>A3YJ</t>
+  </si>
+  <si>
+    <t>A3X3</t>
+  </si>
+  <si>
+    <t>A3YH</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>A0G6</t>
+  </si>
+  <si>
+    <t>F766</t>
+  </si>
+  <si>
+    <t>A3TO</t>
+  </si>
+  <si>
+    <t>A3UE</t>
+  </si>
+  <si>
+    <t>A4AB</t>
+  </si>
+  <si>
+    <t>A3Z1</t>
+  </si>
+  <si>
+    <t>A3I6</t>
+  </si>
+  <si>
+    <t>A3YZ</t>
+  </si>
+  <si>
+    <t>A3YX</t>
+  </si>
+  <si>
+    <t>A3YK</t>
+  </si>
+  <si>
+    <t>A41H</t>
+  </si>
+  <si>
+    <t>A3Z0</t>
+  </si>
+  <si>
+    <t>A3JL</t>
+  </si>
+  <si>
+    <t>A2JX</t>
+  </si>
+  <si>
+    <t>A3TQ</t>
+  </si>
+  <si>
+    <t>A995</t>
+  </si>
+  <si>
+    <t>A0LX</t>
+  </si>
+  <si>
+    <t>A3Z3</t>
+  </si>
+  <si>
+    <t>A4DP</t>
+  </si>
+  <si>
+    <t>A3YU</t>
+  </si>
+  <si>
+    <t>I345</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>A1ZD</t>
+  </si>
+  <si>
+    <t>C213</t>
+  </si>
+  <si>
+    <t>C409</t>
+  </si>
+  <si>
+    <t>A3HV</t>
+  </si>
+  <si>
+    <t>A0G7</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>A4DU</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>A2HX</t>
+  </si>
+  <si>
+    <t>A2FA</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>A194</t>
   </si>
   <si>
     <t>D6215</t>
@@ -499,37 +592,28 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>F312</t>
-  </si>
-  <si>
-    <t>C280</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
-    <t>C825</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>A2RO</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>E381</t>
-  </si>
-  <si>
-    <t>A44S</t>
+    <t>A3OR</t>
+  </si>
+  <si>
+    <t>A3SU</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>A0BO</t>
+  </si>
+  <si>
+    <t>A4AF</t>
+  </si>
+  <si>
+    <t>A3SV</t>
+  </si>
+  <si>
+    <t>A2V1</t>
   </si>
   <si>
     <t>D6730</t>
@@ -538,25 +622,43 @@
     <t>Security</t>
   </si>
   <si>
-    <t>A3FH</t>
-  </si>
-  <si>
-    <t>I953</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>F396</t>
-  </si>
-  <si>
-    <t>C516</t>
-  </si>
-  <si>
-    <t>A3HC</t>
+    <t>A3TG</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>C947</t>
+  </si>
+  <si>
+    <t>A3PS</t>
+  </si>
+  <si>
+    <t>B322</t>
+  </si>
+  <si>
+    <t>A2FQ</t>
+  </si>
+  <si>
+    <t>A2GD</t>
+  </si>
+  <si>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>G531</t>
+  </si>
+  <si>
+    <t>A173</t>
   </si>
   <si>
     <t>D6780</t>
@@ -565,13 +667,7 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A1WB</t>
-  </si>
-  <si>
-    <t>A03K</t>
+    <t>A2PQ</t>
   </si>
   <si>
     <t>D6790</t>
@@ -580,10 +676,13 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>F131</t>
-  </si>
-  <si>
-    <t>G322</t>
+    <t>A3TX</t>
+  </si>
+  <si>
+    <t>A11G</t>
+  </si>
+  <si>
+    <t>A415</t>
   </si>
   <si>
     <t>D7010</t>
@@ -592,10 +691,7 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>A1Z8</t>
-  </si>
-  <si>
-    <t>D737</t>
+    <t>A393</t>
   </si>
   <si>
     <t>D8020</t>
@@ -604,16 +700,19 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A1BT</t>
+    <t>A2ST</t>
+  </si>
+  <si>
+    <t>A3MB</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>A3PW</t>
-  </si>
-  <si>
-    <t>A3C3</t>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>Capital Project 9</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +1089,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1030,13 +1129,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46002.29024305556</v>
+        <v>46002.32322916666</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46002.70788194444</v>
+        <v>46002.68780092592</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1045,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1062,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46002.28756944444</v>
+        <v>46002.34579861111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46002.71451388889</v>
+        <v>46002.68173611111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1077,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>16.5</v>
+        <v>17.4</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1094,13 +1193,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46002.28430555556</v>
+        <v>46002.32297453703</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46002.68201388889</v>
+        <v>46002.69011574074</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1109,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>17.65</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1126,13 +1225,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46002.30792824074</v>
+        <v>46002.33204861111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>46002.68556712963</v>
+        <v>46002.69394675926</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1141,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>17.65</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1155,16 +1254,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46002.29892361111</v>
+        <v>46002.34003472222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46002.30125</v>
+        <v>46002.70144675926</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1173,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>16</v>
+        <v>17.75</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1187,16 +1286,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46002.29342592593</v>
+        <v>46002.33797453704</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>46002.6765162037</v>
+        <v>46002.68431712963</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1205,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>19</v>
+        <v>17.65</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1219,16 +1318,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46002.3153125</v>
+        <v>46002.32649305555</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46002.68101851852</v>
+        <v>46002.69435185185</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1237,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1251,16 +1350,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46002.30331018518</v>
+        <v>46002.33091435185</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46002.71012731481</v>
+        <v>46002.69981481481</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1269,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1283,16 +1382,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>46002.31469907407</v>
+        <v>46002.32918981482</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>46002.68300925926</v>
+        <v>46002.69052083333</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1301,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1315,16 +1414,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>46002.3165625</v>
+        <v>46002.28236111111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46002.62887731481</v>
+        <v>46002.70826388889</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1333,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>14.5</v>
+        <v>24.35</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1347,16 +1446,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>46002.29016203704</v>
+        <v>46002.32424768519</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46002.67804398148</v>
+        <v>46002.68527777777</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1365,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>9.300000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1379,16 +1478,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>46002.3112962963</v>
+        <v>46002.32631944444</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46002.64949074074</v>
+        <v>46002.70043981481</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1397,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1411,25 +1510,25 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>46002.2725462963</v>
+        <v>46002.3252199074</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>46002.68841435185</v>
+        <v>46002.70082175926</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>29.87</v>
+        <v>15.85</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1438,30 +1537,30 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>46002.27023148148</v>
+        <v>46002.32297453703</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>46002.69108796296</v>
+        <v>46002.68803240741</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>35.43</v>
+        <v>17.85</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1470,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>46002.27243055555</v>
+        <v>46002.32883101852</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>46002.68575231481</v>
+        <v>46002.69200231481</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>25</v>
+        <v>17.85</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1502,30 +1601,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>46002.27039351852</v>
+        <v>46002.36287037037</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>46002.68798611111</v>
+        <v>46002.68770833333</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1534,30 +1633,30 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>46002.44307870371</v>
+        <v>46002.32054398148</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>46002.96194444445</v>
+        <v>46002.70106481481</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>16.5</v>
+        <v>17.4</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1566,30 +1665,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>46002.45736111111</v>
+        <v>46002.32430555556</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46002.96209490741</v>
+        <v>46002.70106481481</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>18.55</v>
+        <v>17.4</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1598,30 +1697,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>46002.44318287037</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>46002.96144675926</v>
+        <v>46002.68996527778</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>19.1</v>
+        <v>18.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1630,30 +1729,30 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>46002.44486111111</v>
+        <v>46002.33665509259</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>46002.78388888889</v>
+        <v>46002.68996527778</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>18.55</v>
+        <v>18.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1662,26 +1761,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>46002.75979166666</v>
+        <v>46002.3253587963</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2">
+        <v>46002.69247685185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>19</v>
+        <v>18.35</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1690,30 +1793,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>46002.31541666666</v>
+        <v>46002.32503472222</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>46002.72247685185</v>
+        <v>46002.69172453704</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>12.35</v>
+        <v>18.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1722,26 +1825,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>46002.58900462963</v>
+        <v>46002.32960648148</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2">
+        <v>46002.68788194445</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>23.33</v>
+        <v>18.35</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1750,30 +1857,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>46002.44396990741</v>
+        <v>46002.33177083333</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>46002.92292824074</v>
+        <v>46002.75861111111</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>18.36</v>
+        <v>19.15</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1782,26 +1889,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>46002.97847222222</v>
+        <v>46002.33325231481</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2">
+        <v>46002.70986111111</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1810,26 +1921,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>46002.62224537037</v>
+        <v>46002.32519675926</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2">
+        <v>46002.69472222222</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
-        <v>25.75</v>
+        <v>17.75</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1838,26 +1953,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
-        <v>46002.99820601852</v>
+        <v>46002.32533564815</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>46002.70721064815</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1866,26 +1985,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
-        <v>46002.61417824074</v>
+        <v>46002.32576388889</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>46002.70469907407</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>23</v>
+        <v>18.35</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1894,26 +2017,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
-        <v>46002.65564814815</v>
+        <v>46002.32949074074</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>46002.70675925926</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
-        <v>24</v>
+        <v>17.4</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1922,30 +2049,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>46002.44582175926</v>
+        <v>46002.33253472222</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46002.50583333334</v>
+        <v>46002.70833333334</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
-        <v>25</v>
+        <v>18.75</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1954,30 +2081,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
-        <v>46002.52391203704</v>
+        <v>46002.3375</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46002.72782407407</v>
+        <v>46002.68450231481</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
-        <v>25</v>
+        <v>17.85</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1986,30 +2113,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
-        <v>46002.29402777777</v>
+        <v>46002.32728009259</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>46002.50563657407</v>
+        <v>46002.68653935185</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>31.02</v>
+        <v>18.35</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2018,30 +2145,26 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2">
-        <v>46002.51803240741</v>
+        <v>46002.32951388889</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="2">
-        <v>46002.70266203704</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
-        <v>31.02</v>
+        <v>18.35</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2050,30 +2173,26 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
-        <v>46002.22377314815</v>
+        <v>46002.28611111111</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2">
-        <v>46002.67482638889</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2">
-        <v>22.66</v>
+        <v>22.4</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2082,30 +2201,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
-        <v>46002.5059837963</v>
+        <v>46002.28241898148</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>46002.50601851852</v>
+        <v>46002.70607638889</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G36" s="2">
-        <v>24</v>
+        <v>19.65</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2114,30 +2233,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2">
-        <v>46002.52423611111</v>
+        <v>46002.28842592592</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46002.72806712963</v>
+        <v>46002.725</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G37" s="2">
-        <v>24</v>
+        <v>45.68</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2146,30 +2265,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2">
-        <v>46002.29521990741</v>
+        <v>46002.28672453704</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46002.50616898148</v>
+        <v>46002.75851851852</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2183,16 +2302,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
-        <v>46002.52541666666</v>
+        <v>46002.4958449074</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>46002.72957175926</v>
+        <v>46002.73818287037</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -2201,7 +2320,7 @@
         <v>52</v>
       </c>
       <c r="G39" s="2">
-        <v>20</v>
+        <v>19.15</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2215,25 +2334,21 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2">
-        <v>46002.31165509259</v>
+        <v>46002.99480324074</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="2">
-        <v>46002.70988425926</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G40" s="2">
-        <v>23.34</v>
+        <v>19.65</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2242,30 +2357,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B41" s="2">
-        <v>46002.60877314815</v>
+        <v>46002.00891203704</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>46002.7465625</v>
+        <v>46002.21694444444</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G41" s="2">
-        <v>22</v>
+        <v>19.65</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2274,15 +2389,15 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2">
-        <v>46002.31221064815</v>
+        <v>46002.98903935185</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
@@ -2290,10 +2405,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G42" s="2">
-        <v>20.56</v>
+        <v>21.8</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2302,30 +2417,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
-        <v>46002.31207175926</v>
+        <v>46002.49577546296</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46002.71451388889</v>
+        <v>46002.73811342593</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2334,30 +2449,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2">
-        <v>46002.31354166667</v>
+        <v>46002.47872685185</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>46002.71041666667</v>
+        <v>46002.82009259259</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2">
-        <v>16.63</v>
+        <v>19.15</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2366,30 +2481,26 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2">
-        <v>46002.31232638889</v>
+        <v>46002.99060185185</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2">
-        <v>46002.7143287037</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G45" s="2">
-        <v>17.77</v>
+        <v>19.65</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2398,30 +2509,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2">
-        <v>46002.31853009259</v>
+        <v>46002.67642361111</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>46002.71291666666</v>
+        <v>46002.91853009259</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G46" s="2">
-        <v>22.34</v>
+        <v>21</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2430,30 +2541,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
-        <v>46002.30996527777</v>
+        <v>46002.3100462963</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46002.71241898148</v>
+        <v>46002.72206018519</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2">
-        <v>25.84</v>
+        <v>22</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2462,30 +2573,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
-        <v>46002.31190972222</v>
+        <v>46002.3031712963</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>46002.71216435185</v>
+        <v>46002.7372337963</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G48" s="2">
-        <v>25.84</v>
+        <v>17.75</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2494,30 +2605,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
-        <v>46002.31726851852</v>
+        <v>46002.68836805555</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>46002.71181712963</v>
+        <v>46002.95849537037</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2">
-        <v>24.09</v>
+        <v>20.25</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2526,30 +2637,26 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2">
-        <v>46002.31011574074</v>
+        <v>46002.73886574074</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2">
-        <v>46002.70945601852</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2">
-        <v>19.27</v>
+        <v>20.4</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2558,30 +2665,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2">
-        <v>46002.31045138889</v>
+        <v>46002.07347222222</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>46002.70555555556</v>
+        <v>46002.39416666667</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2590,30 +2697,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2">
-        <v>46002.3103125</v>
+        <v>46002.68803240741</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>46002.71268518519</v>
+        <v>46003.05579861111</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G52" s="2">
-        <v>21.06</v>
+        <v>27.81</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2622,30 +2729,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2">
-        <v>46002.5912962963</v>
+        <v>46002.07731481481</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46002.69881944444</v>
+        <v>46002.38712962963</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G53" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2654,190 +2761,190 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2">
-        <v>46002.33665509259</v>
+        <v>46002.28822916667</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46002.5128587963</v>
+        <v>46002.5047337963</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="2">
+        <v>31.83</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G54" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2">
-        <v>46002.33458333334</v>
+        <v>46002.52121527777</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>46002.50266203703</v>
+        <v>46002.75680555555</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="2">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G55" s="2">
-        <v>18</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="2">
+        <v>46002.28763888889</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2">
+        <v>46002.50201388889</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="2">
-        <v>46002.32753472222</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="2">
-        <v>46002.55310185185</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G56" s="2">
-        <v>18</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>46002.52350694445</v>
+        <v>46002.72824074074</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46002.69886574074</v>
+        <v>46002.72831018519</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="2">
+        <v>31.83</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G57" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2">
-        <v>46002.32917824074</v>
+        <v>46002.52517361111</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>46002.51239583334</v>
+        <v>46002.5252662037</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="2">
+        <v>31.83</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="G58" s="2">
-        <v>24</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2">
-        <v>46002.34789351852</v>
+        <v>46002.31959490741</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46002.48887731481</v>
+        <v>46002.7419212963</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G59" s="2">
-        <v>16.5</v>
+        <v>19.25</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2846,30 +2953,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2">
+        <v>46002.74299768519</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>46002.74304398148</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="2">
-        <v>46002.52259259259</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="2">
-        <v>46002.69856481482</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G60" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2878,39 +2985,39 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2">
+        <v>46002.32291666666</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2">
+        <v>46002.74304398148</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B61" s="2">
-        <v>46002.53664351852</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="2">
-        <v>46002.68627314815</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="2">
-        <v>24</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2918,22 +3025,22 @@
         <v>81</v>
       </c>
       <c r="B62" s="2">
-        <v>46002.3321412037</v>
+        <v>46002.31719907407</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>46002.54815972222</v>
+        <v>46002.4182175926</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G62" s="2">
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2942,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2950,22 +3057,22 @@
         <v>82</v>
       </c>
       <c r="B63" s="2">
-        <v>46002.33680555555</v>
+        <v>46002.31783564815</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>46002.70253472222</v>
+        <v>46002.74892361111</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G63" s="2">
-        <v>18</v>
+        <v>19.35</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2974,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2982,18 +3089,22 @@
         <v>83</v>
       </c>
       <c r="B64" s="2">
-        <v>46002.33385416667</v>
+        <v>46002.3174074074</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2">
+        <v>46002.75332175926</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G64" s="2">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3002,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3010,22 +3121,22 @@
         <v>84</v>
       </c>
       <c r="B65" s="2">
-        <v>46002.39101851852</v>
+        <v>46002.32003472222</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>46002.56730324074</v>
+        <v>46002.74155092592</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G65" s="2">
-        <v>16</v>
+        <v>21.2</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3034,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3042,22 +3153,22 @@
         <v>85</v>
       </c>
       <c r="B66" s="2">
-        <v>46002.33369212963</v>
+        <v>46002.32055555555</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>46002.46274305556</v>
+        <v>46002.73892361111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G66" s="2">
-        <v>15</v>
+        <v>19.25</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3066,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3074,22 +3185,22 @@
         <v>86</v>
       </c>
       <c r="B67" s="2">
-        <v>46002.33660879629</v>
+        <v>46002.31577546296</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46002.5012037037</v>
+        <v>46002.74525462963</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G67" s="2">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3098,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3106,22 +3217,22 @@
         <v>87</v>
       </c>
       <c r="B68" s="2">
-        <v>46002.31946759259</v>
+        <v>46002.35416666666</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46002.70584490741</v>
+        <v>46002.65625</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G68" s="2">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3130,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3138,22 +3249,22 @@
         <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>46002.32118055555</v>
+        <v>46002.32762731481</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>46002.52357638889</v>
+        <v>46002.73958333334</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G69" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3162,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3170,22 +3281,22 @@
         <v>89</v>
       </c>
       <c r="B70" s="2">
-        <v>46002.32894675926</v>
+        <v>46002.37695601852</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>46002.48717592593</v>
+        <v>46002.74833333334</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G70" s="2">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3194,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3202,22 +3313,22 @@
         <v>90</v>
       </c>
       <c r="B71" s="2">
-        <v>46002.33552083333</v>
+        <v>46002.32309027778</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>46002.75072916667</v>
+        <v>46002.73215277777</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G71" s="2">
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3226,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3234,22 +3345,22 @@
         <v>91</v>
       </c>
       <c r="B72" s="2">
-        <v>46002.32734953704</v>
+        <v>46002.3175</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>46002.70489583333</v>
+        <v>46002.74321759259</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G72" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3258,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3266,22 +3377,22 @@
         <v>92</v>
       </c>
       <c r="B73" s="2">
-        <v>46002.54385416667</v>
+        <v>46002.32224537037</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>46002.70864583334</v>
+        <v>46002.6719212963</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G73" s="2">
-        <v>22.5</v>
+        <v>19.25</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3290,30 +3401,30 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2">
-        <v>46002.31344907408</v>
+        <v>46002.32377314815</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>46002.50043981482</v>
+        <v>46002.67364583333</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G74" s="2">
-        <v>22.5</v>
+        <v>19.35</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3322,30 +3433,30 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
-        <v>46002.57491898148</v>
+        <v>46002.32290509259</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>46002.68790509259</v>
+        <v>46002.69521990741</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G75" s="2">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3354,30 +3465,30 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="2">
+        <v>46002.31206018518</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>46002.50015046296</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="2">
-        <v>46002.32798611111</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2">
-        <v>46002.7060300926</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G76" s="2">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3386,93 +3497,95 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2">
+        <v>46002.32322916666</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2">
+        <v>46002.50040509259</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="2">
+        <v>19.35</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B77" s="2">
-        <v>46002.33622685185</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="2">
-        <v>46002.52385416667</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2">
+        <v>46002.31833333334</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2">
+        <v>46002.62243055556</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G78" s="2">
+        <v>19.35</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B78" s="2">
-        <v>46002.54741898148</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="2">
-        <v>46002.7022337963</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
-        <v>46002.31609953703</v>
+        <v>46002.32291666666</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46002.6924537037</v>
+        <v>46002.54375</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="G79" s="2">
+        <v>19.35</v>
+      </c>
       <c r="H79" s="2">
         <v>0</v>
       </c>
@@ -3480,30 +3593,30 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>46002.50872685185</v>
+        <v>46002.30309027778</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>46002.67163194445</v>
+        <v>46002.73958333334</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G80" s="2">
-        <v>16</v>
+        <v>19.15</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3512,30 +3625,30 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2">
-        <v>46002.35402777778</v>
+        <v>46002.31783564815</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>46002.6796875</v>
+        <v>46002.68141203704</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G81" s="2">
-        <v>16.5</v>
+        <v>21.25</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3544,62 +3657,62 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2">
-        <v>46002</v>
+        <v>46002.3205787037</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>46002</v>
+        <v>46002.69216435185</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G82" s="2">
-        <v>16</v>
+        <v>19.15</v>
       </c>
       <c r="H82" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2">
-        <v>46002.33302083334</v>
+        <v>46002.32332175926</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46002.70498842592</v>
+        <v>46002.69138888889</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G83" s="2">
-        <v>17.51</v>
+        <v>25.35</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3608,190 +3721,190 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
-        <v>46002</v>
+        <v>46002.31564814815</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2">
-        <v>46002</v>
+        <v>46002.69290509259</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G84" s="2">
-        <v>30</v>
+        <v>21.25</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2">
-        <v>46002</v>
+        <v>46002.31532407407</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46002</v>
+        <v>46002.68944444445</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G85" s="2">
-        <v>30</v>
+        <v>24.35</v>
       </c>
       <c r="H85" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2">
-        <v>46002</v>
+        <v>46002.55174768518</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>46002</v>
+        <v>46002.71846064815</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G86" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2">
-        <v>46002</v>
+        <v>46002.32012731482</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D87" s="2">
-        <v>46002</v>
+        <v>46002.5333912037</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G87" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H87" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2">
-        <v>46002</v>
+        <v>46002.31976851852</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>46002</v>
+        <v>46002.52777777778</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G88" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2">
-        <v>46002.60490740741</v>
+        <v>46002.31833333334</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46002.70700231481</v>
+        <v>46002.71876157408</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G89" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3800,30 +3913,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2">
-        <v>46002.53453703703</v>
+        <v>46002.54462962963</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46002.64734953704</v>
+        <v>46002.71689814814</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G90" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3832,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2">
-        <v>46002.48251157408</v>
+        <v>46002.60347222222</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D91" s="2">
-        <v>46002.68768518518</v>
+        <v>46002.7172337963</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G91" s="2">
-        <v>15</v>
+        <v>18.35</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3864,62 +3977,62 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="2">
+        <v>46002.31768518518</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2">
+        <v>46002.54912037037</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B92" s="2">
-        <v>46002.3353587963</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="2">
-        <v>46002.75098379629</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G92" s="2">
-        <v>18</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2">
-        <v>46002.33885416666</v>
+        <v>46002.58108796296</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>46002.69291666667</v>
+        <v>46002.71716435185</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G93" s="2">
-        <v>13.65</v>
+        <v>20.2</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -3928,30 +4041,30 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2">
-        <v>46002.32671296296</v>
+        <v>46002.32585648148</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>46002.67039351852</v>
+        <v>46002.55641203704</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G94" s="2">
-        <v>17.48</v>
+        <v>18.25</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -3960,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3968,22 +4081,22 @@
         <v>117</v>
       </c>
       <c r="B95" s="2">
-        <v>46002.34497685185</v>
+        <v>46002.3234375</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46002.688125</v>
+        <v>46002.560625</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G95" s="2">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -3992,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4000,22 +4113,22 @@
         <v>118</v>
       </c>
       <c r="B96" s="2">
-        <v>46002.36399305556</v>
+        <v>46002.58829861111</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46002.36403935185</v>
+        <v>46002.71707175926</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G96" s="2">
-        <v>15.16</v>
+        <v>18.25</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4024,30 +4137,30 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2">
-        <v>46002.54791666667</v>
+        <v>46002.31798611111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>46002.54797453704</v>
+        <v>46002.71751157408</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G97" s="2">
-        <v>13.65</v>
+        <v>17.85</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4056,30 +4169,30 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2">
-        <v>46002.35246527778</v>
+        <v>46002.32189814815</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>46002.68993055556</v>
+        <v>46002.71695601852</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G98" s="2">
-        <v>21</v>
+        <v>18.35</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -4088,30 +4201,30 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2">
-        <v>46002.35481481482</v>
+        <v>46002.52920138889</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>46002.65430555555</v>
+        <v>46002.71797453704</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G99" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -4120,30 +4233,30 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2">
-        <v>46002.36010416667</v>
+        <v>46002.32068287037</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46002.50371527778</v>
+        <v>46002.5121875</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G100" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4152,30 +4265,30 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2">
-        <v>46002.57778935185</v>
+        <v>46002.33104166666</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46002.90049768519</v>
+        <v>46002.68045138889</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G101" s="2">
-        <v>17</v>
+        <v>18.75</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4184,30 +4297,30 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2">
-        <v>46002.59186342593</v>
+        <v>46002.34125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46002.68946759259</v>
+        <v>46002.62929398148</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G102" s="2">
-        <v>13.65</v>
+        <v>22.2</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4216,62 +4329,62 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2">
-        <v>46002.58333333334</v>
+        <v>46002.32414351852</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46002.58333333334</v>
+        <v>46002.60097222222</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G103" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H103" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2">
-        <v>46002.43072916667</v>
+        <v>46002.33386574074</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46002.625</v>
+        <v>46002.70158564814</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G104" s="2">
-        <v>20</v>
+        <v>18.25</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4280,30 +4393,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2">
-        <v>46002.37723379629</v>
+        <v>46002.32849537037</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46002.54785879629</v>
+        <v>46002.33436342593</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G105" s="2">
-        <v>13.65</v>
+        <v>17.85</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4312,30 +4425,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2">
-        <v>46002.45222222222</v>
+        <v>46002.34457175926</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>46002.78719907408</v>
+        <v>46002.58506944445</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G106" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4344,30 +4457,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2">
-        <v>46002.33337962963</v>
+        <v>46002.59938657407</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46002.67063657408</v>
+        <v>46002.70591435185</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G107" s="2">
-        <v>21</v>
+        <v>17.85</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4376,30 +4489,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2">
-        <v>46002.6153125</v>
+        <v>46002.37407407408</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46002.90606481482</v>
+        <v>46002.7152662037</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G108" s="2">
-        <v>13.65</v>
+        <v>17.85</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4408,30 +4521,30 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2">
-        <v>46002.32936342592</v>
+        <v>46002.31482638889</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>46002.67702546297</v>
+        <v>46002.69034722223</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G109" s="2">
-        <v>24</v>
+        <v>15.9</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4440,30 +4553,30 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B110" s="2">
-        <v>46002.62613425926</v>
+        <v>46002.33333333334</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46002.86271990741</v>
+        <v>46002.68200231482</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G110" s="2">
-        <v>15.16</v>
+        <v>18.35</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4472,62 +4585,62 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2">
-        <v>46002.3334837963</v>
+        <v>46002</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D111" s="2">
-        <v>46002.67665509259</v>
+        <v>46002</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G111" s="2">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2">
-        <v>46002.3731712963</v>
+        <v>46002.44086805556</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>46002.69811342593</v>
+        <v>46002.64094907408</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G112" s="2">
-        <v>13.65</v>
+        <v>14.8</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4536,30 +4649,30 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2">
-        <v>46002.37048611111</v>
+        <v>46002.66106481481</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46002.68511574074</v>
+        <v>46002.71121527778</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G113" s="2">
-        <v>15.16</v>
+        <v>14.8</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4568,30 +4681,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2">
-        <v>46002.37292824074</v>
+        <v>46002.33168981481</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46002.69951388889</v>
+        <v>46002.6034375</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G114" s="2">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4600,30 +4713,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2">
-        <v>46002.37885416667</v>
+        <v>46002.36824074074</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46002.6924074074</v>
+        <v>46002.68472222222</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G115" s="2">
-        <v>13.65</v>
+        <v>18.35</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4632,30 +4745,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2">
-        <v>46002.57637731481</v>
+        <v>46002.36840277778</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>46002.90695601852</v>
+        <v>46002.52584490741</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G116" s="2">
-        <v>24</v>
+        <v>17.85</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4664,30 +4777,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2">
-        <v>46002.36427083334</v>
+        <v>46002.35340277778</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>46002.63697916667</v>
+        <v>46002.6874537037</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G117" s="2">
-        <v>15.16</v>
+        <v>17.85</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4696,62 +4809,62 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2">
-        <v>46002.5</v>
+        <v>46002.37675925926</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46002.5</v>
+        <v>46002.68902777778</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>18.35</v>
       </c>
       <c r="H118" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2">
-        <v>46002.62356481481</v>
+        <v>46002.37109953703</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>46002.6525462963</v>
+        <v>46002.68918981482</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G119" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4760,30 +4873,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2">
-        <v>46002.62767361111</v>
+        <v>46002.37496527778</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>46002.95212962963</v>
+        <v>46002.74363425926</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G120" s="2">
-        <v>17.25</v>
+        <v>18.35</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4792,26 +4905,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2">
-        <v>46002.95008101852</v>
+        <v>46002.36526620371</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="D121" s="2">
+        <v>46002.59068287037</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G121" s="2">
-        <v>18.5</v>
+        <v>18.35</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4820,62 +4937,62 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2">
-        <v>46002.28357638889</v>
+        <v>46002</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="D122" s="2">
-        <v>46002.62939814815</v>
+        <v>46002</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G122" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
       </c>
       <c r="I122" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2">
-        <v>46002.33649305555</v>
+        <v>46002.29373842593</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46002.67694444444</v>
+        <v>46002.68444444444</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G123" s="2">
-        <v>24.72</v>
+        <v>19.65</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4884,26 +5001,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2">
-        <v>46002.31271990741</v>
+        <v>46002.29056712963</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="2">
+        <v>46002.5225462963</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G124" s="2">
-        <v>16.5</v>
+        <v>17.4</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -4912,30 +5033,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B125" s="2">
-        <v>46002.44231481481</v>
+        <v>46002.41815972222</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>46002.57009259259</v>
+        <v>46002.42525462963</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G125" s="2">
-        <v>16.61</v>
+        <v>21.25</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -4944,30 +5065,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B126" s="2">
-        <v>46002.39864583333</v>
+        <v>46002.45582175926</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>46002.67502314815</v>
+        <v>46002.68173611111</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G126" s="2">
-        <v>14.5</v>
+        <v>18.35</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -4976,30 +5097,30 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2">
-        <v>46002.66887731481</v>
+        <v>46002.31018518518</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>46002.88716435185</v>
+        <v>46002.51927083333</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G127" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -5008,30 +5129,30 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B128" s="2">
-        <v>46002.44282407407</v>
+        <v>46002.41630787037</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46002.57025462963</v>
+        <v>46002.6781712963</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G128" s="2">
-        <v>16.61</v>
+        <v>18.35</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5040,30 +5161,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B129" s="2">
-        <v>46002.32471064815</v>
+        <v>46002.45790509259</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46002.64403935185</v>
+        <v>46002.67679398148</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G129" s="2">
-        <v>20.68</v>
+        <v>18.35</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5072,30 +5193,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B130" s="2">
-        <v>46002.53527777778</v>
+        <v>46002.29418981481</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>46002.67697916667</v>
+        <v>46002.625</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G130" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5104,62 +5225,62 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2">
-        <v>46002.33333333334</v>
+        <v>46002.45870370371</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>46002.33333333334</v>
+        <v>46002.67865740741</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G131" s="2">
-        <v>0</v>
+        <v>18.35</v>
       </c>
       <c r="H131" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2">
-        <v>46002.70334490741</v>
+        <v>46002.30859953703</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>46003.10857638889</v>
+        <v>46002.64129629629</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G132" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5168,30 +5289,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2">
-        <v>46002.13649305556</v>
+        <v>46002.33429398148</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>46002.13739583334</v>
+        <v>46002.52568287037</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G133" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5200,30 +5321,30 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2">
-        <v>46002.32512731481</v>
+        <v>46002.38898148148</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>46002.65792824074</v>
+        <v>46002.68975694444</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G134" s="2">
-        <v>15.25</v>
+        <v>18.35</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5232,30 +5353,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2">
-        <v>46002.3546412037</v>
+        <v>46002.44427083333</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>46002.78333333333</v>
+        <v>46002.68135416666</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G135" s="2">
-        <v>23.49</v>
+        <v>18.35</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5264,30 +5385,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B136" s="2">
-        <v>46002.34240740741</v>
+        <v>46002.46811342592</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46002.68600694444</v>
+        <v>46002.59336805555</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G136" s="2">
-        <v>22</v>
+        <v>17.85</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5296,62 +5417,62 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2">
-        <v>46002.33333333334</v>
+        <v>46002.30586805556</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>46002.33333333334</v>
+        <v>46002.53688657407</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="G137" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H137" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2">
-        <v>46002.32983796296</v>
+        <v>46002.45422453704</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>46002.50509259259</v>
+        <v>46002.68273148148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G138" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5360,30 +5481,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B139" s="2">
-        <v>46002.67674768518</v>
+        <v>46002.34321759259</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>46002.67677083334</v>
+        <v>46002.3728125</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G139" s="2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5392,30 +5513,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B140" s="2">
-        <v>46002.53923611111</v>
+        <v>46002.41222222222</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>46002.67659722222</v>
+        <v>46002.72930555556</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G140" s="2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5424,30 +5545,30 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2">
-        <v>46002.3290625</v>
+        <v>46002.28930555555</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>46002.50174768519</v>
+        <v>46002.52457175926</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G141" s="2">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5456,30 +5577,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2">
-        <v>46002.33447916667</v>
+        <v>46002.33363425926</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>46002.4958912037</v>
+        <v>46002.44763888889</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G142" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5488,30 +5609,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2">
-        <v>46002.27442129629</v>
+        <v>46002.4572337963</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46002.58422453704</v>
+        <v>46002.68280092593</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="G143" s="2">
-        <v>23</v>
+        <v>18.35</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5520,30 +5641,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2">
-        <v>46002.60523148148</v>
+        <v>46002.3317824074</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46002.76115740741</v>
+        <v>46002.68168981482</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="G144" s="2">
-        <v>23</v>
+        <v>18.35</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5552,30 +5673,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2">
-        <v>46002.33403935185</v>
+        <v>46002.37152777778</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>46002.54280092593</v>
+        <v>46002.63763888889</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="G145" s="2">
-        <v>25</v>
+        <v>18.35</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5584,30 +5705,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2">
-        <v>46002.56407407407</v>
+        <v>46002.53604166667</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46002.77082175926</v>
+        <v>46002.85887731481</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G146" s="2">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5616,30 +5737,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B147" s="2">
-        <v>46002.35546296297</v>
+        <v>46002.68010416667</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>46002.71877314815</v>
+        <v>46002.89628472222</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G147" s="2">
-        <v>20.57</v>
+        <v>15.9</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5648,30 +5769,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B148" s="2">
-        <v>46002.34121527777</v>
+        <v>46002.54771990741</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>46002.71487268519</v>
+        <v>46002.57258101852</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G148" s="2">
-        <v>19.5</v>
+        <v>17.4</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5680,30 +5801,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2">
-        <v>46002.57357638889</v>
+        <v>46002.53581018518</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>46002.67212962963</v>
+        <v>46002.86788194445</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G149" s="2">
-        <v>23.27</v>
+        <v>18.75</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5712,30 +5833,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2">
-        <v>46002.303125</v>
+        <v>46002.60525462963</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>46002.52486111111</v>
+        <v>46002.76688657407</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G150" s="2">
-        <v>23.27</v>
+        <v>16.85</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5744,30 +5865,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B151" s="2">
-        <v>46002.36565972222</v>
+        <v>46002.37245370371</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>46002.68849537037</v>
+        <v>46002.66275462963</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G151" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -5776,30 +5897,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B152" s="2">
-        <v>46002.41629629629</v>
+        <v>46002.33267361111</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>46002.68636574074</v>
+        <v>46002.709375</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G152" s="2">
-        <v>17.5</v>
+        <v>21.25</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -5808,39 +5929,1087 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="2">
+        <v>46002.41366898148</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="2">
+        <v>46002.67163194445</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G153" s="2">
+        <v>23.35</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" s="2">
+        <v>46002.35011574074</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="2">
+        <v>46002.68200231482</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G154" s="2">
+        <v>18.35</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="2">
+        <v>46002.61108796296</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="2">
+        <v>46002.89804398148</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G155" s="2">
+        <v>17.75</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B156" s="2">
+        <v>46002.27318287037</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2">
+        <v>46002.49541666666</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G156" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="2">
+        <v>46002.90609953704</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G157" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="2">
+        <v>46002.42807870371</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G158" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="2">
+        <v>46002.38270833333</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2">
+        <v>46002.67853009259</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G159" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B160" s="2">
+        <v>46002.37440972222</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="2">
+        <v>46002.63517361111</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G160" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="2">
+        <v>46002.49552083333</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2">
+        <v>46002.5862037037</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G161" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B162" s="2">
+        <v>46002.31068287037</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2">
+        <v>46002.53958333333</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G162" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B163" s="2">
+        <v>46002.32674768518</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2">
+        <v>46002.77112268518</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G163" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B164" s="2">
+        <v>46002.33913194444</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2">
+        <v>46002.53045138889</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G164" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B165" s="2">
+        <v>46002.32697916667</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="2">
+        <v>46002.41096064815</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G165" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B153" s="2">
-        <v>46002.27791666667</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="2">
-        <v>46002.5746875</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G153" s="2">
-        <v>18</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0</v>
-      </c>
-      <c r="I153" s="2">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>100</v>
+      <c r="B166" s="2">
+        <v>46002.31078703704</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2">
+        <v>46002.62204861111</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G166" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" s="2">
+        <v>46002.42780092593</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>46002.51819444444</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G167" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" s="2">
+        <v>46002.5396412037</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" s="2">
+        <v>46002.68803240741</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G168" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B169" s="2">
+        <v>46002.62486111111</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2">
+        <v>46002.9374537037</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G169" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" s="2">
+        <v>46002.36803240741</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2">
+        <v>46002.49725694444</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G170" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B171" s="2">
+        <v>46002.51731481482</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2">
+        <v>46002.68810185185</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G171" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B172" s="2">
+        <v>46002.70834490741</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2">
+        <v>46002.95820601852</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G172" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173" s="2">
+        <v>46002.71474537037</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2">
+        <v>46002.95543981482</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G173" s="2">
+        <v>20.15</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B174" s="2">
+        <v>46002.71597222222</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="2">
+        <v>46002.95532407407</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G174" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B175" s="2">
+        <v>46002.33321759259</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2">
+        <v>46002.7383449074</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G175" s="2">
+        <v>22</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B176" s="2">
+        <v>46002.5</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" s="2">
+        <v>46002.5</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>4</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B177" s="2">
+        <v>46002.52056712963</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2">
+        <v>46002.6982175926</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G177" s="2">
+        <v>29.64</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B178" s="2">
+        <v>46002.35891203704</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2">
+        <v>46002.73431712963</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G178" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179" s="2">
+        <v>46002.33333333334</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" s="2">
+        <v>46002.33333333334</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G179" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="H179" s="2">
+        <v>8</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B180" s="2">
+        <v>46002.32965277778</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2">
+        <v>46002.73582175926</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G180" s="2">
+        <v>30</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" s="2">
+        <v>46002.33333333334</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D181" s="2">
+        <v>46002.33333333334</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G181" s="2">
+        <v>17.65</v>
+      </c>
+      <c r="H181" s="2">
+        <v>8</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B182" s="2">
+        <v>46002.5402662037</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2">
+        <v>46002.66945601852</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G182" s="2">
+        <v>26</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="2">
+        <v>46002.32077546296</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2">
+        <v>46002.56826388889</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G183" s="2">
+        <v>22</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" s="2">
+        <v>46002.59372685185</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2">
+        <v>46002.70543981482</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G184" s="2">
+        <v>22</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B185" s="2">
+        <v>46002.33462962963</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2">
+        <v>46002.67726851852</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G185" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B186" s="2">
+        <v>46002.41842592593</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2">
+        <v>46002.74695601852</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G186" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="252">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A2C5</t>
+    <t>A0XN</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,100 +61,52 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>A0OV</t>
-  </si>
-  <si>
-    <t>C346</t>
-  </si>
-  <si>
-    <t>D816</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>G891</t>
-  </si>
-  <si>
-    <t>H777</t>
-  </si>
-  <si>
-    <t>J525</t>
-  </si>
-  <si>
-    <t>A1K3</t>
-  </si>
-  <si>
-    <t>H632</t>
-  </si>
-  <si>
-    <t>A3MF</t>
-  </si>
-  <si>
-    <t>D521</t>
-  </si>
-  <si>
-    <t>D528</t>
-  </si>
-  <si>
-    <t>A2C6</t>
-  </si>
-  <si>
-    <t>A2CL</t>
-  </si>
-  <si>
-    <t>A3ML</t>
-  </si>
-  <si>
-    <t>F627</t>
-  </si>
-  <si>
-    <t>A3MS</t>
-  </si>
-  <si>
-    <t>A3MX</t>
-  </si>
-  <si>
-    <t>A3RJ</t>
-  </si>
-  <si>
-    <t>A3R8</t>
-  </si>
-  <si>
-    <t>A3OF</t>
-  </si>
-  <si>
-    <t>B925</t>
-  </si>
-  <si>
-    <t>A3OA</t>
-  </si>
-  <si>
-    <t>H352</t>
-  </si>
-  <si>
-    <t>E483</t>
-  </si>
-  <si>
-    <t>A3NQ</t>
-  </si>
-  <si>
-    <t>D954</t>
-  </si>
-  <si>
-    <t>C791</t>
-  </si>
-  <si>
-    <t>A2C3</t>
-  </si>
-  <si>
-    <t>A3MK</t>
-  </si>
-  <si>
-    <t>A4BY</t>
-  </si>
-  <si>
-    <t>A3I8</t>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A3JZ</t>
+  </si>
+  <si>
+    <t>F683</t>
+  </si>
+  <si>
+    <t>J520</t>
+  </si>
+  <si>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>A2D1</t>
+  </si>
+  <si>
+    <t>A3NT</t>
+  </si>
+  <si>
+    <t>A2FY</t>
+  </si>
+  <si>
+    <t>A0DO</t>
+  </si>
+  <si>
+    <t>A2JG</t>
+  </si>
+  <si>
+    <t>A3S3</t>
+  </si>
+  <si>
+    <t>J399</t>
+  </si>
+  <si>
+    <t>J158</t>
+  </si>
+  <si>
+    <t>A3T7</t>
+  </si>
+  <si>
+    <t>A3GJ</t>
+  </si>
+  <si>
+    <t>B903</t>
   </si>
   <si>
     <t>D1020</t>
@@ -163,13 +115,13 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>A3J5</t>
-  </si>
-  <si>
-    <t>E657</t>
-  </si>
-  <si>
-    <t>E568</t>
+    <t>A1JS</t>
+  </si>
+  <si>
+    <t>F406</t>
+  </si>
+  <si>
+    <t>A3PC</t>
   </si>
   <si>
     <t>D1030</t>
@@ -178,28 +130,34 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>A0QK</t>
-  </si>
-  <si>
-    <t>A2DN</t>
-  </si>
-  <si>
-    <t>A3IA</t>
-  </si>
-  <si>
-    <t>A3IP</t>
-  </si>
-  <si>
-    <t>J561</t>
-  </si>
-  <si>
-    <t>A0QH</t>
-  </si>
-  <si>
-    <t>A3LE</t>
-  </si>
-  <si>
-    <t>I806</t>
+    <t>A3SJ</t>
+  </si>
+  <si>
+    <t>A3P7</t>
+  </si>
+  <si>
+    <t>A06T</t>
+  </si>
+  <si>
+    <t>A2HF</t>
+  </si>
+  <si>
+    <t>H716</t>
+  </si>
+  <si>
+    <t>G397</t>
+  </si>
+  <si>
+    <t>A449</t>
+  </si>
+  <si>
+    <t>E082</t>
+  </si>
+  <si>
+    <t>D671</t>
+  </si>
+  <si>
+    <t>J056</t>
   </si>
   <si>
     <t>D1060</t>
@@ -208,13 +166,10 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>F703</t>
-  </si>
-  <si>
-    <t>F514</t>
-  </si>
-  <si>
-    <t>G963</t>
+    <t>A3DS</t>
+  </si>
+  <si>
+    <t>E877</t>
   </si>
   <si>
     <t>D1070</t>
@@ -223,19 +178,22 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>G148</t>
-  </si>
-  <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>C349</t>
-  </si>
-  <si>
-    <t>I305</t>
-  </si>
-  <si>
-    <t>B567</t>
+    <t>C653</t>
+  </si>
+  <si>
+    <t>B250</t>
+  </si>
+  <si>
+    <t>E135</t>
+  </si>
+  <si>
+    <t>I590</t>
+  </si>
+  <si>
+    <t>A23C</t>
+  </si>
+  <si>
+    <t>J185</t>
   </si>
   <si>
     <t>D1100</t>
@@ -244,10 +202,22 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>A20A</t>
-  </si>
-  <si>
-    <t>A278</t>
+    <t>E720</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>A3DR</t>
+  </si>
+  <si>
+    <t>I524</t>
+  </si>
+  <si>
+    <t>A0JI</t>
   </si>
   <si>
     <t>D1200</t>
@@ -256,43 +226,43 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>A3HZ</t>
-  </si>
-  <si>
-    <t>H115</t>
-  </si>
-  <si>
-    <t>A235</t>
-  </si>
-  <si>
-    <t>G573</t>
-  </si>
-  <si>
-    <t>D619</t>
-  </si>
-  <si>
-    <t>A3I5</t>
-  </si>
-  <si>
-    <t>G710</t>
-  </si>
-  <si>
-    <t>G190</t>
-  </si>
-  <si>
-    <t>A3JT</t>
-  </si>
-  <si>
-    <t>E835</t>
-  </si>
-  <si>
-    <t>A3IF</t>
-  </si>
-  <si>
-    <t>G381</t>
-  </si>
-  <si>
-    <t>A3OG</t>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>D843</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>A3LN</t>
+  </si>
+  <si>
+    <t>J442</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>C208</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
+    <t>A2H9</t>
+  </si>
+  <si>
+    <t>D855</t>
+  </si>
+  <si>
+    <t>A3L3</t>
+  </si>
+  <si>
+    <t>E950</t>
+  </si>
+  <si>
+    <t>A3NZ</t>
   </si>
   <si>
     <t>D1500</t>
@@ -301,31 +271,67 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>A3TE</t>
-  </si>
-  <si>
-    <t>A2FB</t>
-  </si>
-  <si>
-    <t>A842</t>
-  </si>
-  <si>
-    <t>A3TD</t>
-  </si>
-  <si>
-    <t>A3TB</t>
-  </si>
-  <si>
-    <t>A3T9</t>
-  </si>
-  <si>
-    <t>C991</t>
-  </si>
-  <si>
-    <t>F510</t>
-  </si>
-  <si>
-    <t>G605</t>
+    <t>A3O1</t>
+  </si>
+  <si>
+    <t>G910</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>A3TH</t>
+  </si>
+  <si>
+    <t>D441</t>
+  </si>
+  <si>
+    <t>A3NY</t>
+  </si>
+  <si>
+    <t>A511</t>
+  </si>
+  <si>
+    <t>A1FE</t>
+  </si>
+  <si>
+    <t>A3M1</t>
+  </si>
+  <si>
+    <t>A34H</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>A3PT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>A3NV</t>
+  </si>
+  <si>
+    <t>A3RH</t>
+  </si>
+  <si>
+    <t>A3ZX</t>
+  </si>
+  <si>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>A2KR</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>D243</t>
   </si>
   <si>
     <t>D2000</t>
@@ -334,256 +340,307 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>E190</t>
-  </si>
-  <si>
-    <t>A1HQ</t>
-  </si>
-  <si>
-    <t>A1PM</t>
-  </si>
-  <si>
-    <t>A3LL</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>A3RL</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>A2BQ</t>
-  </si>
-  <si>
-    <t>A44H</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A3II</t>
-  </si>
-  <si>
-    <t>H439</t>
-  </si>
-  <si>
-    <t>A2I3</t>
-  </si>
-  <si>
-    <t>A3O7</t>
-  </si>
-  <si>
-    <t>A44G</t>
-  </si>
-  <si>
-    <t>F370</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>E825</t>
-  </si>
-  <si>
-    <t>A3KP</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t>A0FY</t>
-  </si>
-  <si>
-    <t>A2LG</t>
-  </si>
-  <si>
-    <t>A3NB</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t>E478</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>A45O</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>E794</t>
-  </si>
-  <si>
-    <t>A3JQ</t>
-  </si>
-  <si>
-    <t>A3ZD</t>
-  </si>
-  <si>
-    <t>A2ID</t>
-  </si>
-  <si>
-    <t>A2KU</t>
-  </si>
-  <si>
-    <t>A3YV</t>
-  </si>
-  <si>
-    <t>A3YJ</t>
-  </si>
-  <si>
-    <t>A3X3</t>
-  </si>
-  <si>
-    <t>A3YH</t>
-  </si>
-  <si>
-    <t>C926</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t>A0G6</t>
-  </si>
-  <si>
-    <t>F766</t>
-  </si>
-  <si>
-    <t>A3TO</t>
-  </si>
-  <si>
-    <t>A3UE</t>
-  </si>
-  <si>
-    <t>A4AB</t>
-  </si>
-  <si>
-    <t>A3Z1</t>
-  </si>
-  <si>
-    <t>A3I6</t>
-  </si>
-  <si>
-    <t>A3YZ</t>
-  </si>
-  <si>
-    <t>A3YX</t>
-  </si>
-  <si>
-    <t>A3YK</t>
-  </si>
-  <si>
-    <t>A41H</t>
-  </si>
-  <si>
-    <t>A3Z0</t>
-  </si>
-  <si>
-    <t>A3JL</t>
-  </si>
-  <si>
-    <t>A2JX</t>
-  </si>
-  <si>
-    <t>A3TQ</t>
-  </si>
-  <si>
-    <t>A995</t>
-  </si>
-  <si>
-    <t>A0LX</t>
-  </si>
-  <si>
-    <t>A3Z3</t>
-  </si>
-  <si>
-    <t>A4DP</t>
-  </si>
-  <si>
-    <t>A3YU</t>
-  </si>
-  <si>
-    <t>I345</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>A1ZD</t>
-  </si>
-  <si>
-    <t>C213</t>
-  </si>
-  <si>
-    <t>C409</t>
-  </si>
-  <si>
-    <t>A3HV</t>
-  </si>
-  <si>
-    <t>A0G7</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>Fremont Restaurant</t>
-  </si>
-  <si>
-    <t>I017</t>
-  </si>
-  <si>
-    <t>A4DU</t>
-  </si>
-  <si>
-    <t>H083</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>Base Camp Hotel</t>
-  </si>
-  <si>
-    <t>A2HX</t>
-  </si>
-  <si>
-    <t>A2FA</t>
-  </si>
-  <si>
-    <t>C348</t>
-  </si>
-  <si>
-    <t>A194</t>
+    <t>A46W</t>
+  </si>
+  <si>
+    <t>A42B</t>
+  </si>
+  <si>
+    <t>A3T4</t>
+  </si>
+  <si>
+    <t>A2Y6</t>
+  </si>
+  <si>
+    <t>G931</t>
+  </si>
+  <si>
+    <t>A3VT</t>
+  </si>
+  <si>
+    <t>J286</t>
+  </si>
+  <si>
+    <t>A3J8</t>
+  </si>
+  <si>
+    <t>F558</t>
+  </si>
+  <si>
+    <t>E587</t>
+  </si>
+  <si>
+    <t>A4FK</t>
+  </si>
+  <si>
+    <t>A3L7</t>
+  </si>
+  <si>
+    <t>G179</t>
+  </si>
+  <si>
+    <t>A0FH</t>
+  </si>
+  <si>
+    <t>A0FC</t>
+  </si>
+  <si>
+    <t>A44M</t>
+  </si>
+  <si>
+    <t>G327</t>
+  </si>
+  <si>
+    <t>A29N</t>
+  </si>
+  <si>
+    <t>A2D6</t>
+  </si>
+  <si>
+    <t>A3K8</t>
+  </si>
+  <si>
+    <t>A3P8</t>
+  </si>
+  <si>
+    <t>A3RZ</t>
+  </si>
+  <si>
+    <t>A3U6</t>
+  </si>
+  <si>
+    <t>A3Z4</t>
+  </si>
+  <si>
+    <t>A46U</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>A3VX</t>
+  </si>
+  <si>
+    <t>A3QP</t>
+  </si>
+  <si>
+    <t>A3UW</t>
+  </si>
+  <si>
+    <t>A3K5</t>
+  </si>
+  <si>
+    <t>A3JF</t>
+  </si>
+  <si>
+    <t>A3J9</t>
+  </si>
+  <si>
+    <t>A36Y</t>
+  </si>
+  <si>
+    <t>A2G2</t>
+  </si>
+  <si>
+    <t>A27V</t>
+  </si>
+  <si>
+    <t>A3KK</t>
+  </si>
+  <si>
+    <t>A3TK</t>
+  </si>
+  <si>
+    <t>E715</t>
+  </si>
+  <si>
+    <t>A0RZ</t>
+  </si>
+  <si>
+    <t>A1BL</t>
+  </si>
+  <si>
+    <t>A3JO</t>
+  </si>
+  <si>
+    <t>A3VV</t>
+  </si>
+  <si>
+    <t>D407</t>
+  </si>
+  <si>
+    <t>H440</t>
+  </si>
+  <si>
+    <t>A26R</t>
+  </si>
+  <si>
+    <t>A3CD</t>
+  </si>
+  <si>
+    <t>A3IO</t>
+  </si>
+  <si>
+    <t>A3L0</t>
+  </si>
+  <si>
+    <t>A3LH</t>
+  </si>
+  <si>
+    <t>A3NS</t>
+  </si>
+  <si>
+    <t>A3TL</t>
+  </si>
+  <si>
+    <t>A3Q4</t>
+  </si>
+  <si>
+    <t>A547</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D224</t>
+  </si>
+  <si>
+    <t>A0G3</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>I308</t>
+  </si>
+  <si>
+    <t>A2LP</t>
+  </si>
+  <si>
+    <t>A2AA</t>
+  </si>
+  <si>
+    <t>I216</t>
+  </si>
+  <si>
+    <t>E655</t>
+  </si>
+  <si>
+    <t>I704</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A3G6</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>A1MU</t>
+  </si>
+  <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>I424</t>
+  </si>
+  <si>
+    <t>A42F</t>
+  </si>
+  <si>
+    <t>A43Z</t>
+  </si>
+  <si>
+    <t>I666</t>
+  </si>
+  <si>
+    <t>A0XV</t>
+  </si>
+  <si>
+    <t>A2BK</t>
+  </si>
+  <si>
+    <t>A3GE</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>A3LI</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>A3VR</t>
+  </si>
+  <si>
+    <t>I182</t>
+  </si>
+  <si>
+    <t>A3U9</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>A3X0</t>
+  </si>
+  <si>
+    <t>C835</t>
+  </si>
+  <si>
+    <t>A3OC</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>A1N1</t>
+  </si>
+  <si>
+    <t>A44W</t>
+  </si>
+  <si>
+    <t>F313</t>
+  </si>
+  <si>
+    <t>D283</t>
+  </si>
+  <si>
+    <t>H341</t>
   </si>
   <si>
     <t>D6215</t>
@@ -592,28 +649,7 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>A3OR</t>
-  </si>
-  <si>
-    <t>A3SU</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>A0BO</t>
-  </si>
-  <si>
-    <t>A4AF</t>
-  </si>
-  <si>
-    <t>A3SV</t>
-  </si>
-  <si>
-    <t>A2V1</t>
+    <t>A3FH</t>
   </si>
   <si>
     <t>D6730</t>
@@ -622,43 +658,22 @@
     <t>Security</t>
   </si>
   <si>
-    <t>A3TG</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>Janitorial</t>
-  </si>
-  <si>
-    <t>C947</t>
-  </si>
-  <si>
-    <t>A3PS</t>
-  </si>
-  <si>
-    <t>B322</t>
-  </si>
-  <si>
-    <t>A2FQ</t>
-  </si>
-  <si>
-    <t>A2GD</t>
-  </si>
-  <si>
-    <t>A0IJ</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>G531</t>
-  </si>
-  <si>
-    <t>A173</t>
+    <t>A3HC</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>A3HI</t>
+  </si>
+  <si>
+    <t>A2DH</t>
+  </si>
+  <si>
+    <t>A3PE</t>
   </si>
   <si>
     <t>D6780</t>
@@ -667,7 +682,40 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A2PQ</t>
+    <t>A1WB</t>
+  </si>
+  <si>
+    <t>A2RO</t>
+  </si>
+  <si>
+    <t>A0HT</t>
+  </si>
+  <si>
+    <t>E609</t>
+  </si>
+  <si>
+    <t>A40T</t>
+  </si>
+  <si>
+    <t>A2UO</t>
+  </si>
+  <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A2SD</t>
+  </si>
+  <si>
+    <t>A37G</t>
+  </si>
+  <si>
+    <t>D071</t>
+  </si>
+  <si>
+    <t>F518</t>
+  </si>
+  <si>
+    <t>A2BI</t>
   </si>
   <si>
     <t>D6790</t>
@@ -676,13 +724,19 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A3TX</t>
-  </si>
-  <si>
-    <t>A11G</t>
-  </si>
-  <si>
-    <t>A415</t>
+    <t>F240</t>
+  </si>
+  <si>
+    <t>A3SY</t>
+  </si>
+  <si>
+    <t>A03K</t>
+  </si>
+  <si>
+    <t>B125</t>
+  </si>
+  <si>
+    <t>G322</t>
   </si>
   <si>
     <t>D7010</t>
@@ -691,28 +745,31 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>A393</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>A2ST</t>
-  </si>
-  <si>
-    <t>A3MB</t>
+    <t>A3PW</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>D9008</t>
-  </si>
-  <si>
-    <t>Capital Project 9</t>
+    <t>A39Q</t>
+  </si>
+  <si>
+    <t>A1ZP</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>A0AQ</t>
+  </si>
+  <si>
+    <t>D8800</t>
+  </si>
+  <si>
+    <t>Pass-through Accounts</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1089,7 +1146,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1129,13 +1186,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46002.32322916666</v>
+        <v>46005.30493055555</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46002.68780092592</v>
+        <v>46005.67578703703</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1144,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>17.85</v>
+        <v>16.25</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1161,13 +1218,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46002.34579861111</v>
+        <v>46005.29207175926</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46002.68173611111</v>
+        <v>46005.68768518518</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1176,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>17.4</v>
+        <v>20.61</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1193,13 +1250,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46002.32297453703</v>
+        <v>46005.32465277778</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46002.69011574074</v>
+        <v>46005.68550925926</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1208,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>17.65</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1225,22 +1282,18 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46002.33204861111</v>
+        <v>46005.32208333333</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
-        <v>46002.69394675926</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>17.65</v>
+        <v>16.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1257,13 +1310,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46002.34003472222</v>
+        <v>46005.29802083333</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46002.70144675926</v>
+        <v>46005.70847222222</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1272,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>17.75</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1289,13 +1342,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46002.33797453704</v>
+        <v>46005.29962962963</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>46002.68431712963</v>
+        <v>46005.68798611111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1304,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>17.65</v>
+        <v>20</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1321,13 +1374,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46002.32649305555</v>
+        <v>46005.30262731481</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46002.69435185185</v>
+        <v>46005.68579861111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1336,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>18.25</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1353,13 +1406,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46002.33091435185</v>
+        <v>46005.32258101852</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46002.69981481481</v>
+        <v>46005.68305555556</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1368,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1385,13 +1438,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>46002.32918981482</v>
+        <v>46005.29945601852</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>46002.69052083333</v>
+        <v>46005.68782407408</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1400,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>18.25</v>
+        <v>16.25</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1417,13 +1470,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>46002.28236111111</v>
+        <v>46005.29306712963</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46002.70826388889</v>
+        <v>46005.69766203704</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1432,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>24.35</v>
+        <v>16.25</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1449,13 +1502,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>46002.32424768519</v>
+        <v>46005.32429398148</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46002.68527777777</v>
+        <v>46005.68271990741</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1464,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>18.35</v>
+        <v>16.25</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1481,13 +1534,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>46002.32631944444</v>
+        <v>46005.32282407407</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46002.70043981481</v>
+        <v>46005.685</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1496,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>18.25</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1513,13 +1566,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>46002.3252199074</v>
+        <v>46005.30782407407</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>46002.70082175926</v>
+        <v>46005.69359953704</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1528,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>15.85</v>
+        <v>16.5</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1545,13 +1598,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>46002.32297453703</v>
+        <v>46005.30068287037</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>46002.68803240741</v>
+        <v>46005.68149305556</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1560,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>17.85</v>
+        <v>15.25</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1577,13 +1630,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>46002.32883101852</v>
+        <v>46005.3153125</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>46002.69200231481</v>
+        <v>46005.68130787037</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1592,7 +1645,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1609,13 +1662,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>46002.36287037037</v>
+        <v>46005.29140046296</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>46002.68770833333</v>
+        <v>46005.70033564815</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1624,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>18.35</v>
+        <v>18.5</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1641,22 +1694,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>46002.32054398148</v>
+        <v>46005.27083333334</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>46002.70106481481</v>
+        <v>46005.68633101852</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2">
-        <v>17.4</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1665,30 +1718,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>46002.32430555556</v>
+        <v>46005.27178240741</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46002.70106481481</v>
+        <v>46005.67966435185</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2">
-        <v>17.4</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1697,30 +1750,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46005.26048611111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>46005.67729166667</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2">
-        <v>46002.32325231482</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2">
-        <v>46002.68996527778</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G20" s="2">
-        <v>18.35</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1729,30 +1782,26 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
-        <v>46002.33665509259</v>
+        <v>46005.94861111111</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
-        <v>46002.68996527778</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2">
-        <v>18.35</v>
+        <v>19.1</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1761,30 +1810,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>46002.3253587963</v>
+        <v>46005.45138888889</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>46002.69247685185</v>
+        <v>46005.96527777778</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2">
-        <v>18.35</v>
+        <v>19.1</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1793,30 +1842,26 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>46002.32503472222</v>
+        <v>46005.9574074074</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
-        <v>46002.69172453704</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2">
-        <v>18.35</v>
+        <v>21</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1825,30 +1870,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2">
-        <v>46002.32960648148</v>
+        <v>46005.41100694444</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>46002.68788194445</v>
+        <v>46005.70576388889</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2">
-        <v>18.35</v>
+        <v>19.1</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1857,30 +1902,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>46005.44542824074</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>46005.96949074074</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2">
-        <v>46002.33177083333</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2">
-        <v>46002.75861111111</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G25" s="2">
-        <v>19.15</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1889,62 +1934,62 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46005.45621527778</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>46005.95833333334</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" s="2">
-        <v>46002.33325231481</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2">
-        <v>46002.70986111111</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2">
-        <v>18.35</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>46002.32519675926</v>
+        <v>46005.62664351852</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46002.69472222222</v>
+        <v>46005.90157407407</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2">
-        <v>17.75</v>
+        <v>23</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1953,30 +1998,26 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>46002.32533564815</v>
+        <v>46005.94552083333</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2">
-        <v>46002.70721064815</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2">
-        <v>16.8</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1985,30 +2026,26 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>46002.32576388889</v>
+        <v>46005.92857638889</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
-        <v>46002.70469907407</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2">
-        <v>18.35</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2017,30 +2054,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>46002.32949074074</v>
+        <v>46005.00896990741</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>46002.70675925926</v>
+        <v>46005.49165509259</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2">
-        <v>17.4</v>
+        <v>22</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2049,30 +2086,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>46002.33253472222</v>
+        <v>46005.31530092593</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46002.70833333334</v>
+        <v>46005.74306712963</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G31" s="2">
-        <v>18.75</v>
+        <v>22</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2081,30 +2118,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2">
-        <v>46002.3375</v>
+        <v>46005.32431712963</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46002.68450231481</v>
+        <v>46005.74131944445</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G32" s="2">
-        <v>17.85</v>
+        <v>26</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2113,30 +2150,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2">
-        <v>46002.32728009259</v>
+        <v>46005.45868055556</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>46002.68653935185</v>
+        <v>46005.97046296296</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G33" s="2">
-        <v>18.35</v>
+        <v>21</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2145,26 +2182,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2">
-        <v>46002.32951388889</v>
+        <v>46005.63541666666</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2">
+        <v>46005.9940162037</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2">
-        <v>18.35</v>
+        <v>24</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2173,15 +2214,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2">
-        <v>46002.28611111111</v>
+        <v>46005.00277777778</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -2189,10 +2230,10 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2">
-        <v>22.4</v>
+        <v>29</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2201,30 +2242,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
-        <v>46002.28241898148</v>
+        <v>46005.58289351852</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>46002.70607638889</v>
+        <v>46006.03248842592</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G36" s="2">
-        <v>19.65</v>
+        <v>29</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2233,30 +2274,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2">
-        <v>46002.28842592592</v>
+        <v>46005.00015046296</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46002.725</v>
+        <v>46005.44429398148</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G37" s="2">
-        <v>45.68</v>
+        <v>24</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2265,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
-        <v>46002.28672453704</v>
+        <v>46005.4266087963</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46002.75851851852</v>
+        <v>46005.97340277778</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
@@ -2288,7 +2329,7 @@
         <v>52</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2302,25 +2343,25 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2">
-        <v>46002.4958449074</v>
+        <v>46005.22643518518</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>46002.73818287037</v>
+        <v>46005.65035879629</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G39" s="2">
-        <v>19.15</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2329,26 +2370,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
-        <v>46002.99480324074</v>
+        <v>46005.52364583333</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D40" s="2">
+        <v>46005.72951388889</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G40" s="2">
-        <v>19.65</v>
+        <v>26.78</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2357,30 +2402,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
-        <v>46002.00891203704</v>
+        <v>46005.29318287037</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>46002.21694444444</v>
+        <v>46005.49866898148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G41" s="2">
-        <v>19.65</v>
+        <v>26.78</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2389,26 +2434,30 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2">
-        <v>46002.98903935185</v>
+        <v>46005.52770833333</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46005.72928240741</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G42" s="2">
-        <v>21.8</v>
+        <v>24</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2417,30 +2466,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2">
-        <v>46002.49577546296</v>
+        <v>46005.29049768519</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46002.73811342593</v>
+        <v>46005.49876157408</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G43" s="2">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2449,30 +2498,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2">
-        <v>46002.47872685185</v>
+        <v>46005.52383101852</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2">
-        <v>46002.82009259259</v>
+        <v>46005.72960648148</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G44" s="2">
-        <v>19.15</v>
+        <v>33.14</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2481,26 +2530,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2">
+        <v>46005.29039351852</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>46005.49885416667</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="2">
-        <v>46002.99060185185</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G45" s="2">
-        <v>19.65</v>
+        <v>33.14</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2509,30 +2562,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2">
-        <v>46002.67642361111</v>
+        <v>46005.31607638889</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>46002.91853009259</v>
+        <v>46005.71163194445</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>21</v>
+        <v>19.85</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2541,30 +2594,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2">
-        <v>46002.3100462963</v>
+        <v>46005.31143518518</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46002.72206018519</v>
+        <v>46005.70947916667</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>22</v>
+        <v>19.85</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2573,30 +2626,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2">
-        <v>46002.3031712963</v>
+        <v>46005.31304398148</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>46002.7372337963</v>
+        <v>46005.70923611111</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G48" s="2">
-        <v>17.75</v>
+        <v>19.85</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2605,30 +2658,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2">
-        <v>46002.68836805555</v>
+        <v>46005.31322916667</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>46002.95849537037</v>
+        <v>46005.70972222222</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49" s="2">
-        <v>20.25</v>
+        <v>19.85</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2637,58 +2690,62 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="2">
+        <v>46005.31619212963</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46005.706875</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="2">
+        <v>18.03</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B50" s="2">
-        <v>46002.73886574074</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="2">
-        <v>20.4</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2">
-        <v>46002.07347222222</v>
+        <v>46005.31184027778</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>46002.39416666667</v>
+        <v>46005.71077546296</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G51" s="2">
-        <v>19</v>
+        <v>27.58</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2697,30 +2754,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2">
-        <v>46002.68803240741</v>
+        <v>46005.52209490741</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>46003.05579861111</v>
+        <v>46005.64431712963</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G52" s="2">
-        <v>27.81</v>
+        <v>24</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2729,30 +2786,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2">
-        <v>46002.07731481481</v>
+        <v>46005.31576388889</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46002.38712962963</v>
+        <v>46005.71175925926</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G53" s="2">
-        <v>18.6</v>
+        <v>24.08</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2761,30 +2818,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2">
-        <v>46002.28822916667</v>
+        <v>46005.31587962963</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46002.5047337963</v>
+        <v>46005.711875</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G54" s="2">
-        <v>31.83</v>
+        <v>19.85</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2793,30 +2850,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2">
-        <v>46002.52121527777</v>
+        <v>46005.31462962963</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>46002.75680555555</v>
+        <v>46005.71005787037</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G55" s="2">
-        <v>35</v>
+        <v>20.35</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2825,30 +2882,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
-        <v>46002.28763888889</v>
+        <v>46005.31597222222</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46002.50201388889</v>
+        <v>46005.71206018519</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G56" s="2">
-        <v>35</v>
+        <v>19.85</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2857,30 +2914,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2">
-        <v>46002.72824074074</v>
+        <v>46005.31744212963</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46002.72831018519</v>
+        <v>46005.70469907407</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G57" s="2">
-        <v>31.83</v>
+        <v>19.03</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2889,30 +2946,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2">
-        <v>46002.52517361111</v>
+        <v>46005.31314814815</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>46002.5252662037</v>
+        <v>46005.71032407408</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G58" s="2">
-        <v>31.83</v>
+        <v>19.85</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2921,30 +2978,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2">
-        <v>46002.31959490741</v>
+        <v>46005.57737268518</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46002.7419212963</v>
+        <v>46005.75134259259</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G59" s="2">
-        <v>19.25</v>
+        <v>17.5</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2953,30 +3010,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2">
-        <v>46002.74299768519</v>
+        <v>46005.32532407407</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>46002.74304398148</v>
+        <v>46005.55366898148</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G60" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2985,30 +3042,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2">
-        <v>46002.32291666666</v>
+        <v>46005.57583333334</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D61" s="2">
-        <v>46002.74304398148</v>
+        <v>46005.69983796297</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G61" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3017,30 +3074,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>46002.31719907407</v>
+        <v>46005.32488425926</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>46002.4182175926</v>
+        <v>46005.48008101852</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G62" s="2">
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3049,30 +3106,30 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
-        <v>46002.31783564815</v>
+        <v>46005.33152777778</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>46002.74892361111</v>
+        <v>46005.52002314815</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G63" s="2">
-        <v>19.35</v>
+        <v>18</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3081,30 +3138,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2">
+        <v>46005.53711805555</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2">
+        <v>46005.68604166667</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="2">
-        <v>46002.3174074074</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="2">
-        <v>46002.75332175926</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G64" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3113,62 +3170,62 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2">
+        <v>46005.33163194444</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2">
+        <v>46005.54005787037</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="2">
+        <v>18</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B65" s="2">
-        <v>46002.32003472222</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2">
-        <v>46002.74155092592</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="2">
-        <v>21.2</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>46002.32055555555</v>
+        <v>46005.56862268518</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>46002.73892361111</v>
+        <v>46005.7100462963</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G66" s="2">
-        <v>19.25</v>
+        <v>24.72</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3177,30 +3234,30 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>46002.31577546296</v>
+        <v>46005.3309375</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46002.74525462963</v>
+        <v>46005.49607638889</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G67" s="2">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3209,30 +3266,30 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2">
-        <v>46002.35416666666</v>
+        <v>46005.51888888889</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D68" s="2">
-        <v>46002.65625</v>
+        <v>46005.70517361111</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G68" s="2">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3241,30 +3298,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2">
-        <v>46002.32762731481</v>
+        <v>46005.33767361111</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>46002.73958333334</v>
+        <v>46005.66556712963</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G69" s="2">
-        <v>19.25</v>
+        <v>21.44</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3273,30 +3330,30 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2">
-        <v>46002.37695601852</v>
+        <v>46005.33282407407</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>46002.74833333334</v>
+        <v>46005.70909722222</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G70" s="2">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3305,30 +3362,30 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2">
-        <v>46002.32309027778</v>
+        <v>46005.43025462963</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>46002.73215277777</v>
+        <v>46005.54085648148</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G71" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3337,30 +3394,30 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>46002.3175</v>
+        <v>46005.55944444444</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D72" s="2">
-        <v>46002.74321759259</v>
+        <v>46005.68854166667</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G72" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3369,30 +3426,30 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2">
-        <v>46002.32224537037</v>
+        <v>46005.32466435185</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>46002.6719212963</v>
+        <v>46005.41520833333</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G73" s="2">
-        <v>19.25</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3401,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3409,22 +3466,22 @@
         <v>95</v>
       </c>
       <c r="B74" s="2">
-        <v>46002.32377314815</v>
+        <v>46005.34268518518</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>46002.67364583333</v>
+        <v>46005.71986111111</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G74" s="2">
-        <v>19.35</v>
+        <v>24.72</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3433,30 +3490,30 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2">
-        <v>46002.32290509259</v>
+        <v>46005.50109953704</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D75" s="2">
-        <v>46002.69521990741</v>
+        <v>46005.69685185186</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G75" s="2">
-        <v>18.75</v>
+        <v>17.5</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3465,30 +3522,30 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>46002.31206018518</v>
+        <v>46005.33386574074</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>46002.50015046296</v>
+        <v>46005.50063657408</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G76" s="2">
-        <v>18.6</v>
+        <v>17.5</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3497,30 +3554,30 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>46002.32322916666</v>
+        <v>46005.56172453704</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D77" s="2">
-        <v>46002.50040509259</v>
+        <v>46005.69524305555</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G77" s="2">
-        <v>19.35</v>
+        <v>18</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3529,62 +3586,62 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2">
-        <v>46002.31833333334</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D78" s="2">
-        <v>46002.62243055556</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G78" s="2">
-        <v>19.35</v>
+        <v>18</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2">
-        <v>46002.32291666666</v>
+        <v>46005.3262962963</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46002.54375</v>
+        <v>46005.71395833333</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G79" s="2">
-        <v>19.35</v>
+        <v>24.72</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3593,30 +3650,30 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2">
-        <v>46002.30309027778</v>
+        <v>46005.56232638889</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D80" s="2">
-        <v>46002.73958333334</v>
+        <v>46005.70494212963</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G80" s="2">
-        <v>19.15</v>
+        <v>18</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3625,30 +3682,30 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2">
-        <v>46002.31783564815</v>
+        <v>46005.33822916666</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>46002.68141203704</v>
+        <v>46005.49296296296</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G81" s="2">
-        <v>21.25</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3657,30 +3714,30 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2">
-        <v>46002.3205787037</v>
+        <v>46005.54545138889</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D82" s="2">
-        <v>46002.69216435185</v>
+        <v>46005.7028125</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G82" s="2">
-        <v>19.15</v>
+        <v>18</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3689,30 +3746,30 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2">
-        <v>46002.32332175926</v>
+        <v>46005.33353009259</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46002.69138888889</v>
+        <v>46005.52097222222</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G83" s="2">
-        <v>25.35</v>
+        <v>18</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3721,30 +3778,26 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2">
-        <v>46002.31564814815</v>
+        <v>46005.54212962963</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="2">
-        <v>46002.69290509259</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G84" s="2">
-        <v>21.25</v>
+        <v>18</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3753,30 +3806,30 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
-        <v>46002.31532407407</v>
+        <v>46005.32940972222</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46002.68944444445</v>
+        <v>46005.54112268519</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G85" s="2">
-        <v>24.35</v>
+        <v>18</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3785,30 +3838,30 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B86" s="2">
-        <v>46002.55174768518</v>
+        <v>46005.32673611111</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>46002.71846064815</v>
+        <v>46005.54611111111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G86" s="2">
-        <v>18.35</v>
+        <v>18</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3817,30 +3870,30 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2">
-        <v>46002.32012731482</v>
+        <v>46005.5868287037</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D87" s="2">
-        <v>46002.5333912037</v>
+        <v>46005.7121412037</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G87" s="2">
-        <v>18.35</v>
+        <v>18</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3849,30 +3902,30 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2">
-        <v>46002.31976851852</v>
+        <v>46005.33144675926</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>46002.52777777778</v>
+        <v>46005.51994212963</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G88" s="2">
-        <v>18.35</v>
+        <v>18</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3881,30 +3934,30 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2">
-        <v>46002.31833333334</v>
+        <v>46005.53703703704</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D89" s="2">
-        <v>46002.71876157408</v>
+        <v>46005.68557870371</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G89" s="2">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3913,30 +3966,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2">
-        <v>46002.54462962963</v>
+        <v>46005.33107638889</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46002.71689814814</v>
+        <v>46005.58195601852</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G90" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3945,30 +3998,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2">
-        <v>46002.60347222222</v>
+        <v>46005.62721064815</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D91" s="2">
-        <v>46002.7172337963</v>
+        <v>46005.70652777778</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G91" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -3977,30 +4030,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>46002.31768518518</v>
+        <v>46005.31439814815</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>46002.54912037037</v>
+        <v>46005.51730324074</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G92" s="2">
-        <v>18.35</v>
+        <v>24.72</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -4009,670 +4062,670 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2">
-        <v>46002.58108796296</v>
+        <v>46005</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D93" s="2">
-        <v>46002.71716435185</v>
+        <v>46005</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G93" s="2">
-        <v>20.2</v>
+        <v>23.28</v>
       </c>
       <c r="H93" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2">
-        <v>46002.32585648148</v>
+        <v>46005</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D94" s="2">
-        <v>46002.55641203704</v>
+        <v>46005</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G94" s="2">
-        <v>18.25</v>
+        <v>16</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2">
-        <v>46002.3234375</v>
+        <v>46005</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D95" s="2">
-        <v>46002.560625</v>
+        <v>46005</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G95" s="2">
-        <v>20.2</v>
+        <v>15.5</v>
       </c>
       <c r="H95" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2">
-        <v>46002.58829861111</v>
+        <v>46005</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D96" s="2">
-        <v>46002.71707175926</v>
+        <v>46005</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G96" s="2">
-        <v>18.25</v>
+        <v>15.5</v>
       </c>
       <c r="H96" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2">
-        <v>46002.31798611111</v>
+        <v>46005</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D97" s="2">
-        <v>46002.71751157408</v>
+        <v>46005</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G97" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2">
-        <v>46002.32189814815</v>
+        <v>46005</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D98" s="2">
-        <v>46002.71695601852</v>
+        <v>46005</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G98" s="2">
-        <v>18.35</v>
+        <v>18.2</v>
       </c>
       <c r="H98" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2">
-        <v>46002.52920138889</v>
+        <v>46005</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2">
-        <v>46002.71797453704</v>
+        <v>46005</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G99" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
-        <v>46002.32068287037</v>
+        <v>46005</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D100" s="2">
-        <v>46002.5121875</v>
+        <v>46005</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G100" s="2">
-        <v>18.35</v>
+        <v>19.6</v>
       </c>
       <c r="H100" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
-        <v>46002.33104166666</v>
+        <v>46005</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D101" s="2">
-        <v>46002.68045138889</v>
+        <v>46005</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G101" s="2">
-        <v>18.75</v>
+        <v>15.5</v>
       </c>
       <c r="H101" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2">
-        <v>46002.34125</v>
+        <v>46005</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D102" s="2">
-        <v>46002.62929398148</v>
+        <v>46005</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G102" s="2">
-        <v>22.2</v>
+        <v>16.4</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2">
-        <v>46002.32414351852</v>
+        <v>46005</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D103" s="2">
-        <v>46002.60097222222</v>
+        <v>46005</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G103" s="2">
-        <v>17.85</v>
+        <v>16.4</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2">
-        <v>46002.33386574074</v>
+        <v>46005</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D104" s="2">
-        <v>46002.70158564814</v>
+        <v>46005</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G104" s="2">
-        <v>18.25</v>
+        <v>19.15</v>
       </c>
       <c r="H104" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>46002.32849537037</v>
+        <v>46005</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D105" s="2">
-        <v>46002.33436342593</v>
+        <v>46005</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G105" s="2">
-        <v>17.85</v>
+        <v>23.28</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
       </c>
       <c r="I105" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2">
-        <v>46002.34457175926</v>
+        <v>46005</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D106" s="2">
-        <v>46002.58506944445</v>
+        <v>46005</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G106" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2">
-        <v>46002.59938657407</v>
+        <v>46005</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D107" s="2">
-        <v>46002.70591435185</v>
+        <v>46005</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G107" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H107" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" s="2">
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2">
-        <v>46002.37407407408</v>
+        <v>46005</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D108" s="2">
-        <v>46002.7152662037</v>
+        <v>46005</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="G108" s="2">
-        <v>17.85</v>
+        <v>25</v>
       </c>
       <c r="H108" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2">
-        <v>46002.31482638889</v>
+        <v>46005</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D109" s="2">
-        <v>46002.69034722223</v>
+        <v>46005</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G109" s="2">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2">
-        <v>46002.33333333334</v>
+        <v>46005</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D110" s="2">
-        <v>46002.68200231482</v>
+        <v>46005</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G110" s="2">
-        <v>18.35</v>
+        <v>16.6</v>
       </c>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D111" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G111" s="2">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="H111" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I111" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2">
-        <v>46002.44086805556</v>
+        <v>46005</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D112" s="2">
-        <v>46002.64094907408</v>
+        <v>46005</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G112" s="2">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="H112" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2">
-        <v>46002.66106481481</v>
+        <v>46005.34126157407</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>46002.71121527778</v>
+        <v>46005.52467592592</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G113" s="2">
-        <v>14.8</v>
+        <v>20</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4681,30 +4734,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2">
-        <v>46002.33168981481</v>
+        <v>46005.58443287037</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D114" s="2">
-        <v>46002.6034375</v>
+        <v>46005.69631944445</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G114" s="2">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4713,1342 +4766,1342 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2">
-        <v>46002.36824074074</v>
+        <v>46005</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D115" s="2">
-        <v>46002.68472222222</v>
+        <v>46005</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G115" s="2">
-        <v>18.35</v>
+        <v>18.5</v>
       </c>
       <c r="H115" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I115" s="2">
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B116" s="2">
-        <v>46002.36840277778</v>
+        <v>46005</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D116" s="2">
-        <v>46002.52584490741</v>
+        <v>46005</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G116" s="2">
-        <v>17.85</v>
+        <v>30</v>
       </c>
       <c r="H116" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B117" s="2">
-        <v>46002.35340277778</v>
+        <v>46005</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D117" s="2">
-        <v>46002.6874537037</v>
+        <v>46005</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G117" s="2">
-        <v>17.85</v>
+        <v>30</v>
       </c>
       <c r="H117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2">
-        <v>46002.37675925926</v>
+        <v>46005</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D118" s="2">
-        <v>46002.68902777778</v>
+        <v>46005</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G118" s="2">
-        <v>18.35</v>
+        <v>30</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
       <c r="I118" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2">
-        <v>46002.37109953703</v>
+        <v>46005</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D119" s="2">
-        <v>46002.68918981482</v>
+        <v>46005</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G119" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H119" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I119" s="2">
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2">
-        <v>46002.37496527778</v>
+        <v>46005</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D120" s="2">
-        <v>46002.74363425926</v>
+        <v>46005</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G120" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H120" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2">
-        <v>46002.36526620371</v>
+        <v>46005</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D121" s="2">
-        <v>46002.59068287037</v>
+        <v>46005</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G121" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H121" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D122" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G122" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H122" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I122" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2">
-        <v>46002.29373842593</v>
+        <v>46005</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D123" s="2">
-        <v>46002.68444444444</v>
+        <v>46005</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G123" s="2">
-        <v>19.65</v>
+        <v>15.5</v>
       </c>
       <c r="H123" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I123" s="2">
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2">
-        <v>46002.29056712963</v>
+        <v>46005</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D124" s="2">
-        <v>46002.5225462963</v>
+        <v>46005</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G124" s="2">
-        <v>17.4</v>
+        <v>18.5</v>
       </c>
       <c r="H124" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2">
-        <v>46002.41815972222</v>
+        <v>46005</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D125" s="2">
-        <v>46002.42525462963</v>
+        <v>46005</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G125" s="2">
-        <v>21.25</v>
+        <v>16.6</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
       </c>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2">
-        <v>46002.45582175926</v>
+        <v>46005</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D126" s="2">
-        <v>46002.68173611111</v>
+        <v>46005</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G126" s="2">
-        <v>18.35</v>
+        <v>17.5</v>
       </c>
       <c r="H126" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2">
-        <v>46002.31018518518</v>
+        <v>46005</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D127" s="2">
-        <v>46002.51927083333</v>
+        <v>46005</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G127" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H127" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2">
-        <v>46002.41630787037</v>
+        <v>46005</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D128" s="2">
-        <v>46002.6781712963</v>
+        <v>46005</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G128" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2">
-        <v>46002.45790509259</v>
+        <v>46005</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D129" s="2">
-        <v>46002.67679398148</v>
+        <v>46005</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G129" s="2">
-        <v>18.35</v>
+        <v>16</v>
       </c>
       <c r="H129" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2">
-        <v>46002.29418981481</v>
+        <v>46005</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D130" s="2">
-        <v>46002.625</v>
+        <v>46005</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G130" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H130" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I130" s="2">
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2">
-        <v>46002.45870370371</v>
+        <v>46005</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D131" s="2">
-        <v>46002.67865740741</v>
+        <v>46005</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G131" s="2">
-        <v>18.35</v>
+        <v>17.5</v>
       </c>
       <c r="H131" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2">
-        <v>46002.30859953703</v>
+        <v>46005</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D132" s="2">
-        <v>46002.64129629629</v>
+        <v>46005</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G132" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H132" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2">
-        <v>46002.33429398148</v>
+        <v>46005</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D133" s="2">
-        <v>46002.52568287037</v>
+        <v>46005</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G133" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H133" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B134" s="2">
-        <v>46002.38898148148</v>
+        <v>46005</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D134" s="2">
-        <v>46002.68975694444</v>
+        <v>46005</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G134" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H134" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B135" s="2">
-        <v>46002.44427083333</v>
+        <v>46005</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D135" s="2">
-        <v>46002.68135416666</v>
+        <v>46005</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G135" s="2">
-        <v>18.35</v>
+        <v>17.6</v>
       </c>
       <c r="H135" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2">
-        <v>46002.46811342592</v>
+        <v>46005</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D136" s="2">
-        <v>46002.59336805555</v>
+        <v>46005</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G136" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
       </c>
       <c r="I136" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2">
-        <v>46002.30586805556</v>
+        <v>46005</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D137" s="2">
-        <v>46002.53688657407</v>
+        <v>46005</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G137" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H137" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2">
-        <v>46002.45422453704</v>
+        <v>46005</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D138" s="2">
-        <v>46002.68273148148</v>
+        <v>46005</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G138" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H138" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2">
-        <v>46002.34321759259</v>
+        <v>46005</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D139" s="2">
-        <v>46002.3728125</v>
+        <v>46005</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G139" s="2">
-        <v>15.9</v>
+        <v>23.76</v>
       </c>
       <c r="H139" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2">
-        <v>46002.41222222222</v>
+        <v>46005</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D140" s="2">
-        <v>46002.72930555556</v>
+        <v>46005</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G140" s="2">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H140" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2">
-        <v>46002.28930555555</v>
+        <v>46005</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D141" s="2">
-        <v>46002.52457175926</v>
+        <v>46005</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G141" s="2">
-        <v>17.4</v>
+        <v>15.5</v>
       </c>
       <c r="H141" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2">
-        <v>46002.33363425926</v>
+        <v>46005</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D142" s="2">
-        <v>46002.44763888889</v>
+        <v>46005</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G142" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H142" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I142" s="2">
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2">
-        <v>46002.4572337963</v>
+        <v>46005</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D143" s="2">
-        <v>46002.68280092593</v>
+        <v>46005</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G143" s="2">
-        <v>18.35</v>
+        <v>16</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
       </c>
       <c r="I143" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2">
-        <v>46002.3317824074</v>
+        <v>46005</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D144" s="2">
-        <v>46002.68168981482</v>
+        <v>46005</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G144" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H144" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I144" s="2">
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2">
-        <v>46002.37152777778</v>
+        <v>46005</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D145" s="2">
-        <v>46002.63763888889</v>
+        <v>46005</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="G145" s="2">
-        <v>18.35</v>
+        <v>20</v>
       </c>
       <c r="H145" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I145" s="2">
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2">
-        <v>46002.53604166667</v>
+        <v>46005</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D146" s="2">
-        <v>46002.85887731481</v>
+        <v>46005</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G146" s="2">
-        <v>22.2</v>
+        <v>23.22</v>
       </c>
       <c r="H146" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2">
-        <v>46002.68010416667</v>
+        <v>46005</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D147" s="2">
-        <v>46002.89628472222</v>
+        <v>46005</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G147" s="2">
-        <v>15.9</v>
+        <v>15.53</v>
       </c>
       <c r="H147" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2">
-        <v>46002.54771990741</v>
+        <v>46005</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D148" s="2">
-        <v>46002.57258101852</v>
+        <v>46005</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G148" s="2">
-        <v>17.4</v>
+        <v>15.5</v>
       </c>
       <c r="H148" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I148" s="2">
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2">
-        <v>46002.53581018518</v>
+        <v>46005</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D149" s="2">
-        <v>46002.86788194445</v>
+        <v>46005</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G149" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H149" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B150" s="2">
-        <v>46002.60525462963</v>
+        <v>46005</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D150" s="2">
-        <v>46002.76688657407</v>
+        <v>46005</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="G150" s="2">
-        <v>16.85</v>
+        <v>16</v>
       </c>
       <c r="H150" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I150" s="2">
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>46002.37245370371</v>
+        <v>46005</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D151" s="2">
-        <v>46002.66275462963</v>
+        <v>46005</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G151" s="2">
-        <v>17.4</v>
+        <v>16</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
       </c>
       <c r="I151" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>46002.33267361111</v>
+        <v>46005</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D152" s="2">
-        <v>46002.709375</v>
+        <v>46005</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G152" s="2">
-        <v>21.25</v>
+        <v>15.5</v>
       </c>
       <c r="H152" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I152" s="2">
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>46002.41366898148</v>
+        <v>46005</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D153" s="2">
-        <v>46002.67163194445</v>
+        <v>46005</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G153" s="2">
-        <v>23.35</v>
+        <v>15.5</v>
       </c>
       <c r="H153" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I153" s="2">
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>46002.35011574074</v>
+        <v>46005</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D154" s="2">
-        <v>46002.68200231482</v>
+        <v>46005</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G154" s="2">
-        <v>18.35</v>
+        <v>15.5</v>
       </c>
       <c r="H154" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I154" s="2">
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>46002.61108796296</v>
+        <v>46005</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D155" s="2">
-        <v>46002.89804398148</v>
+        <v>46005</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="G155" s="2">
-        <v>17.75</v>
+        <v>16</v>
       </c>
       <c r="H155" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I155" s="2">
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>46002.27318287037</v>
+        <v>46005.32697916667</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>46002.49541666666</v>
+        <v>46005.75315972222</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G156" s="2">
-        <v>17.85</v>
+        <v>24</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6057,26 +6110,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2">
-        <v>46002.90609953704</v>
+        <v>46005.45107638889</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="D157" s="2">
+        <v>46005.75203703704</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G157" s="2">
-        <v>19.65</v>
+        <v>18</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -6085,26 +6142,30 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2">
-        <v>46002.42807870371</v>
+        <v>46005.33559027778</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="D158" s="2">
+        <v>46005.67585648148</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G158" s="2">
-        <v>25.1</v>
+        <v>17</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -6113,30 +6174,30 @@
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2">
-        <v>46002.38270833333</v>
+        <v>46005.33993055556</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>46002.67853009259</v>
+        <v>46005.68126157407</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G159" s="2">
-        <v>21.25</v>
+        <v>12.14</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -6145,30 +6206,30 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B160" s="2">
-        <v>46002.37440972222</v>
+        <v>46005.34122685185</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="2">
-        <v>46002.63517361111</v>
+        <v>46005.68103009259</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G160" s="2">
-        <v>20.2</v>
+        <v>18</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
@@ -6177,30 +6238,30 @@
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2">
-        <v>46002.49552083333</v>
+        <v>46005.33325231481</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>46002.5862037037</v>
+        <v>46005.66858796297</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G161" s="2">
-        <v>19.65</v>
+        <v>15.16</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -6209,30 +6270,30 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2">
-        <v>46002.31068287037</v>
+        <v>46005.33645833333</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2">
-        <v>46002.53958333333</v>
+        <v>46005.67524305556</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="G162" s="2">
-        <v>19.25</v>
+        <v>23</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -6241,30 +6302,30 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B163" s="2">
-        <v>46002.32674768518</v>
+        <v>46005.33377314815</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>46002.77112268518</v>
+        <v>46005.47780092592</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="G163" s="2">
-        <v>18.25</v>
+        <v>15</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
@@ -6273,30 +6334,30 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2">
-        <v>46002.33913194444</v>
+        <v>46005.38753472222</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2">
-        <v>46002.53045138889</v>
+        <v>46005.61318287037</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G164" s="2">
-        <v>19.25</v>
+        <v>20</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
@@ -6305,30 +6366,30 @@
         <v>0</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B165" s="2">
-        <v>46002.32697916667</v>
+        <v>46005.66912037037</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D165" s="2">
-        <v>46002.41096064815</v>
+        <v>46005.8877199074</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G165" s="2">
-        <v>19.25</v>
+        <v>15.16</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
@@ -6337,30 +6398,30 @@
         <v>0</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B166" s="2">
-        <v>46002.31078703704</v>
+        <v>46005.62491898148</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>46002.62204861111</v>
+        <v>46005.8487037037</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="G166" s="2">
-        <v>18.75</v>
+        <v>15.16</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -6369,30 +6430,30 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B167" s="2">
-        <v>46002.42780092593</v>
+        <v>46005.32606481481</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>46002.51819444444</v>
+        <v>46005.66827546297</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G167" s="2">
-        <v>20.7</v>
+        <v>24</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -6401,30 +6462,30 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B168" s="2">
-        <v>46002.5396412037</v>
+        <v>46005.57805555555</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="D168" s="2">
-        <v>46002.68803240741</v>
+        <v>46005.92322916666</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G168" s="2">
-        <v>20.7</v>
+        <v>22</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -6433,30 +6494,30 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B169" s="2">
-        <v>46002.62486111111</v>
+        <v>46005.37194444444</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="2">
-        <v>46002.9374537037</v>
+        <v>46005.70684027778</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G169" s="2">
-        <v>23.5</v>
+        <v>12.14</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6465,30 +6526,30 @@
         <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B170" s="2">
-        <v>46002.36803240741</v>
+        <v>46005.39783564815</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>46002.49725694444</v>
+        <v>46005.66939814815</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G170" s="2">
-        <v>20.7</v>
+        <v>12.14</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -6497,30 +6558,30 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B171" s="2">
-        <v>46002.51731481482</v>
+        <v>46005.32271990741</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>46002.68810185185</v>
+        <v>46005.73518518519</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G171" s="2">
-        <v>20.7</v>
+        <v>25</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -6529,30 +6590,30 @@
         <v>0</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B172" s="2">
-        <v>46002.70834490741</v>
+        <v>46005.58019675926</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2">
-        <v>46002.95820601852</v>
+        <v>46005.92217592592</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G172" s="2">
-        <v>20.15</v>
+        <v>24</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -6561,30 +6622,30 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B173" s="2">
-        <v>46002.71474537037</v>
+        <v>46005.36258101852</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>46002.95543981482</v>
+        <v>46005.74152777778</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G173" s="2">
-        <v>20.15</v>
+        <v>13</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -6593,30 +6654,30 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B174" s="2">
-        <v>46002.71597222222</v>
+        <v>46005.29869212963</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="2">
-        <v>46002.95532407407</v>
+        <v>46005.64045138889</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G174" s="2">
-        <v>19.65</v>
+        <v>22</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
@@ -6625,30 +6686,30 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B175" s="2">
-        <v>46002.33321759259</v>
+        <v>46005.32947916666</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>46002.7383449074</v>
+        <v>46005.66648148148</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G175" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -6657,62 +6718,62 @@
         <v>0</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B176" s="2">
-        <v>46002.5</v>
+        <v>46005.32789351852</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="D176" s="2">
-        <v>46002.5</v>
+        <v>46005.67561342593</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H176" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I176" s="2">
         <v>0</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B177" s="2">
-        <v>46002.52056712963</v>
+        <v>46005.37167824074</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>46002.6982175926</v>
+        <v>46005.70644675926</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="G177" s="2">
-        <v>29.64</v>
+        <v>15.16</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -6721,30 +6782,30 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B178" s="2">
-        <v>46002.35891203704</v>
+        <v>46005.59766203703</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="2">
-        <v>46002.73431712963</v>
+        <v>46005.91832175926</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="G178" s="2">
-        <v>30.78</v>
+        <v>17</v>
       </c>
       <c r="H178" s="2">
         <v>0</v>
@@ -6753,62 +6814,58 @@
         <v>0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B179" s="2">
-        <v>46002.33333333334</v>
+        <v>46005.49872685185</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>46002.33333333334</v>
+        <v>46005.77284722222</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="G179" s="2">
-        <v>30.78</v>
+        <v>13</v>
       </c>
       <c r="H179" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I179" s="2">
         <v>0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B180" s="2">
-        <v>46002.32965277778</v>
+        <v>46005.39782407408</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="2">
-        <v>46002.73582175926</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="2" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="G180" s="2">
-        <v>30</v>
+        <v>15.16</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -6817,62 +6874,62 @@
         <v>0</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B181" s="2">
-        <v>46002.33333333334</v>
+        <v>46005.65253472222</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="D181" s="2">
-        <v>46002.33333333334</v>
+        <v>46005.90038194445</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="G181" s="2">
-        <v>17.65</v>
+        <v>12.14</v>
       </c>
       <c r="H181" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B182" s="2">
-        <v>46002.5402662037</v>
+        <v>46005.29821759259</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>46002.66945601852</v>
+        <v>46005.62275462963</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G182" s="2">
-        <v>26</v>
+        <v>15.16</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -6881,30 +6938,30 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B183" s="2">
-        <v>46002.32077546296</v>
+        <v>46005.53042824074</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D183" s="2">
-        <v>46002.56826388889</v>
+        <v>46005.69953703704</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G183" s="2">
-        <v>22</v>
+        <v>15.16</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
@@ -6913,30 +6970,30 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B184" s="2">
-        <v>46002.59372685185</v>
+        <v>46005.35458333333</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="2">
-        <v>46002.70543981482</v>
+        <v>46005.51023148148</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="G184" s="2">
-        <v>22</v>
+        <v>15.16</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
@@ -6945,30 +7002,30 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B185" s="2">
-        <v>46002.33462962963</v>
+        <v>46005.34377314815</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>46002.67726851852</v>
+        <v>46005.71012731481</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="G185" s="2">
-        <v>20.2</v>
+        <v>15.16</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -6977,39 +7034,1403 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="B186" s="2">
-        <v>46002.41842592593</v>
+        <v>46005.61377314815</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>46002.74695601852</v>
+        <v>46005.9492824074</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G186" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" s="2">
+        <v>46005.50641203704</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2">
+        <v>46005.83427083334</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G187" s="2">
+        <v>19</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" s="2">
+        <v>46005.29453703704</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2">
+        <v>46005.67627314815</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G188" s="2">
+        <v>20</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" s="2">
+        <v>46005.3483912037</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="2">
+        <v>46005.54907407407</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G189" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" s="2">
+        <v>46005.9459375</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G190" s="2">
+        <v>19.34</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" s="2">
+        <v>46005.31106481481</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2">
+        <v>46005.63204861111</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G191" s="2">
+        <v>16</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192" s="2">
+        <v>46005.7075</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="2">
+        <v>46006.13719907407</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G192" s="2">
+        <v>18</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" s="2">
+        <v>46005.3656712963</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="2">
+        <v>46005.69581018519</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G193" s="2">
+        <v>20</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" s="2">
+        <v>46005.3399537037</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2">
+        <v>46005.6143287037</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G194" s="2">
+        <v>20</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B195" s="2">
+        <v>46005.3256712963</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2">
+        <v>46005.75055555555</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G195" s="2">
+        <v>23</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B196" s="2">
+        <v>46005.3275</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="2">
+        <v>46005.45434027778</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G196" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B197" s="2">
+        <v>46005.50346064815</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" s="2">
+        <v>46005.67560185185</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G197" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198" s="2">
+        <v>46005.3358912037</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2">
+        <v>46005.50011574074</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G198" s="2">
+        <v>17</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199" s="2">
+        <v>46005.32503472222</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="2">
+        <v>46005.51225694444</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G199" s="2">
+        <v>20</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200" s="2">
+        <v>46005.31180555555</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="2">
+        <v>46005.45881944444</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G200" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B201" s="2">
+        <v>46005.53085648148</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" s="2">
+        <v>46005.68796296296</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G201" s="2">
+        <v>22.88</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B202" s="2">
+        <v>46005.33495370371</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="2">
+        <v>46005.50557870371</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G202" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B203" s="2">
+        <v>46005.52744212963</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" s="2">
+        <v>46005.67925925926</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G203" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B204" s="2">
+        <v>46005.33621527778</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="2">
+        <v>46005.50627314814</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G204" s="2">
+        <v>22.88</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" s="2">
+        <v>46005.33180555556</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="2">
+        <v>46005.50143518519</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G205" s="2">
+        <v>18</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B206" s="2">
+        <v>46005.54230324074</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" s="2">
+        <v>46005.68502314815</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G206" s="2">
+        <v>18</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" s="2">
+        <v>46005.33113425926</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="2">
+        <v>46005.53986111111</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G207" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="2">
+        <v>46005.31846064814</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="2">
+        <v>46005.50540509259</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G208" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209" s="2">
+        <v>46005.53427083333</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" s="2">
+        <v>46005.68532407407</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G209" s="2">
+        <v>20</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B210" s="2">
+        <v>46005.52982638889</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" s="2">
+        <v>46005.67466435185</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G210" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B211" s="2">
+        <v>46005.32902777778</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="2">
+        <v>46005.50047453704</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G211" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" s="2">
+        <v>46005.52927083334</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" s="2">
+        <v>46005.61378472222</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G212" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G186" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="s">
+      <c r="B213" s="2">
+        <v>46005.33267361111</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="2">
+        <v>46005.5453125</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G213" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2" t="s">
         <v>232</v>
+      </c>
+      <c r="B214" s="2">
+        <v>46005.33277777778</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="2">
+        <v>46005.54508101852</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G214" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215" s="2">
+        <v>46005.50539351852</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" s="2">
+        <v>46005.76263888889</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G215" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B216" s="2">
+        <v>46005.27034722222</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="2">
+        <v>46005.48380787037</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G216" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0</v>
+      </c>
+      <c r="I216" s="2">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B217" s="2">
+        <v>46005.27148148148</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="2">
+        <v>46005.59637731482</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G217" s="2">
+        <v>26</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0</v>
+      </c>
+      <c r="I217" s="2">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B218" s="2">
+        <v>46005.33467592593</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2">
+        <v>46005.50943287037</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G218" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H218" s="2">
+        <v>0</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B219" s="2">
+        <v>46005.56388888889</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G219" s="2">
+        <v>25</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B220" s="2">
+        <v>46005.52946759259</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" s="2">
+        <v>46005.6944212963</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G220" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B221" s="2">
+        <v>46005.33729166666</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" s="2">
+        <v>46005.54204861111</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G221" s="2">
+        <v>25</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" s="2">
+        <v>46005.64649305555</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="2">
+        <v>46005.74630787037</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G222" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223" s="2">
+        <v>46005.74635416667</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" s="2">
+        <v>46005.74636574074</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G223" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H223" s="2">
+        <v>0</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="2">
+        <v>46005.349375</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="2">
+        <v>46005.68822916667</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G224" s="2">
+        <v>24.25</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0</v>
+      </c>
+      <c r="I224" s="2">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225" s="2">
+        <v>46005.36043981482</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="2">
+        <v>46005.52415509259</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G225" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="2">
+        <v>46005.57803240741</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="2">
+        <v>46005.62344907408</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G226" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H226" s="2">
+        <v>0</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227" s="2">
+        <v>46005.3437962963</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G227" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B228" s="2">
+        <v>46005.30802083333</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="2">
+        <v>46005.65225694444</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G228" s="2">
+        <v>19.57</v>
+      </c>
+      <c r="H228" s="2">
+        <v>0</v>
+      </c>
+      <c r="I228" s="2">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B229" s="2">
+        <v>46005.44608796296</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="2">
+        <v>46005.63825231481</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Actual)_Payroll.xlsx
+++ b/reports/For The Day (Actual)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="249">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A0XN</t>
+    <t>A3O9</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,52 +61,100 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A3JZ</t>
-  </si>
-  <si>
-    <t>F683</t>
-  </si>
-  <si>
-    <t>J520</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>A2D1</t>
-  </si>
-  <si>
-    <t>A3NT</t>
-  </si>
-  <si>
-    <t>A2FY</t>
-  </si>
-  <si>
-    <t>A0DO</t>
-  </si>
-  <si>
-    <t>A2JG</t>
-  </si>
-  <si>
-    <t>A3S3</t>
-  </si>
-  <si>
-    <t>J399</t>
-  </si>
-  <si>
-    <t>J158</t>
-  </si>
-  <si>
-    <t>A3T7</t>
-  </si>
-  <si>
-    <t>A3GJ</t>
-  </si>
-  <si>
-    <t>B903</t>
+    <t>A3MZ</t>
+  </si>
+  <si>
+    <t>B884</t>
+  </si>
+  <si>
+    <t>A3MS</t>
+  </si>
+  <si>
+    <t>A3MH</t>
+  </si>
+  <si>
+    <t>A2GP</t>
+  </si>
+  <si>
+    <t>G138</t>
+  </si>
+  <si>
+    <t>I304</t>
+  </si>
+  <si>
+    <t>A3P9</t>
+  </si>
+  <si>
+    <t>A0AF</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>A2CF</t>
+  </si>
+  <si>
+    <t>A0C2</t>
+  </si>
+  <si>
+    <t>A0MS</t>
+  </si>
+  <si>
+    <t>A2C7</t>
+  </si>
+  <si>
+    <t>A3MN</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>A2DQ</t>
+  </si>
+  <si>
+    <t>A11C</t>
+  </si>
+  <si>
+    <t>A1UT</t>
+  </si>
+  <si>
+    <t>A2DS</t>
+  </si>
+  <si>
+    <t>A3MD</t>
+  </si>
+  <si>
+    <t>A3MI</t>
+  </si>
+  <si>
+    <t>A3MR</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>J525</t>
+  </si>
+  <si>
+    <t>A3NO</t>
+  </si>
+  <si>
+    <t>A0C1</t>
+  </si>
+  <si>
+    <t>A3OL</t>
+  </si>
+  <si>
+    <t>J559</t>
+  </si>
+  <si>
+    <t>D273</t>
+  </si>
+  <si>
+    <t>G697</t>
+  </si>
+  <si>
+    <t>A3J5</t>
   </si>
   <si>
     <t>D1020</t>
@@ -115,13 +163,10 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>A1JS</t>
-  </si>
-  <si>
-    <t>F406</t>
-  </si>
-  <si>
-    <t>A3PC</t>
+    <t>A607</t>
+  </si>
+  <si>
+    <t>A2DN</t>
   </si>
   <si>
     <t>D1030</t>
@@ -130,34 +175,34 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>A3SJ</t>
-  </si>
-  <si>
-    <t>A3P7</t>
-  </si>
-  <si>
-    <t>A06T</t>
-  </si>
-  <si>
-    <t>A2HF</t>
-  </si>
-  <si>
-    <t>H716</t>
-  </si>
-  <si>
-    <t>G397</t>
-  </si>
-  <si>
-    <t>A449</t>
-  </si>
-  <si>
-    <t>E082</t>
-  </si>
-  <si>
-    <t>D671</t>
-  </si>
-  <si>
-    <t>J056</t>
+    <t>A3IS</t>
+  </si>
+  <si>
+    <t>F290</t>
+  </si>
+  <si>
+    <t>A3LD</t>
+  </si>
+  <si>
+    <t>A3KD</t>
+  </si>
+  <si>
+    <t>A3IC</t>
+  </si>
+  <si>
+    <t>A3WC</t>
+  </si>
+  <si>
+    <t>E721</t>
+  </si>
+  <si>
+    <t>A3LF</t>
+  </si>
+  <si>
+    <t>A3KE</t>
+  </si>
+  <si>
+    <t>E684</t>
   </si>
   <si>
     <t>D1060</t>
@@ -166,10 +211,13 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>A3DS</t>
-  </si>
-  <si>
-    <t>E877</t>
+    <t>F497</t>
+  </si>
+  <si>
+    <t>H929</t>
+  </si>
+  <si>
+    <t>C215</t>
   </si>
   <si>
     <t>D1070</t>
@@ -178,502 +226,484 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>C653</t>
-  </si>
-  <si>
-    <t>B250</t>
-  </si>
-  <si>
-    <t>E135</t>
-  </si>
-  <si>
-    <t>I590</t>
-  </si>
-  <si>
-    <t>A23C</t>
-  </si>
-  <si>
-    <t>J185</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>E720</t>
+    <t>I434</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A32C</t>
+  </si>
+  <si>
+    <t>A3IF</t>
+  </si>
+  <si>
+    <t>H115</t>
+  </si>
+  <si>
+    <t>A1OP</t>
+  </si>
+  <si>
+    <t>I588</t>
+  </si>
+  <si>
+    <t>E767</t>
+  </si>
+  <si>
+    <t>B313</t>
+  </si>
+  <si>
+    <t>A3I5</t>
+  </si>
+  <si>
+    <t>G190</t>
+  </si>
+  <si>
+    <t>A661</t>
+  </si>
+  <si>
+    <t>D401</t>
+  </si>
+  <si>
+    <t>D576</t>
+  </si>
+  <si>
+    <t>E791</t>
+  </si>
+  <si>
+    <t>H941</t>
+  </si>
+  <si>
+    <t>A3RR</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>A2CS</t>
+  </si>
+  <si>
+    <t>A46O</t>
+  </si>
+  <si>
+    <t>A2CT</t>
+  </si>
+  <si>
+    <t>A2CR</t>
+  </si>
+  <si>
+    <t>A3T9</t>
+  </si>
+  <si>
+    <t>A3TB</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>A0QI</t>
+  </si>
+  <si>
+    <t>A2FK</t>
+  </si>
+  <si>
+    <t>G730</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>A1HQ</t>
+  </si>
+  <si>
+    <t>A1PM</t>
+  </si>
+  <si>
+    <t>A399</t>
+  </si>
+  <si>
+    <t>A3RO</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A2I7</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
+    <t>A0IQ</t>
+  </si>
+  <si>
+    <t>A1F9</t>
+  </si>
+  <si>
+    <t>A44G</t>
+  </si>
+  <si>
+    <t>D259</t>
+  </si>
+  <si>
+    <t>A3UU</t>
+  </si>
+  <si>
+    <t>A3RL</t>
+  </si>
+  <si>
+    <t>A1RI</t>
+  </si>
+  <si>
+    <t>H681</t>
+  </si>
+  <si>
+    <t>A0RX</t>
+  </si>
+  <si>
+    <t>A3LL</t>
+  </si>
+  <si>
+    <t>E825</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>A2JE</t>
+  </si>
+  <si>
+    <t>A0IF</t>
+  </si>
+  <si>
+    <t>A3NB</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>Agassiz Retail</t>
+  </si>
+  <si>
+    <t>A3XF</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>A3KP</t>
+  </si>
+  <si>
+    <t>B622</t>
+  </si>
+  <si>
+    <t>A2ZC</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>A3X3</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A1MH</t>
+  </si>
+  <si>
+    <t>A0GK</t>
+  </si>
+  <si>
+    <t>A3JL</t>
+  </si>
+  <si>
+    <t>A3U8</t>
+  </si>
+  <si>
+    <t>A0TT</t>
+  </si>
+  <si>
+    <t>A3YH</t>
+  </si>
+  <si>
+    <t>A3YJ</t>
+  </si>
+  <si>
+    <t>A41F</t>
+  </si>
+  <si>
+    <t>A41D</t>
+  </si>
+  <si>
+    <t>I133</t>
+  </si>
+  <si>
+    <t>A4DU</t>
+  </si>
+  <si>
+    <t>A2KS</t>
+  </si>
+  <si>
+    <t>A3ZF</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>A4AB</t>
+  </si>
+  <si>
+    <t>A3WA</t>
+  </si>
+  <si>
+    <t>A3YK</t>
+  </si>
+  <si>
+    <t>A3GV</t>
+  </si>
+  <si>
+    <t>B2UZ</t>
+  </si>
+  <si>
+    <t>A3Z0</t>
+  </si>
+  <si>
+    <t>A3HH</t>
+  </si>
+  <si>
+    <t>A41H</t>
+  </si>
+  <si>
+    <t>A3YX</t>
+  </si>
+  <si>
+    <t>A3TQ</t>
+  </si>
+  <si>
+    <t>A3UE</t>
+  </si>
+  <si>
+    <t>A0G5</t>
+  </si>
+  <si>
+    <t>A41E</t>
+  </si>
+  <si>
+    <t>A2K2</t>
+  </si>
+  <si>
+    <t>A4AX</t>
+  </si>
+  <si>
+    <t>A3J4</t>
+  </si>
+  <si>
+    <t>A3YS</t>
+  </si>
+  <si>
+    <t>A3TV</t>
+  </si>
+  <si>
+    <t>I271</t>
+  </si>
+  <si>
+    <t>A0LX</t>
+  </si>
+  <si>
+    <t>A0GT</t>
+  </si>
+  <si>
+    <t>A3TO</t>
+  </si>
+  <si>
+    <t>A1ZD</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>I345</t>
+  </si>
+  <si>
+    <t>C409</t>
+  </si>
+  <si>
+    <t>A3ZA</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>Fremont Restaurant</t>
+  </si>
+  <si>
+    <t>I017</t>
+  </si>
+  <si>
+    <t>A515</t>
+  </si>
+  <si>
+    <t>A3UH</t>
+  </si>
+  <si>
+    <t>A0G6</t>
+  </si>
+  <si>
+    <t>A3HE</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>A2FA</t>
+  </si>
+  <si>
+    <t>A4CZ</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>A3OR</t>
+  </si>
+  <si>
+    <t>A3OQ</t>
+  </si>
+  <si>
+    <t>A4AO</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>A34P</t>
+  </si>
+  <si>
+    <t>F025</t>
+  </si>
+  <si>
+    <t>G024</t>
+  </si>
+  <si>
+    <t>A2IA</t>
+  </si>
+  <si>
+    <t>A4AJ</t>
+  </si>
+  <si>
+    <t>A2O5</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>G046</t>
+  </si>
+  <si>
+    <t>B366</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>A3ON</t>
   </si>
   <si>
     <t>IL</t>
   </si>
   <si>
+    <t>C947</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>A3DR</t>
-  </si>
-  <si>
-    <t>I524</t>
-  </si>
-  <si>
-    <t>A0JI</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>D843</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>A3LN</t>
-  </si>
-  <si>
-    <t>J442</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>C208</t>
-  </si>
-  <si>
-    <t>A889</t>
-  </si>
-  <si>
-    <t>A2H9</t>
-  </si>
-  <si>
-    <t>D855</t>
-  </si>
-  <si>
-    <t>A3L3</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>A3NZ</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>A3O1</t>
-  </si>
-  <si>
-    <t>G910</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>A3TH</t>
-  </si>
-  <si>
-    <t>D441</t>
-  </si>
-  <si>
-    <t>A3NY</t>
-  </si>
-  <si>
-    <t>A511</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>A3M1</t>
-  </si>
-  <si>
-    <t>A34H</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>A3NV</t>
-  </si>
-  <si>
-    <t>A3RH</t>
-  </si>
-  <si>
-    <t>A3ZX</t>
-  </si>
-  <si>
-    <t>A22D</t>
-  </si>
-  <si>
-    <t>A2KR</t>
-  </si>
-  <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>D243</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A46W</t>
-  </si>
-  <si>
-    <t>A42B</t>
-  </si>
-  <si>
-    <t>A3T4</t>
-  </si>
-  <si>
-    <t>A2Y6</t>
-  </si>
-  <si>
-    <t>G931</t>
-  </si>
-  <si>
-    <t>A3VT</t>
-  </si>
-  <si>
-    <t>J286</t>
-  </si>
-  <si>
-    <t>A3J8</t>
-  </si>
-  <si>
-    <t>F558</t>
-  </si>
-  <si>
-    <t>E587</t>
-  </si>
-  <si>
-    <t>A4FK</t>
-  </si>
-  <si>
-    <t>A3L7</t>
-  </si>
-  <si>
-    <t>G179</t>
-  </si>
-  <si>
-    <t>A0FH</t>
-  </si>
-  <si>
-    <t>A0FC</t>
-  </si>
-  <si>
-    <t>A44M</t>
-  </si>
-  <si>
-    <t>G327</t>
-  </si>
-  <si>
-    <t>A29N</t>
-  </si>
-  <si>
-    <t>A2D6</t>
-  </si>
-  <si>
-    <t>A3K8</t>
-  </si>
-  <si>
-    <t>A3P8</t>
-  </si>
-  <si>
-    <t>A3RZ</t>
-  </si>
-  <si>
-    <t>A3U6</t>
-  </si>
-  <si>
-    <t>A3Z4</t>
-  </si>
-  <si>
-    <t>A46U</t>
-  </si>
-  <si>
-    <t>F007</t>
-  </si>
-  <si>
-    <t>A3VX</t>
-  </si>
-  <si>
-    <t>A3QP</t>
-  </si>
-  <si>
-    <t>A3UW</t>
-  </si>
-  <si>
-    <t>A3K5</t>
-  </si>
-  <si>
-    <t>A3JF</t>
-  </si>
-  <si>
-    <t>A3J9</t>
-  </si>
-  <si>
-    <t>A36Y</t>
-  </si>
-  <si>
-    <t>A2G2</t>
-  </si>
-  <si>
-    <t>A27V</t>
-  </si>
-  <si>
-    <t>A3KK</t>
-  </si>
-  <si>
-    <t>A3TK</t>
-  </si>
-  <si>
-    <t>E715</t>
-  </si>
-  <si>
-    <t>A0RZ</t>
-  </si>
-  <si>
-    <t>A1BL</t>
-  </si>
-  <si>
-    <t>A3JO</t>
-  </si>
-  <si>
-    <t>A3VV</t>
-  </si>
-  <si>
-    <t>D407</t>
-  </si>
-  <si>
-    <t>H440</t>
-  </si>
-  <si>
-    <t>A26R</t>
-  </si>
-  <si>
-    <t>A3CD</t>
-  </si>
-  <si>
-    <t>A3IO</t>
-  </si>
-  <si>
-    <t>A3L0</t>
-  </si>
-  <si>
-    <t>A3LH</t>
-  </si>
-  <si>
-    <t>A3NS</t>
-  </si>
-  <si>
-    <t>A3TL</t>
-  </si>
-  <si>
-    <t>A3Q4</t>
-  </si>
-  <si>
-    <t>A547</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D224</t>
-  </si>
-  <si>
-    <t>A0G3</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>I308</t>
-  </si>
-  <si>
-    <t>A2LP</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
-    <t>I216</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>I704</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A3G6</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A1MU</t>
-  </si>
-  <si>
-    <t>A739</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
-    <t>I424</t>
-  </si>
-  <si>
-    <t>A42F</t>
-  </si>
-  <si>
-    <t>A43Z</t>
-  </si>
-  <si>
-    <t>I666</t>
-  </si>
-  <si>
-    <t>A0XV</t>
-  </si>
-  <si>
-    <t>A2BK</t>
-  </si>
-  <si>
-    <t>A3GE</t>
-  </si>
-  <si>
-    <t>B034</t>
-  </si>
-  <si>
-    <t>A3LI</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>A3VR</t>
-  </si>
-  <si>
-    <t>I182</t>
-  </si>
-  <si>
-    <t>A3U9</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>A3X0</t>
-  </si>
-  <si>
-    <t>C835</t>
-  </si>
-  <si>
-    <t>A3OC</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>A44W</t>
-  </si>
-  <si>
-    <t>F313</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>H341</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>A3FH</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>A3HC</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>A3HI</t>
-  </si>
-  <si>
-    <t>A2DH</t>
-  </si>
-  <si>
-    <t>A3PE</t>
+    <t>A3S7</t>
+  </si>
+  <si>
+    <t>A2FQ</t>
+  </si>
+  <si>
+    <t>A0J5</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>A3TG</t>
+  </si>
+  <si>
+    <t>A39M</t>
+  </si>
+  <si>
+    <t>H146</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>A3O6</t>
+  </si>
+  <si>
+    <t>A987</t>
   </si>
   <si>
     <t>D6780</t>
@@ -682,40 +712,13 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A1WB</t>
-  </si>
-  <si>
-    <t>A2RO</t>
-  </si>
-  <si>
-    <t>A0HT</t>
-  </si>
-  <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>A40T</t>
-  </si>
-  <si>
-    <t>A2UO</t>
-  </si>
-  <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A2SD</t>
-  </si>
-  <si>
-    <t>A37G</t>
-  </si>
-  <si>
-    <t>D071</t>
-  </si>
-  <si>
-    <t>F518</t>
-  </si>
-  <si>
-    <t>A2BI</t>
+    <t>A4CF</t>
+  </si>
+  <si>
+    <t>A3TY</t>
+  </si>
+  <si>
+    <t>A3TW</t>
   </si>
   <si>
     <t>D6790</t>
@@ -724,19 +727,13 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>F240</t>
-  </si>
-  <si>
-    <t>A3SY</t>
-  </si>
-  <si>
-    <t>A03K</t>
-  </si>
-  <si>
-    <t>B125</t>
-  </si>
-  <si>
-    <t>G322</t>
+    <t>A1K8</t>
+  </si>
+  <si>
+    <t>A3TX</t>
+  </si>
+  <si>
+    <t>J280</t>
   </si>
   <si>
     <t>D7010</t>
@@ -745,31 +742,25 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>A3PW</t>
+    <t>A2ST</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>A393</t>
+  </si>
+  <si>
+    <t>D575</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>A39Q</t>
-  </si>
-  <si>
-    <t>A1ZP</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>D8800</t>
-  </si>
-  <si>
-    <t>Pass-through Accounts</t>
+    <t>A3MB</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,7 +1137,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1186,13 +1177,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>46005.30493055555</v>
+        <v>46005.32577546296</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>46005.67578703703</v>
+        <v>46005.69234953704</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1201,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>16.25</v>
+        <v>18.35</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1218,13 +1209,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>46005.29207175926</v>
+        <v>46005.32641203704</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>46005.68768518518</v>
+        <v>46005.70670138889</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1233,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>20.61</v>
+        <v>18.35</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1250,13 +1241,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>46005.32465277778</v>
+        <v>46005.33084490741</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>46005.68550925926</v>
+        <v>46005.69475694445</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1265,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>15</v>
+        <v>18.7</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1282,18 +1273,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>46005.32208333333</v>
+        <v>46005.32646990741</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>46005.70671296296</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>16.5</v>
+        <v>18.35</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1310,13 +1305,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>46005.29802083333</v>
+        <v>46005.32865740741</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>46005.70847222222</v>
+        <v>46005.69237268518</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1325,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>25</v>
+        <v>18.35</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1342,13 +1337,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>46005.29962962963</v>
+        <v>46005.32666666667</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>46005.68798611111</v>
+        <v>46005.70313657408</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1357,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1374,13 +1369,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>46005.30262731481</v>
+        <v>46005.32672453704</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>46005.68579861111</v>
+        <v>46005.69903935185</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1389,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>19.6</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1406,13 +1401,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>46005.32258101852</v>
+        <v>46005.3125</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>46005.68305555556</v>
+        <v>46005.72916666666</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1421,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1438,13 +1433,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>46005.29945601852</v>
+        <v>46005.32601851852</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>46005.68782407408</v>
+        <v>46005.68440972222</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1453,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>16.25</v>
+        <v>18.35</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1470,13 +1465,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>46005.29306712963</v>
+        <v>46005.32782407408</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>46005.69766203704</v>
+        <v>46005.68631944444</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1485,7 +1480,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>16.25</v>
+        <v>18.7</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1502,13 +1497,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>46005.32429398148</v>
+        <v>46005.32291666666</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>46005.68271990741</v>
+        <v>46005.71943287037</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1517,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>16.25</v>
+        <v>23.35</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1534,13 +1529,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>46005.32282407407</v>
+        <v>46005.33107638889</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>46005.685</v>
+        <v>46005.69591435185</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1549,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>16</v>
+        <v>18.6</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1566,13 +1561,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>46005.30782407407</v>
+        <v>46005.32708333333</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>46005.69359953704</v>
+        <v>46005.70658564815</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1581,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>16.5</v>
+        <v>19.6</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1598,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>46005.30068287037</v>
+        <v>46005.28537037037</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>46005.68149305556</v>
+        <v>46005.70990740741</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1613,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>15.25</v>
+        <v>19.6</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1630,13 +1625,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>46005.3153125</v>
+        <v>46005.3365162037</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>46005.68130787037</v>
+        <v>46005.69559027778</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1645,7 +1640,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>16</v>
+        <v>18.6</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1662,13 +1657,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>46005.29140046296</v>
+        <v>46005.32642361111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>46005.70033564815</v>
+        <v>46005.69493055555</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1677,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>18.5</v>
+        <v>18.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1694,22 +1689,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>46005.27083333334</v>
+        <v>46005.32262731482</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>46005.68633101852</v>
+        <v>46005.70611111111</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>28</v>
+        <v>20.7</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1718,30 +1713,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>46005.27178240741</v>
+        <v>46005.33135416666</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>46005.67966435185</v>
+        <v>46005.68320601852</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>26</v>
+        <v>18.6</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1750,30 +1745,30 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>46005.26048611111</v>
+        <v>46005.32584490741</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>46005.67729166667</v>
+        <v>46005.70706018519</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>30</v>
+        <v>18.7</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1782,26 +1777,30 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>46005.94861111111</v>
+        <v>46005.32618055555</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2">
+        <v>46005.71099537037</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1810,30 +1809,30 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>46005.45138888889</v>
+        <v>46005.32293981482</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>46005.96527777778</v>
+        <v>46005.70586805556</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>19.1</v>
+        <v>18.6</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1842,26 +1841,30 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>46005.9574074074</v>
+        <v>46005.32678240741</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2">
+        <v>46005.69445601852</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>21</v>
+        <v>18.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1870,30 +1873,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
-        <v>46005.41100694444</v>
+        <v>46005.32576388889</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>46005.70576388889</v>
+        <v>46005.73527777778</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>19.1</v>
+        <v>18.35</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1902,30 +1905,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>46005.44542824074</v>
+        <v>46005.32560185185</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>46005.96949074074</v>
+        <v>46005.70262731481</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1934,30 +1937,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
-        <v>46005.45621527778</v>
+        <v>46005.32953703704</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>46005.95833333334</v>
+        <v>46005.71125</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1966,30 +1969,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
-        <v>46005.62664351852</v>
+        <v>46005.33068287037</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>46005.90157407407</v>
+        <v>46005.71018518518</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2">
-        <v>23</v>
+        <v>20.95</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1998,26 +2001,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
-        <v>46005.94552083333</v>
+        <v>46005.32346064815</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>46005.70461805556</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2">
-        <v>23</v>
+        <v>18.35</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2026,26 +2033,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
-        <v>46005.92857638889</v>
+        <v>46005.32609953704</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>46005.69456018518</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2">
-        <v>23</v>
+        <v>18.7</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2054,30 +2065,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
-        <v>46005.00896990741</v>
+        <v>46005.33795138889</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>46005.49165509259</v>
+        <v>46005.69625</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2">
-        <v>22</v>
+        <v>18.35</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2086,30 +2097,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
-        <v>46005.31530092593</v>
+        <v>46005.32430555556</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>46005.74306712963</v>
+        <v>46005.68546296296</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2">
-        <v>22</v>
+        <v>18.7</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2118,30 +2129,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
-        <v>46005.32431712963</v>
+        <v>46005.32611111111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>46005.74131944445</v>
+        <v>46005.69655092592</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2">
-        <v>26</v>
+        <v>19.75</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2150,30 +2161,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
-        <v>46005.45868055556</v>
+        <v>46005.28621527777</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>46005.97046296296</v>
+        <v>46005.71046296296</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2182,30 +2193,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>46005.63541666666</v>
+        <v>46005.26813657407</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>46005.9940162037</v>
+        <v>46005.71252314815</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2214,26 +2225,30 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
-        <v>46005.00277777778</v>
+        <v>46005.29738425926</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2">
+        <v>46005.70769675926</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2">
-        <v>29</v>
+        <v>20.2</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2242,126 +2257,118 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
-        <v>46005.58289351852</v>
+        <v>46005.99546296296</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2">
-        <v>46006.03248842592</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G36" s="2">
-        <v>29</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>46005.00015046296</v>
+        <v>46005.66890046297</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>46005.44429398148</v>
+        <v>46006.01331018518</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G37" s="2">
-        <v>24</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>46005.4266087963</v>
+        <v>46005.57341435185</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>46005.97340277778</v>
+        <v>46006.01692129629</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="G38" s="2">
-        <v>24</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>46005.22643518518</v>
+        <v>46005.99368055556</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2">
-        <v>46005.65035879629</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G39" s="2">
-        <v>30</v>
+        <v>20.2</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2370,30 +2377,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>46005.52364583333</v>
+        <v>46005.5750462963</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>46005.72951388889</v>
+        <v>46006.00737268518</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G40" s="2">
-        <v>26.78</v>
+        <v>20.2</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2402,30 +2409,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
-        <v>46005.29318287037</v>
+        <v>46005.57292824074</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>46005.49866898148</v>
+        <v>46006.03679398148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G41" s="2">
-        <v>26.78</v>
+        <v>20.2</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2434,30 +2441,26 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2">
-        <v>46005.52770833333</v>
+        <v>46005.99542824074</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="2">
-        <v>46005.72928240741</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G42" s="2">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2466,30 +2469,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2">
-        <v>46005.29049768519</v>
+        <v>46005.67076388889</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>46005.49876157408</v>
+        <v>46006.01883101852</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G43" s="2">
-        <v>24</v>
+        <v>19.6</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2498,30 +2501,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2">
-        <v>46005.52383101852</v>
+        <v>46005.00028935185</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>46005.72960648148</v>
+        <v>46005.35226851852</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G44" s="2">
-        <v>33.14</v>
+        <v>21.8</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2530,30 +2533,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2">
-        <v>46005.29039351852</v>
+        <v>46005.65528935185</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>46005.49885416667</v>
+        <v>46006.01474537037</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G45" s="2">
-        <v>33.14</v>
+        <v>20.2</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2562,30 +2565,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2">
-        <v>46005.31607638889</v>
+        <v>46005.32188657407</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>46005.71163194445</v>
+        <v>46005.73782407407</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G46" s="2">
-        <v>19.85</v>
+        <v>21.5</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2594,30 +2597,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
-        <v>46005.31143518518</v>
+        <v>46005.07607638889</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>46005.70947916667</v>
+        <v>46005.43246527778</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G47" s="2">
-        <v>19.85</v>
+        <v>23</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2626,30 +2629,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2">
-        <v>46005.31304398148</v>
+        <v>46005.31480324074</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>46005.70923611111</v>
+        <v>46005.73391203704</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G48" s="2">
-        <v>19.85</v>
+        <v>22.5</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2658,21 +2661,21 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2">
-        <v>46005.31322916667</v>
+        <v>46005.0702662037</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>46005.70972222222</v>
+        <v>46005.37966435185</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -2681,7 +2684,7 @@
         <v>68</v>
       </c>
       <c r="G49" s="2">
-        <v>19.85</v>
+        <v>22.4</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2695,25 +2698,25 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2">
-        <v>46005.31619212963</v>
+        <v>46005.31311342592</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>46005.706875</v>
+        <v>46005.72575231481</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2">
-        <v>18.03</v>
+        <v>19.6</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2722,30 +2725,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2">
-        <v>46005.31184027778</v>
+        <v>46005.31424768519</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>46005.71077546296</v>
+        <v>46005.72703703704</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G51" s="2">
-        <v>27.58</v>
+        <v>19.6</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2754,30 +2757,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2">
-        <v>46005.52209490741</v>
+        <v>46005.32255787037</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>46005.64431712963</v>
+        <v>46005.72185185185</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G52" s="2">
-        <v>24</v>
+        <v>19.25</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2786,30 +2789,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2">
-        <v>46005.31576388889</v>
+        <v>46005.3171412037</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>46005.71175925926</v>
+        <v>46005.72824074074</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G53" s="2">
-        <v>24.08</v>
+        <v>23.85</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2818,30 +2821,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2">
-        <v>46005.31587962963</v>
+        <v>46005.32162037037</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>46005.711875</v>
+        <v>46005.72825231482</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G54" s="2">
-        <v>19.85</v>
+        <v>20.7</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2850,30 +2853,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2">
-        <v>46005.31462962963</v>
+        <v>46005.31826388889</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>46005.71005787037</v>
+        <v>46005.45369212963</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G55" s="2">
-        <v>20.35</v>
+        <v>20.7</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2882,30 +2885,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2">
-        <v>46005.31597222222</v>
+        <v>46005.2903125</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>46005.71206018519</v>
+        <v>46005.72912037037</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G56" s="2">
-        <v>19.85</v>
+        <v>20.95</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2914,30 +2917,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2">
-        <v>46005.31744212963</v>
+        <v>46005.31993055555</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>46005.70469907407</v>
+        <v>46005.73393518518</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G57" s="2">
-        <v>19.03</v>
+        <v>20.95</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2946,30 +2949,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2">
-        <v>46005.31314814815</v>
+        <v>46005.3250462963</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>46005.71032407408</v>
+        <v>46005.72862268519</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2">
-        <v>19.85</v>
+        <v>19.25</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2978,30 +2981,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2">
-        <v>46005.57737268518</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>46005.75134259259</v>
+        <v>46005.71753472222</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G59" s="2">
-        <v>17.5</v>
+        <v>24.8</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3010,30 +3013,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2">
-        <v>46005.32532407407</v>
+        <v>46005.29185185185</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>46005.55366898148</v>
+        <v>46005.73005787037</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G60" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3042,30 +3045,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2">
-        <v>46005.57583333334</v>
+        <v>46005.32238425926</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>46005.69983796297</v>
+        <v>46005.72916666666</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G61" s="2">
-        <v>18</v>
+        <v>20.7</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3074,30 +3077,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2">
-        <v>46005.32488425926</v>
+        <v>46005.31869212963</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>46005.48008101852</v>
+        <v>46005.73734953703</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G62" s="2">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3106,30 +3109,26 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2">
-        <v>46005.33152777778</v>
+        <v>46005.32166666666</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="2">
-        <v>46005.52002314815</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G63" s="2">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3138,30 +3137,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2">
-        <v>46005.53711805555</v>
+        <v>46005.31833333334</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>46005.68604166667</v>
+        <v>46005.72947916666</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G64" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3170,30 +3169,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="2">
+        <v>46005.29930555556</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2">
+        <v>46005.67055555555</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="2">
-        <v>46005.33163194444</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="2">
-        <v>46005.54005787037</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G65" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3202,62 +3201,62 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2">
+        <v>46005.29699074074</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2">
+        <v>46005.61403935185</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="2">
+        <v>19.6</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B66" s="2">
-        <v>46005.56862268518</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="2">
-        <v>46005.7100462963</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="2">
-        <v>24.72</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2">
-        <v>46005.3309375</v>
+        <v>46005.30155092593</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>46005.49607638889</v>
+        <v>46005.47916666666</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G67" s="2">
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3266,30 +3265,30 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2">
-        <v>46005.51888888889</v>
+        <v>46005.3025</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>46005.70517361111</v>
+        <v>46005.69462962963</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G68" s="2">
-        <v>17.5</v>
+        <v>19.6</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3298,30 +3297,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2">
-        <v>46005.33767361111</v>
+        <v>46005.30248842593</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>46005.66556712963</v>
+        <v>46005.6568287037</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G69" s="2">
-        <v>21.44</v>
+        <v>22.4</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3330,30 +3329,30 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>46005.33282407407</v>
+        <v>46005.30533564815</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>46005.70909722222</v>
+        <v>46005.54362268518</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G70" s="2">
-        <v>18.5</v>
+        <v>19.35</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3362,30 +3361,30 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2">
-        <v>46005.43025462963</v>
+        <v>46005.30538194445</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>46005.54085648148</v>
+        <v>46005.47805555556</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G71" s="2">
-        <v>18</v>
+        <v>19.35</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3394,30 +3393,30 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="2">
+        <v>46005.29872685186</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2">
+        <v>46005.61194444444</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2">
-        <v>46005.55944444444</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="2">
-        <v>46005.68854166667</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G72" s="2">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3426,30 +3425,30 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2">
-        <v>46005.32466435185</v>
+        <v>46005.41984953704</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>46005.41520833333</v>
+        <v>46005.66678240741</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G73" s="2">
-        <v>18</v>
+        <v>19.75</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3458,30 +3457,30 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2">
-        <v>46005.34268518518</v>
+        <v>46005.30284722222</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>46005.71986111111</v>
+        <v>46005.69461805555</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G74" s="2">
-        <v>24.72</v>
+        <v>19.6</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3490,30 +3489,30 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2">
-        <v>46005.50109953704</v>
+        <v>46005.32277777778</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>46005.69685185186</v>
+        <v>46005.68868055556</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G75" s="2">
-        <v>17.5</v>
+        <v>23.35</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3522,30 +3521,30 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2">
-        <v>46005.33386574074</v>
+        <v>46005.31532407407</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>46005.50063657408</v>
+        <v>46005.67418981482</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2">
-        <v>17.5</v>
+        <v>22.4</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
@@ -3554,30 +3553,30 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2">
-        <v>46005.56172453704</v>
+        <v>46005.31621527778</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>46005.69524305555</v>
+        <v>46005.67400462963</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G77" s="2">
-        <v>18</v>
+        <v>22.4</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3586,62 +3585,62 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2">
-        <v>46005.33333333334</v>
+        <v>46005.31649305556</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>46005.33333333334</v>
+        <v>46005.67533564815</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2">
-        <v>18</v>
+        <v>23.35</v>
       </c>
       <c r="H78" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2">
-        <v>46005.3262962963</v>
+        <v>46005.56356481482</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>46005.71395833333</v>
+        <v>46005.71475694444</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G79" s="2">
-        <v>24.72</v>
+        <v>18.35</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3650,30 +3649,30 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2">
-        <v>46005.56232638889</v>
+        <v>46005.30208333334</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>46005.70494212963</v>
+        <v>46005.55145833334</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G80" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3682,30 +3681,30 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2">
-        <v>46005.33822916666</v>
+        <v>46005.30480324074</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>46005.49296296296</v>
+        <v>46005.71697916667</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G81" s="2">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3714,30 +3713,30 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2">
-        <v>46005.54545138889</v>
+        <v>46005.49858796296</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>46005.7028125</v>
+        <v>46005.7144212963</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3746,30 +3745,30 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2">
-        <v>46005.33353009259</v>
+        <v>46005.29731481482</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>46005.52097222222</v>
+        <v>46005.48309027778</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G83" s="2">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -3778,26 +3777,30 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2">
-        <v>46005.54212962963</v>
+        <v>46005.32643518518</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D84" s="2">
+        <v>46005.5653125</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G84" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3806,30 +3809,30 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2">
-        <v>46005.32940972222</v>
+        <v>46005.52644675926</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>46005.54112268519</v>
+        <v>46005.71434027778</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G85" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -3838,30 +3841,30 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2">
-        <v>46005.32673611111</v>
+        <v>46005.30005787037</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>46005.54611111111</v>
+        <v>46005.51152777778</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G86" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3870,30 +3873,30 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2">
-        <v>46005.5868287037</v>
+        <v>46005.28347222223</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D87" s="2">
-        <v>46005.7121412037</v>
+        <v>46005.71765046296</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G87" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3902,30 +3905,26 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2">
-        <v>46005.33144675926</v>
+        <v>46005.52321759259</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="2">
-        <v>46005.51994212963</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G88" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3934,30 +3933,30 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2">
-        <v>46005.53703703704</v>
+        <v>46005.29914351852</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>46005.68557870371</v>
+        <v>46005.50855324074</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G89" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3966,30 +3965,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2">
-        <v>46005.33107638889</v>
+        <v>46005.30304398148</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>46005.58195601852</v>
+        <v>46005.5040162037</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G90" s="2">
-        <v>20</v>
+        <v>18.35</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3998,30 +3997,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2">
-        <v>46005.62721064815</v>
+        <v>46005.30219907407</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>46005.70652777778</v>
+        <v>46005.71421296296</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G91" s="2">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -4030,30 +4029,26 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2">
-        <v>46005.31439814815</v>
+        <v>46005.29959490741</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="2">
-        <v>46005.51730324074</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G92" s="2">
-        <v>24.72</v>
+        <v>19.25</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -4062,33 +4057,33 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2">
-        <v>46005</v>
+        <v>46005.37152777778</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>46005</v>
+        <v>46005.71638888889</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="2">
-        <v>23.28</v>
+        <v>18.7</v>
       </c>
       <c r="H93" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
@@ -4099,28 +4094,28 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2">
-        <v>46005</v>
+        <v>46005.53886574074</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>46005</v>
+        <v>46005.71430555556</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G94" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H94" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -4131,28 +4126,28 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2">
-        <v>46005</v>
+        <v>46005.29981481482</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>46005</v>
+        <v>46005.7146875</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G95" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H95" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -4163,28 +4158,28 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2">
-        <v>46005</v>
+        <v>46005.30266203704</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>46005</v>
+        <v>46005.54877314815</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G96" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H96" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -4195,28 +4190,28 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B97" s="2">
-        <v>46005</v>
+        <v>46005.56319444445</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>46005</v>
+        <v>46005.71456018519</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G97" s="2">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="H97" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -4227,505 +4222,501 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2">
-        <v>46005</v>
+        <v>46005.32594907407</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D98" s="2">
-        <v>46005</v>
+        <v>46005.71996527778</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G98" s="2">
-        <v>18.2</v>
+        <v>23.35</v>
       </c>
       <c r="H98" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2">
-        <v>46005</v>
+        <v>46005.33025462963</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>46005</v>
+        <v>46005.678125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G99" s="2">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="H99" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2">
-        <v>46005</v>
+        <v>46005.32623842593</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>46005</v>
+        <v>46005.68247685185</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G100" s="2">
         <v>19.6</v>
       </c>
       <c r="H100" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2">
-        <v>46005</v>
+        <v>46005.30922453704</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>46005</v>
+        <v>46005.70260416667</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G101" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H101" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2">
-        <v>46005</v>
+        <v>46005.3175462963</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>46005</v>
+        <v>46005.62560185185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G102" s="2">
-        <v>16.4</v>
+        <v>18.35</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2">
-        <v>46005</v>
+        <v>46005.31114583334</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>46005</v>
+        <v>46005.71450231481</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G103" s="2">
-        <v>16.4</v>
+        <v>18.35</v>
       </c>
       <c r="H103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2">
-        <v>46005</v>
+        <v>46005.28893518518</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>46005</v>
+        <v>46005.63516203704</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G104" s="2">
-        <v>19.15</v>
+        <v>23</v>
       </c>
       <c r="H104" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2">
-        <v>46005</v>
+        <v>46005.37924768519</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>46005</v>
+        <v>46005.69079861111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G105" s="2">
-        <v>23.28</v>
+        <v>18.6</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
       </c>
       <c r="I105" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2">
         <v>46005</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D106" s="2">
         <v>46005</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G106" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H106" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B107" s="2">
-        <v>46005</v>
+        <v>46005.31921296296</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>46005</v>
+        <v>46005.71084490741</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G107" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H107" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" s="2">
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2">
-        <v>46005</v>
+        <v>46005.36572916667</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>46005</v>
+        <v>46005.5522337963</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G108" s="2">
-        <v>25</v>
+        <v>18.7</v>
       </c>
       <c r="H108" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I108" s="2">
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D109" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G109" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H109" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I109" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B110" s="2">
-        <v>46005</v>
+        <v>46005.59657407407</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>46005</v>
+        <v>46005.70924768518</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G110" s="2">
-        <v>16.6</v>
+        <v>18.7</v>
       </c>
       <c r="H110" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" s="2">
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B111" s="2">
-        <v>46005</v>
+        <v>46005.38057870371</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>46005</v>
+        <v>46005.74931712963</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G111" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H111" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I111" s="2">
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2">
-        <v>46005</v>
+        <v>46005.36212962963</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>46005</v>
+        <v>46005.71923611111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G112" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H112" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2">
-        <v>46005.34126157407</v>
+        <v>46005.37236111111</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="2">
-        <v>46005.52467592592</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G113" s="2">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4734,30 +4725,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B114" s="2">
-        <v>46005.58443287037</v>
+        <v>46005.45599537037</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>46005.69631944445</v>
+        <v>46005.74525462963</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G114" s="2">
-        <v>20</v>
+        <v>15.9</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4766,1191 +4757,1191 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2">
-        <v>46005</v>
+        <v>46005.38001157407</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>46005</v>
+        <v>46005.71626157407</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G115" s="2">
-        <v>18.5</v>
+        <v>18.35</v>
       </c>
       <c r="H115" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I115" s="2">
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2">
-        <v>46005</v>
+        <v>46005.36903935186</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>46005</v>
+        <v>46005.45053240741</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G116" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H116" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2">
-        <v>46005</v>
+        <v>46005.49903935185</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>46005</v>
+        <v>46005.67956018518</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G117" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H117" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2">
-        <v>46005</v>
+        <v>46005.34996527778</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>46005</v>
+        <v>46005.62929398148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G118" s="2">
-        <v>30</v>
+        <v>18.35</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
       <c r="I118" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2">
-        <v>46005</v>
+        <v>46005.37579861111</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>46005</v>
+        <v>46005.63199074074</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G119" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H119" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I119" s="2">
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2">
-        <v>46005</v>
+        <v>46005.35144675926</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>46005</v>
+        <v>46005.62881944444</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G120" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H120" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2">
-        <v>46005</v>
+        <v>46005.3321875</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>46005</v>
+        <v>46005.62325231481</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G121" s="2">
-        <v>15.5</v>
+        <v>23.35</v>
       </c>
       <c r="H121" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" s="2">
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2">
-        <v>46005</v>
+        <v>46005.33334490741</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>46005</v>
+        <v>46005.71902777778</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G122" s="2">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="H122" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I122" s="2">
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B123" s="2">
-        <v>46005</v>
+        <v>46005.37204861111</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>46005</v>
+        <v>46005.65368055556</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G123" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H123" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I123" s="2">
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B124" s="2">
-        <v>46005</v>
+        <v>46005.33678240741</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>46005</v>
+        <v>46005.610625</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G124" s="2">
-        <v>18.5</v>
+        <v>18.35</v>
       </c>
       <c r="H124" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I124" s="2">
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2">
-        <v>46005</v>
+        <v>46005.37570601852</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>46005</v>
+        <v>46005.39773148148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G125" s="2">
-        <v>16.6</v>
+        <v>18.35</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
       </c>
       <c r="I125" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B126" s="2">
-        <v>46005</v>
+        <v>46005.37556712963</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>46005</v>
+        <v>46005.62152777778</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G126" s="2">
-        <v>17.5</v>
+        <v>18.35</v>
       </c>
       <c r="H126" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I126" s="2">
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2">
-        <v>46005</v>
+        <v>46005.29219907407</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>46005</v>
+        <v>46005.62393518518</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G127" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H127" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I127" s="2">
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2">
-        <v>46005</v>
+        <v>46005.30943287037</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>46005</v>
+        <v>46005.62979166667</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G128" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H128" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I128" s="2">
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2">
-        <v>46005</v>
+        <v>46005.43700231481</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>46005</v>
+        <v>46005.69292824074</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G129" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H129" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I129" s="2">
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2">
-        <v>46005</v>
+        <v>46005.37260416667</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>46005</v>
+        <v>46005.73493055555</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G130" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H130" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I130" s="2">
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2">
-        <v>46005</v>
+        <v>46005.37982638889</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>46005</v>
+        <v>46005.37993055556</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G131" s="2">
-        <v>17.5</v>
+        <v>18.35</v>
       </c>
       <c r="H131" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2">
-        <v>46005</v>
+        <v>46005.45351851852</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>46005</v>
+        <v>46005.71252314815</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G132" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H132" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B133" s="2">
-        <v>46005</v>
+        <v>46005.36668981481</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>46005</v>
+        <v>46005.680625</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G133" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H133" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I133" s="2">
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D134" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G134" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H134" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2">
-        <v>46005</v>
+        <v>46005.36219907407</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>46005</v>
+        <v>46005.67894675926</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G135" s="2">
-        <v>17.6</v>
+        <v>18.35</v>
       </c>
       <c r="H135" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I135" s="2">
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B136" s="2">
-        <v>46005</v>
+        <v>46005.33413194444</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>46005</v>
+        <v>46005.69387731481</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G136" s="2">
-        <v>16</v>
+        <v>18.7</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
       </c>
       <c r="I136" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B137" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D137" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G137" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H137" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D138" s="2">
-        <v>46005</v>
+        <v>46005.33333333334</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G138" s="2">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="H138" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I138" s="2">
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B139" s="2">
-        <v>46005</v>
+        <v>46005.41024305556</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>46005</v>
+        <v>46005.66097222222</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G139" s="2">
-        <v>23.76</v>
+        <v>18.35</v>
       </c>
       <c r="H139" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I139" s="2">
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B140" s="2">
-        <v>46005</v>
+        <v>46005.4569675926</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>46005</v>
+        <v>46005.69292824074</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G140" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H140" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I140" s="2">
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B141" s="2">
-        <v>46005</v>
+        <v>46005.46232638889</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>46005</v>
+        <v>46005.69438657408</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G141" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H141" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I141" s="2">
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B142" s="2">
-        <v>46005</v>
+        <v>46005.33179398148</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>46005</v>
+        <v>46005.6941087963</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G142" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H142" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I142" s="2">
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B143" s="2">
-        <v>46005</v>
+        <v>46005.29252314815</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>46005</v>
+        <v>46005.59680555556</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G143" s="2">
-        <v>16</v>
+        <v>20.95</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
       </c>
       <c r="I143" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B144" s="2">
-        <v>46005</v>
+        <v>46005.45394675926</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>46005</v>
+        <v>46005.69736111111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G144" s="2">
-        <v>15.5</v>
+        <v>20.2</v>
       </c>
       <c r="H144" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I144" s="2">
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B145" s="2">
-        <v>46005</v>
+        <v>46005.32008101852</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>46005</v>
+        <v>46005.61314814815</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G145" s="2">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="H145" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I145" s="2">
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B146" s="2">
-        <v>46005</v>
+        <v>46005.40980324074</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>46005</v>
+        <v>46005.66061342593</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="G146" s="2">
-        <v>23.22</v>
+        <v>18.35</v>
       </c>
       <c r="H146" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I146" s="2">
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B147" s="2">
-        <v>46005</v>
+        <v>46005.5890162037</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>46005</v>
+        <v>46005.90273148148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G147" s="2">
-        <v>15.53</v>
+        <v>18.35</v>
       </c>
       <c r="H147" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B148" s="2">
-        <v>46005</v>
+        <v>46005.58016203704</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>46005</v>
+        <v>46005.88246527778</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G148" s="2">
-        <v>15.5</v>
+        <v>23.35</v>
       </c>
       <c r="H148" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I148" s="2">
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B149" s="2">
-        <v>46005</v>
+        <v>46005.54465277777</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>46005</v>
+        <v>46005.88608796296</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="G149" s="2">
-        <v>16</v>
+        <v>19.75</v>
       </c>
       <c r="H149" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I149" s="2">
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B150" s="2">
-        <v>46005</v>
+        <v>46005.37019675926</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>46005</v>
+        <v>46005.54710648148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G150" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H150" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I150" s="2">
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B151" s="2">
-        <v>46005</v>
+        <v>46005.38704861111</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>46005</v>
+        <v>46005.6865625</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G151" s="2">
-        <v>16</v>
+        <v>25.7</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
       </c>
       <c r="I151" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5958,150 +5949,150 @@
         <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>46005</v>
+        <v>46005.40284722222</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>46005</v>
+        <v>46005.60603009259</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G152" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H152" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I152" s="2">
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2">
-        <v>46005</v>
+        <v>46005.37428240741</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>46005</v>
+        <v>46005.37537037037</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G153" s="2">
-        <v>15.5</v>
+        <v>18.35</v>
       </c>
       <c r="H153" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I153" s="2">
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B154" s="2">
-        <v>46005</v>
+        <v>46005.38324074074</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>46005</v>
+        <v>46005.69168981481</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G154" s="2">
-        <v>15.5</v>
+        <v>20.7</v>
       </c>
       <c r="H154" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I154" s="2">
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2">
-        <v>46005</v>
+        <v>46005.36902777778</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>46005</v>
+        <v>46005.63886574074</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G155" s="2">
-        <v>16</v>
+        <v>18.35</v>
       </c>
       <c r="H155" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I155" s="2">
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2">
-        <v>46005.32697916667</v>
+        <v>46005.36990740741</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>46005.75315972222</v>
+        <v>46005.67013888889</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G156" s="2">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6110,30 +6101,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B157" s="2">
-        <v>46005.45107638889</v>
+        <v>46005.26447916667</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>46005.75203703704</v>
+        <v>46005.52388888889</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="G157" s="2">
-        <v>18</v>
+        <v>18.35</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -6142,30 +6133,30 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B158" s="2">
-        <v>46005.33559027778</v>
+        <v>46005.57819444445</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="2">
-        <v>46005.67585648148</v>
+        <v>46005.87810185185</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="G158" s="2">
-        <v>17</v>
+        <v>20.2</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -6174,30 +6165,26 @@
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B159" s="2">
-        <v>46005.33993055556</v>
+        <v>46005.90391203704</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="2">
-        <v>46005.68126157407</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="2" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="G159" s="2">
-        <v>12.14</v>
+        <v>19.65</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -6206,30 +6193,30 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B160" s="2">
-        <v>46005.34122685185</v>
+        <v>46005.36805555555</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="2">
-        <v>46005.68103009259</v>
+        <v>46005.63112268518</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G160" s="2">
-        <v>18</v>
+        <v>20.2</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
@@ -6238,30 +6225,30 @@
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B161" s="2">
-        <v>46005.33325231481</v>
+        <v>46005.37136574074</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>46005.66858796297</v>
+        <v>46005.61747685185</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G161" s="2">
-        <v>15.16</v>
+        <v>20.2</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -6270,30 +6257,30 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B162" s="2">
-        <v>46005.33645833333</v>
+        <v>46005.48252314814</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2">
-        <v>46005.67524305556</v>
+        <v>46005.57398148148</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="G162" s="2">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -6302,30 +6289,30 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B163" s="2">
-        <v>46005.33377314815</v>
+        <v>46005.33950231481</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>46005.47780092592</v>
+        <v>46005.46719907408</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="G163" s="2">
-        <v>15</v>
+        <v>19.25</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
@@ -6334,30 +6321,30 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="B164" s="2">
-        <v>46005.38753472222</v>
+        <v>46005.33603009259</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2">
-        <v>46005.61318287037</v>
+        <v>46005.44707175926</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="G164" s="2">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
@@ -6366,30 +6353,30 @@
         <v>0</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B165" s="2">
-        <v>46005.66912037037</v>
+        <v>46005.33224537037</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D165" s="2">
-        <v>46005.8877199074</v>
+        <v>46005.46702546296</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G165" s="2">
-        <v>15.16</v>
+        <v>19.25</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
@@ -6398,30 +6385,30 @@
         <v>0</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B166" s="2">
-        <v>46005.62491898148</v>
+        <v>46005.33464120371</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>46005.8487037037</v>
+        <v>46005.47068287037</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G166" s="2">
-        <v>15.16</v>
+        <v>19.75</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -6430,30 +6417,30 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B167" s="2">
-        <v>46005.32606481481</v>
+        <v>46005.32913194445</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>46005.66827546297</v>
+        <v>46005.46666666667</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G167" s="2">
-        <v>24</v>
+        <v>19.25</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -6462,30 +6449,30 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B168" s="2">
-        <v>46005.57805555555</v>
+        <v>46005.33372685185</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="2">
-        <v>46005.92322916666</v>
+        <v>46005.46822916667</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G168" s="2">
-        <v>22</v>
+        <v>19.25</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -6494,30 +6481,30 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B169" s="2">
-        <v>46005.37194444444</v>
+        <v>46005.31451388889</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="2">
-        <v>46005.70684027778</v>
+        <v>46005.70959490741</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G169" s="2">
-        <v>12.14</v>
+        <v>22.4</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6526,30 +6513,30 @@
         <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B170" s="2">
-        <v>46005.39783564815</v>
+        <v>46005.33344907407</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>46005.66939814815</v>
+        <v>46005.72738425926</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G170" s="2">
-        <v>12.14</v>
+        <v>60</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -6558,30 +6545,30 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B171" s="2">
-        <v>46005.32271990741</v>
+        <v>46005.60888888889</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>46005.73518518519</v>
+        <v>46005.7627199074</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G171" s="2">
-        <v>25</v>
+        <v>22.4</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -6590,30 +6577,30 @@
         <v>0</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B172" s="2">
-        <v>46005.58019675926</v>
+        <v>46005.68076388889</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2">
-        <v>46005.92217592592</v>
+        <v>46005.93980324074</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G172" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -6622,30 +6609,30 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B173" s="2">
-        <v>46005.36258101852</v>
+        <v>46005.62520833333</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="D173" s="2">
-        <v>46005.74152777778</v>
+        <v>46005.6878125</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G173" s="2">
-        <v>13</v>
+        <v>20.7</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -6654,30 +6641,30 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="B174" s="2">
-        <v>46005.29869212963</v>
+        <v>46005.41863425926</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D174" s="2">
-        <v>46005.64045138889</v>
+        <v>46005.52203703704</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G174" s="2">
-        <v>22</v>
+        <v>24.8</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
@@ -6686,30 +6673,30 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B175" s="2">
-        <v>46005.32947916666</v>
+        <v>46005.54559027778</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>46005.66648148148</v>
+        <v>46005.81050925926</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G175" s="2">
-        <v>19</v>
+        <v>24.8</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -6718,30 +6705,30 @@
         <v>0</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B176" s="2">
-        <v>46005.32789351852</v>
+        <v>46005.37479166667</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2">
-        <v>46005.67561342593</v>
+        <v>46005.60451388889</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G176" s="2">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -6750,30 +6737,30 @@
         <v>0</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B177" s="2">
-        <v>46005.37167824074</v>
+        <v>46005.70797453704</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>46005.70644675926</v>
+        <v>46005.93881944445</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G177" s="2">
-        <v>15.16</v>
+        <v>20.7</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -6782,30 +6769,30 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B178" s="2">
-        <v>46005.59766203703</v>
+        <v>46005.70577546296</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="2">
-        <v>46005.91832175926</v>
+        <v>46005.93902777778</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G178" s="2">
-        <v>17</v>
+        <v>21.2</v>
       </c>
       <c r="H178" s="2">
         <v>0</v>
@@ -6814,30 +6801,30 @@
         <v>0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B179" s="2">
-        <v>46005.49872685185</v>
+        <v>46005.38512731482</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>46005.77284722222</v>
+        <v>46005.69230324074</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G179" s="2">
-        <v>13</v>
+        <v>19.65</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
@@ -6846,26 +6833,30 @@
         <v>0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B180" s="2">
-        <v>46005.39782407408</v>
+        <v>46005.36601851852</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="D180" s="2">
+        <v>46005.69221064815</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G180" s="2">
-        <v>15.16</v>
+        <v>20.7</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -6874,30 +6865,30 @@
         <v>0</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B181" s="2">
-        <v>46005.65253472222</v>
+        <v>46005.37777777778</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="2">
-        <v>46005.90038194445</v>
+        <v>46005.67505787037</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G181" s="2">
-        <v>12.14</v>
+        <v>20.7</v>
       </c>
       <c r="H181" s="2">
         <v>0</v>
@@ -6906,30 +6897,30 @@
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B182" s="2">
-        <v>46005.29821759259</v>
+        <v>46005.32898148148</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>46005.62275462963</v>
+        <v>46005.5246875</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="G182" s="2">
-        <v>15.16</v>
+        <v>21.2</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -6938,30 +6929,30 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B183" s="2">
-        <v>46005.53042824074</v>
+        <v>46005.39637731481</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>46005.69953703704</v>
+        <v>46005.70855324074</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="G183" s="2">
-        <v>15.16</v>
+        <v>26.8</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
@@ -6970,30 +6961,30 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="B184" s="2">
-        <v>46005.35458333333</v>
+        <v>46005.30765046296</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="2">
-        <v>46005.51023148148</v>
+        <v>46005.68990740741</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="G184" s="2">
-        <v>15.16</v>
+        <v>26.5</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
@@ -7002,30 +6993,30 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="B185" s="2">
-        <v>46005.34377314815</v>
+        <v>46005.49953703704</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>46005.71012731481</v>
+        <v>46005.8092824074</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G185" s="2">
-        <v>15.16</v>
+        <v>31.26</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -7034,30 +7025,30 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="B186" s="2">
-        <v>46005.61377314815</v>
+        <v>46005.31094907408</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>46005.9492824074</v>
+        <v>46006.08258101852</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G186" s="2">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
@@ -7066,30 +7057,30 @@
         <v>0</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="B187" s="2">
-        <v>46005.50641203704</v>
+        <v>46005.50355324074</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>46005.83427083334</v>
+        <v>46005.70107638889</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G187" s="2">
-        <v>19</v>
+        <v>30.78</v>
       </c>
       <c r="H187" s="2">
         <v>0</v>
@@ -7098,30 +7089,30 @@
         <v>0</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B188" s="2">
-        <v>46005.29453703704</v>
+        <v>46005.32592592593</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>46005.67627314815</v>
+        <v>46005.72971064815</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G188" s="2">
-        <v>20</v>
+        <v>30.78</v>
       </c>
       <c r="H188" s="2">
         <v>0</v>
@@ -7130,30 +7121,30 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B189" s="2">
-        <v>46005.3483912037</v>
+        <v>46005.32487268518</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="2">
-        <v>46005.54907407407</v>
+        <v>46005.74155092592</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G189" s="2">
-        <v>26.1</v>
+        <v>32.59</v>
       </c>
       <c r="H189" s="2">
         <v>0</v>
@@ -7162,26 +7153,30 @@
         <v>0</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B190" s="2">
-        <v>46005.9459375</v>
+        <v>46005.32924768519</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="D190" s="2">
+        <v>46005.77046296297</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="G190" s="2">
-        <v>19.34</v>
+        <v>30.78</v>
       </c>
       <c r="H190" s="2">
         <v>0</v>
@@ -7190,30 +7185,30 @@
         <v>0</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B191" s="2">
-        <v>46005.31106481481</v>
+        <v>46005.39207175926</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>46005.63204861111</v>
+        <v>46005.61192129629</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="G191" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H191" s="2">
         <v>0</v>
@@ -7222,30 +7217,30 @@
         <v>0</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B192" s="2">
-        <v>46005.7075</v>
+        <v>46005.30553240741</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D192" s="2">
-        <v>46006.13719907407</v>
+        <v>46005.71337962963</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="G192" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -7254,30 +7249,30 @@
         <v>0</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="2" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B193" s="2">
-        <v>46005.3656712963</v>
+        <v>46005.33388888889</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>46005.69581018519</v>
+        <v>46005.67109953704</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G193" s="2">
-        <v>20</v>
+        <v>26.75</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -7286,30 +7281,30 @@
         <v>0</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="2" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B194" s="2">
-        <v>46005.3399537037</v>
+        <v>46005.32471064815</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="2">
-        <v>46005.6143287037</v>
+        <v>46005.65981481481</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="G194" s="2">
-        <v>20</v>
+        <v>28.4</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -7318,30 +7313,30 @@
         <v>0</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="2" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B195" s="2">
-        <v>46005.3256712963</v>
+        <v>46005.33226851852</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D195" s="2">
-        <v>46005.75055555555</v>
+        <v>46005.66791666667</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="G195" s="2">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="H195" s="2">
         <v>0</v>
@@ -7350,1087 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B196" s="2">
-        <v>46005.3275</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="2">
-        <v>46005.45434027778</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G196" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H196" s="2">
-        <v>0</v>
-      </c>
-      <c r="I196" s="2">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B197" s="2">
-        <v>46005.50346064815</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D197" s="2">
-        <v>46005.67560185185</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G197" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B198" s="2">
-        <v>46005.3358912037</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2">
-        <v>46005.50011574074</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G198" s="2">
-        <v>17</v>
-      </c>
-      <c r="H198" s="2">
-        <v>0</v>
-      </c>
-      <c r="I198" s="2">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B199" s="2">
-        <v>46005.32503472222</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="2">
-        <v>46005.51225694444</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G199" s="2">
-        <v>20</v>
-      </c>
-      <c r="H199" s="2">
-        <v>0</v>
-      </c>
-      <c r="I199" s="2">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B200" s="2">
-        <v>46005.31180555555</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2">
-        <v>46005.45881944444</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G200" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B201" s="2">
-        <v>46005.53085648148</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D201" s="2">
-        <v>46005.68796296296</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G201" s="2">
-        <v>22.88</v>
-      </c>
-      <c r="H201" s="2">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B202" s="2">
-        <v>46005.33495370371</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2">
-        <v>46005.50557870371</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G202" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B203" s="2">
-        <v>46005.52744212963</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D203" s="2">
-        <v>46005.67925925926</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G203" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B204" s="2">
-        <v>46005.33621527778</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="2">
-        <v>46005.50627314814</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G204" s="2">
-        <v>22.88</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B205" s="2">
-        <v>46005.33180555556</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2">
-        <v>46005.50143518519</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G205" s="2">
-        <v>18</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B206" s="2">
-        <v>46005.54230324074</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D206" s="2">
-        <v>46005.68502314815</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G206" s="2">
-        <v>18</v>
-      </c>
-      <c r="H206" s="2">
-        <v>0</v>
-      </c>
-      <c r="I206" s="2">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B207" s="2">
-        <v>46005.33113425926</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="2">
-        <v>46005.53986111111</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G207" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H207" s="2">
-        <v>0</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B208" s="2">
-        <v>46005.31846064814</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2">
-        <v>46005.50540509259</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G208" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B209" s="2">
-        <v>46005.53427083333</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D209" s="2">
-        <v>46005.68532407407</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G209" s="2">
-        <v>20</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B210" s="2">
-        <v>46005.52982638889</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D210" s="2">
-        <v>46005.67466435185</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G210" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H210" s="2">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B211" s="2">
-        <v>46005.32902777778</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="2">
-        <v>46005.50047453704</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G211" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B212" s="2">
-        <v>46005.52927083334</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D212" s="2">
-        <v>46005.61378472222</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G212" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H212" s="2">
-        <v>0</v>
-      </c>
-      <c r="I212" s="2">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B213" s="2">
-        <v>46005.33267361111</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" s="2">
-        <v>46005.5453125</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G213" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H213" s="2">
-        <v>0</v>
-      </c>
-      <c r="I213" s="2">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B214" s="2">
-        <v>46005.33277777778</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2">
-        <v>46005.54508101852</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G214" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H214" s="2">
-        <v>0</v>
-      </c>
-      <c r="I214" s="2">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B215" s="2">
-        <v>46005.50539351852</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D215" s="2">
-        <v>46005.76263888889</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G215" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H215" s="2">
-        <v>0</v>
-      </c>
-      <c r="I215" s="2">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B216" s="2">
-        <v>46005.27034722222</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="2">
-        <v>46005.48380787037</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G216" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H216" s="2">
-        <v>0</v>
-      </c>
-      <c r="I216" s="2">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B217" s="2">
-        <v>46005.27148148148</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2">
-        <v>46005.59637731482</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G217" s="2">
-        <v>26</v>
-      </c>
-      <c r="H217" s="2">
-        <v>0</v>
-      </c>
-      <c r="I217" s="2">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B218" s="2">
-        <v>46005.33467592593</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2">
-        <v>46005.50943287037</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G218" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H218" s="2">
-        <v>0</v>
-      </c>
-      <c r="I218" s="2">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="A219" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B219" s="2">
-        <v>46005.56388888889</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G219" s="2">
-        <v>25</v>
-      </c>
-      <c r="H219" s="2">
-        <v>0</v>
-      </c>
-      <c r="I219" s="2">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" s="2">
-        <v>46005.52946759259</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D220" s="2">
-        <v>46005.6944212963</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G220" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H220" s="2">
-        <v>0</v>
-      </c>
-      <c r="I220" s="2">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B221" s="2">
-        <v>46005.33729166666</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="2">
-        <v>46005.54204861111</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G221" s="2">
-        <v>25</v>
-      </c>
-      <c r="H221" s="2">
-        <v>0</v>
-      </c>
-      <c r="I221" s="2">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B222" s="2">
-        <v>46005.64649305555</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D222" s="2">
-        <v>46005.74630787037</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G222" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H222" s="2">
-        <v>0</v>
-      </c>
-      <c r="I222" s="2">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B223" s="2">
-        <v>46005.74635416667</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D223" s="2">
-        <v>46005.74636574074</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G223" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H223" s="2">
-        <v>0</v>
-      </c>
-      <c r="I223" s="2">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B224" s="2">
-        <v>46005.349375</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D224" s="2">
-        <v>46005.68822916667</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G224" s="2">
-        <v>24.25</v>
-      </c>
-      <c r="H224" s="2">
-        <v>0</v>
-      </c>
-      <c r="I224" s="2">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B225" s="2">
-        <v>46005.36043981482</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="2">
-        <v>46005.52415509259</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G225" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H225" s="2">
-        <v>0</v>
-      </c>
-      <c r="I225" s="2">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B226" s="2">
-        <v>46005.57803240741</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="2">
-        <v>46005.62344907408</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G226" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H226" s="2">
-        <v>0</v>
-      </c>
-      <c r="I226" s="2">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B227" s="2">
-        <v>46005.3437962963</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G227" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H227" s="2">
-        <v>0</v>
-      </c>
-      <c r="I227" s="2">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B228" s="2">
-        <v>46005.30802083333</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D228" s="2">
-        <v>46005.65225694444</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G228" s="2">
-        <v>19.57</v>
-      </c>
-      <c r="H228" s="2">
-        <v>0</v>
-      </c>
-      <c r="I228" s="2">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B229" s="2">
-        <v>46005.44608796296</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="2">
-        <v>46005.63825231481</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G229" s="2">
-        <v>0</v>
-      </c>
-      <c r="H229" s="2">
-        <v>0</v>
-      </c>
-      <c r="I229" s="2">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
